--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$87</definedName>
     <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$T$4:$T$12</definedName>
-    <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$12</definedName>
+    <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
     <definedName name="VI_TRI">'Thành viên - Vị trí'!$T$3:$T$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
   <si>
     <t>GVCM</t>
   </si>
@@ -385,9 +385,6 @@
     <t>Nguyễn Ngọc Minh</t>
   </si>
   <si>
-    <t>Nguyễn Thị Luyến</t>
-  </si>
-  <si>
     <t>Vũ Quốc UY</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>MinhNN</t>
   </si>
   <si>
-    <t>LuyenNT</t>
-  </si>
-  <si>
     <t>UyVQ</t>
   </si>
   <si>
@@ -584,6 +578,15 @@
   </si>
   <si>
     <t>Làm được 1 form có chức năng view Grid, thêm, sửa, xóa dùng IPCore</t>
+  </si>
+  <si>
+    <t>Buổi 3</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Trịnh</t>
+  </si>
+  <si>
+    <t>TrinhNV</t>
   </si>
 </sst>
 </file>
@@ -925,7 +928,117 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2535,13 +2648,13 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2655,7 +2768,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>48</v>
@@ -2664,7 +2777,7 @@
         <v>48</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2755,7 +2868,7 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>53</v>
@@ -2776,10 +2889,10 @@
       <c r="J13" s="22"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2872,7 +2985,7 @@
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>53</v>
@@ -2892,7 +3005,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>48</v>
@@ -2907,7 +3020,7 @@
         <v>48</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2997,7 +3110,7 @@
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3100,7 +3213,7 @@
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3209,7 +3322,7 @@
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -3318,7 +3431,7 @@
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -3427,7 +3540,7 @@
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -3530,7 +3643,7 @@
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -4281,7 +4394,7 @@
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -4812,7 +4925,7 @@
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -4915,7 +5028,7 @@
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -5024,7 +5137,7 @@
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -5133,7 +5246,7 @@
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -5452,7 +5565,7 @@
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -5561,7 +5674,7 @@
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -5670,7 +5783,7 @@
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -5779,7 +5892,7 @@
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -5888,7 +6001,7 @@
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -5997,7 +6110,7 @@
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -6106,7 +6219,7 @@
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -6215,7 +6328,7 @@
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -6324,7 +6437,7 @@
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -10799,33 +10912,33 @@
     <filterColumn colId="3"/>
   </autoFilter>
   <conditionalFormatting sqref="K86:AX86 K51:BE51 K53:BE84 K38:BE49 K20:BE36 K11:BE14 K16:BE18 BH16:CS84">
-    <cfRule type="cellIs" dxfId="6" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:BE51 K53:BE84 K38:BE49 K20:BE36 K11:BE14 K16:BE18 BH16:CS84">
-    <cfRule type="cellIs" dxfId="3" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 H53:H84 H28:H36 H16:H18 H11:H14 H20:H26 H38:H49">
-    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H14 H16:H18 H28:H36 H51 H53:H84 H20:H26 H39:H49">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="16" priority="31">
       <formula>AND(H11&lt;&gt;$G$5,$G11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(H38&lt;&gt;$G$5,$G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10847,10 +10960,10 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10872,25 +10985,25 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
       <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
         <v>134</v>
-      </c>
-      <c r="I1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="60">
@@ -10901,32 +11014,34 @@
         <v>66</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="55"/>
+        <v>119</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>138</v>
+      </c>
       <c r="H2" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I2" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="K2" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="54" t="s">
         <v>137</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>139</v>
       </c>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
@@ -10937,13 +11052,13 @@
         <v>38</v>
       </c>
       <c r="T2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="42" t="s">
-        <v>78</v>
-      </c>
       <c r="V2" s="53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -10957,20 +11072,30 @@
         <v>53</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="G3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="41"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -10980,10 +11105,10 @@
         <v>1</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -10994,21 +11119,21 @@
         <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -11018,13 +11143,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -11035,23 +11160,29 @@
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="G5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41" t="s">
+        <v>10</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -11061,13 +11192,13 @@
         <v>3</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -11078,23 +11209,25 @@
         <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="G6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -11104,13 +11237,13 @@
         <v>4</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -11121,21 +11254,25 @@
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -11145,38 +11282,40 @@
         <v>5</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="F8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -11186,40 +11325,44 @@
         <v>6</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -11228,29 +11371,27 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -11258,28 +11399,32 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="41">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
+      <c r="A11" s="51">
+        <v>10</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>117</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="G11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -11288,27 +11433,27 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="51">
+        <v>11</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -11325,13 +11470,48 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="T14:U14"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:G11">
+    <cfRule type="containsBlanks" dxfId="13" priority="7">
+      <formula>LEN(TRIM(E3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:K11">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="containsBlanks" dxfId="9" priority="5">
+      <formula>LEN(TRIM(H3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="containsBlanks" dxfId="7" priority="4">
+      <formula>LEN(TRIM(L5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
+      <formula>LEN(TRIM(L7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(L6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:L12">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(E12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11">
       <formula1>VI_TRI</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -1663,7 +1663,7 @@
   <dimension ref="A1:CS87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
@@ -10963,7 +10963,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Quyết toán" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BG$87</definedName>
     <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$T$4:$T$12</definedName>
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
     <definedName name="VI_TRI">'Thành viên - Vị trí'!$T$3:$T$10</definedName>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="145">
   <si>
     <t>GVCM</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Công việc</t>
   </si>
   <si>
-    <t>Người phụ trách</t>
-  </si>
-  <si>
     <t>Hệ số</t>
   </si>
   <si>
@@ -478,18 +475,12 @@
     <t>Theo dõi các hợp đồng giảng viên</t>
   </si>
   <si>
-    <t>Theo dõi các quá trình thanh toán của giảng viên</t>
-  </si>
-  <si>
     <t>Báo cáo chi tiết thanh toán của từng giảng viên (theo từng lớp môn)</t>
   </si>
   <si>
     <t>Tìm kiếm thông minh giao dịch thanh toán theo Reference code</t>
   </si>
   <si>
-    <t>Thêm mới một công việc giảng viên có tham gia</t>
-  </si>
-  <si>
     <t>Báo cáo công việc / sự kiện giảng thực hiện / tham gia theo tháng</t>
   </si>
   <si>
@@ -587,6 +578,27 @@
   </si>
   <si>
     <t>TrinhNV</t>
+  </si>
+  <si>
+    <t>Tìm kiếm lịch sử thanh  toán của GV theo tên và trạng thái đợt thanh toán</t>
+  </si>
+  <si>
+    <t>F702</t>
+  </si>
+  <si>
+    <t>Theo dõi các quá trình thanh toán của giảng viên (ELC + Topica)</t>
+  </si>
+  <si>
+    <t>Thêm dữ liệu công việc giảng viên mới vào CSDL</t>
+  </si>
+  <si>
+    <t>Assign công</t>
+  </si>
+  <si>
+    <t>Người phụ trách</t>
+  </si>
+  <si>
+    <t>Người thiết kế</t>
   </si>
 </sst>
 </file>
@@ -928,117 +940,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1102,6 +1004,55 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1541,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1556,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1571,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1585,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1660,13 +1611,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CS87"/>
+  <dimension ref="A1:CT87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="10" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,479 +1625,488 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="48" style="31" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="97" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="98" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:98">
       <c r="C1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:97">
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:98">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="16">
-        <f t="shared" ref="D2:D7" si="0">SUMIF($D$10:$D$85,C2,$E$10:$E$85)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16">
+        <f t="shared" ref="E2:E7" si="0">SUMIF($E$10:$E$85,C2,$F$10:$F$85)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="L2" s="38"/>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:97">
+      <c r="J2" s="15"/>
+      <c r="M2" s="38"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:98">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="16">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="1:97">
+      <c r="J3" s="15"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:98">
       <c r="B4" s="40"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="16">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:97">
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:98">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="16">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:97">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:98">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="16">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="40"/>
-      <c r="L6" s="40"/>
-    </row>
-    <row r="7" spans="1:97">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:98">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="16">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:97" s="34" customFormat="1">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:98" s="34" customFormat="1">
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="K8" s="34">
-        <f>K9</f>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="L8" s="34">
+        <f>L9</f>
         <v>41030</v>
       </c>
-      <c r="L8" s="34">
-        <f t="shared" ref="L8:BW8" si="1">L9</f>
+      <c r="M8" s="34">
+        <f t="shared" ref="M8:BX8" si="1">M9</f>
         <v>41031</v>
       </c>
-      <c r="M8" s="34">
+      <c r="N8" s="34">
         <f t="shared" si="1"/>
         <v>41032</v>
       </c>
-      <c r="N8" s="34">
+      <c r="O8" s="34">
         <f t="shared" si="1"/>
         <v>41033</v>
       </c>
-      <c r="O8" s="34">
+      <c r="P8" s="34">
         <f t="shared" si="1"/>
         <v>41034</v>
       </c>
-      <c r="P8" s="34">
+      <c r="Q8" s="34">
         <f t="shared" si="1"/>
         <v>41035</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="R8" s="34">
         <f t="shared" si="1"/>
         <v>41036</v>
       </c>
-      <c r="R8" s="34">
+      <c r="S8" s="34">
         <f t="shared" si="1"/>
         <v>41037</v>
       </c>
-      <c r="S8" s="34">
+      <c r="T8" s="34">
         <f t="shared" si="1"/>
         <v>41038</v>
       </c>
-      <c r="T8" s="34">
+      <c r="U8" s="34">
         <f t="shared" si="1"/>
         <v>41039</v>
       </c>
-      <c r="U8" s="34">
+      <c r="V8" s="34">
         <f t="shared" si="1"/>
         <v>41040</v>
       </c>
-      <c r="V8" s="34">
+      <c r="W8" s="34">
         <f t="shared" si="1"/>
         <v>41041</v>
       </c>
-      <c r="W8" s="34">
+      <c r="X8" s="34">
         <f t="shared" si="1"/>
         <v>41042</v>
       </c>
-      <c r="X8" s="34">
+      <c r="Y8" s="34">
         <f t="shared" si="1"/>
         <v>41043</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Z8" s="34">
         <f t="shared" si="1"/>
         <v>41044</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="AA8" s="34">
         <f t="shared" si="1"/>
         <v>41045</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AB8" s="34">
         <f t="shared" si="1"/>
         <v>41046</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AC8" s="34">
         <f t="shared" si="1"/>
         <v>41047</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AD8" s="34">
         <f t="shared" si="1"/>
         <v>41048</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AE8" s="34">
         <f t="shared" si="1"/>
         <v>41049</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AF8" s="34">
         <f t="shared" si="1"/>
         <v>41050</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AG8" s="34">
         <f t="shared" si="1"/>
         <v>41051</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AH8" s="34">
         <f t="shared" si="1"/>
         <v>41052</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AI8" s="34">
         <f t="shared" si="1"/>
         <v>41053</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AJ8" s="34">
         <f t="shared" si="1"/>
         <v>41054</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AK8" s="34">
         <f t="shared" si="1"/>
         <v>41055</v>
       </c>
-      <c r="AK8" s="34">
+      <c r="AL8" s="34">
         <f t="shared" si="1"/>
         <v>41056</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AM8" s="34">
         <f t="shared" si="1"/>
         <v>41057</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AN8" s="34">
         <f t="shared" si="1"/>
         <v>41058</v>
       </c>
-      <c r="AN8" s="34">
+      <c r="AO8" s="34">
         <f t="shared" si="1"/>
         <v>41059</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="AP8" s="34">
         <f t="shared" si="1"/>
         <v>41060</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AQ8" s="34">
         <f t="shared" si="1"/>
         <v>41061</v>
       </c>
-      <c r="AQ8" s="34">
+      <c r="AR8" s="34">
         <f t="shared" si="1"/>
         <v>41062</v>
       </c>
-      <c r="AR8" s="34">
+      <c r="AS8" s="34">
         <f t="shared" si="1"/>
         <v>41063</v>
       </c>
-      <c r="AS8" s="34">
+      <c r="AT8" s="34">
         <f t="shared" si="1"/>
         <v>41064</v>
       </c>
-      <c r="AT8" s="34">
+      <c r="AU8" s="34">
         <f t="shared" si="1"/>
         <v>41065</v>
       </c>
-      <c r="AU8" s="34">
+      <c r="AV8" s="34">
         <f t="shared" si="1"/>
         <v>41066</v>
       </c>
-      <c r="AV8" s="34">
+      <c r="AW8" s="34">
         <f t="shared" si="1"/>
         <v>41067</v>
       </c>
-      <c r="AW8" s="34">
+      <c r="AX8" s="34">
         <f t="shared" si="1"/>
         <v>41068</v>
       </c>
-      <c r="AX8" s="34">
+      <c r="AY8" s="34">
         <f t="shared" si="1"/>
         <v>41069</v>
       </c>
-      <c r="AY8" s="34">
+      <c r="AZ8" s="34">
         <f t="shared" si="1"/>
         <v>41070</v>
       </c>
-      <c r="AZ8" s="34">
+      <c r="BA8" s="34">
         <f t="shared" si="1"/>
         <v>41071</v>
       </c>
-      <c r="BA8" s="34">
+      <c r="BB8" s="34">
         <f t="shared" si="1"/>
         <v>41072</v>
       </c>
-      <c r="BB8" s="34">
+      <c r="BC8" s="34">
         <f t="shared" si="1"/>
         <v>41073</v>
       </c>
-      <c r="BC8" s="34">
+      <c r="BD8" s="34">
         <f t="shared" si="1"/>
         <v>41074</v>
       </c>
-      <c r="BD8" s="34">
+      <c r="BE8" s="34">
         <f t="shared" si="1"/>
         <v>41075</v>
       </c>
-      <c r="BE8" s="34">
+      <c r="BF8" s="34">
         <f t="shared" si="1"/>
         <v>41076</v>
       </c>
-      <c r="BF8" s="34">
+      <c r="BG8" s="34">
         <f t="shared" si="1"/>
         <v>41077</v>
       </c>
-      <c r="BG8" s="34">
+      <c r="BH8" s="34">
         <f t="shared" si="1"/>
         <v>41078</v>
       </c>
-      <c r="BH8" s="34">
+      <c r="BI8" s="34">
         <f t="shared" si="1"/>
         <v>41079</v>
       </c>
-      <c r="BI8" s="34">
+      <c r="BJ8" s="34">
         <f t="shared" si="1"/>
         <v>41080</v>
       </c>
-      <c r="BJ8" s="34">
+      <c r="BK8" s="34">
         <f t="shared" si="1"/>
         <v>41081</v>
       </c>
-      <c r="BK8" s="34">
+      <c r="BL8" s="34">
         <f t="shared" si="1"/>
         <v>41082</v>
       </c>
-      <c r="BL8" s="34">
+      <c r="BM8" s="34">
         <f t="shared" si="1"/>
         <v>41083</v>
       </c>
-      <c r="BM8" s="34">
+      <c r="BN8" s="34">
         <f t="shared" si="1"/>
         <v>41084</v>
       </c>
-      <c r="BN8" s="34">
+      <c r="BO8" s="34">
         <f t="shared" si="1"/>
         <v>41085</v>
       </c>
-      <c r="BO8" s="34">
+      <c r="BP8" s="34">
         <f t="shared" si="1"/>
         <v>41086</v>
       </c>
-      <c r="BP8" s="34">
+      <c r="BQ8" s="34">
         <f t="shared" si="1"/>
         <v>41087</v>
       </c>
-      <c r="BQ8" s="34">
+      <c r="BR8" s="34">
         <f t="shared" si="1"/>
         <v>41088</v>
       </c>
-      <c r="BR8" s="34">
+      <c r="BS8" s="34">
         <f t="shared" si="1"/>
         <v>41089</v>
       </c>
-      <c r="BS8" s="34">
+      <c r="BT8" s="34">
         <f t="shared" si="1"/>
         <v>41090</v>
       </c>
-      <c r="BT8" s="34">
+      <c r="BU8" s="34">
         <f t="shared" si="1"/>
         <v>41091</v>
       </c>
-      <c r="BU8" s="34">
+      <c r="BV8" s="34">
         <f t="shared" si="1"/>
         <v>41092</v>
       </c>
-      <c r="BV8" s="34">
+      <c r="BW8" s="34">
         <f t="shared" si="1"/>
         <v>41093</v>
       </c>
-      <c r="BW8" s="34">
+      <c r="BX8" s="34">
         <f t="shared" si="1"/>
         <v>41094</v>
       </c>
-      <c r="BX8" s="34">
-        <f t="shared" ref="BX8:CS8" si="2">BX9</f>
+      <c r="BY8" s="34">
+        <f t="shared" ref="BY8:CT8" si="2">BY9</f>
         <v>41095</v>
       </c>
-      <c r="BY8" s="34">
+      <c r="BZ8" s="34">
         <f t="shared" si="2"/>
         <v>41096</v>
       </c>
-      <c r="BZ8" s="34">
+      <c r="CA8" s="34">
         <f t="shared" si="2"/>
         <v>41097</v>
       </c>
-      <c r="CA8" s="34">
+      <c r="CB8" s="34">
         <f t="shared" si="2"/>
         <v>41098</v>
       </c>
-      <c r="CB8" s="34">
+      <c r="CC8" s="34">
         <f t="shared" si="2"/>
         <v>41099</v>
       </c>
-      <c r="CC8" s="34">
+      <c r="CD8" s="34">
         <f t="shared" si="2"/>
         <v>41100</v>
       </c>
-      <c r="CD8" s="34">
+      <c r="CE8" s="34">
         <f t="shared" si="2"/>
         <v>41101</v>
       </c>
-      <c r="CE8" s="34">
+      <c r="CF8" s="34">
         <f t="shared" si="2"/>
         <v>41102</v>
       </c>
-      <c r="CF8" s="34">
+      <c r="CG8" s="34">
         <f t="shared" si="2"/>
         <v>41103</v>
       </c>
-      <c r="CG8" s="34">
+      <c r="CH8" s="34">
         <f t="shared" si="2"/>
         <v>41104</v>
       </c>
-      <c r="CH8" s="34">
+      <c r="CI8" s="34">
         <f t="shared" si="2"/>
         <v>41105</v>
       </c>
-      <c r="CI8" s="34">
+      <c r="CJ8" s="34">
         <f t="shared" si="2"/>
         <v>41106</v>
       </c>
-      <c r="CJ8" s="34">
+      <c r="CK8" s="34">
         <f t="shared" si="2"/>
         <v>41107</v>
       </c>
-      <c r="CK8" s="34">
+      <c r="CL8" s="34">
         <f t="shared" si="2"/>
         <v>41108</v>
       </c>
-      <c r="CL8" s="34">
+      <c r="CM8" s="34">
         <f t="shared" si="2"/>
         <v>41109</v>
       </c>
-      <c r="CM8" s="34">
+      <c r="CN8" s="34">
         <f t="shared" si="2"/>
         <v>41110</v>
       </c>
-      <c r="CN8" s="34">
+      <c r="CO8" s="34">
         <f t="shared" si="2"/>
         <v>41111</v>
       </c>
-      <c r="CO8" s="34">
+      <c r="CP8" s="34">
         <f t="shared" si="2"/>
         <v>41112</v>
       </c>
-      <c r="CP8" s="34">
+      <c r="CQ8" s="34">
         <f t="shared" si="2"/>
         <v>41113</v>
       </c>
-      <c r="CQ8" s="34">
+      <c r="CR8" s="34">
         <f t="shared" si="2"/>
         <v>41114</v>
       </c>
-      <c r="CR8" s="34">
+      <c r="CS8" s="34">
         <f t="shared" si="2"/>
         <v>41115</v>
       </c>
-      <c r="CS8" s="34">
+      <c r="CT8" s="34">
         <f t="shared" si="2"/>
         <v>41116</v>
       </c>
     </row>
-    <row r="9" spans="1:97" s="18" customFormat="1" ht="30">
+    <row r="9" spans="1:98" s="18" customFormat="1" ht="30">
       <c r="B9" s="19" t="s">
         <v>38</v>
       </c>
@@ -2154,378 +2114,381 @@
         <v>39</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="K9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="L9" s="19">
         <v>41030</v>
       </c>
-      <c r="L9" s="19">
-        <f>K9+1</f>
+      <c r="M9" s="19">
+        <f>L9+1</f>
         <v>41031</v>
       </c>
-      <c r="M9" s="19">
-        <f t="shared" ref="M9:BE9" si="3">L9+1</f>
+      <c r="N9" s="19">
+        <f t="shared" ref="N9:BF9" si="3">M9+1</f>
         <v>41032</v>
       </c>
-      <c r="N9" s="19">
+      <c r="O9" s="19">
         <f t="shared" si="3"/>
         <v>41033</v>
       </c>
-      <c r="O9" s="19">
+      <c r="P9" s="19">
         <f t="shared" si="3"/>
         <v>41034</v>
       </c>
-      <c r="P9" s="19">
+      <c r="Q9" s="19">
         <f t="shared" si="3"/>
         <v>41035</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="R9" s="19">
         <f t="shared" si="3"/>
         <v>41036</v>
       </c>
-      <c r="R9" s="19">
+      <c r="S9" s="19">
         <f t="shared" si="3"/>
         <v>41037</v>
       </c>
-      <c r="S9" s="19">
+      <c r="T9" s="19">
         <f t="shared" si="3"/>
         <v>41038</v>
       </c>
-      <c r="T9" s="19">
+      <c r="U9" s="19">
         <f t="shared" si="3"/>
         <v>41039</v>
       </c>
-      <c r="U9" s="19">
+      <c r="V9" s="19">
         <f t="shared" si="3"/>
         <v>41040</v>
       </c>
-      <c r="V9" s="19">
+      <c r="W9" s="19">
         <f t="shared" si="3"/>
         <v>41041</v>
       </c>
-      <c r="W9" s="19">
+      <c r="X9" s="19">
         <f t="shared" si="3"/>
         <v>41042</v>
       </c>
-      <c r="X9" s="19">
+      <c r="Y9" s="19">
         <f t="shared" si="3"/>
         <v>41043</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Z9" s="19">
         <f t="shared" si="3"/>
         <v>41044</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="AA9" s="19">
         <f t="shared" si="3"/>
         <v>41045</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AB9" s="19">
         <f t="shared" si="3"/>
         <v>41046</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AC9" s="19">
         <f t="shared" si="3"/>
         <v>41047</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AD9" s="19">
         <f t="shared" si="3"/>
         <v>41048</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AE9" s="19">
         <f t="shared" si="3"/>
         <v>41049</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AF9" s="19">
         <f t="shared" si="3"/>
         <v>41050</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AG9" s="19">
         <f t="shared" si="3"/>
         <v>41051</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AH9" s="19">
         <f t="shared" si="3"/>
         <v>41052</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AI9" s="19">
         <f t="shared" si="3"/>
         <v>41053</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AJ9" s="19">
         <f t="shared" si="3"/>
         <v>41054</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AK9" s="19">
         <f t="shared" si="3"/>
         <v>41055</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AL9" s="19">
         <f t="shared" si="3"/>
         <v>41056</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AM9" s="19">
         <f t="shared" si="3"/>
         <v>41057</v>
       </c>
-      <c r="AM9" s="19">
+      <c r="AN9" s="19">
         <f t="shared" si="3"/>
         <v>41058</v>
       </c>
-      <c r="AN9" s="19">
+      <c r="AO9" s="19">
         <f t="shared" si="3"/>
         <v>41059</v>
       </c>
-      <c r="AO9" s="19">
+      <c r="AP9" s="19">
         <f t="shared" si="3"/>
         <v>41060</v>
       </c>
-      <c r="AP9" s="19">
+      <c r="AQ9" s="19">
         <f t="shared" si="3"/>
         <v>41061</v>
       </c>
-      <c r="AQ9" s="19">
+      <c r="AR9" s="19">
         <f t="shared" si="3"/>
         <v>41062</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="AS9" s="19">
         <f t="shared" si="3"/>
         <v>41063</v>
       </c>
-      <c r="AS9" s="19">
+      <c r="AT9" s="19">
         <f t="shared" si="3"/>
         <v>41064</v>
       </c>
-      <c r="AT9" s="19">
+      <c r="AU9" s="19">
         <f t="shared" si="3"/>
         <v>41065</v>
       </c>
-      <c r="AU9" s="19">
+      <c r="AV9" s="19">
         <f t="shared" si="3"/>
         <v>41066</v>
       </c>
-      <c r="AV9" s="19">
+      <c r="AW9" s="19">
         <f t="shared" si="3"/>
         <v>41067</v>
       </c>
-      <c r="AW9" s="19">
+      <c r="AX9" s="19">
         <f t="shared" si="3"/>
         <v>41068</v>
       </c>
-      <c r="AX9" s="19">
+      <c r="AY9" s="19">
         <f t="shared" si="3"/>
         <v>41069</v>
       </c>
-      <c r="AY9" s="19">
+      <c r="AZ9" s="19">
         <f t="shared" si="3"/>
         <v>41070</v>
       </c>
-      <c r="AZ9" s="19">
+      <c r="BA9" s="19">
         <f t="shared" si="3"/>
         <v>41071</v>
       </c>
-      <c r="BA9" s="19">
+      <c r="BB9" s="19">
         <f t="shared" si="3"/>
         <v>41072</v>
       </c>
-      <c r="BB9" s="19">
+      <c r="BC9" s="19">
         <f t="shared" si="3"/>
         <v>41073</v>
       </c>
-      <c r="BC9" s="19">
+      <c r="BD9" s="19">
         <f t="shared" si="3"/>
         <v>41074</v>
       </c>
-      <c r="BD9" s="19">
+      <c r="BE9" s="19">
         <f t="shared" si="3"/>
         <v>41075</v>
       </c>
-      <c r="BE9" s="19">
+      <c r="BF9" s="19">
         <f t="shared" si="3"/>
         <v>41076</v>
       </c>
-      <c r="BF9" s="19">
-        <f t="shared" ref="BF9" si="4">BE9+1</f>
+      <c r="BG9" s="19">
+        <f t="shared" ref="BG9" si="4">BF9+1</f>
         <v>41077</v>
       </c>
-      <c r="BG9" s="19">
-        <f t="shared" ref="BG9" si="5">BF9+1</f>
+      <c r="BH9" s="19">
+        <f t="shared" ref="BH9" si="5">BG9+1</f>
         <v>41078</v>
       </c>
-      <c r="BH9" s="19">
-        <f t="shared" ref="BH9" si="6">BG9+1</f>
+      <c r="BI9" s="19">
+        <f t="shared" ref="BI9" si="6">BH9+1</f>
         <v>41079</v>
       </c>
-      <c r="BI9" s="19">
-        <f t="shared" ref="BI9" si="7">BH9+1</f>
+      <c r="BJ9" s="19">
+        <f t="shared" ref="BJ9" si="7">BI9+1</f>
         <v>41080</v>
       </c>
-      <c r="BJ9" s="19">
-        <f t="shared" ref="BJ9" si="8">BI9+1</f>
+      <c r="BK9" s="19">
+        <f t="shared" ref="BK9" si="8">BJ9+1</f>
         <v>41081</v>
       </c>
-      <c r="BK9" s="19">
-        <f t="shared" ref="BK9" si="9">BJ9+1</f>
+      <c r="BL9" s="19">
+        <f t="shared" ref="BL9" si="9">BK9+1</f>
         <v>41082</v>
       </c>
-      <c r="BL9" s="19">
-        <f t="shared" ref="BL9" si="10">BK9+1</f>
+      <c r="BM9" s="19">
+        <f t="shared" ref="BM9" si="10">BL9+1</f>
         <v>41083</v>
       </c>
-      <c r="BM9" s="19">
-        <f t="shared" ref="BM9" si="11">BL9+1</f>
+      <c r="BN9" s="19">
+        <f t="shared" ref="BN9" si="11">BM9+1</f>
         <v>41084</v>
       </c>
-      <c r="BN9" s="19">
-        <f t="shared" ref="BN9" si="12">BM9+1</f>
+      <c r="BO9" s="19">
+        <f t="shared" ref="BO9" si="12">BN9+1</f>
         <v>41085</v>
       </c>
-      <c r="BO9" s="19">
-        <f t="shared" ref="BO9" si="13">BN9+1</f>
+      <c r="BP9" s="19">
+        <f t="shared" ref="BP9" si="13">BO9+1</f>
         <v>41086</v>
       </c>
-      <c r="BP9" s="19">
-        <f t="shared" ref="BP9" si="14">BO9+1</f>
+      <c r="BQ9" s="19">
+        <f t="shared" ref="BQ9" si="14">BP9+1</f>
         <v>41087</v>
       </c>
-      <c r="BQ9" s="19">
-        <f t="shared" ref="BQ9" si="15">BP9+1</f>
+      <c r="BR9" s="19">
+        <f t="shared" ref="BR9" si="15">BQ9+1</f>
         <v>41088</v>
       </c>
-      <c r="BR9" s="19">
-        <f t="shared" ref="BR9" si="16">BQ9+1</f>
+      <c r="BS9" s="19">
+        <f t="shared" ref="BS9" si="16">BR9+1</f>
         <v>41089</v>
       </c>
-      <c r="BS9" s="19">
-        <f t="shared" ref="BS9" si="17">BR9+1</f>
+      <c r="BT9" s="19">
+        <f t="shared" ref="BT9" si="17">BS9+1</f>
         <v>41090</v>
       </c>
-      <c r="BT9" s="19">
-        <f t="shared" ref="BT9" si="18">BS9+1</f>
+      <c r="BU9" s="19">
+        <f t="shared" ref="BU9" si="18">BT9+1</f>
         <v>41091</v>
       </c>
-      <c r="BU9" s="19">
-        <f t="shared" ref="BU9" si="19">BT9+1</f>
+      <c r="BV9" s="19">
+        <f t="shared" ref="BV9" si="19">BU9+1</f>
         <v>41092</v>
       </c>
-      <c r="BV9" s="19">
-        <f t="shared" ref="BV9" si="20">BU9+1</f>
+      <c r="BW9" s="19">
+        <f t="shared" ref="BW9" si="20">BV9+1</f>
         <v>41093</v>
       </c>
-      <c r="BW9" s="19">
-        <f t="shared" ref="BW9" si="21">BV9+1</f>
+      <c r="BX9" s="19">
+        <f t="shared" ref="BX9" si="21">BW9+1</f>
         <v>41094</v>
       </c>
-      <c r="BX9" s="19">
-        <f t="shared" ref="BX9" si="22">BW9+1</f>
+      <c r="BY9" s="19">
+        <f t="shared" ref="BY9" si="22">BX9+1</f>
         <v>41095</v>
       </c>
-      <c r="BY9" s="19">
-        <f t="shared" ref="BY9" si="23">BX9+1</f>
+      <c r="BZ9" s="19">
+        <f t="shared" ref="BZ9" si="23">BY9+1</f>
         <v>41096</v>
       </c>
-      <c r="BZ9" s="19">
-        <f t="shared" ref="BZ9" si="24">BY9+1</f>
+      <c r="CA9" s="19">
+        <f t="shared" ref="CA9" si="24">BZ9+1</f>
         <v>41097</v>
       </c>
-      <c r="CA9" s="19">
-        <f t="shared" ref="CA9" si="25">BZ9+1</f>
+      <c r="CB9" s="19">
+        <f t="shared" ref="CB9" si="25">CA9+1</f>
         <v>41098</v>
       </c>
-      <c r="CB9" s="19">
-        <f t="shared" ref="CB9" si="26">CA9+1</f>
+      <c r="CC9" s="19">
+        <f t="shared" ref="CC9" si="26">CB9+1</f>
         <v>41099</v>
       </c>
-      <c r="CC9" s="19">
-        <f t="shared" ref="CC9" si="27">CB9+1</f>
+      <c r="CD9" s="19">
+        <f t="shared" ref="CD9" si="27">CC9+1</f>
         <v>41100</v>
       </c>
-      <c r="CD9" s="19">
-        <f t="shared" ref="CD9" si="28">CC9+1</f>
+      <c r="CE9" s="19">
+        <f t="shared" ref="CE9" si="28">CD9+1</f>
         <v>41101</v>
       </c>
-      <c r="CE9" s="19">
-        <f t="shared" ref="CE9" si="29">CD9+1</f>
+      <c r="CF9" s="19">
+        <f t="shared" ref="CF9" si="29">CE9+1</f>
         <v>41102</v>
       </c>
-      <c r="CF9" s="19">
-        <f t="shared" ref="CF9" si="30">CE9+1</f>
+      <c r="CG9" s="19">
+        <f t="shared" ref="CG9" si="30">CF9+1</f>
         <v>41103</v>
       </c>
-      <c r="CG9" s="19">
-        <f t="shared" ref="CG9" si="31">CF9+1</f>
+      <c r="CH9" s="19">
+        <f t="shared" ref="CH9" si="31">CG9+1</f>
         <v>41104</v>
       </c>
-      <c r="CH9" s="19">
-        <f t="shared" ref="CH9" si="32">CG9+1</f>
+      <c r="CI9" s="19">
+        <f t="shared" ref="CI9" si="32">CH9+1</f>
         <v>41105</v>
       </c>
-      <c r="CI9" s="19">
-        <f t="shared" ref="CI9" si="33">CH9+1</f>
+      <c r="CJ9" s="19">
+        <f t="shared" ref="CJ9" si="33">CI9+1</f>
         <v>41106</v>
       </c>
-      <c r="CJ9" s="19">
-        <f t="shared" ref="CJ9" si="34">CI9+1</f>
+      <c r="CK9" s="19">
+        <f t="shared" ref="CK9" si="34">CJ9+1</f>
         <v>41107</v>
       </c>
-      <c r="CK9" s="19">
-        <f t="shared" ref="CK9" si="35">CJ9+1</f>
+      <c r="CL9" s="19">
+        <f t="shared" ref="CL9" si="35">CK9+1</f>
         <v>41108</v>
       </c>
-      <c r="CL9" s="19">
-        <f t="shared" ref="CL9" si="36">CK9+1</f>
+      <c r="CM9" s="19">
+        <f t="shared" ref="CM9" si="36">CL9+1</f>
         <v>41109</v>
       </c>
-      <c r="CM9" s="19">
-        <f t="shared" ref="CM9" si="37">CL9+1</f>
+      <c r="CN9" s="19">
+        <f t="shared" ref="CN9" si="37">CM9+1</f>
         <v>41110</v>
       </c>
-      <c r="CN9" s="19">
-        <f t="shared" ref="CN9" si="38">CM9+1</f>
+      <c r="CO9" s="19">
+        <f t="shared" ref="CO9" si="38">CN9+1</f>
         <v>41111</v>
       </c>
-      <c r="CO9" s="19">
-        <f t="shared" ref="CO9" si="39">CN9+1</f>
+      <c r="CP9" s="19">
+        <f t="shared" ref="CP9" si="39">CO9+1</f>
         <v>41112</v>
       </c>
-      <c r="CP9" s="19">
-        <f t="shared" ref="CP9" si="40">CO9+1</f>
+      <c r="CQ9" s="19">
+        <f t="shared" ref="CQ9" si="40">CP9+1</f>
         <v>41113</v>
       </c>
-      <c r="CQ9" s="19">
-        <f t="shared" ref="CQ9" si="41">CP9+1</f>
+      <c r="CR9" s="19">
+        <f t="shared" ref="CR9" si="41">CQ9+1</f>
         <v>41114</v>
       </c>
-      <c r="CR9" s="19">
-        <f t="shared" ref="CR9" si="42">CQ9+1</f>
+      <c r="CS9" s="19">
+        <f t="shared" ref="CS9" si="42">CR9+1</f>
         <v>41115</v>
       </c>
-      <c r="CS9" s="19">
-        <f t="shared" ref="CS9" si="43">CR9+1</f>
+      <c r="CT9" s="19">
+        <f t="shared" ref="CT9" si="43">CS9+1</f>
         <v>41116</v>
       </c>
     </row>
-    <row r="10" spans="1:97" s="20" customFormat="1">
+    <row r="10" spans="1:98" s="20" customFormat="1">
       <c r="B10" s="21"/>
       <c r="C10" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -2621,42 +2584,45 @@
       <c r="CQ10" s="21"/>
       <c r="CR10" s="21"/>
       <c r="CS10" s="21"/>
-    </row>
-    <row r="11" spans="1:97">
+      <c r="CT10" s="21"/>
+    </row>
+    <row r="11" spans="1:98">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
       <c r="C11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23">
-        <f>IFERROR( HLOOKUP("BE",K11:BE$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",K11:BE$87,$A$87-$A11+1,FALSE),0)</f>
+        <v>57</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23">
+        <f>IFERROR( HLOOKUP("BE",L11:BF$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",L11:BF$87,$A$87-$A11+1,FALSE),0)</f>
         <v>41030</v>
       </c>
-      <c r="G11" s="23">
-        <f>IFERROR( HLOOKUP("BE",K11:BE$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",K11:BE$87,$A$87-$A11+1,FALSE),0)</f>
+      <c r="H11" s="23">
+        <f>IFERROR( HLOOKUP("BE",L11:BF$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",L11:BF$87,$A$87-$A11+1,FALSE),0)</f>
         <v>41032</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="I11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="K11" s="22"/>
       <c r="L11" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2740,46 +2706,49 @@
       <c r="CQ11" s="1"/>
       <c r="CR11" s="1"/>
       <c r="CS11" s="1"/>
-    </row>
-    <row r="12" spans="1:97">
+      <c r="CT11" s="1"/>
+    </row>
+    <row r="12" spans="1:98">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
       <c r="C12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23">
-        <f>IFERROR( HLOOKUP("BE",K12:BE$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",K12:BE$87,$A$87-$A12+1,FALSE),0)</f>
+        <v>63</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23">
+        <f>IFERROR( HLOOKUP("BE",L12:BF$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",L12:BF$87,$A$87-$A12+1,FALSE),0)</f>
         <v>41031</v>
       </c>
-      <c r="G12" s="23">
-        <f>IFERROR( HLOOKUP("BE",K12:BE$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",K12:BE$87,$A$87-$A12+1,FALSE),0)</f>
+      <c r="H12" s="23">
+        <f>IFERROR( HLOOKUP("BE",L12:BF$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",L12:BF$87,$A$87-$A12+1,FALSE),0)</f>
         <v>41034</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="I12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="22"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P12" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2861,40 +2830,43 @@
       <c r="CQ12" s="1"/>
       <c r="CR12" s="1"/>
       <c r="CS12" s="1"/>
-    </row>
-    <row r="13" spans="1:97" ht="30">
+      <c r="CT12" s="1"/>
+    </row>
+    <row r="13" spans="1:98" ht="30">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="22">
+        <v>3</v>
+      </c>
       <c r="C13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23">
-        <f>IFERROR( HLOOKUP("BE",K13:BE$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",K13:BE$87,$A$87-$A13+1,FALSE),0)</f>
+        <v>92</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23">
+        <f>IFERROR( HLOOKUP("BE",L13:BF$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",L13:BF$87,$A$87-$A13+1,FALSE),0)</f>
         <v>41031</v>
       </c>
-      <c r="G13" s="23">
-        <f>IFERROR( HLOOKUP("BE",K13:BE$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",K13:BE$87,$A$87-$A13+1,FALSE),0)</f>
+      <c r="H13" s="23">
+        <f>IFERROR( HLOOKUP("BE",L13:BF$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",L13:BF$87,$A$87-$A13+1,FALSE),0)</f>
         <v>41032</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2978,51 +2950,54 @@
       <c r="CQ13" s="1"/>
       <c r="CR13" s="1"/>
       <c r="CS13" s="1"/>
-    </row>
-    <row r="14" spans="1:97" ht="30">
+      <c r="CT13" s="1"/>
+    </row>
+    <row r="14" spans="1:98" ht="30">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="22">
+        <v>4</v>
+      </c>
       <c r="C14" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23">
-        <f>IFERROR( HLOOKUP("BE",K14:BE$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",K14:BE$87,$A$87-$A14+1,FALSE),0)</f>
+        <v>106</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23">
+        <f>IFERROR( HLOOKUP("BE",L14:BF$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",L14:BF$87,$A$87-$A14+1,FALSE),0)</f>
         <v>41030</v>
       </c>
-      <c r="G14" s="23">
-        <f>IFERROR( HLOOKUP("BE",K14:BE$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",K14:BE$87,$A$87-$A14+1,FALSE),0)</f>
+      <c r="H14" s="23">
+        <f>IFERROR( HLOOKUP("BE",L14:BF$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",L14:BF$87,$A$87-$A14+1,FALSE),0)</f>
         <v>41035</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="I14" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="K14" s="22"/>
       <c r="L14" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3103,14 +3078,15 @@
       <c r="CQ14" s="1"/>
       <c r="CR14" s="1"/>
       <c r="CS14" s="1"/>
-    </row>
-    <row r="15" spans="1:97" s="20" customFormat="1">
+      <c r="CT14" s="1"/>
+    </row>
+    <row r="15" spans="1:98" s="20" customFormat="1">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3206,29 +3182,32 @@
       <c r="CQ15" s="21"/>
       <c r="CR15" s="21"/>
       <c r="CS15" s="21"/>
-    </row>
-    <row r="16" spans="1:97">
+      <c r="CT15" s="21"/>
+    </row>
+    <row r="16" spans="1:98">
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="22">
+        <v>5</v>
+      </c>
       <c r="C16" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="23">
-        <f>IFERROR( HLOOKUP("BE",K16:BE$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",K16:BE$87,$A$87-$A16+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F16" s="22"/>
       <c r="G16" s="23">
-        <f>IFERROR( HLOOKUP("BE",K16:BE$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",K16:BE$87,$A$87-$A16+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$87,$A$87-$A16+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="23">
+        <f>IFERROR( HLOOKUP("BE",L16:BF$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$87,$A$87-$A16+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -3315,29 +3294,32 @@
       <c r="CQ16" s="1"/>
       <c r="CR16" s="1"/>
       <c r="CS16" s="1"/>
-    </row>
-    <row r="17" spans="1:97">
+      <c r="CT16" s="1"/>
+    </row>
+    <row r="17" spans="1:98">
       <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="22">
+        <v>6</v>
+      </c>
       <c r="C17" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="23">
-        <f>IFERROR( HLOOKUP("BE",K17:BE$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",K17:BE$87,$A$87-$A17+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F17" s="22"/>
       <c r="G17" s="23">
-        <f>IFERROR( HLOOKUP("BE",K17:BE$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",K17:BE$87,$A$87-$A17+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$87,$A$87-$A17+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
+        <f>IFERROR( HLOOKUP("BE",L17:BF$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$87,$A$87-$A17+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -3424,29 +3406,32 @@
       <c r="CQ17" s="1"/>
       <c r="CR17" s="1"/>
       <c r="CS17" s="1"/>
-    </row>
-    <row r="18" spans="1:97">
+      <c r="CT17" s="1"/>
+    </row>
+    <row r="18" spans="1:98">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="22">
+        <v>7</v>
+      </c>
       <c r="C18" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="23">
-        <f>IFERROR( HLOOKUP("BE",K18:BE$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",K18:BE$87,$A$87-$A18+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F18" s="22"/>
       <c r="G18" s="23">
-        <f>IFERROR( HLOOKUP("BE",K18:BE$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",K18:BE$87,$A$87-$A18+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$87,$A$87-$A18+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="23">
+        <f>IFERROR( HLOOKUP("BE",L18:BF$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$87,$A$87-$A18+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="23"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3533,14 +3518,15 @@
       <c r="CQ18" s="1"/>
       <c r="CR18" s="1"/>
       <c r="CS18" s="1"/>
-    </row>
-    <row r="19" spans="1:97" s="20" customFormat="1">
+      <c r="CT18" s="1"/>
+    </row>
+    <row r="19" spans="1:98" s="20" customFormat="1">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -3598,7 +3584,7 @@
       <c r="BE19" s="21"/>
       <c r="BF19" s="21"/>
       <c r="BG19" s="21"/>
-      <c r="BH19" s="1"/>
+      <c r="BH19" s="21"/>
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
@@ -3636,29 +3622,32 @@
       <c r="CQ19" s="1"/>
       <c r="CR19" s="1"/>
       <c r="CS19" s="1"/>
-    </row>
-    <row r="20" spans="1:97">
+      <c r="CT19" s="1"/>
+    </row>
+    <row r="20" spans="1:98">
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="22">
+        <v>8</v>
+      </c>
       <c r="C20" s="28" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="23">
-        <f>IFERROR( HLOOKUP("BE",K20:BE$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",K20:BE$87,$A$87-$A20+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <f>IFERROR( HLOOKUP("BE",K20:BE$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",K20:BE$87,$A$87-$A20+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$87,$A$87-$A20+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
+        <f>IFERROR( HLOOKUP("BE",L20:BF$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$87,$A$87-$A20+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="23"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3745,27 +3734,32 @@
       <c r="CQ20" s="1"/>
       <c r="CR20" s="1"/>
       <c r="CS20" s="1"/>
-    </row>
-    <row r="21" spans="1:97">
+      <c r="CT20" s="1"/>
+    </row>
+    <row r="21" spans="1:98">
       <c r="A21">
         <v>11</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="22">
+        <v>9</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>142</v>
+      </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="23">
-        <f>IFERROR( HLOOKUP("BE",K21:BE$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",K21:BE$87,$A$87-$A21+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="23">
-        <f>IFERROR( HLOOKUP("BE",K21:BE$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",K21:BE$87,$A$87-$A21+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$87,$A$87-$A21+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <f>IFERROR( HLOOKUP("BE",L21:BF$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$87,$A$87-$A21+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="23"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -3852,8 +3846,9 @@
       <c r="CQ21" s="1"/>
       <c r="CR21" s="1"/>
       <c r="CS21" s="1"/>
-    </row>
-    <row r="22" spans="1:97">
+      <c r="CT21" s="1"/>
+    </row>
+    <row r="22" spans="1:98">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3861,18 +3856,18 @@
       <c r="C22" s="28"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="23">
-        <f>IFERROR( HLOOKUP("BE",K22:BE$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",K22:BE$87,$A$87-$A22+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F22" s="22"/>
       <c r="G22" s="23">
-        <f>IFERROR( HLOOKUP("BE",K22:BE$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",K22:BE$87,$A$87-$A22+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$87,$A$87-$A22+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="23">
+        <f>IFERROR( HLOOKUP("BE",L22:BF$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$87,$A$87-$A22+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="23"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -3959,8 +3954,9 @@
       <c r="CQ22" s="1"/>
       <c r="CR22" s="1"/>
       <c r="CS22" s="1"/>
-    </row>
-    <row r="23" spans="1:97">
+      <c r="CT22" s="1"/>
+    </row>
+    <row r="23" spans="1:98">
       <c r="A23">
         <v>13</v>
       </c>
@@ -3968,18 +3964,18 @@
       <c r="C23" s="30"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="23">
-        <f>IFERROR( HLOOKUP("BE",K23:BE$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",K23:BE$87,$A$87-$A23+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F23" s="22"/>
       <c r="G23" s="23">
-        <f>IFERROR( HLOOKUP("BE",K23:BE$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",K23:BE$87,$A$87-$A23+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L23:BF$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",L23:BF$87,$A$87-$A23+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
+        <f>IFERROR( HLOOKUP("BE",L23:BF$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",L23:BF$87,$A$87-$A23+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="23"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -4066,8 +4062,9 @@
       <c r="CQ23" s="1"/>
       <c r="CR23" s="1"/>
       <c r="CS23" s="1"/>
-    </row>
-    <row r="24" spans="1:97">
+      <c r="CT23" s="1"/>
+    </row>
+    <row r="24" spans="1:98">
       <c r="A24">
         <v>14</v>
       </c>
@@ -4075,18 +4072,18 @@
       <c r="C24" s="28"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="23">
-        <f>IFERROR( HLOOKUP("BE",K24:BE$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",K24:BE$87,$A$87-$A24+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F24" s="22"/>
       <c r="G24" s="23">
-        <f>IFERROR( HLOOKUP("BE",K24:BE$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",K24:BE$87,$A$87-$A24+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$87,$A$87-$A24+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="23">
+        <f>IFERROR( HLOOKUP("BE",L24:BF$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$87,$A$87-$A24+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="23"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -4173,8 +4170,9 @@
       <c r="CQ24" s="1"/>
       <c r="CR24" s="1"/>
       <c r="CS24" s="1"/>
-    </row>
-    <row r="25" spans="1:97">
+      <c r="CT24" s="1"/>
+    </row>
+    <row r="25" spans="1:98">
       <c r="A25">
         <v>15</v>
       </c>
@@ -4182,18 +4180,18 @@
       <c r="C25" s="30"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="23">
-        <f>IFERROR( HLOOKUP("BE",K25:BE$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",K25:BE$87,$A$87-$A25+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F25" s="22"/>
       <c r="G25" s="23">
-        <f>IFERROR( HLOOKUP("BE",K25:BE$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",K25:BE$87,$A$87-$A25+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L25:BF$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$87,$A$87-$A25+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="23">
+        <f>IFERROR( HLOOKUP("BE",L25:BF$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$87,$A$87-$A25+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="23"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -4280,8 +4278,9 @@
       <c r="CQ25" s="1"/>
       <c r="CR25" s="1"/>
       <c r="CS25" s="1"/>
-    </row>
-    <row r="26" spans="1:97">
+      <c r="CT25" s="1"/>
+    </row>
+    <row r="26" spans="1:98">
       <c r="A26">
         <v>16</v>
       </c>
@@ -4289,18 +4288,18 @@
       <c r="C26" s="30"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="23">
-        <f>IFERROR( HLOOKUP("BE",K26:BE$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",K26:BE$87,$A$87-$A26+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F26" s="22"/>
       <c r="G26" s="23">
-        <f>IFERROR( HLOOKUP("BE",K26:BE$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",K26:BE$87,$A$87-$A26+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L26:BF$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$87,$A$87-$A26+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="23">
+        <f>IFERROR( HLOOKUP("BE",L26:BF$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$87,$A$87-$A26+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="23"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -4387,14 +4386,15 @@
       <c r="CQ26" s="1"/>
       <c r="CR26" s="1"/>
       <c r="CS26" s="1"/>
-    </row>
-    <row r="27" spans="1:97" s="20" customFormat="1">
+      <c r="CT26" s="1"/>
+    </row>
+    <row r="27" spans="1:98" s="20" customFormat="1">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -4452,7 +4452,7 @@
       <c r="BE27" s="21"/>
       <c r="BF27" s="21"/>
       <c r="BG27" s="21"/>
-      <c r="BH27" s="1"/>
+      <c r="BH27" s="21"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
@@ -4490,8 +4490,9 @@
       <c r="CQ27" s="1"/>
       <c r="CR27" s="1"/>
       <c r="CS27" s="1"/>
-    </row>
-    <row r="28" spans="1:97">
+      <c r="CT27" s="1"/>
+    </row>
+    <row r="28" spans="1:98">
       <c r="A28">
         <v>18</v>
       </c>
@@ -4499,18 +4500,18 @@
       <c r="C28" s="28"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="23">
-        <f>IFERROR( HLOOKUP("BE",K28:BE$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",K28:BE$87,$A$87-$A28+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F28" s="22"/>
       <c r="G28" s="23">
-        <f>IFERROR( HLOOKUP("BE",K28:BE$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",K28:BE$87,$A$87-$A28+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$87,$A$87-$A28+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="23">
+        <f>IFERROR( HLOOKUP("BE",L28:BF$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$87,$A$87-$A28+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="23"/>
       <c r="J28" s="22"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -4597,8 +4598,9 @@
       <c r="CQ28" s="1"/>
       <c r="CR28" s="1"/>
       <c r="CS28" s="1"/>
-    </row>
-    <row r="29" spans="1:97">
+      <c r="CT28" s="1"/>
+    </row>
+    <row r="29" spans="1:98">
       <c r="A29">
         <v>19</v>
       </c>
@@ -4606,18 +4608,18 @@
       <c r="C29" s="28"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="23">
-        <f>IFERROR( HLOOKUP("BE",K29:BE$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",K29:BE$87,$A$87-$A29+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="23">
-        <f>IFERROR( HLOOKUP("BE",K29:BE$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",K29:BE$87,$A$87-$A29+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$87,$A$87-$A29+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
+        <f>IFERROR( HLOOKUP("BE",L29:BF$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$87,$A$87-$A29+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="23"/>
       <c r="J29" s="22"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -4704,8 +4706,9 @@
       <c r="CQ29" s="1"/>
       <c r="CR29" s="1"/>
       <c r="CS29" s="1"/>
-    </row>
-    <row r="30" spans="1:97">
+      <c r="CT29" s="1"/>
+    </row>
+    <row r="30" spans="1:98">
       <c r="A30">
         <v>20</v>
       </c>
@@ -4713,18 +4716,18 @@
       <c r="C30" s="28"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
-      <c r="F30" s="23">
-        <f>IFERROR( HLOOKUP("BE",K30:BE$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",K30:BE$87,$A$87-$A30+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F30" s="22"/>
       <c r="G30" s="23">
-        <f>IFERROR( HLOOKUP("BE",K30:BE$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",K30:BE$87,$A$87-$A30+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L30:BF$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",L30:BF$87,$A$87-$A30+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="23">
+        <f>IFERROR( HLOOKUP("BE",L30:BF$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",L30:BF$87,$A$87-$A30+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="23"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -4811,8 +4814,9 @@
       <c r="CQ30" s="1"/>
       <c r="CR30" s="1"/>
       <c r="CS30" s="1"/>
-    </row>
-    <row r="31" spans="1:97">
+      <c r="CT30" s="1"/>
+    </row>
+    <row r="31" spans="1:98">
       <c r="A31">
         <v>21</v>
       </c>
@@ -4820,18 +4824,18 @@
       <c r="C31" s="28"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
-      <c r="F31" s="23">
-        <f>IFERROR( HLOOKUP("BE",K31:BE$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",K31:BE$87,$A$87-$A31+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F31" s="22"/>
       <c r="G31" s="23">
-        <f>IFERROR( HLOOKUP("BE",K31:BE$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",K31:BE$87,$A$87-$A31+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L31:BF$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",L31:BF$87,$A$87-$A31+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="23">
+        <f>IFERROR( HLOOKUP("BE",L31:BF$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",L31:BF$87,$A$87-$A31+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="23"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -4918,14 +4922,15 @@
       <c r="CQ31" s="1"/>
       <c r="CR31" s="1"/>
       <c r="CS31" s="1"/>
-    </row>
-    <row r="32" spans="1:97" s="20" customFormat="1">
+      <c r="CT31" s="1"/>
+    </row>
+    <row r="32" spans="1:98" s="20" customFormat="1">
       <c r="A32">
         <v>22</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -4983,7 +4988,7 @@
       <c r="BE32" s="21"/>
       <c r="BF32" s="21"/>
       <c r="BG32" s="21"/>
-      <c r="BH32" s="1"/>
+      <c r="BH32" s="21"/>
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
@@ -5021,29 +5026,32 @@
       <c r="CQ32" s="1"/>
       <c r="CR32" s="1"/>
       <c r="CS32" s="1"/>
-    </row>
-    <row r="33" spans="1:97">
+      <c r="CT32" s="1"/>
+    </row>
+    <row r="33" spans="1:98">
       <c r="A33">
         <v>23</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23">
-        <f>IFERROR( HLOOKUP("BE",K33:BE$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",K33:BE$87,$A$87-$A33+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="E33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="22"/>
       <c r="G33" s="23">
-        <f>IFERROR( HLOOKUP("BE",K33:BE$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",K33:BE$87,$A$87-$A33+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$87,$A$87-$A33+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="23">
+        <f>IFERROR( HLOOKUP("BE",L33:BF$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$87,$A$87-$A33+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="23"/>
       <c r="J33" s="22"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -5130,29 +5138,30 @@
       <c r="CQ33" s="1"/>
       <c r="CR33" s="1"/>
       <c r="CS33" s="1"/>
-    </row>
-    <row r="34" spans="1:97">
+      <c r="CT33" s="1"/>
+    </row>
+    <row r="34" spans="1:98">
       <c r="A34">
         <v>24</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
-      <c r="F34" s="23">
-        <f>IFERROR( HLOOKUP("BE",K34:BE$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",K34:BE$87,$A$87-$A34+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F34" s="22"/>
       <c r="G34" s="23">
-        <f>IFERROR( HLOOKUP("BE",K34:BE$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",K34:BE$87,$A$87-$A34+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$87,$A$87-$A34+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="23">
+        <f>IFERROR( HLOOKUP("BE",L34:BF$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$87,$A$87-$A34+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="23"/>
       <c r="J34" s="22"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="22"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -5239,35 +5248,44 @@
       <c r="CQ34" s="1"/>
       <c r="CR34" s="1"/>
       <c r="CS34" s="1"/>
-    </row>
-    <row r="35" spans="1:97">
+      <c r="CT34" s="1"/>
+    </row>
+    <row r="35" spans="1:98" ht="30">
       <c r="A35">
         <v>25</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="28" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23">
-        <f>IFERROR( HLOOKUP("BE",K35:BE$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",K35:BE$87,$A$87-$A35+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="E35" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="22"/>
       <c r="G35" s="23">
-        <f>IFERROR( HLOOKUP("BE",K35:BE$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",K35:BE$87,$A$87-$A35+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$87,$A$87-$A35+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="H35" s="23">
+        <f>IFERROR( HLOOKUP("BE",L35:BF$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$87,$A$87-$A35+1,FALSE),0)</f>
+        <v>41035</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J35" s="22"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="22"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -5348,8 +5366,9 @@
       <c r="CQ35" s="1"/>
       <c r="CR35" s="1"/>
       <c r="CS35" s="1"/>
-    </row>
-    <row r="36" spans="1:97">
+      <c r="CT35" s="1"/>
+    </row>
+    <row r="36" spans="1:98">
       <c r="A36">
         <v>26</v>
       </c>
@@ -5357,18 +5376,18 @@
       <c r="C36" s="28"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="23">
-        <f>IFERROR( HLOOKUP("BE",K36:BE$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",K36:BE$87,$A$87-$A36+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F36" s="22"/>
       <c r="G36" s="23">
-        <f>IFERROR( HLOOKUP("BE",K36:BE$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",K36:BE$87,$A$87-$A36+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L36:BF$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",L36:BF$87,$A$87-$A36+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="23">
+        <f>IFERROR( HLOOKUP("BE",L36:BF$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",L36:BF$87,$A$87-$A36+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="23"/>
       <c r="J36" s="22"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="22"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -5455,14 +5474,15 @@
       <c r="CQ36" s="1"/>
       <c r="CR36" s="1"/>
       <c r="CS36" s="1"/>
-    </row>
-    <row r="37" spans="1:97" s="20" customFormat="1">
+      <c r="CT36" s="1"/>
+    </row>
+    <row r="37" spans="1:98" s="20" customFormat="1">
       <c r="A37">
         <v>27</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
@@ -5520,7 +5540,7 @@
       <c r="BE37" s="21"/>
       <c r="BF37" s="21"/>
       <c r="BG37" s="21"/>
-      <c r="BH37" s="1"/>
+      <c r="BH37" s="21"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
@@ -5558,29 +5578,30 @@
       <c r="CQ37" s="1"/>
       <c r="CR37" s="1"/>
       <c r="CS37" s="1"/>
-    </row>
-    <row r="38" spans="1:97">
+      <c r="CT37" s="1"/>
+    </row>
+    <row r="38" spans="1:98">
       <c r="A38">
         <v>28</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
-      <c r="F38" s="23">
-        <f>IFERROR( HLOOKUP("BE",K38:BE$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",K38:BE$87,$A$87-$A38+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F38" s="22"/>
       <c r="G38" s="23">
-        <f>IFERROR( HLOOKUP("BE",K38:BE$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",K38:BE$87,$A$87-$A38+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$87,$A$87-$A38+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="23">
+        <f>IFERROR( HLOOKUP("BE",L38:BF$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$87,$A$87-$A38+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="23"/>
       <c r="J38" s="22"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="22"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -5667,29 +5688,30 @@
       <c r="CQ38" s="1"/>
       <c r="CR38" s="1"/>
       <c r="CS38" s="1"/>
-    </row>
-    <row r="39" spans="1:97" ht="30">
+      <c r="CT38" s="1"/>
+    </row>
+    <row r="39" spans="1:98" ht="30">
       <c r="A39">
         <v>29</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="23">
-        <f>IFERROR( HLOOKUP("BE",K39:BE$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",K39:BE$87,$A$87-$A39+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F39" s="22"/>
       <c r="G39" s="23">
-        <f>IFERROR( HLOOKUP("BE",K39:BE$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",K39:BE$87,$A$87-$A39+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$87,$A$87-$A39+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="23">
+        <f>IFERROR( HLOOKUP("BE",L39:BF$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$87,$A$87-$A39+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="23"/>
       <c r="J39" s="22"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -5776,29 +5798,30 @@
       <c r="CQ39" s="1"/>
       <c r="CR39" s="1"/>
       <c r="CS39" s="1"/>
-    </row>
-    <row r="40" spans="1:97">
+      <c r="CT39" s="1"/>
+    </row>
+    <row r="40" spans="1:98">
       <c r="A40">
         <v>30</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
-      <c r="F40" s="23">
-        <f>IFERROR( HLOOKUP("BE",K40:BE$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",K40:BE$87,$A$87-$A40+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F40" s="22"/>
       <c r="G40" s="23">
-        <f>IFERROR( HLOOKUP("BE",K40:BE$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",K40:BE$87,$A$87-$A40+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L40:BF$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$87,$A$87-$A40+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="23">
+        <f>IFERROR( HLOOKUP("BE",L40:BF$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$87,$A$87-$A40+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="23"/>
       <c r="J40" s="22"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="22"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -5885,29 +5908,30 @@
       <c r="CQ40" s="1"/>
       <c r="CR40" s="1"/>
       <c r="CS40" s="1"/>
-    </row>
-    <row r="41" spans="1:97">
+      <c r="CT40" s="1"/>
+    </row>
+    <row r="41" spans="1:98">
       <c r="A41">
         <v>31</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
-      <c r="F41" s="23">
-        <f>IFERROR( HLOOKUP("BE",K41:BE$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",K41:BE$87,$A$87-$A41+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F41" s="22"/>
       <c r="G41" s="23">
-        <f>IFERROR( HLOOKUP("BE",K41:BE$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",K41:BE$87,$A$87-$A41+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L41:BF$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",L41:BF$87,$A$87-$A41+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="23">
+        <f>IFERROR( HLOOKUP("BE",L41:BF$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",L41:BF$87,$A$87-$A41+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="23"/>
       <c r="J41" s="22"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="22"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -5994,29 +6018,30 @@
       <c r="CQ41" s="1"/>
       <c r="CR41" s="1"/>
       <c r="CS41" s="1"/>
-    </row>
-    <row r="42" spans="1:97">
+      <c r="CT41" s="1"/>
+    </row>
+    <row r="42" spans="1:98">
       <c r="A42">
         <v>32</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
-      <c r="F42" s="23">
-        <f>IFERROR( HLOOKUP("BE",K42:BE$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",K42:BE$87,$A$87-$A42+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F42" s="22"/>
       <c r="G42" s="23">
-        <f>IFERROR( HLOOKUP("BE",K42:BE$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",K42:BE$87,$A$87-$A42+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L42:BF$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",L42:BF$87,$A$87-$A42+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="23">
+        <f>IFERROR( HLOOKUP("BE",L42:BF$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",L42:BF$87,$A$87-$A42+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="23"/>
       <c r="J42" s="22"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="22"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -6103,29 +6128,30 @@
       <c r="CQ42" s="1"/>
       <c r="CR42" s="1"/>
       <c r="CS42" s="1"/>
-    </row>
-    <row r="43" spans="1:97">
+      <c r="CT42" s="1"/>
+    </row>
+    <row r="43" spans="1:98">
       <c r="A43">
         <v>33</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="23">
-        <f>IFERROR( HLOOKUP("BE",K43:BE$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",K43:BE$87,$A$87-$A43+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F43" s="22"/>
       <c r="G43" s="23">
-        <f>IFERROR( HLOOKUP("BE",K43:BE$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",K43:BE$87,$A$87-$A43+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L43:BF$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",L43:BF$87,$A$87-$A43+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="23">
+        <f>IFERROR( HLOOKUP("BE",L43:BF$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",L43:BF$87,$A$87-$A43+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="23"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="22"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -6212,29 +6238,30 @@
       <c r="CQ43" s="1"/>
       <c r="CR43" s="1"/>
       <c r="CS43" s="1"/>
-    </row>
-    <row r="44" spans="1:97">
+      <c r="CT43" s="1"/>
+    </row>
+    <row r="44" spans="1:98">
       <c r="A44">
         <v>34</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
-      <c r="F44" s="23">
-        <f>IFERROR( HLOOKUP("BE",K44:BE$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",K44:BE$87,$A$87-$A44+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F44" s="22"/>
       <c r="G44" s="23">
-        <f>IFERROR( HLOOKUP("BE",K44:BE$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",K44:BE$87,$A$87-$A44+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L44:BF$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",L44:BF$87,$A$87-$A44+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="23">
+        <f>IFERROR( HLOOKUP("BE",L44:BF$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",L44:BF$87,$A$87-$A44+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="23"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="22"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -6321,34 +6348,49 @@
       <c r="CQ44" s="1"/>
       <c r="CR44" s="1"/>
       <c r="CS44" s="1"/>
-    </row>
-    <row r="45" spans="1:97" ht="30">
+      <c r="CT44" s="1"/>
+    </row>
+    <row r="45" spans="1:98" ht="30">
       <c r="A45">
         <v>35</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23">
-        <f>IFERROR( HLOOKUP("BE",K45:BE$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",K45:BE$87,$A$87-$A45+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="E45" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="22"/>
       <c r="G45" s="23">
-        <f>IFERROR( HLOOKUP("BE",K45:BE$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",K45:BE$87,$A$87-$A45+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="1"/>
+        <f>IFERROR( HLOOKUP("BE",L45:BF$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",L45:BF$87,$A$87-$A45+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="H45" s="23">
+        <f>IFERROR( HLOOKUP("BE",L45:BF$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",L45:BF$87,$A$87-$A45+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -6430,34 +6472,49 @@
       <c r="CQ45" s="1"/>
       <c r="CR45" s="1"/>
       <c r="CS45" s="1"/>
-    </row>
-    <row r="46" spans="1:97" ht="30">
+      <c r="CT45" s="1"/>
+    </row>
+    <row r="46" spans="1:98" ht="30">
       <c r="A46">
         <v>36</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23">
-        <f>IFERROR( HLOOKUP("BE",K46:BE$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",K46:BE$87,$A$87-$A46+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="E46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="22"/>
       <c r="G46" s="23">
-        <f>IFERROR( HLOOKUP("BE",K46:BE$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",K46:BE$87,$A$87-$A46+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="1"/>
+        <f>IFERROR( HLOOKUP("BE",L46:BF$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$87,$A$87-$A46+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="H46" s="23">
+        <f>IFERROR( HLOOKUP("BE",L46:BF$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$87,$A$87-$A46+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -6539,32 +6596,49 @@
       <c r="CQ46" s="1"/>
       <c r="CR46" s="1"/>
       <c r="CS46" s="1"/>
-    </row>
-    <row r="47" spans="1:97">
+      <c r="CT46" s="1"/>
+    </row>
+    <row r="47" spans="1:98" ht="30">
       <c r="A47">
         <v>37</v>
       </c>
       <c r="B47" s="22"/>
-      <c r="C47" s="28"/>
+      <c r="C47" s="28" t="s">
+        <v>138</v>
+      </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23">
-        <f>IFERROR( HLOOKUP("BE",K47:BE$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",K47:BE$87,$A$87-$A47+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="E47" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="22"/>
       <c r="G47" s="23">
-        <f>IFERROR( HLOOKUP("BE",K47:BE$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",K47:BE$87,$A$87-$A47+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="1"/>
+        <f>IFERROR( HLOOKUP("BE",L47:BF$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",L47:BF$87,$A$87-$A47+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="H47" s="23">
+        <f>IFERROR( HLOOKUP("BE",L47:BF$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",L47:BF$87,$A$87-$A47+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -6646,8 +6720,9 @@
       <c r="CQ47" s="1"/>
       <c r="CR47" s="1"/>
       <c r="CS47" s="1"/>
-    </row>
-    <row r="48" spans="1:97">
+      <c r="CT47" s="1"/>
+    </row>
+    <row r="48" spans="1:98">
       <c r="A48">
         <v>38</v>
       </c>
@@ -6655,18 +6730,18 @@
       <c r="C48" s="28"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
-      <c r="F48" s="23">
-        <f>IFERROR( HLOOKUP("BE",K48:BE$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",K48:BE$87,$A$87-$A48+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F48" s="22"/>
       <c r="G48" s="23">
-        <f>IFERROR( HLOOKUP("BE",K48:BE$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",K48:BE$87,$A$87-$A48+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L48:BF$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",L48:BF$87,$A$87-$A48+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="23">
+        <f>IFERROR( HLOOKUP("BE",L48:BF$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",L48:BF$87,$A$87-$A48+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="23"/>
       <c r="J48" s="22"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -6753,8 +6828,9 @@
       <c r="CQ48" s="1"/>
       <c r="CR48" s="1"/>
       <c r="CS48" s="1"/>
-    </row>
-    <row r="49" spans="1:97">
+      <c r="CT48" s="1"/>
+    </row>
+    <row r="49" spans="1:98">
       <c r="A49">
         <v>39</v>
       </c>
@@ -6762,18 +6838,18 @@
       <c r="C49" s="28"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
-      <c r="F49" s="23">
-        <f>IFERROR( HLOOKUP("BE",K49:BE$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",K49:BE$87,$A$87-$A49+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F49" s="22"/>
       <c r="G49" s="23">
-        <f>IFERROR( HLOOKUP("BE",K49:BE$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",K49:BE$87,$A$87-$A49+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L49:BF$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",L49:BF$87,$A$87-$A49+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="23">
+        <f>IFERROR( HLOOKUP("BE",L49:BF$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",L49:BF$87,$A$87-$A49+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="23"/>
       <c r="J49" s="22"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -6860,14 +6936,15 @@
       <c r="CQ49" s="1"/>
       <c r="CR49" s="1"/>
       <c r="CS49" s="1"/>
-    </row>
-    <row r="50" spans="1:97" s="20" customFormat="1">
+      <c r="CT49" s="1"/>
+    </row>
+    <row r="50" spans="1:98" s="20" customFormat="1">
       <c r="A50">
         <v>40</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -6925,7 +7002,7 @@
       <c r="BE50" s="21"/>
       <c r="BF50" s="21"/>
       <c r="BG50" s="21"/>
-      <c r="BH50" s="1"/>
+      <c r="BH50" s="21"/>
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
@@ -6963,29 +7040,30 @@
       <c r="CQ50" s="1"/>
       <c r="CR50" s="1"/>
       <c r="CS50" s="1"/>
-    </row>
-    <row r="51" spans="1:97">
+      <c r="CT50" s="1"/>
+    </row>
+    <row r="51" spans="1:98">
       <c r="A51">
         <v>41</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="23">
-        <f>IFERROR( HLOOKUP("BE",K51:BE$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",K51:BE$87,$A$87-$A51+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F51" s="22"/>
       <c r="G51" s="23">
-        <f>IFERROR( HLOOKUP("BE",K51:BE$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",K51:BE$87,$A$87-$A51+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$87,$A$87-$A51+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="23">
+        <f>IFERROR( HLOOKUP("BE",L51:BF$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$87,$A$87-$A51+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="23"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -7072,14 +7150,15 @@
       <c r="CQ51" s="1"/>
       <c r="CR51" s="1"/>
       <c r="CS51" s="1"/>
-    </row>
-    <row r="52" spans="1:97" s="20" customFormat="1">
+      <c r="CT51" s="1"/>
+    </row>
+    <row r="52" spans="1:98" s="20" customFormat="1">
       <c r="A52">
         <v>42</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -7137,7 +7216,7 @@
       <c r="BE52" s="21"/>
       <c r="BF52" s="21"/>
       <c r="BG52" s="21"/>
-      <c r="BH52" s="1"/>
+      <c r="BH52" s="21"/>
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
@@ -7175,8 +7254,9 @@
       <c r="CQ52" s="1"/>
       <c r="CR52" s="1"/>
       <c r="CS52" s="1"/>
-    </row>
-    <row r="53" spans="1:97">
+      <c r="CT52" s="1"/>
+    </row>
+    <row r="53" spans="1:98">
       <c r="A53">
         <v>43</v>
       </c>
@@ -7184,18 +7264,18 @@
       <c r="C53" s="28"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
-      <c r="F53" s="23">
-        <f>IFERROR( HLOOKUP("BE",K53:BE$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",K53:BE$87,$A$87-$A53+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F53" s="22"/>
       <c r="G53" s="23">
-        <f>IFERROR( HLOOKUP("BE",K53:BE$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",K53:BE$87,$A$87-$A53+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$87,$A$87-$A53+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="23">
+        <f>IFERROR( HLOOKUP("BE",L53:BF$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$87,$A$87-$A53+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="23"/>
       <c r="J53" s="22"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -7282,8 +7362,9 @@
       <c r="CQ53" s="1"/>
       <c r="CR53" s="1"/>
       <c r="CS53" s="1"/>
-    </row>
-    <row r="54" spans="1:97">
+      <c r="CT53" s="1"/>
+    </row>
+    <row r="54" spans="1:98">
       <c r="A54">
         <v>44</v>
       </c>
@@ -7291,18 +7372,18 @@
       <c r="C54" s="28"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
-      <c r="F54" s="23">
-        <f>IFERROR( HLOOKUP("BE",K54:BE$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",K54:BE$87,$A$87-$A54+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F54" s="22"/>
       <c r="G54" s="23">
-        <f>IFERROR( HLOOKUP("BE",K54:BE$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",K54:BE$87,$A$87-$A54+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L54:BF$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",L54:BF$87,$A$87-$A54+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <f>IFERROR( HLOOKUP("BE",L54:BF$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",L54:BF$87,$A$87-$A54+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="23"/>
       <c r="J54" s="22"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -7389,8 +7470,9 @@
       <c r="CQ54" s="1"/>
       <c r="CR54" s="1"/>
       <c r="CS54" s="1"/>
-    </row>
-    <row r="55" spans="1:97">
+      <c r="CT54" s="1"/>
+    </row>
+    <row r="55" spans="1:98">
       <c r="A55">
         <v>45</v>
       </c>
@@ -7398,18 +7480,18 @@
       <c r="C55" s="28"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
-      <c r="F55" s="23">
-        <f>IFERROR( HLOOKUP("BE",K55:BE$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",K55:BE$87,$A$87-$A55+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F55" s="22"/>
       <c r="G55" s="23">
-        <f>IFERROR( HLOOKUP("BE",K55:BE$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",K55:BE$87,$A$87-$A55+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L55:BF$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$87,$A$87-$A55+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="23">
+        <f>IFERROR( HLOOKUP("BE",L55:BF$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$87,$A$87-$A55+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="23"/>
       <c r="J55" s="22"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -7496,8 +7578,9 @@
       <c r="CQ55" s="1"/>
       <c r="CR55" s="1"/>
       <c r="CS55" s="1"/>
-    </row>
-    <row r="56" spans="1:97">
+      <c r="CT55" s="1"/>
+    </row>
+    <row r="56" spans="1:98">
       <c r="A56">
         <v>46</v>
       </c>
@@ -7505,20 +7588,20 @@
       <c r="C56" s="28"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
-      <c r="F56" s="23">
-        <f>IFERROR( HLOOKUP("BE",K56:BE$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",K56:BE$87,$A$87-$A56+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F56" s="22"/>
       <c r="G56" s="23">
-        <f>IFERROR( HLOOKUP("BE",K56:BE$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",K56:BE$87,$A$87-$A56+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" s="22"/>
-      <c r="K56" s="1"/>
+        <f>IFERROR( HLOOKUP("BE",L56:BF$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",L56:BF$87,$A$87-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
+        <f>IFERROR( HLOOKUP("BE",L56:BF$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",L56:BF$87,$A$87-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="22"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -7605,8 +7688,9 @@
       <c r="CQ56" s="1"/>
       <c r="CR56" s="1"/>
       <c r="CS56" s="1"/>
-    </row>
-    <row r="57" spans="1:97">
+      <c r="CT56" s="1"/>
+    </row>
+    <row r="57" spans="1:98">
       <c r="A57">
         <v>47</v>
       </c>
@@ -7614,18 +7698,18 @@
       <c r="C57" s="28"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
-      <c r="F57" s="23">
-        <f>IFERROR( HLOOKUP("BE",K57:BE$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",K57:BE$87,$A$87-$A57+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F57" s="22"/>
       <c r="G57" s="23">
-        <f>IFERROR( HLOOKUP("BE",K57:BE$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",K57:BE$87,$A$87-$A57+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$87,$A$87-$A57+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
+        <f>IFERROR( HLOOKUP("BE",L57:BF$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$87,$A$87-$A57+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="23"/>
       <c r="J57" s="22"/>
-      <c r="K57" s="1"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -7712,8 +7796,9 @@
       <c r="CQ57" s="1"/>
       <c r="CR57" s="1"/>
       <c r="CS57" s="1"/>
-    </row>
-    <row r="58" spans="1:97">
+      <c r="CT57" s="1"/>
+    </row>
+    <row r="58" spans="1:98">
       <c r="A58">
         <v>48</v>
       </c>
@@ -7721,18 +7806,18 @@
       <c r="C58" s="28"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="23">
-        <f>IFERROR( HLOOKUP("BE",K58:BE$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",K58:BE$87,$A$87-$A58+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F58" s="22"/>
       <c r="G58" s="23">
-        <f>IFERROR( HLOOKUP("BE",K58:BE$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",K58:BE$87,$A$87-$A58+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L58:BF$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",L58:BF$87,$A$87-$A58+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
+        <f>IFERROR( HLOOKUP("BE",L58:BF$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",L58:BF$87,$A$87-$A58+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="23"/>
       <c r="J58" s="22"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -7819,8 +7904,9 @@
       <c r="CQ58" s="1"/>
       <c r="CR58" s="1"/>
       <c r="CS58" s="1"/>
-    </row>
-    <row r="59" spans="1:97">
+      <c r="CT58" s="1"/>
+    </row>
+    <row r="59" spans="1:98">
       <c r="A59">
         <v>49</v>
       </c>
@@ -7828,18 +7914,18 @@
       <c r="C59" s="28"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
-      <c r="F59" s="23">
-        <f>IFERROR( HLOOKUP("BE",K59:BE$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",K59:BE$87,$A$87-$A59+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F59" s="22"/>
       <c r="G59" s="23">
-        <f>IFERROR( HLOOKUP("BE",K59:BE$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",K59:BE$87,$A$87-$A59+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$87,$A$87-$A59+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="23">
+        <f>IFERROR( HLOOKUP("BE",L59:BF$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$87,$A$87-$A59+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="23"/>
       <c r="J59" s="22"/>
-      <c r="K59" s="1"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -7926,14 +8012,15 @@
       <c r="CQ59" s="1"/>
       <c r="CR59" s="1"/>
       <c r="CS59" s="1"/>
-    </row>
-    <row r="60" spans="1:97" s="20" customFormat="1">
+      <c r="CT59" s="1"/>
+    </row>
+    <row r="60" spans="1:98" s="20" customFormat="1">
       <c r="A60">
         <v>50</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
@@ -7991,7 +8078,7 @@
       <c r="BE60" s="21"/>
       <c r="BF60" s="21"/>
       <c r="BG60" s="21"/>
-      <c r="BH60" s="1"/>
+      <c r="BH60" s="21"/>
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
@@ -8029,8 +8116,9 @@
       <c r="CQ60" s="1"/>
       <c r="CR60" s="1"/>
       <c r="CS60" s="1"/>
-    </row>
-    <row r="61" spans="1:97">
+      <c r="CT60" s="1"/>
+    </row>
+    <row r="61" spans="1:98">
       <c r="A61">
         <v>51</v>
       </c>
@@ -8038,18 +8126,18 @@
       <c r="C61" s="28"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
-      <c r="F61" s="23">
-        <f>IFERROR( HLOOKUP("BE",K61:BE$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",K61:BE$87,$A$87-$A61+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F61" s="22"/>
       <c r="G61" s="23">
-        <f>IFERROR( HLOOKUP("BE",K61:BE$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",K61:BE$87,$A$87-$A61+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$87,$A$87-$A61+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="23">
+        <f>IFERROR( HLOOKUP("BE",L61:BF$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$87,$A$87-$A61+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="23"/>
       <c r="J61" s="22"/>
-      <c r="K61" s="1"/>
+      <c r="K61" s="22"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -8136,8 +8224,9 @@
       <c r="CQ61" s="1"/>
       <c r="CR61" s="1"/>
       <c r="CS61" s="1"/>
-    </row>
-    <row r="62" spans="1:97">
+      <c r="CT61" s="1"/>
+    </row>
+    <row r="62" spans="1:98">
       <c r="A62">
         <v>52</v>
       </c>
@@ -8145,18 +8234,18 @@
       <c r="C62" s="28"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
-      <c r="F62" s="23">
-        <f>IFERROR( HLOOKUP("BE",K62:BE$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",K62:BE$87,$A$87-$A62+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F62" s="22"/>
       <c r="G62" s="23">
-        <f>IFERROR( HLOOKUP("BE",K62:BE$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",K62:BE$87,$A$87-$A62+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$87,$A$87-$A62+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="23">
+        <f>IFERROR( HLOOKUP("BE",L62:BF$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$87,$A$87-$A62+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="23"/>
       <c r="J62" s="22"/>
-      <c r="K62" s="1"/>
+      <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -8243,8 +8332,9 @@
       <c r="CQ62" s="1"/>
       <c r="CR62" s="1"/>
       <c r="CS62" s="1"/>
-    </row>
-    <row r="63" spans="1:97">
+      <c r="CT62" s="1"/>
+    </row>
+    <row r="63" spans="1:98">
       <c r="A63">
         <v>53</v>
       </c>
@@ -8252,18 +8342,18 @@
       <c r="C63" s="36"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
-      <c r="F63" s="23">
-        <f>IFERROR( HLOOKUP("BE",K63:BE$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",K63:BE$87,$A$87-$A63+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F63" s="22"/>
       <c r="G63" s="23">
-        <f>IFERROR( HLOOKUP("BE",K63:BE$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",K63:BE$87,$A$87-$A63+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L63:BF$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$87,$A$87-$A63+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="23">
+        <f>IFERROR( HLOOKUP("BE",L63:BF$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$87,$A$87-$A63+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="23"/>
       <c r="J63" s="22"/>
-      <c r="K63" s="1"/>
+      <c r="K63" s="22"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -8350,8 +8440,9 @@
       <c r="CQ63" s="1"/>
       <c r="CR63" s="1"/>
       <c r="CS63" s="1"/>
-    </row>
-    <row r="64" spans="1:97">
+      <c r="CT63" s="1"/>
+    </row>
+    <row r="64" spans="1:98">
       <c r="A64">
         <v>54</v>
       </c>
@@ -8359,18 +8450,18 @@
       <c r="C64" s="36"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
-      <c r="F64" s="23">
-        <f>IFERROR( HLOOKUP("BE",K64:BE$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",K64:BE$87,$A$87-$A64+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F64" s="22"/>
       <c r="G64" s="23">
-        <f>IFERROR( HLOOKUP("BE",K64:BE$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",K64:BE$87,$A$87-$A64+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L64:BF$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",L64:BF$87,$A$87-$A64+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="23">
+        <f>IFERROR( HLOOKUP("BE",L64:BF$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",L64:BF$87,$A$87-$A64+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="23"/>
       <c r="J64" s="22"/>
-      <c r="K64" s="1"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -8457,8 +8548,9 @@
       <c r="CQ64" s="1"/>
       <c r="CR64" s="1"/>
       <c r="CS64" s="1"/>
-    </row>
-    <row r="65" spans="1:97">
+      <c r="CT64" s="1"/>
+    </row>
+    <row r="65" spans="1:98">
       <c r="A65">
         <v>55</v>
       </c>
@@ -8466,18 +8558,18 @@
       <c r="C65" s="36"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
-      <c r="F65" s="23">
-        <f>IFERROR( HLOOKUP("BE",K65:BE$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",K65:BE$87,$A$87-$A65+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F65" s="22"/>
       <c r="G65" s="23">
-        <f>IFERROR( HLOOKUP("BE",K65:BE$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",K65:BE$87,$A$87-$A65+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$87,$A$87-$A65+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="23">
+        <f>IFERROR( HLOOKUP("BE",L65:BF$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$87,$A$87-$A65+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="23"/>
       <c r="J65" s="22"/>
-      <c r="K65" s="1"/>
+      <c r="K65" s="22"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -8564,8 +8656,9 @@
       <c r="CQ65" s="1"/>
       <c r="CR65" s="1"/>
       <c r="CS65" s="1"/>
-    </row>
-    <row r="66" spans="1:97">
+      <c r="CT65" s="1"/>
+    </row>
+    <row r="66" spans="1:98">
       <c r="A66">
         <v>56</v>
       </c>
@@ -8573,18 +8666,18 @@
       <c r="C66" s="28"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="23">
-        <f>IFERROR( HLOOKUP("BE",K66:BE$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",K66:BE$87,$A$87-$A66+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F66" s="22"/>
       <c r="G66" s="23">
-        <f>IFERROR( HLOOKUP("BE",K66:BE$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",K66:BE$87,$A$87-$A66+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L66:BF$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$87,$A$87-$A66+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="23">
+        <f>IFERROR( HLOOKUP("BE",L66:BF$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$87,$A$87-$A66+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="23"/>
       <c r="J66" s="22"/>
-      <c r="K66" s="1"/>
+      <c r="K66" s="22"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -8671,14 +8764,15 @@
       <c r="CQ66" s="1"/>
       <c r="CR66" s="1"/>
       <c r="CS66" s="1"/>
-    </row>
-    <row r="67" spans="1:97" s="20" customFormat="1">
+      <c r="CT66" s="1"/>
+    </row>
+    <row r="67" spans="1:98" s="20" customFormat="1">
       <c r="A67">
         <v>57</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
@@ -8736,7 +8830,7 @@
       <c r="BE67" s="21"/>
       <c r="BF67" s="21"/>
       <c r="BG67" s="21"/>
-      <c r="BH67" s="1"/>
+      <c r="BH67" s="21"/>
       <c r="BI67" s="1"/>
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
@@ -8774,29 +8868,30 @@
       <c r="CQ67" s="1"/>
       <c r="CR67" s="1"/>
       <c r="CS67" s="1"/>
-    </row>
-    <row r="68" spans="1:97">
+      <c r="CT67" s="1"/>
+    </row>
+    <row r="68" spans="1:98">
       <c r="A68">
         <v>58</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
-      <c r="F68" s="23">
-        <f>IFERROR( HLOOKUP("BE",K68:BE$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",K68:BE$87,$A$87-$A68+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F68" s="22"/>
       <c r="G68" s="23">
-        <f>IFERROR( HLOOKUP("BE",K68:BE$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",K68:BE$87,$A$87-$A68+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="23"/>
-      <c r="I68" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$87,$A$87-$A68+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="23">
+        <f>IFERROR( HLOOKUP("BE",L68:BF$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$87,$A$87-$A68+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="23"/>
       <c r="J68" s="22"/>
-      <c r="K68" s="1"/>
+      <c r="K68" s="22"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -8883,8 +8978,9 @@
       <c r="CQ68" s="1"/>
       <c r="CR68" s="1"/>
       <c r="CS68" s="1"/>
-    </row>
-    <row r="69" spans="1:97">
+      <c r="CT68" s="1"/>
+    </row>
+    <row r="69" spans="1:98">
       <c r="A69">
         <v>59</v>
       </c>
@@ -8892,18 +8988,18 @@
       <c r="C69" s="36"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="23">
-        <f>IFERROR( HLOOKUP("BE",K69:BE$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",K69:BE$87,$A$87-$A69+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F69" s="22"/>
       <c r="G69" s="23">
-        <f>IFERROR( HLOOKUP("BE",K69:BE$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",K69:BE$87,$A$87-$A69+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$87,$A$87-$A69+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="23">
+        <f>IFERROR( HLOOKUP("BE",L69:BF$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$87,$A$87-$A69+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="23"/>
       <c r="J69" s="22"/>
-      <c r="K69" s="1"/>
+      <c r="K69" s="22"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -8990,8 +9086,9 @@
       <c r="CQ69" s="1"/>
       <c r="CR69" s="1"/>
       <c r="CS69" s="1"/>
-    </row>
-    <row r="70" spans="1:97">
+      <c r="CT69" s="1"/>
+    </row>
+    <row r="70" spans="1:98">
       <c r="A70">
         <v>60</v>
       </c>
@@ -8999,18 +9096,18 @@
       <c r="C70" s="36"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
-      <c r="F70" s="23">
-        <f>IFERROR( HLOOKUP("BE",K70:BE$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",K70:BE$87,$A$87-$A70+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F70" s="22"/>
       <c r="G70" s="23">
-        <f>IFERROR( HLOOKUP("BE",K70:BE$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",K70:BE$87,$A$87-$A70+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="23"/>
-      <c r="I70" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$87,$A$87-$A70+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="23">
+        <f>IFERROR( HLOOKUP("BE",L70:BF$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$87,$A$87-$A70+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="23"/>
       <c r="J70" s="22"/>
-      <c r="K70" s="1"/>
+      <c r="K70" s="22"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -9097,8 +9194,9 @@
       <c r="CQ70" s="1"/>
       <c r="CR70" s="1"/>
       <c r="CS70" s="1"/>
-    </row>
-    <row r="71" spans="1:97">
+      <c r="CT70" s="1"/>
+    </row>
+    <row r="71" spans="1:98">
       <c r="A71">
         <v>61</v>
       </c>
@@ -9106,18 +9204,18 @@
       <c r="C71" s="36"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
-      <c r="F71" s="23">
-        <f>IFERROR( HLOOKUP("BE",K71:BE$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",K71:BE$87,$A$87-$A71+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F71" s="22"/>
       <c r="G71" s="23">
-        <f>IFERROR( HLOOKUP("BE",K71:BE$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",K71:BE$87,$A$87-$A71+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="23"/>
-      <c r="I71" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L71:BF$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",L71:BF$87,$A$87-$A71+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="23">
+        <f>IFERROR( HLOOKUP("BE",L71:BF$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",L71:BF$87,$A$87-$A71+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="23"/>
       <c r="J71" s="22"/>
-      <c r="K71" s="1"/>
+      <c r="K71" s="22"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -9204,8 +9302,9 @@
       <c r="CQ71" s="1"/>
       <c r="CR71" s="1"/>
       <c r="CS71" s="1"/>
-    </row>
-    <row r="72" spans="1:97">
+      <c r="CT71" s="1"/>
+    </row>
+    <row r="72" spans="1:98">
       <c r="A72">
         <v>62</v>
       </c>
@@ -9213,18 +9312,18 @@
       <c r="C72" s="36"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
-      <c r="F72" s="23">
-        <f>IFERROR( HLOOKUP("BE",K72:BE$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",K72:BE$87,$A$87-$A72+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F72" s="22"/>
       <c r="G72" s="23">
-        <f>IFERROR( HLOOKUP("BE",K72:BE$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",K72:BE$87,$A$87-$A72+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="23"/>
-      <c r="I72" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$87,$A$87-$A72+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="23">
+        <f>IFERROR( HLOOKUP("BE",L72:BF$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$87,$A$87-$A72+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="23"/>
       <c r="J72" s="22"/>
-      <c r="K72" s="1"/>
+      <c r="K72" s="22"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -9311,29 +9410,30 @@
       <c r="CQ72" s="1"/>
       <c r="CR72" s="1"/>
       <c r="CS72" s="1"/>
-    </row>
-    <row r="73" spans="1:97">
+      <c r="CT72" s="1"/>
+    </row>
+    <row r="73" spans="1:98">
       <c r="A73">
         <v>63</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="23">
-        <f>IFERROR( HLOOKUP("BE",K73:BE$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",K73:BE$87,$A$87-$A73+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F73" s="22"/>
       <c r="G73" s="23">
-        <f>IFERROR( HLOOKUP("BE",K73:BE$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",K73:BE$87,$A$87-$A73+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="23"/>
-      <c r="I73" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L73:BF$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$87,$A$87-$A73+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="23">
+        <f>IFERROR( HLOOKUP("BE",L73:BF$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$87,$A$87-$A73+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="23"/>
       <c r="J73" s="22"/>
-      <c r="K73" s="1"/>
+      <c r="K73" s="22"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -9420,8 +9520,9 @@
       <c r="CQ73" s="1"/>
       <c r="CR73" s="1"/>
       <c r="CS73" s="1"/>
-    </row>
-    <row r="74" spans="1:97">
+      <c r="CT73" s="1"/>
+    </row>
+    <row r="74" spans="1:98">
       <c r="A74">
         <v>64</v>
       </c>
@@ -9429,18 +9530,18 @@
       <c r="C74" s="36"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="23">
-        <f>IFERROR( HLOOKUP("BE",K74:BE$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",K74:BE$87,$A$87-$A74+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F74" s="22"/>
       <c r="G74" s="23">
-        <f>IFERROR( HLOOKUP("BE",K74:BE$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",K74:BE$87,$A$87-$A74+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="23"/>
-      <c r="I74" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$87,$A$87-$A74+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="23">
+        <f>IFERROR( HLOOKUP("BE",L74:BF$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$87,$A$87-$A74+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="23"/>
       <c r="J74" s="22"/>
-      <c r="K74" s="1"/>
+      <c r="K74" s="22"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -9527,8 +9628,9 @@
       <c r="CQ74" s="1"/>
       <c r="CR74" s="1"/>
       <c r="CS74" s="1"/>
-    </row>
-    <row r="75" spans="1:97">
+      <c r="CT74" s="1"/>
+    </row>
+    <row r="75" spans="1:98">
       <c r="A75">
         <v>65</v>
       </c>
@@ -9536,18 +9638,18 @@
       <c r="C75" s="36"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="23">
-        <f>IFERROR( HLOOKUP("BE",K75:BE$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",K75:BE$87,$A$87-$A75+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F75" s="22"/>
       <c r="G75" s="23">
-        <f>IFERROR( HLOOKUP("BE",K75:BE$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",K75:BE$87,$A$87-$A75+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="23"/>
-      <c r="I75" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$87,$A$87-$A75+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="23">
+        <f>IFERROR( HLOOKUP("BE",L75:BF$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$87,$A$87-$A75+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="23"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="1"/>
+      <c r="K75" s="22"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -9634,8 +9736,9 @@
       <c r="CQ75" s="1"/>
       <c r="CR75" s="1"/>
       <c r="CS75" s="1"/>
-    </row>
-    <row r="76" spans="1:97">
+      <c r="CT75" s="1"/>
+    </row>
+    <row r="76" spans="1:98">
       <c r="A76">
         <v>66</v>
       </c>
@@ -9643,18 +9746,18 @@
       <c r="C76" s="36"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
-      <c r="F76" s="23">
-        <f>IFERROR( HLOOKUP("BE",K76:BE$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",K76:BE$87,$A$87-$A76+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F76" s="22"/>
       <c r="G76" s="23">
-        <f>IFERROR( HLOOKUP("BE",K76:BE$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",K76:BE$87,$A$87-$A76+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="23"/>
-      <c r="I76" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$87,$A$87-$A76+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="23">
+        <f>IFERROR( HLOOKUP("BE",L76:BF$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$87,$A$87-$A76+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="23"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="1"/>
+      <c r="K76" s="22"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -9741,8 +9844,9 @@
       <c r="CQ76" s="1"/>
       <c r="CR76" s="1"/>
       <c r="CS76" s="1"/>
-    </row>
-    <row r="77" spans="1:97">
+      <c r="CT76" s="1"/>
+    </row>
+    <row r="77" spans="1:98">
       <c r="A77">
         <v>67</v>
       </c>
@@ -9750,18 +9854,18 @@
       <c r="C77" s="36"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
-      <c r="F77" s="23">
-        <f>IFERROR( HLOOKUP("BE",K77:BE$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",K77:BE$87,$A$87-$A77+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F77" s="22"/>
       <c r="G77" s="23">
-        <f>IFERROR( HLOOKUP("BE",K77:BE$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",K77:BE$87,$A$87-$A77+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="23"/>
-      <c r="I77" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$87,$A$87-$A77+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="23">
+        <f>IFERROR( HLOOKUP("BE",L77:BF$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$87,$A$87-$A77+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="23"/>
       <c r="J77" s="22"/>
-      <c r="K77" s="1"/>
+      <c r="K77" s="22"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -9848,29 +9952,30 @@
       <c r="CQ77" s="1"/>
       <c r="CR77" s="1"/>
       <c r="CS77" s="1"/>
-    </row>
-    <row r="78" spans="1:97">
+      <c r="CT77" s="1"/>
+    </row>
+    <row r="78" spans="1:98">
       <c r="A78">
         <v>68</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
-      <c r="F78" s="23">
-        <f>IFERROR( HLOOKUP("BE",K78:BE$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",K78:BE$87,$A$87-$A78+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F78" s="22"/>
       <c r="G78" s="23">
-        <f>IFERROR( HLOOKUP("BE",K78:BE$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",K78:BE$87,$A$87-$A78+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="23"/>
-      <c r="I78" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$87,$A$87-$A78+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="23">
+        <f>IFERROR( HLOOKUP("BE",L78:BF$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$87,$A$87-$A78+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="23"/>
       <c r="J78" s="22"/>
-      <c r="K78" s="1"/>
+      <c r="K78" s="22"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -9957,8 +10062,9 @@
       <c r="CQ78" s="1"/>
       <c r="CR78" s="1"/>
       <c r="CS78" s="1"/>
-    </row>
-    <row r="79" spans="1:97">
+      <c r="CT78" s="1"/>
+    </row>
+    <row r="79" spans="1:98">
       <c r="A79">
         <v>69</v>
       </c>
@@ -9966,18 +10072,18 @@
       <c r="C79" s="36"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
-      <c r="F79" s="23">
-        <f>IFERROR( HLOOKUP("BE",K79:BE$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",K79:BE$87,$A$87-$A79+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F79" s="22"/>
       <c r="G79" s="23">
-        <f>IFERROR( HLOOKUP("BE",K79:BE$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",K79:BE$87,$A$87-$A79+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="23"/>
-      <c r="I79" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$87,$A$87-$A79+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="23">
+        <f>IFERROR( HLOOKUP("BE",L79:BF$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$87,$A$87-$A79+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="23"/>
       <c r="J79" s="22"/>
-      <c r="K79" s="1"/>
+      <c r="K79" s="22"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -10064,8 +10170,9 @@
       <c r="CQ79" s="1"/>
       <c r="CR79" s="1"/>
       <c r="CS79" s="1"/>
-    </row>
-    <row r="80" spans="1:97">
+      <c r="CT79" s="1"/>
+    </row>
+    <row r="80" spans="1:98">
       <c r="A80">
         <v>70</v>
       </c>
@@ -10073,18 +10180,18 @@
       <c r="C80" s="36"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
-      <c r="F80" s="23">
-        <f>IFERROR( HLOOKUP("BE",K80:BE$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",K80:BE$87,$A$87-$A80+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F80" s="22"/>
       <c r="G80" s="23">
-        <f>IFERROR( HLOOKUP("BE",K80:BE$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",K80:BE$87,$A$87-$A80+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="23"/>
-      <c r="I80" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$87,$A$87-$A80+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="23">
+        <f>IFERROR( HLOOKUP("BE",L80:BF$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$87,$A$87-$A80+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="23"/>
       <c r="J80" s="22"/>
-      <c r="K80" s="1"/>
+      <c r="K80" s="22"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -10171,8 +10278,9 @@
       <c r="CQ80" s="1"/>
       <c r="CR80" s="1"/>
       <c r="CS80" s="1"/>
-    </row>
-    <row r="81" spans="1:97">
+      <c r="CT80" s="1"/>
+    </row>
+    <row r="81" spans="1:98">
       <c r="A81">
         <v>71</v>
       </c>
@@ -10180,18 +10288,18 @@
       <c r="C81" s="36"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
-      <c r="F81" s="23">
-        <f>IFERROR( HLOOKUP("BE",K81:BE$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",K81:BE$87,$A$87-$A81+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F81" s="22"/>
       <c r="G81" s="23">
-        <f>IFERROR( HLOOKUP("BE",K81:BE$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",K81:BE$87,$A$87-$A81+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="23"/>
-      <c r="I81" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$87,$A$87-$A81+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="23">
+        <f>IFERROR( HLOOKUP("BE",L81:BF$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$87,$A$87-$A81+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="23"/>
       <c r="J81" s="22"/>
-      <c r="K81" s="1"/>
+      <c r="K81" s="22"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -10278,8 +10386,9 @@
       <c r="CQ81" s="1"/>
       <c r="CR81" s="1"/>
       <c r="CS81" s="1"/>
-    </row>
-    <row r="82" spans="1:97">
+      <c r="CT81" s="1"/>
+    </row>
+    <row r="82" spans="1:98">
       <c r="A82">
         <v>72</v>
       </c>
@@ -10287,18 +10396,18 @@
       <c r="C82" s="28"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
-      <c r="F82" s="23">
-        <f>IFERROR( HLOOKUP("BE",K82:BE$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",K82:BE$87,$A$87-$A82+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F82" s="22"/>
       <c r="G82" s="23">
-        <f>IFERROR( HLOOKUP("BE",K82:BE$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",K82:BE$87,$A$87-$A82+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="23"/>
-      <c r="I82" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$87,$A$87-$A82+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="23">
+        <f>IFERROR( HLOOKUP("BE",L82:BF$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$87,$A$87-$A82+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="23"/>
       <c r="J82" s="22"/>
-      <c r="K82" s="1"/>
+      <c r="K82" s="22"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -10385,8 +10494,9 @@
       <c r="CQ82" s="1"/>
       <c r="CR82" s="1"/>
       <c r="CS82" s="1"/>
-    </row>
-    <row r="83" spans="1:97">
+      <c r="CT82" s="1"/>
+    </row>
+    <row r="83" spans="1:98">
       <c r="A83">
         <v>73</v>
       </c>
@@ -10394,18 +10504,18 @@
       <c r="C83" s="28"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
-      <c r="F83" s="23">
-        <f>IFERROR( HLOOKUP("BE",K83:BE$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",K83:BE$87,$A$87-$A83+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F83" s="22"/>
       <c r="G83" s="23">
-        <f>IFERROR( HLOOKUP("BE",K83:BE$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",K83:BE$87,$A$87-$A83+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="23"/>
-      <c r="I83" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$87,$A$87-$A83+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="23">
+        <f>IFERROR( HLOOKUP("BE",L83:BF$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$87,$A$87-$A83+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="23"/>
       <c r="J83" s="22"/>
-      <c r="K83" s="1"/>
+      <c r="K83" s="22"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -10492,8 +10602,9 @@
       <c r="CQ83" s="1"/>
       <c r="CR83" s="1"/>
       <c r="CS83" s="1"/>
-    </row>
-    <row r="84" spans="1:97">
+      <c r="CT83" s="1"/>
+    </row>
+    <row r="84" spans="1:98">
       <c r="A84">
         <v>74</v>
       </c>
@@ -10501,18 +10612,18 @@
       <c r="C84" s="28"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
-      <c r="F84" s="23">
-        <f>IFERROR( HLOOKUP("BE",K84:BE$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",K84:BE$87,$A$87-$A84+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F84" s="22"/>
       <c r="G84" s="23">
-        <f>IFERROR( HLOOKUP("BE",K84:BE$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",K84:BE$87,$A$87-$A84+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="23"/>
-      <c r="I84" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$87,$A$87-$A84+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="23">
+        <f>IFERROR( HLOOKUP("BE",L84:BF$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$87,$A$87-$A84+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="23"/>
       <c r="J84" s="22"/>
-      <c r="K84" s="1"/>
+      <c r="K84" s="22"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -10599,14 +10710,15 @@
       <c r="CQ84" s="1"/>
       <c r="CR84" s="1"/>
       <c r="CS84" s="1"/>
-    </row>
-    <row r="85" spans="1:97" s="20" customFormat="1">
+      <c r="CT84" s="1"/>
+    </row>
+    <row r="85" spans="1:98" s="20" customFormat="1">
       <c r="A85">
         <v>75</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -10702,251 +10814,253 @@
       <c r="CQ85" s="21"/>
       <c r="CR85" s="21"/>
       <c r="CS85" s="21"/>
-    </row>
-    <row r="86" spans="1:97">
+      <c r="CT85" s="21"/>
+    </row>
+    <row r="86" spans="1:98">
       <c r="A86">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:97" s="24" customFormat="1">
+    <row r="87" spans="1:98" s="24" customFormat="1">
       <c r="A87">
         <v>77</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F87" s="25"/>
+        <v>51</v>
+      </c>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
-      <c r="K87" s="25">
-        <f>K9</f>
+      <c r="I87" s="25"/>
+      <c r="L87" s="25">
+        <f>L9</f>
         <v>41030</v>
       </c>
-      <c r="L87" s="25">
-        <f t="shared" ref="L87:BE87" si="44">L9</f>
+      <c r="M87" s="25">
+        <f t="shared" ref="M87:BF87" si="44">M9</f>
         <v>41031</v>
       </c>
-      <c r="M87" s="25">
+      <c r="N87" s="25">
         <f t="shared" si="44"/>
         <v>41032</v>
       </c>
-      <c r="N87" s="25">
+      <c r="O87" s="25">
         <f t="shared" si="44"/>
         <v>41033</v>
       </c>
-      <c r="O87" s="25">
+      <c r="P87" s="25">
         <f t="shared" si="44"/>
         <v>41034</v>
       </c>
-      <c r="P87" s="25">
+      <c r="Q87" s="25">
         <f t="shared" si="44"/>
         <v>41035</v>
       </c>
-      <c r="Q87" s="25">
+      <c r="R87" s="25">
         <f t="shared" si="44"/>
         <v>41036</v>
       </c>
-      <c r="R87" s="25">
+      <c r="S87" s="25">
         <f t="shared" si="44"/>
         <v>41037</v>
       </c>
-      <c r="S87" s="25">
+      <c r="T87" s="25">
         <f t="shared" si="44"/>
         <v>41038</v>
       </c>
-      <c r="T87" s="25">
+      <c r="U87" s="25">
         <f t="shared" si="44"/>
         <v>41039</v>
       </c>
-      <c r="U87" s="25">
+      <c r="V87" s="25">
         <f t="shared" si="44"/>
         <v>41040</v>
       </c>
-      <c r="V87" s="25">
+      <c r="W87" s="25">
         <f t="shared" si="44"/>
         <v>41041</v>
       </c>
-      <c r="W87" s="25">
+      <c r="X87" s="25">
         <f t="shared" si="44"/>
         <v>41042</v>
       </c>
-      <c r="X87" s="25">
+      <c r="Y87" s="25">
         <f t="shared" si="44"/>
         <v>41043</v>
       </c>
-      <c r="Y87" s="25">
+      <c r="Z87" s="25">
         <f t="shared" si="44"/>
         <v>41044</v>
       </c>
-      <c r="Z87" s="25">
+      <c r="AA87" s="25">
         <f t="shared" si="44"/>
         <v>41045</v>
       </c>
-      <c r="AA87" s="25">
+      <c r="AB87" s="25">
         <f t="shared" si="44"/>
         <v>41046</v>
       </c>
-      <c r="AB87" s="25">
+      <c r="AC87" s="25">
         <f t="shared" si="44"/>
         <v>41047</v>
       </c>
-      <c r="AC87" s="25">
+      <c r="AD87" s="25">
         <f t="shared" si="44"/>
         <v>41048</v>
       </c>
-      <c r="AD87" s="25">
+      <c r="AE87" s="25">
         <f t="shared" si="44"/>
         <v>41049</v>
       </c>
-      <c r="AE87" s="25">
+      <c r="AF87" s="25">
         <f t="shared" si="44"/>
         <v>41050</v>
       </c>
-      <c r="AF87" s="25">
+      <c r="AG87" s="25">
         <f t="shared" si="44"/>
         <v>41051</v>
       </c>
-      <c r="AG87" s="25">
+      <c r="AH87" s="25">
         <f t="shared" si="44"/>
         <v>41052</v>
       </c>
-      <c r="AH87" s="25">
+      <c r="AI87" s="25">
         <f t="shared" si="44"/>
         <v>41053</v>
       </c>
-      <c r="AI87" s="25">
+      <c r="AJ87" s="25">
         <f t="shared" si="44"/>
         <v>41054</v>
       </c>
-      <c r="AJ87" s="25">
+      <c r="AK87" s="25">
         <f t="shared" si="44"/>
         <v>41055</v>
       </c>
-      <c r="AK87" s="25">
+      <c r="AL87" s="25">
         <f t="shared" si="44"/>
         <v>41056</v>
       </c>
-      <c r="AL87" s="25">
+      <c r="AM87" s="25">
         <f t="shared" si="44"/>
         <v>41057</v>
       </c>
-      <c r="AM87" s="25">
+      <c r="AN87" s="25">
         <f t="shared" si="44"/>
         <v>41058</v>
       </c>
-      <c r="AN87" s="25">
+      <c r="AO87" s="25">
         <f t="shared" si="44"/>
         <v>41059</v>
       </c>
-      <c r="AO87" s="25">
+      <c r="AP87" s="25">
         <f t="shared" si="44"/>
         <v>41060</v>
       </c>
-      <c r="AP87" s="25">
+      <c r="AQ87" s="25">
         <f t="shared" si="44"/>
         <v>41061</v>
       </c>
-      <c r="AQ87" s="25">
+      <c r="AR87" s="25">
         <f t="shared" si="44"/>
         <v>41062</v>
       </c>
-      <c r="AR87" s="25">
+      <c r="AS87" s="25">
         <f t="shared" si="44"/>
         <v>41063</v>
       </c>
-      <c r="AS87" s="25">
+      <c r="AT87" s="25">
         <f t="shared" si="44"/>
         <v>41064</v>
       </c>
-      <c r="AT87" s="25">
+      <c r="AU87" s="25">
         <f t="shared" si="44"/>
         <v>41065</v>
       </c>
-      <c r="AU87" s="25">
+      <c r="AV87" s="25">
         <f t="shared" si="44"/>
         <v>41066</v>
       </c>
-      <c r="AV87" s="25">
+      <c r="AW87" s="25">
         <f t="shared" si="44"/>
         <v>41067</v>
       </c>
-      <c r="AW87" s="25">
+      <c r="AX87" s="25">
         <f t="shared" si="44"/>
         <v>41068</v>
       </c>
-      <c r="AX87" s="25">
+      <c r="AY87" s="25">
         <f t="shared" si="44"/>
         <v>41069</v>
       </c>
-      <c r="AY87" s="25">
+      <c r="AZ87" s="25">
         <f t="shared" si="44"/>
         <v>41070</v>
       </c>
-      <c r="AZ87" s="25">
+      <c r="BA87" s="25">
         <f t="shared" si="44"/>
         <v>41071</v>
       </c>
-      <c r="BA87" s="25">
+      <c r="BB87" s="25">
         <f t="shared" si="44"/>
         <v>41072</v>
       </c>
-      <c r="BB87" s="25">
+      <c r="BC87" s="25">
         <f t="shared" si="44"/>
         <v>41073</v>
       </c>
-      <c r="BC87" s="25">
+      <c r="BD87" s="25">
         <f t="shared" si="44"/>
         <v>41074</v>
       </c>
-      <c r="BD87" s="25">
+      <c r="BE87" s="25">
         <f t="shared" si="44"/>
         <v>41075</v>
       </c>
-      <c r="BE87" s="25">
+      <c r="BF87" s="25">
         <f t="shared" si="44"/>
         <v>41076</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:BF87">
+  <autoFilter ref="A10:BG87">
     <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
   </autoFilter>
-  <conditionalFormatting sqref="K86:AX86 K51:BE51 K53:BE84 K38:BE49 K20:BE36 K11:BE14 K16:BE18 BH16:CS84">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
+  <conditionalFormatting sqref="L86:AY86 L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
+    <cfRule type="cellIs" dxfId="6" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BE51 K53:BE84 K38:BE49 K20:BE36 K11:BE14 K16:BE18 BH16:CS84">
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
+  <conditionalFormatting sqref="L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
+    <cfRule type="cellIs" dxfId="3" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51 H53:H84 H28:H36 H16:H18 H11:H14 H20:H26 H38:H49">
-    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
-      <formula>$G$5</formula>
+  <conditionalFormatting sqref="I51 I53:I84 I28:I36 I16:I18 I11:I14 I20:I26 I38:I49">
+    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+      <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14 H16:H18 H28:H36 H51 H53:H84 H20:H26 H39:H49">
-    <cfRule type="expression" dxfId="16" priority="31">
-      <formula>AND(H11&lt;&gt;$G$5,$G11&lt;TODAY())</formula>
+  <conditionalFormatting sqref="I11:I14 I16:I18 I28:I36 I51 I53:I84 I20:I26 I39:I49">
+    <cfRule type="expression" dxfId="1" priority="31">
+      <formula>AND(I11&lt;&gt;$H$5,$H11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="15" priority="1">
-      <formula>AND(H38&lt;&gt;$G$5,$G38&lt;TODAY())</formula>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(I38&lt;&gt;$H$5,$H38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51 H38:H49 H20:H26 H28:H31 H33:H36 H68:H84 H53:H59 H61:H66 H11:H18">
-      <formula1>$G$2:$G$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I51 I11:I18 I61:I66 I53:I59 I68:I84 I33:I36 I28:I31 I20:I26 I38:I49">
+      <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E85">
       <formula1>thanh_vien</formula1>
     </dataValidation>
   </dataValidations>
@@ -10959,19 +11073,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
@@ -10985,25 +11099,25 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="60">
@@ -11011,37 +11125,37 @@
         <v>38</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>67</v>
-      </c>
       <c r="E2" s="55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H2" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>133</v>
-      </c>
       <c r="K2" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
@@ -11052,13 +11166,13 @@
         <v>38</v>
       </c>
       <c r="T2" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="42" t="s">
-        <v>77</v>
-      </c>
       <c r="V2" s="53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -11066,13 +11180,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>10</v>
@@ -11105,10 +11219,10 @@
         <v>1</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -11116,13 +11230,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>10</v>
@@ -11143,13 +11257,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -11157,13 +11271,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>10</v>
@@ -11192,13 +11306,13 @@
         <v>3</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="V5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -11206,13 +11320,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>10</v>
@@ -11237,13 +11351,13 @@
         <v>4</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -11251,13 +11365,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>10</v>
@@ -11282,13 +11396,13 @@
         <v>5</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -11296,13 +11410,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>10</v>
@@ -11325,13 +11439,13 @@
         <v>6</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -11339,13 +11453,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>10</v>
@@ -11374,13 +11488,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41" t="s">
@@ -11403,13 +11517,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41" t="s">
@@ -11436,13 +11550,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -11476,32 +11590,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:K11">
-    <cfRule type="containsBlanks" dxfId="11" priority="6">
+    <cfRule type="containsBlanks" dxfId="12" priority="6">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsBlanks" dxfId="9" priority="5">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsBlanks" dxfId="5" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(L7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:L12">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -944,6 +944,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1004,55 +1053,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1614,10 +1614,10 @@
   <dimension ref="A1:CT87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11026,33 +11026,33 @@
     <filterColumn colId="4"/>
   </autoFilter>
   <conditionalFormatting sqref="L86:AY86 L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
-    <cfRule type="cellIs" dxfId="6" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
-    <cfRule type="cellIs" dxfId="3" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51 I53:I84 I28:I36 I16:I18 I11:I14 I20:I26 I38:I49">
-    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I14 I16:I18 I28:I36 I51 I53:I84 I20:I26 I39:I49">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="8" priority="31">
       <formula>AND(I11&lt;&gt;$H$5,$H11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(I38&lt;&gt;$H$5,$H38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11585,37 +11585,37 @@
     <mergeCell ref="T14:U14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G11">
-    <cfRule type="containsBlanks" dxfId="13" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:K11">
-    <cfRule type="containsBlanks" dxfId="12" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsBlanks" dxfId="11" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(L7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:L12">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -1617,7 +1617,7 @@
       <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -14,8 +14,9 @@
     <sheet name="Quyết toán" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BG$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$14:$BG$91</definedName>
     <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$T$4:$T$12</definedName>
+    <definedName name="members">'Thành viên - Vị trí'!$C$3:$C$13</definedName>
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
     <definedName name="VI_TRI">'Thành viên - Vị trí'!$T$3:$T$10</definedName>
   </definedNames>
@@ -24,6 +25,65 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Khảo sát bên TOPICA, Giảng viên sẽ dùng tài khoản nào để đăng nhập(mã giảng viên, tạo account mới theo tên,…)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sử dụng Procedure
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -152,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="153">
   <si>
     <t>GVCM</t>
   </si>
@@ -592,13 +652,37 @@
     <t>Thêm dữ liệu công việc giảng viên mới vào CSDL</t>
   </si>
   <si>
-    <t>Assign công</t>
-  </si>
-  <si>
     <t>Người phụ trách</t>
   </si>
   <si>
     <t>Người thiết kế</t>
+  </si>
+  <si>
+    <t>Đổ toàn bộ account giảng viên vào bảng NGUOI_SU_SUNG</t>
+  </si>
+  <si>
+    <t>Assign công việc giảng viên</t>
+  </si>
+  <si>
+    <t>Gen ra thanh toán từ công việc giảng viên</t>
+  </si>
+  <si>
+    <t>Đã đọc tài liệu hướng dẫn SVN</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục các hồ sơ</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin hồ sơ theo giảng viên</t>
+  </si>
+  <si>
+    <t>Theo dõi trạng thái hồ sơ giảng viên</t>
+  </si>
+  <si>
+    <t>Viết được 1 Procedure sử dụng Cursor</t>
+  </si>
+  <si>
+    <t>CD, RP, IE</t>
   </si>
 </sst>
 </file>
@@ -611,7 +695,7 @@
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +793,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -856,9 +947,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -874,7 +962,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,15 +987,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -934,69 +1012,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -1053,6 +1086,331 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1447,7 +1805,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1464,7 +1822,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="56"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1837,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1496,7 +1854,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="56"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1869,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="56"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1611,24 +1969,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT87"/>
+  <dimension ref="A1:CT91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" style="31" customWidth="1"/>
+    <col min="3" max="3" width="48" style="30" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1639,1580 +1997,1165 @@
       <c r="C1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:98">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16">
-        <f t="shared" ref="E2:E7" si="0">SUMIF($E$10:$E$85,C2,$F$10:$F$85)</f>
+      <c r="D2" s="40">
+        <f>SUMIF($E$14:$E$89,C2,$F$14:$F$89)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="M2" s="38"/>
-      <c r="P2" s="39"/>
+      <c r="L2" s="36"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:98">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="40">
+        <f>SUMIF($E$14:$E$89,C3,$F$14:$F$89)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:98">
+      <c r="B4" s="38"/>
+      <c r="C4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="40">
+        <f>SUMIF($E$14:$E$89,C4,$F$14:$F$89)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:98">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="40">
+        <f>SUMIF($E$14:$E$89,C5,$F$14:$F$89)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="40">
+        <f t="shared" ref="D6:D11" si="0">SUMIF($E$14:$E$89,C6,$F$14:$F$89)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="1:98">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="1:98">
-      <c r="B4" s="40"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:98">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:98">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="1:98">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:98">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="57"/>
+    </row>
+    <row r="10" spans="1:98">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:98">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:98">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="1:98" s="34" customFormat="1">
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="L8" s="34">
-        <f>L9</f>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="57"/>
+    </row>
+    <row r="12" spans="1:98" s="32" customFormat="1">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="L12" s="32">
+        <f>L13</f>
         <v>41030</v>
       </c>
-      <c r="M8" s="34">
-        <f t="shared" ref="M8:BX8" si="1">M9</f>
+      <c r="M12" s="32">
+        <f t="shared" ref="M12:BX12" si="1">M13</f>
         <v>41031</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N12" s="32">
         <f t="shared" si="1"/>
         <v>41032</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O12" s="32">
         <f t="shared" si="1"/>
         <v>41033</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P12" s="32">
         <f t="shared" si="1"/>
         <v>41034</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q12" s="32">
         <f t="shared" si="1"/>
         <v>41035</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R12" s="32">
         <f t="shared" si="1"/>
         <v>41036</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S12" s="32">
         <f t="shared" si="1"/>
         <v>41037</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T12" s="32">
         <f t="shared" si="1"/>
         <v>41038</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U12" s="32">
         <f t="shared" si="1"/>
         <v>41039</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V12" s="32">
         <f t="shared" si="1"/>
         <v>41040</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W12" s="32">
         <f t="shared" si="1"/>
         <v>41041</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X12" s="32">
         <f t="shared" si="1"/>
         <v>41042</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y12" s="32">
         <f t="shared" si="1"/>
         <v>41043</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z12" s="32">
         <f t="shared" si="1"/>
         <v>41044</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA12" s="32">
         <f t="shared" si="1"/>
         <v>41045</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB12" s="32">
         <f t="shared" si="1"/>
         <v>41046</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AC12" s="32">
         <f t="shared" si="1"/>
         <v>41047</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD12" s="32">
         <f t="shared" si="1"/>
         <v>41048</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE12" s="32">
         <f t="shared" si="1"/>
         <v>41049</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF12" s="32">
         <f t="shared" si="1"/>
         <v>41050</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG12" s="32">
         <f t="shared" si="1"/>
         <v>41051</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH12" s="32">
         <f t="shared" si="1"/>
         <v>41052</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AI12" s="32">
         <f t="shared" si="1"/>
         <v>41053</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ12" s="32">
         <f t="shared" si="1"/>
         <v>41054</v>
       </c>
-      <c r="AK8" s="34">
+      <c r="AK12" s="32">
         <f t="shared" si="1"/>
         <v>41055</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AL12" s="32">
         <f t="shared" si="1"/>
         <v>41056</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM12" s="32">
         <f t="shared" si="1"/>
         <v>41057</v>
       </c>
-      <c r="AN8" s="34">
+      <c r="AN12" s="32">
         <f t="shared" si="1"/>
         <v>41058</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="AO12" s="32">
         <f t="shared" si="1"/>
         <v>41059</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AP12" s="32">
         <f t="shared" si="1"/>
         <v>41060</v>
       </c>
-      <c r="AQ8" s="34">
+      <c r="AQ12" s="32">
         <f t="shared" si="1"/>
         <v>41061</v>
       </c>
-      <c r="AR8" s="34">
+      <c r="AR12" s="32">
         <f t="shared" si="1"/>
         <v>41062</v>
       </c>
-      <c r="AS8" s="34">
+      <c r="AS12" s="32">
         <f t="shared" si="1"/>
         <v>41063</v>
       </c>
-      <c r="AT8" s="34">
+      <c r="AT12" s="32">
         <f t="shared" si="1"/>
         <v>41064</v>
       </c>
-      <c r="AU8" s="34">
+      <c r="AU12" s="32">
         <f t="shared" si="1"/>
         <v>41065</v>
       </c>
-      <c r="AV8" s="34">
+      <c r="AV12" s="32">
         <f t="shared" si="1"/>
         <v>41066</v>
       </c>
-      <c r="AW8" s="34">
+      <c r="AW12" s="32">
         <f t="shared" si="1"/>
         <v>41067</v>
       </c>
-      <c r="AX8" s="34">
+      <c r="AX12" s="32">
         <f t="shared" si="1"/>
         <v>41068</v>
       </c>
-      <c r="AY8" s="34">
+      <c r="AY12" s="32">
         <f t="shared" si="1"/>
         <v>41069</v>
       </c>
-      <c r="AZ8" s="34">
+      <c r="AZ12" s="32">
         <f t="shared" si="1"/>
         <v>41070</v>
       </c>
-      <c r="BA8" s="34">
+      <c r="BA12" s="32">
         <f t="shared" si="1"/>
         <v>41071</v>
       </c>
-      <c r="BB8" s="34">
+      <c r="BB12" s="32">
         <f t="shared" si="1"/>
         <v>41072</v>
       </c>
-      <c r="BC8" s="34">
+      <c r="BC12" s="32">
         <f t="shared" si="1"/>
         <v>41073</v>
       </c>
-      <c r="BD8" s="34">
+      <c r="BD12" s="32">
         <f t="shared" si="1"/>
         <v>41074</v>
       </c>
-      <c r="BE8" s="34">
+      <c r="BE12" s="32">
         <f t="shared" si="1"/>
         <v>41075</v>
       </c>
-      <c r="BF8" s="34">
+      <c r="BF12" s="32">
         <f t="shared" si="1"/>
         <v>41076</v>
       </c>
-      <c r="BG8" s="34">
+      <c r="BG12" s="32">
         <f t="shared" si="1"/>
         <v>41077</v>
       </c>
-      <c r="BH8" s="34">
+      <c r="BH12" s="32">
         <f t="shared" si="1"/>
         <v>41078</v>
       </c>
-      <c r="BI8" s="34">
+      <c r="BI12" s="32">
         <f t="shared" si="1"/>
         <v>41079</v>
       </c>
-      <c r="BJ8" s="34">
+      <c r="BJ12" s="32">
         <f t="shared" si="1"/>
         <v>41080</v>
       </c>
-      <c r="BK8" s="34">
+      <c r="BK12" s="32">
         <f t="shared" si="1"/>
         <v>41081</v>
       </c>
-      <c r="BL8" s="34">
+      <c r="BL12" s="32">
         <f t="shared" si="1"/>
         <v>41082</v>
       </c>
-      <c r="BM8" s="34">
+      <c r="BM12" s="32">
         <f t="shared" si="1"/>
         <v>41083</v>
       </c>
-      <c r="BN8" s="34">
+      <c r="BN12" s="32">
         <f t="shared" si="1"/>
         <v>41084</v>
       </c>
-      <c r="BO8" s="34">
+      <c r="BO12" s="32">
         <f t="shared" si="1"/>
         <v>41085</v>
       </c>
-      <c r="BP8" s="34">
+      <c r="BP12" s="32">
         <f t="shared" si="1"/>
         <v>41086</v>
       </c>
-      <c r="BQ8" s="34">
+      <c r="BQ12" s="32">
         <f t="shared" si="1"/>
         <v>41087</v>
       </c>
-      <c r="BR8" s="34">
+      <c r="BR12" s="32">
         <f t="shared" si="1"/>
         <v>41088</v>
       </c>
-      <c r="BS8" s="34">
+      <c r="BS12" s="32">
         <f t="shared" si="1"/>
         <v>41089</v>
       </c>
-      <c r="BT8" s="34">
+      <c r="BT12" s="32">
         <f t="shared" si="1"/>
         <v>41090</v>
       </c>
-      <c r="BU8" s="34">
+      <c r="BU12" s="32">
         <f t="shared" si="1"/>
         <v>41091</v>
       </c>
-      <c r="BV8" s="34">
+      <c r="BV12" s="32">
         <f t="shared" si="1"/>
         <v>41092</v>
       </c>
-      <c r="BW8" s="34">
+      <c r="BW12" s="32">
         <f t="shared" si="1"/>
         <v>41093</v>
       </c>
-      <c r="BX8" s="34">
+      <c r="BX12" s="32">
         <f t="shared" si="1"/>
         <v>41094</v>
       </c>
-      <c r="BY8" s="34">
-        <f t="shared" ref="BY8:CT8" si="2">BY9</f>
+      <c r="BY12" s="32">
+        <f t="shared" ref="BY12:CT12" si="2">BY13</f>
         <v>41095</v>
       </c>
-      <c r="BZ8" s="34">
+      <c r="BZ12" s="32">
         <f t="shared" si="2"/>
         <v>41096</v>
       </c>
-      <c r="CA8" s="34">
+      <c r="CA12" s="32">
         <f t="shared" si="2"/>
         <v>41097</v>
       </c>
-      <c r="CB8" s="34">
+      <c r="CB12" s="32">
         <f t="shared" si="2"/>
         <v>41098</v>
       </c>
-      <c r="CC8" s="34">
+      <c r="CC12" s="32">
         <f t="shared" si="2"/>
         <v>41099</v>
       </c>
-      <c r="CD8" s="34">
+      <c r="CD12" s="32">
         <f t="shared" si="2"/>
         <v>41100</v>
       </c>
-      <c r="CE8" s="34">
+      <c r="CE12" s="32">
         <f t="shared" si="2"/>
         <v>41101</v>
       </c>
-      <c r="CF8" s="34">
+      <c r="CF12" s="32">
         <f t="shared" si="2"/>
         <v>41102</v>
       </c>
-      <c r="CG8" s="34">
+      <c r="CG12" s="32">
         <f t="shared" si="2"/>
         <v>41103</v>
       </c>
-      <c r="CH8" s="34">
+      <c r="CH12" s="32">
         <f t="shared" si="2"/>
         <v>41104</v>
       </c>
-      <c r="CI8" s="34">
+      <c r="CI12" s="32">
         <f t="shared" si="2"/>
         <v>41105</v>
       </c>
-      <c r="CJ8" s="34">
+      <c r="CJ12" s="32">
         <f t="shared" si="2"/>
         <v>41106</v>
       </c>
-      <c r="CK8" s="34">
+      <c r="CK12" s="32">
         <f t="shared" si="2"/>
         <v>41107</v>
       </c>
-      <c r="CL8" s="34">
+      <c r="CL12" s="32">
         <f t="shared" si="2"/>
         <v>41108</v>
       </c>
-      <c r="CM8" s="34">
+      <c r="CM12" s="32">
         <f t="shared" si="2"/>
         <v>41109</v>
       </c>
-      <c r="CN8" s="34">
+      <c r="CN12" s="32">
         <f t="shared" si="2"/>
         <v>41110</v>
       </c>
-      <c r="CO8" s="34">
+      <c r="CO12" s="32">
         <f t="shared" si="2"/>
         <v>41111</v>
       </c>
-      <c r="CP8" s="34">
+      <c r="CP12" s="32">
         <f t="shared" si="2"/>
         <v>41112</v>
       </c>
-      <c r="CQ8" s="34">
+      <c r="CQ12" s="32">
         <f t="shared" si="2"/>
         <v>41113</v>
       </c>
-      <c r="CR8" s="34">
+      <c r="CR12" s="32">
         <f t="shared" si="2"/>
         <v>41114</v>
       </c>
-      <c r="CS8" s="34">
+      <c r="CS12" s="32">
         <f t="shared" si="2"/>
         <v>41115</v>
       </c>
-      <c r="CT8" s="34">
+      <c r="CT12" s="32">
         <f t="shared" si="2"/>
         <v>41116</v>
       </c>
     </row>
-    <row r="9" spans="1:98" s="18" customFormat="1" ht="30">
-      <c r="B9" s="19" t="s">
+    <row r="13" spans="1:98" s="18" customFormat="1" ht="30">
+      <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="E13" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L13" s="19">
         <v>41030</v>
       </c>
-      <c r="M9" s="19">
-        <f>L9+1</f>
+      <c r="M13" s="19">
+        <f>L13+1</f>
         <v>41031</v>
       </c>
-      <c r="N9" s="19">
-        <f t="shared" ref="N9:BF9" si="3">M9+1</f>
+      <c r="N13" s="19">
+        <f t="shared" ref="N13:BF13" si="3">M13+1</f>
         <v>41032</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O13" s="19">
         <f t="shared" si="3"/>
         <v>41033</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P13" s="19">
         <f t="shared" si="3"/>
         <v>41034</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q13" s="19">
         <f t="shared" si="3"/>
         <v>41035</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R13" s="19">
         <f t="shared" si="3"/>
         <v>41036</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S13" s="19">
         <f t="shared" si="3"/>
         <v>41037</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T13" s="19">
         <f t="shared" si="3"/>
         <v>41038</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U13" s="19">
         <f t="shared" si="3"/>
         <v>41039</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V13" s="19">
         <f t="shared" si="3"/>
         <v>41040</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W13" s="19">
         <f t="shared" si="3"/>
         <v>41041</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X13" s="19">
         <f t="shared" si="3"/>
         <v>41042</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Y13" s="19">
         <f t="shared" si="3"/>
         <v>41043</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z13" s="19">
         <f t="shared" si="3"/>
         <v>41044</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA13" s="19">
         <f t="shared" si="3"/>
         <v>41045</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB13" s="19">
         <f t="shared" si="3"/>
         <v>41046</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC13" s="19">
         <f t="shared" si="3"/>
         <v>41047</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD13" s="19">
         <f t="shared" si="3"/>
         <v>41048</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AE13" s="19">
         <f t="shared" si="3"/>
         <v>41049</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF13" s="19">
         <f t="shared" si="3"/>
         <v>41050</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AG13" s="19">
         <f t="shared" si="3"/>
         <v>41051</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AH13" s="19">
         <f t="shared" si="3"/>
         <v>41052</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AI13" s="19">
         <f t="shared" si="3"/>
         <v>41053</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AJ13" s="19">
         <f t="shared" si="3"/>
         <v>41054</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AK13" s="19">
         <f t="shared" si="3"/>
         <v>41055</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AL13" s="19">
         <f t="shared" si="3"/>
         <v>41056</v>
       </c>
-      <c r="AM9" s="19">
+      <c r="AM13" s="19">
         <f t="shared" si="3"/>
         <v>41057</v>
       </c>
-      <c r="AN9" s="19">
+      <c r="AN13" s="19">
         <f t="shared" si="3"/>
         <v>41058</v>
       </c>
-      <c r="AO9" s="19">
+      <c r="AO13" s="19">
         <f t="shared" si="3"/>
         <v>41059</v>
       </c>
-      <c r="AP9" s="19">
+      <c r="AP13" s="19">
         <f t="shared" si="3"/>
         <v>41060</v>
       </c>
-      <c r="AQ9" s="19">
+      <c r="AQ13" s="19">
         <f t="shared" si="3"/>
         <v>41061</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="AR13" s="19">
         <f t="shared" si="3"/>
         <v>41062</v>
       </c>
-      <c r="AS9" s="19">
+      <c r="AS13" s="19">
         <f t="shared" si="3"/>
         <v>41063</v>
       </c>
-      <c r="AT9" s="19">
+      <c r="AT13" s="19">
         <f t="shared" si="3"/>
         <v>41064</v>
       </c>
-      <c r="AU9" s="19">
+      <c r="AU13" s="19">
         <f t="shared" si="3"/>
         <v>41065</v>
       </c>
-      <c r="AV9" s="19">
+      <c r="AV13" s="19">
         <f t="shared" si="3"/>
         <v>41066</v>
       </c>
-      <c r="AW9" s="19">
+      <c r="AW13" s="19">
         <f t="shared" si="3"/>
         <v>41067</v>
       </c>
-      <c r="AX9" s="19">
+      <c r="AX13" s="19">
         <f t="shared" si="3"/>
         <v>41068</v>
       </c>
-      <c r="AY9" s="19">
+      <c r="AY13" s="19">
         <f t="shared" si="3"/>
         <v>41069</v>
       </c>
-      <c r="AZ9" s="19">
+      <c r="AZ13" s="19">
         <f t="shared" si="3"/>
         <v>41070</v>
       </c>
-      <c r="BA9" s="19">
+      <c r="BA13" s="19">
         <f t="shared" si="3"/>
         <v>41071</v>
       </c>
-      <c r="BB9" s="19">
+      <c r="BB13" s="19">
         <f t="shared" si="3"/>
         <v>41072</v>
       </c>
-      <c r="BC9" s="19">
+      <c r="BC13" s="19">
         <f t="shared" si="3"/>
         <v>41073</v>
       </c>
-      <c r="BD9" s="19">
+      <c r="BD13" s="19">
         <f t="shared" si="3"/>
         <v>41074</v>
       </c>
-      <c r="BE9" s="19">
+      <c r="BE13" s="19">
         <f t="shared" si="3"/>
         <v>41075</v>
       </c>
-      <c r="BF9" s="19">
+      <c r="BF13" s="19">
         <f t="shared" si="3"/>
         <v>41076</v>
       </c>
-      <c r="BG9" s="19">
-        <f t="shared" ref="BG9" si="4">BF9+1</f>
+      <c r="BG13" s="19">
+        <f t="shared" ref="BG13" si="4">BF13+1</f>
         <v>41077</v>
       </c>
-      <c r="BH9" s="19">
-        <f t="shared" ref="BH9" si="5">BG9+1</f>
+      <c r="BH13" s="19">
+        <f t="shared" ref="BH13" si="5">BG13+1</f>
         <v>41078</v>
       </c>
-      <c r="BI9" s="19">
-        <f t="shared" ref="BI9" si="6">BH9+1</f>
+      <c r="BI13" s="19">
+        <f t="shared" ref="BI13" si="6">BH13+1</f>
         <v>41079</v>
       </c>
-      <c r="BJ9" s="19">
-        <f t="shared" ref="BJ9" si="7">BI9+1</f>
+      <c r="BJ13" s="19">
+        <f t="shared" ref="BJ13" si="7">BI13+1</f>
         <v>41080</v>
       </c>
-      <c r="BK9" s="19">
-        <f t="shared" ref="BK9" si="8">BJ9+1</f>
+      <c r="BK13" s="19">
+        <f t="shared" ref="BK13" si="8">BJ13+1</f>
         <v>41081</v>
       </c>
-      <c r="BL9" s="19">
-        <f t="shared" ref="BL9" si="9">BK9+1</f>
+      <c r="BL13" s="19">
+        <f t="shared" ref="BL13" si="9">BK13+1</f>
         <v>41082</v>
       </c>
-      <c r="BM9" s="19">
-        <f t="shared" ref="BM9" si="10">BL9+1</f>
+      <c r="BM13" s="19">
+        <f t="shared" ref="BM13" si="10">BL13+1</f>
         <v>41083</v>
       </c>
-      <c r="BN9" s="19">
-        <f t="shared" ref="BN9" si="11">BM9+1</f>
+      <c r="BN13" s="19">
+        <f t="shared" ref="BN13" si="11">BM13+1</f>
         <v>41084</v>
       </c>
-      <c r="BO9" s="19">
-        <f t="shared" ref="BO9" si="12">BN9+1</f>
+      <c r="BO13" s="19">
+        <f t="shared" ref="BO13" si="12">BN13+1</f>
         <v>41085</v>
       </c>
-      <c r="BP9" s="19">
-        <f t="shared" ref="BP9" si="13">BO9+1</f>
+      <c r="BP13" s="19">
+        <f t="shared" ref="BP13" si="13">BO13+1</f>
         <v>41086</v>
       </c>
-      <c r="BQ9" s="19">
-        <f t="shared" ref="BQ9" si="14">BP9+1</f>
+      <c r="BQ13" s="19">
+        <f t="shared" ref="BQ13" si="14">BP13+1</f>
         <v>41087</v>
       </c>
-      <c r="BR9" s="19">
-        <f t="shared" ref="BR9" si="15">BQ9+1</f>
+      <c r="BR13" s="19">
+        <f t="shared" ref="BR13" si="15">BQ13+1</f>
         <v>41088</v>
       </c>
-      <c r="BS9" s="19">
-        <f t="shared" ref="BS9" si="16">BR9+1</f>
+      <c r="BS13" s="19">
+        <f t="shared" ref="BS13" si="16">BR13+1</f>
         <v>41089</v>
       </c>
-      <c r="BT9" s="19">
-        <f t="shared" ref="BT9" si="17">BS9+1</f>
+      <c r="BT13" s="19">
+        <f t="shared" ref="BT13" si="17">BS13+1</f>
         <v>41090</v>
       </c>
-      <c r="BU9" s="19">
-        <f t="shared" ref="BU9" si="18">BT9+1</f>
+      <c r="BU13" s="19">
+        <f t="shared" ref="BU13" si="18">BT13+1</f>
         <v>41091</v>
       </c>
-      <c r="BV9" s="19">
-        <f t="shared" ref="BV9" si="19">BU9+1</f>
+      <c r="BV13" s="19">
+        <f t="shared" ref="BV13" si="19">BU13+1</f>
         <v>41092</v>
       </c>
-      <c r="BW9" s="19">
-        <f t="shared" ref="BW9" si="20">BV9+1</f>
+      <c r="BW13" s="19">
+        <f t="shared" ref="BW13" si="20">BV13+1</f>
         <v>41093</v>
       </c>
-      <c r="BX9" s="19">
-        <f t="shared" ref="BX9" si="21">BW9+1</f>
+      <c r="BX13" s="19">
+        <f t="shared" ref="BX13" si="21">BW13+1</f>
         <v>41094</v>
       </c>
-      <c r="BY9" s="19">
-        <f t="shared" ref="BY9" si="22">BX9+1</f>
+      <c r="BY13" s="19">
+        <f t="shared" ref="BY13" si="22">BX13+1</f>
         <v>41095</v>
       </c>
-      <c r="BZ9" s="19">
-        <f t="shared" ref="BZ9" si="23">BY9+1</f>
+      <c r="BZ13" s="19">
+        <f t="shared" ref="BZ13" si="23">BY13+1</f>
         <v>41096</v>
       </c>
-      <c r="CA9" s="19">
-        <f t="shared" ref="CA9" si="24">BZ9+1</f>
+      <c r="CA13" s="19">
+        <f t="shared" ref="CA13" si="24">BZ13+1</f>
         <v>41097</v>
       </c>
-      <c r="CB9" s="19">
-        <f t="shared" ref="CB9" si="25">CA9+1</f>
+      <c r="CB13" s="19">
+        <f t="shared" ref="CB13" si="25">CA13+1</f>
         <v>41098</v>
       </c>
-      <c r="CC9" s="19">
-        <f t="shared" ref="CC9" si="26">CB9+1</f>
+      <c r="CC13" s="19">
+        <f t="shared" ref="CC13" si="26">CB13+1</f>
         <v>41099</v>
       </c>
-      <c r="CD9" s="19">
-        <f t="shared" ref="CD9" si="27">CC9+1</f>
+      <c r="CD13" s="19">
+        <f t="shared" ref="CD13" si="27">CC13+1</f>
         <v>41100</v>
       </c>
-      <c r="CE9" s="19">
-        <f t="shared" ref="CE9" si="28">CD9+1</f>
+      <c r="CE13" s="19">
+        <f t="shared" ref="CE13" si="28">CD13+1</f>
         <v>41101</v>
       </c>
-      <c r="CF9" s="19">
-        <f t="shared" ref="CF9" si="29">CE9+1</f>
+      <c r="CF13" s="19">
+        <f t="shared" ref="CF13" si="29">CE13+1</f>
         <v>41102</v>
       </c>
-      <c r="CG9" s="19">
-        <f t="shared" ref="CG9" si="30">CF9+1</f>
+      <c r="CG13" s="19">
+        <f t="shared" ref="CG13" si="30">CF13+1</f>
         <v>41103</v>
       </c>
-      <c r="CH9" s="19">
-        <f t="shared" ref="CH9" si="31">CG9+1</f>
+      <c r="CH13" s="19">
+        <f t="shared" ref="CH13" si="31">CG13+1</f>
         <v>41104</v>
       </c>
-      <c r="CI9" s="19">
-        <f t="shared" ref="CI9" si="32">CH9+1</f>
+      <c r="CI13" s="19">
+        <f t="shared" ref="CI13" si="32">CH13+1</f>
         <v>41105</v>
       </c>
-      <c r="CJ9" s="19">
-        <f t="shared" ref="CJ9" si="33">CI9+1</f>
+      <c r="CJ13" s="19">
+        <f t="shared" ref="CJ13" si="33">CI13+1</f>
         <v>41106</v>
       </c>
-      <c r="CK9" s="19">
-        <f t="shared" ref="CK9" si="34">CJ9+1</f>
+      <c r="CK13" s="19">
+        <f t="shared" ref="CK13" si="34">CJ13+1</f>
         <v>41107</v>
       </c>
-      <c r="CL9" s="19">
-        <f t="shared" ref="CL9" si="35">CK9+1</f>
+      <c r="CL13" s="19">
+        <f t="shared" ref="CL13" si="35">CK13+1</f>
         <v>41108</v>
       </c>
-      <c r="CM9" s="19">
-        <f t="shared" ref="CM9" si="36">CL9+1</f>
+      <c r="CM13" s="19">
+        <f t="shared" ref="CM13" si="36">CL13+1</f>
         <v>41109</v>
       </c>
-      <c r="CN9" s="19">
-        <f t="shared" ref="CN9" si="37">CM9+1</f>
+      <c r="CN13" s="19">
+        <f t="shared" ref="CN13" si="37">CM13+1</f>
         <v>41110</v>
       </c>
-      <c r="CO9" s="19">
-        <f t="shared" ref="CO9" si="38">CN9+1</f>
+      <c r="CO13" s="19">
+        <f t="shared" ref="CO13" si="38">CN13+1</f>
         <v>41111</v>
       </c>
-      <c r="CP9" s="19">
-        <f t="shared" ref="CP9" si="39">CO9+1</f>
+      <c r="CP13" s="19">
+        <f t="shared" ref="CP13" si="39">CO13+1</f>
         <v>41112</v>
       </c>
-      <c r="CQ9" s="19">
-        <f t="shared" ref="CQ9" si="40">CP9+1</f>
+      <c r="CQ13" s="19">
+        <f t="shared" ref="CQ13" si="40">CP13+1</f>
         <v>41113</v>
       </c>
-      <c r="CR9" s="19">
-        <f t="shared" ref="CR9" si="41">CQ9+1</f>
+      <c r="CR13" s="19">
+        <f t="shared" ref="CR13" si="41">CQ13+1</f>
         <v>41114</v>
       </c>
-      <c r="CS9" s="19">
-        <f t="shared" ref="CS9" si="42">CR9+1</f>
+      <c r="CS13" s="19">
+        <f t="shared" ref="CS13" si="42">CR13+1</f>
         <v>41115</v>
       </c>
-      <c r="CT9" s="19">
-        <f t="shared" ref="CT9" si="43">CS9+1</f>
+      <c r="CT13" s="19">
+        <f t="shared" ref="CT13" si="43">CS13+1</f>
         <v>41116</v>
       </c>
     </row>
-    <row r="10" spans="1:98" s="20" customFormat="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="29" t="s">
+    <row r="14" spans="1:98" s="20" customFormat="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="21"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
-      <c r="BN10" s="21"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="21"/>
-      <c r="BU10" s="21"/>
-      <c r="BV10" s="21"/>
-      <c r="BW10" s="21"/>
-      <c r="BX10" s="21"/>
-      <c r="BY10" s="21"/>
-      <c r="BZ10" s="21"/>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="21"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="21"/>
-      <c r="CE10" s="21"/>
-      <c r="CF10" s="21"/>
-      <c r="CG10" s="21"/>
-      <c r="CH10" s="21"/>
-      <c r="CI10" s="21"/>
-      <c r="CJ10" s="21"/>
-      <c r="CK10" s="21"/>
-      <c r="CL10" s="21"/>
-      <c r="CM10" s="21"/>
-      <c r="CN10" s="21"/>
-      <c r="CO10" s="21"/>
-      <c r="CP10" s="21"/>
-      <c r="CQ10" s="21"/>
-      <c r="CR10" s="21"/>
-      <c r="CS10" s="21"/>
-      <c r="CT10" s="21"/>
-    </row>
-    <row r="11" spans="1:98">
-      <c r="A11">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="21"/>
+      <c r="BU14" s="21"/>
+      <c r="BV14" s="21"/>
+      <c r="BW14" s="21"/>
+      <c r="BX14" s="21"/>
+      <c r="BY14" s="21"/>
+      <c r="BZ14" s="21"/>
+      <c r="CA14" s="21"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" s="21"/>
+      <c r="CI14" s="21"/>
+      <c r="CJ14" s="21"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
+      <c r="CM14" s="21"/>
+      <c r="CN14" s="21"/>
+      <c r="CO14" s="21"/>
+      <c r="CP14" s="21"/>
+      <c r="CQ14" s="21"/>
+      <c r="CR14" s="21"/>
+      <c r="CS14" s="21"/>
+      <c r="CT14" s="21"/>
+    </row>
+    <row r="15" spans="1:98">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B15" s="22">
         <v>1</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23">
-        <f>IFERROR( HLOOKUP("BE",L11:BF$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",L11:BF$87,$A$87-$A11+1,FALSE),0)</f>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23">
+        <f>IFERROR( HLOOKUP("BE",L15:BF$91,$A$91-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",L15:BF$91,$A$91-$A15+1,FALSE),0)</f>
         <v>41030</v>
       </c>
-      <c r="H11" s="23">
-        <f>IFERROR( HLOOKUP("BE",L11:BF$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",L11:BF$87,$A$87-$A11+1,FALSE),0)</f>
+      <c r="H15" s="23">
+        <f>IFERROR( HLOOKUP("BE",L15:BF$91,$A$91-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",L15:BF$91,$A$91-$A15+1,FALSE),0)</f>
         <v>41032</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="1" t="s">
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-    </row>
-    <row r="12" spans="1:98">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="22">
-        <v>2</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23">
-        <f>IFERROR( HLOOKUP("BE",L12:BF$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",L12:BF$87,$A$87-$A12+1,FALSE),0)</f>
-        <v>41031</v>
-      </c>
-      <c r="H12" s="23">
-        <f>IFERROR( HLOOKUP("BE",L12:BF$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",L12:BF$87,$A$87-$A12+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="1"/>
-      <c r="BV12" s="1"/>
-      <c r="BW12" s="1"/>
-      <c r="BX12" s="1"/>
-      <c r="BY12" s="1"/>
-      <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
-      <c r="CM12" s="1"/>
-      <c r="CN12" s="1"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
-    </row>
-    <row r="13" spans="1:98" ht="30">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="22">
-        <v>3</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23">
-        <f>IFERROR( HLOOKUP("BE",L13:BF$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",L13:BF$87,$A$87-$A13+1,FALSE),0)</f>
-        <v>41031</v>
-      </c>
-      <c r="H13" s="23">
-        <f>IFERROR( HLOOKUP("BE",L13:BF$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",L13:BF$87,$A$87-$A13+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="1"/>
-      <c r="BV13" s="1"/>
-      <c r="BW13" s="1"/>
-      <c r="BX13" s="1"/>
-      <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
-      <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-    </row>
-    <row r="14" spans="1:98" ht="30">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="22">
-        <v>4</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23">
-        <f>IFERROR( HLOOKUP("BE",L14:BF$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",L14:BF$87,$A$87-$A14+1,FALSE),0)</f>
-        <v>41030</v>
-      </c>
-      <c r="H14" s="23">
-        <f>IFERROR( HLOOKUP("BE",L14:BF$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",L14:BF$87,$A$87-$A14+1,FALSE),0)</f>
-        <v>41035</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
-      <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-    </row>
-    <row r="15" spans="1:98" s="20" customFormat="1">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
-      <c r="BT15" s="21"/>
-      <c r="BU15" s="21"/>
-      <c r="BV15" s="21"/>
-      <c r="BW15" s="21"/>
-      <c r="BX15" s="21"/>
-      <c r="BY15" s="21"/>
-      <c r="BZ15" s="21"/>
-      <c r="CA15" s="21"/>
-      <c r="CB15" s="21"/>
-      <c r="CC15" s="21"/>
-      <c r="CD15" s="21"/>
-      <c r="CE15" s="21"/>
-      <c r="CF15" s="21"/>
-      <c r="CG15" s="21"/>
-      <c r="CH15" s="21"/>
-      <c r="CI15" s="21"/>
-      <c r="CJ15" s="21"/>
-      <c r="CK15" s="21"/>
-      <c r="CL15" s="21"/>
-      <c r="CM15" s="21"/>
-      <c r="CN15" s="21"/>
-      <c r="CO15" s="21"/>
-      <c r="CP15" s="21"/>
-      <c r="CQ15" s="21"/>
-      <c r="CR15" s="21"/>
-      <c r="CS15" s="21"/>
-      <c r="CT15" s="21"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
     </row>
     <row r="16" spans="1:98">
       <c r="A16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="22">
-        <v>5</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>111</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$87,$A$87-$A16+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$91,$A$91-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$91,$A$91-$A16+1,FALSE),0)</f>
+        <v>41031</v>
       </c>
       <c r="H16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$87,$A$87-$A16+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="23"/>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$91,$A$91-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$91,$A$91-$A16+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3296,33 +3239,41 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
     </row>
-    <row r="17" spans="1:98">
+    <row r="17" spans="1:98" ht="30">
       <c r="A17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="22">
-        <v>6</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$87,$A$87-$A17+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$91,$A$91-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$91,$A$91-$A17+1,FALSE),0)</f>
+        <v>41031</v>
       </c>
       <c r="H17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$87,$A$87-$A17+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="23"/>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$91,$A$91-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$91,$A$91-$A17+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -3408,36 +3359,52 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
     </row>
-    <row r="18" spans="1:98">
+    <row r="18" spans="1:98" ht="30">
       <c r="A18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" s="22">
-        <v>7</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>112</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
-        <f>IFERROR( HLOOKUP("BE",L18:BF$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$87,$A$87-$A18+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$91,$A$91-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$91,$A$91-$A18+1,FALSE),0)</f>
+        <v>41030</v>
       </c>
       <c r="H18" s="23">
-        <f>IFERROR( HLOOKUP("BE",L18:BF$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$87,$A$87-$A18+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="23"/>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$91,$A$91-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$91,$A$91-$A18+1,FALSE),0)</f>
+        <v>41035</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>36</v>
+      </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3522,11 +3489,11 @@
     </row>
     <row r="19" spans="1:98" s="20" customFormat="1">
       <c r="A19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="29" t="s">
-        <v>110</v>
+      <c r="C19" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -3585,64 +3552,64 @@
       <c r="BF19" s="21"/>
       <c r="BG19" s="21"/>
       <c r="BH19" s="21"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
-      <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
-      <c r="BY19" s="1"/>
-      <c r="BZ19" s="1"/>
-      <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
-      <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="21"/>
+      <c r="BZ19" s="21"/>
+      <c r="CA19" s="21"/>
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="21"/>
+      <c r="CH19" s="21"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
+      <c r="CO19" s="21"/>
+      <c r="CP19" s="21"/>
+      <c r="CQ19" s="21"/>
+      <c r="CR19" s="21"/>
+      <c r="CS19" s="21"/>
+      <c r="CT19" s="21"/>
     </row>
     <row r="20" spans="1:98">
       <c r="A20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="22">
-        <v>8</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$87,$A$87-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$91,$A$91-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$91,$A$91-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$87,$A$87-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$91,$A$91-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$91,$A$91-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="23"/>
@@ -3738,23 +3705,23 @@
     </row>
     <row r="21" spans="1:98">
       <c r="A21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" s="22">
-        <v>9</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>142</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$87,$A$87-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$91,$A$91-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$91,$A$91-$A21+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$87,$A$87-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$91,$A$91-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$91,$A$91-$A21+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="23"/>
@@ -3850,19 +3817,23 @@
     </row>
     <row r="22" spans="1:98">
       <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="B22" s="22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23">
-        <f>IFERROR( HLOOKUP("BE",L22:BF$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$87,$A$87-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$91,$A$91-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$91,$A$91-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="23">
-        <f>IFERROR( HLOOKUP("BE",L22:BF$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$87,$A$87-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$91,$A$91-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$91,$A$91-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="23"/>
@@ -3956,75 +3927,71 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
     </row>
-    <row r="23" spans="1:98">
+    <row r="23" spans="1:98" s="20" customFormat="1">
       <c r="A23">
-        <v>13</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23">
-        <f>IFERROR( HLOOKUP("BE",L23:BF$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",L23:BF$87,$A$87-$A23+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="23">
-        <f>IFERROR( HLOOKUP("BE",L23:BF$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",L23:BF$87,$A$87-$A23+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
@@ -4066,19 +4033,25 @@
     </row>
     <row r="24" spans="1:98">
       <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="28"/>
+        <v>10</v>
+      </c>
+      <c r="B24" s="22">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23">
-        <f>IFERROR( HLOOKUP("BE",L24:BF$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$87,$A$87-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$91,$A$91-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$91,$A$91-$A24+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="23">
-        <f>IFERROR( HLOOKUP("BE",L24:BF$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$87,$A$87-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$91,$A$91-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$91,$A$91-$A24+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I24" s="23"/>
@@ -4174,19 +4147,27 @@
     </row>
     <row r="25" spans="1:98">
       <c r="A25">
-        <v>15</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B25" s="22">
+        <v>9</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="23">
-        <f>IFERROR( HLOOKUP("BE",L25:BF$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$87,$A$87-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L25:BF$91,$A$91-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$91,$A$91-$A25+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="23">
-        <f>IFERROR( HLOOKUP("BE",L25:BF$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$87,$A$87-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L25:BF$91,$A$91-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$91,$A$91-$A25+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I25" s="23"/>
@@ -4282,19 +4263,27 @@
     </row>
     <row r="26" spans="1:98">
       <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B26" s="22">
+        <v>10</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F26" s="22"/>
       <c r="G26" s="23">
-        <f>IFERROR( HLOOKUP("BE",L26:BF$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$87,$A$87-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L26:BF$91,$A$91-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$91,$A$91-$A26+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="23">
-        <f>IFERROR( HLOOKUP("BE",L26:BF$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$87,$A$87-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L26:BF$91,$A$91-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$91,$A$91-$A26+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I26" s="23"/>
@@ -4388,71 +4377,77 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
     </row>
-    <row r="27" spans="1:98" s="20" customFormat="1">
+    <row r="27" spans="1:98">
       <c r="A27">
-        <v>17</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="21"/>
-      <c r="AL27" s="21"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="21"/>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="21"/>
-      <c r="AQ27" s="21"/>
-      <c r="AR27" s="21"/>
-      <c r="AS27" s="21"/>
-      <c r="AT27" s="21"/>
-      <c r="AU27" s="21"/>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="21"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21"/>
-      <c r="BF27" s="21"/>
-      <c r="BG27" s="21"/>
-      <c r="BH27" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="B27" s="22">
+        <v>11</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23">
+        <f>IFERROR( HLOOKUP("BE",L27:BF$91,$A$91-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",L27:BF$91,$A$91-$A27+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
+        <f>IFERROR( HLOOKUP("BE",L27:BF$91,$A$91-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",L27:BF$91,$A$91-$A27+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
@@ -4494,19 +4489,21 @@
     </row>
     <row r="28" spans="1:98">
       <c r="A28">
-        <v>18</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="B28" s="22">
+        <v>12</v>
+      </c>
+      <c r="C28" s="27"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$87,$A$87-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$91,$A$91-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$91,$A$91-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$87,$A$87-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$91,$A$91-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$91,$A$91-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I28" s="23"/>
@@ -4602,19 +4599,19 @@
     </row>
     <row r="29" spans="1:98">
       <c r="A29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23">
-        <f>IFERROR( HLOOKUP("BE",L29:BF$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$87,$A$87-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$91,$A$91-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$91,$A$91-$A29+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H29" s="23">
-        <f>IFERROR( HLOOKUP("BE",L29:BF$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$87,$A$87-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$91,$A$91-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$91,$A$91-$A29+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I29" s="23"/>
@@ -4710,19 +4707,19 @@
     </row>
     <row r="30" spans="1:98">
       <c r="A30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23">
-        <f>IFERROR( HLOOKUP("BE",L30:BF$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",L30:BF$87,$A$87-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L30:BF$91,$A$91-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",L30:BF$91,$A$91-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="23">
-        <f>IFERROR( HLOOKUP("BE",L30:BF$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",L30:BF$87,$A$87-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L30:BF$91,$A$91-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",L30:BF$91,$A$91-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I30" s="23"/>
@@ -4816,75 +4813,71 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
     </row>
-    <row r="31" spans="1:98">
+    <row r="31" spans="1:98" s="20" customFormat="1">
       <c r="A31">
-        <v>21</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23">
-        <f>IFERROR( HLOOKUP("BE",L31:BF$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",L31:BF$87,$A$87-$A31+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
-        <f>IFERROR( HLOOKUP("BE",L31:BF$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",L31:BF$87,$A$87-$A31+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
@@ -4924,71 +4917,81 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
     </row>
-    <row r="32" spans="1:98" s="20" customFormat="1">
+    <row r="32" spans="1:98">
       <c r="A32">
-        <v>22</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23">
+        <f>IFERROR( HLOOKUP("BE",L32:BF$91,$A$91-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",L32:BF$91,$A$91-$A32+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="23">
+        <f>IFERROR( HLOOKUP("BE",L32:BF$91,$A$91-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",L32:BF$91,$A$91-$A32+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
@@ -5030,23 +5033,25 @@
     </row>
     <row r="33" spans="1:98">
       <c r="A33">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="22"/>
+      <c r="C33" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="E33" s="22" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L33:BF$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$87,$A$87-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$91,$A$91-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$91,$A$91-$A33+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L33:BF$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$87,$A$87-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$91,$A$91-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$91,$A$91-$A33+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I33" s="23"/>
@@ -5142,21 +5147,25 @@
     </row>
     <row r="34" spans="1:98">
       <c r="A34">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$87,$A$87-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$91,$A$91-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$91,$A$91-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$87,$A$87-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$91,$A$91-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$91,$A$91-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I34" s="23"/>
@@ -5250,42 +5259,32 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
     </row>
-    <row r="35" spans="1:98" ht="30">
+    <row r="35" spans="1:98">
       <c r="A35">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="28" t="s">
-        <v>140</v>
-      </c>
+      <c r="C35" s="27"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23">
-        <f>IFERROR( HLOOKUP("BE",L35:BF$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$87,$A$87-$A35+1,FALSE),0)</f>
-        <v>41034</v>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$91,$A$91-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$91,$A$91-$A35+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H35" s="23">
-        <f>IFERROR( HLOOKUP("BE",L35:BF$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$87,$A$87-$A35+1,FALSE),0)</f>
-        <v>41035</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>35</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$91,$A$91-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$91,$A$91-$A35+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="23"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -5368,75 +5367,71 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
     </row>
-    <row r="36" spans="1:98">
+    <row r="36" spans="1:98" s="20" customFormat="1">
       <c r="A36">
-        <v>26</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23">
-        <f>IFERROR( HLOOKUP("BE",L36:BF$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",L36:BF$87,$A$87-$A36+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
-        <f>IFERROR( HLOOKUP("BE",L36:BF$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",L36:BF$87,$A$87-$A36+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
+      <c r="AT36" s="21"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="21"/>
+      <c r="BA36" s="21"/>
+      <c r="BB36" s="21"/>
+      <c r="BC36" s="21"/>
+      <c r="BD36" s="21"/>
+      <c r="BE36" s="21"/>
+      <c r="BF36" s="21"/>
+      <c r="BG36" s="21"/>
+      <c r="BH36" s="21"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
@@ -5476,71 +5471,81 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
     </row>
-    <row r="37" spans="1:98" s="20" customFormat="1">
+    <row r="37" spans="1:98">
       <c r="A37">
-        <v>27</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="21"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="21"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23">
+        <f>IFERROR( HLOOKUP("BE",L37:BF$91,$A$91-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",L37:BF$91,$A$91-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <f>IFERROR( HLOOKUP("BE",L37:BF$91,$A$91-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",L37:BF$91,$A$91-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
@@ -5582,24 +5587,30 @@
     </row>
     <row r="38" spans="1:98">
       <c r="A38">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23">
-        <f>IFERROR( HLOOKUP("BE",L38:BF$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$87,$A$87-$A38+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$91,$A$91-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$91,$A$91-$A38+1,FALSE),0)</f>
+        <v>41035</v>
       </c>
       <c r="H38" s="23">
-        <f>IFERROR( HLOOKUP("BE",L38:BF$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$87,$A$87-$A38+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="23"/>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$91,$A$91-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$91,$A$91-$A38+1,FALSE),0)</f>
+        <v>41041</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="1"/>
@@ -5607,13 +5618,27 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
+      <c r="Q38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -5692,37 +5717,57 @@
     </row>
     <row r="39" spans="1:98" ht="30">
       <c r="A39">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B39" s="22"/>
-      <c r="C39" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="C39" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F39" s="22"/>
       <c r="G39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$87,$A$87-$A39+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$91,$A$91-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$91,$A$91-$A39+1,FALSE),0)</f>
+        <v>41034</v>
       </c>
       <c r="H39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$87,$A$87-$A39+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="23"/>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$91,$A$91-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$91,$A$91-$A39+1,FALSE),0)</f>
+        <v>41040</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="P39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -5800,24 +5845,28 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
     </row>
-    <row r="40" spans="1:98">
+    <row r="40" spans="1:98" ht="30">
       <c r="A40">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="22"/>
-      <c r="C40" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="C40" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="F40" s="22"/>
       <c r="G40" s="23">
-        <f>IFERROR( HLOOKUP("BE",L40:BF$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$87,$A$87-$A40+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L40:BF$91,$A$91-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$91,$A$91-$A40+1,FALSE),0)</f>
+        <v>41041</v>
       </c>
       <c r="H40" s="23">
-        <f>IFERROR( HLOOKUP("BE",L40:BF$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$87,$A$87-$A40+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L40:BF$91,$A$91-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$91,$A$91-$A40+1,FALSE),0)</f>
+        <v>41045</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="22"/>
@@ -5833,11 +5882,21 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
+      <c r="W40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -5910,77 +5969,71 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
     </row>
-    <row r="41" spans="1:98">
+    <row r="41" spans="1:98" s="20" customFormat="1">
       <c r="A41">
-        <v>31</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23">
-        <f>IFERROR( HLOOKUP("BE",L41:BF$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",L41:BF$87,$A$87-$A41+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="23">
-        <f>IFERROR( HLOOKUP("BE",L41:BF$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",L41:BF$87,$A$87-$A41+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="21"/>
+      <c r="BA41" s="21"/>
+      <c r="BB41" s="21"/>
+      <c r="BC41" s="21"/>
+      <c r="BD41" s="21"/>
+      <c r="BE41" s="21"/>
+      <c r="BF41" s="21"/>
+      <c r="BG41" s="21"/>
+      <c r="BH41" s="21"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
@@ -6022,23 +6075,17 @@
     </row>
     <row r="42" spans="1:98">
       <c r="A42">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B42" s="22"/>
-      <c r="C42" s="28" t="s">
-        <v>97</v>
+      <c r="C42" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
-      <c r="G42" s="23">
-        <f>IFERROR( HLOOKUP("BE",L42:BF$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",L42:BF$87,$A$87-$A42+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="23">
-        <f>IFERROR( HLOOKUP("BE",L42:BF$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",L42:BF$87,$A$87-$A42+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
@@ -6130,23 +6177,27 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
     </row>
-    <row r="43" spans="1:98">
+    <row r="43" spans="1:98" ht="30">
       <c r="A43">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B43" s="22"/>
-      <c r="C43" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="C43" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="F43" s="22"/>
       <c r="G43" s="23">
-        <f>IFERROR( HLOOKUP("BE",L43:BF$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",L43:BF$87,$A$87-$A43+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L43:BF$91,$A$91-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",L43:BF$91,$A$91-$A43+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H43" s="23">
-        <f>IFERROR( HLOOKUP("BE",L43:BF$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",L43:BF$87,$A$87-$A43+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L43:BF$91,$A$91-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",L43:BF$91,$A$91-$A43+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I43" s="23"/>
@@ -6242,21 +6293,25 @@
     </row>
     <row r="44" spans="1:98">
       <c r="A44">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B44" s="22"/>
-      <c r="C44" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="C44" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="F44" s="22"/>
       <c r="G44" s="23">
-        <f>IFERROR( HLOOKUP("BE",L44:BF$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",L44:BF$87,$A$87-$A44+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L44:BF$91,$A$91-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",L44:BF$91,$A$91-$A44+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H44" s="23">
-        <f>IFERROR( HLOOKUP("BE",L44:BF$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",L44:BF$87,$A$87-$A44+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L44:BF$91,$A$91-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",L44:BF$91,$A$91-$A44+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I44" s="23"/>
@@ -6350,47 +6405,27 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
     </row>
-    <row r="45" spans="1:98" ht="30">
+    <row r="45" spans="1:98">
       <c r="A45">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23">
-        <f>IFERROR( HLOOKUP("BE",L45:BF$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",L45:BF$87,$A$87-$A45+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="H45" s="23">
-        <f>IFERROR( HLOOKUP("BE",L45:BF$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",L45:BF$87,$A$87-$A45+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>139</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -6474,47 +6509,37 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
     </row>
-    <row r="46" spans="1:98" ht="30">
+    <row r="46" spans="1:98">
       <c r="A46">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B46" s="22"/>
-      <c r="C46" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="22"/>
+      <c r="C46" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="E46" s="22" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="23">
-        <f>IFERROR( HLOOKUP("BE",L46:BF$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$87,$A$87-$A46+1,FALSE),0)</f>
-        <v>41032</v>
+        <f>IFERROR( HLOOKUP("BE",L46:BF$91,$A$91-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$91,$A$91-$A46+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H46" s="23">
-        <f>IFERROR( HLOOKUP("BE",L46:BF$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$87,$A$87-$A46+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>139</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L46:BF$91,$A$91-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$91,$A$91-$A46+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -6598,47 +6623,37 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
     </row>
-    <row r="47" spans="1:98" ht="30">
+    <row r="47" spans="1:98">
       <c r="A47">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B47" s="22"/>
-      <c r="C47" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="22"/>
+      <c r="C47" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="E47" s="22" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="23">
-        <f>IFERROR( HLOOKUP("BE",L47:BF$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",L47:BF$87,$A$87-$A47+1,FALSE),0)</f>
-        <v>41032</v>
+        <f>IFERROR( HLOOKUP("BE",L47:BF$91,$A$91-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",L47:BF$91,$A$91-$A47+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H47" s="23">
-        <f>IFERROR( HLOOKUP("BE",L47:BF$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",L47:BF$87,$A$87-$A47+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>139</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L47:BF$91,$A$91-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",L47:BF$91,$A$91-$A47+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -6724,22 +6739,18 @@
     </row>
     <row r="48" spans="1:98">
       <c r="A48">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B48" s="22"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23">
-        <f>IFERROR( HLOOKUP("BE",L48:BF$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",L48:BF$87,$A$87-$A48+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
-        <f>IFERROR( HLOOKUP("BE",L48:BF$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",L48:BF$87,$A$87-$A48+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="23"/>
+      <c r="C48" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
@@ -6830,31 +6841,49 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
     </row>
-    <row r="49" spans="1:98">
+    <row r="49" spans="1:98" ht="30">
       <c r="A49">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B49" s="22"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="C49" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F49" s="22"/>
       <c r="G49" s="23">
-        <f>IFERROR( HLOOKUP("BE",L49:BF$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",L49:BF$87,$A$87-$A49+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L49:BF$91,$A$91-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",L49:BF$91,$A$91-$A49+1,FALSE),0)</f>
+        <v>41032</v>
       </c>
       <c r="H49" s="23">
-        <f>IFERROR( HLOOKUP("BE",L49:BF$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",L49:BF$87,$A$87-$A49+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L49:BF$91,$A$91-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",L49:BF$91,$A$91-$A49+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -6938,71 +6967,93 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
     </row>
-    <row r="50" spans="1:98" s="20" customFormat="1">
+    <row r="50" spans="1:98" ht="30">
       <c r="A50">
-        <v>40</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
-      <c r="AK50" s="21"/>
-      <c r="AL50" s="21"/>
-      <c r="AM50" s="21"/>
-      <c r="AN50" s="21"/>
-      <c r="AO50" s="21"/>
-      <c r="AP50" s="21"/>
-      <c r="AQ50" s="21"/>
-      <c r="AR50" s="21"/>
-      <c r="AS50" s="21"/>
-      <c r="AT50" s="21"/>
-      <c r="AU50" s="21"/>
-      <c r="AV50" s="21"/>
-      <c r="AW50" s="21"/>
-      <c r="AX50" s="21"/>
-      <c r="AY50" s="21"/>
-      <c r="AZ50" s="21"/>
-      <c r="BA50" s="21"/>
-      <c r="BB50" s="21"/>
-      <c r="BC50" s="21"/>
-      <c r="BD50" s="21"/>
-      <c r="BE50" s="21"/>
-      <c r="BF50" s="21"/>
-      <c r="BG50" s="21"/>
-      <c r="BH50" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23">
+        <f>IFERROR( HLOOKUP("BE",L50:BF$91,$A$91-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",L50:BF$91,$A$91-$A50+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="H50" s="23">
+        <f>IFERROR( HLOOKUP("BE",L50:BF$91,$A$91-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",L50:BF$91,$A$91-$A50+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
@@ -7042,33 +7093,49 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
     </row>
-    <row r="51" spans="1:98">
+    <row r="51" spans="1:98" ht="30">
       <c r="A51">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B51" s="22"/>
-      <c r="C51" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="C51" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F51" s="22"/>
       <c r="G51" s="23">
-        <f>IFERROR( HLOOKUP("BE",L51:BF$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$87,$A$87-$A51+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$91,$A$91-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$91,$A$91-$A51+1,FALSE),0)</f>
+        <v>41032</v>
       </c>
       <c r="H51" s="23">
-        <f>IFERROR( HLOOKUP("BE",L51:BF$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$87,$A$87-$A51+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$91,$A$91-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$91,$A$91-$A51+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -7152,71 +7219,75 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
     </row>
-    <row r="52" spans="1:98" s="20" customFormat="1">
+    <row r="52" spans="1:98">
       <c r="A52">
-        <v>42</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
-      <c r="AE52" s="21"/>
-      <c r="AF52" s="21"/>
-      <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="21"/>
-      <c r="AM52" s="21"/>
-      <c r="AN52" s="21"/>
-      <c r="AO52" s="21"/>
-      <c r="AP52" s="21"/>
-      <c r="AQ52" s="21"/>
-      <c r="AR52" s="21"/>
-      <c r="AS52" s="21"/>
-      <c r="AT52" s="21"/>
-      <c r="AU52" s="21"/>
-      <c r="AV52" s="21"/>
-      <c r="AW52" s="21"/>
-      <c r="AX52" s="21"/>
-      <c r="AY52" s="21"/>
-      <c r="AZ52" s="21"/>
-      <c r="BA52" s="21"/>
-      <c r="BB52" s="21"/>
-      <c r="BC52" s="21"/>
-      <c r="BD52" s="21"/>
-      <c r="BE52" s="21"/>
-      <c r="BF52" s="21"/>
-      <c r="BG52" s="21"/>
-      <c r="BH52" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23">
+        <f>IFERROR( HLOOKUP("BE",L52:BF$91,$A$91-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",L52:BF$91,$A$91-$A52+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="23">
+        <f>IFERROR( HLOOKUP("BE",L52:BF$91,$A$91-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",L52:BF$91,$A$91-$A52+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
@@ -7258,19 +7329,19 @@
     </row>
     <row r="53" spans="1:98">
       <c r="A53">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B53" s="22"/>
-      <c r="C53" s="28"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$87,$A$87-$A53+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$91,$A$91-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$91,$A$91-$A53+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$87,$A$87-$A53+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$91,$A$91-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$91,$A$91-$A53+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I53" s="23"/>
@@ -7364,75 +7435,71 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
     </row>
-    <row r="54" spans="1:98">
+    <row r="54" spans="1:98" s="20" customFormat="1">
       <c r="A54">
-        <v>44</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23">
-        <f>IFERROR( HLOOKUP("BE",L54:BF$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",L54:BF$87,$A$87-$A54+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="23">
-        <f>IFERROR( HLOOKUP("BE",L54:BF$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",L54:BF$87,$A$87-$A54+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AR54" s="1"/>
-      <c r="AS54" s="1"/>
-      <c r="AT54" s="1"/>
-      <c r="AU54" s="1"/>
-      <c r="AV54" s="1"/>
-      <c r="AW54" s="1"/>
-      <c r="AX54" s="1"/>
-      <c r="AY54" s="1"/>
-      <c r="AZ54" s="1"/>
-      <c r="BA54" s="1"/>
-      <c r="BB54" s="1"/>
-      <c r="BC54" s="1"/>
-      <c r="BD54" s="1"/>
-      <c r="BE54" s="1"/>
-      <c r="BF54" s="1"/>
-      <c r="BG54" s="1"/>
-      <c r="BH54" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="21"/>
+      <c r="AY54" s="21"/>
+      <c r="AZ54" s="21"/>
+      <c r="BA54" s="21"/>
+      <c r="BB54" s="21"/>
+      <c r="BC54" s="21"/>
+      <c r="BD54" s="21"/>
+      <c r="BE54" s="21"/>
+      <c r="BF54" s="21"/>
+      <c r="BG54" s="21"/>
+      <c r="BH54" s="21"/>
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
@@ -7474,19 +7541,25 @@
     </row>
     <row r="55" spans="1:98">
       <c r="A55">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B55" s="22"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="C55" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F55" s="22"/>
       <c r="G55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$87,$A$87-$A55+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L55:BF$91,$A$91-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$91,$A$91-$A55+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$87,$A$87-$A55+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L55:BF$91,$A$91-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$91,$A$91-$A55+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I55" s="23"/>
@@ -7580,77 +7653,71 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
     </row>
-    <row r="56" spans="1:98">
+    <row r="56" spans="1:98" s="20" customFormat="1">
       <c r="A56">
-        <v>46</v>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23">
-        <f>IFERROR( HLOOKUP("BE",L56:BF$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",L56:BF$87,$A$87-$A56+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
-        <f>IFERROR( HLOOKUP("BE",L56:BF$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",L56:BF$87,$A$87-$A56+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" s="22"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="21"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+      <c r="BB56" s="21"/>
+      <c r="BC56" s="21"/>
+      <c r="BD56" s="21"/>
+      <c r="BE56" s="21"/>
+      <c r="BF56" s="21"/>
+      <c r="BG56" s="21"/>
+      <c r="BH56" s="21"/>
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
@@ -7692,19 +7759,19 @@
     </row>
     <row r="57" spans="1:98">
       <c r="A57">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B57" s="22"/>
-      <c r="C57" s="28"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$87,$A$87-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$91,$A$91-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$91,$A$91-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$87,$A$87-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$91,$A$91-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$91,$A$91-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I57" s="23"/>
@@ -7800,19 +7867,19 @@
     </row>
     <row r="58" spans="1:98">
       <c r="A58">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="28"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="23">
-        <f>IFERROR( HLOOKUP("BE",L58:BF$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",L58:BF$87,$A$87-$A58+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L58:BF$91,$A$91-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",L58:BF$91,$A$91-$A58+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H58" s="23">
-        <f>IFERROR( HLOOKUP("BE",L58:BF$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",L58:BF$87,$A$87-$A58+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L58:BF$91,$A$91-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",L58:BF$91,$A$91-$A58+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I58" s="23"/>
@@ -7908,19 +7975,19 @@
     </row>
     <row r="59" spans="1:98">
       <c r="A59">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="28"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$87,$A$87-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$91,$A$91-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$91,$A$91-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$87,$A$87-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$91,$A$91-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$91,$A$91-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I59" s="23"/>
@@ -8014,71 +8081,77 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
     </row>
-    <row r="60" spans="1:98" s="20" customFormat="1">
+    <row r="60" spans="1:98">
       <c r="A60">
-        <v>50</v>
-      </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
-      <c r="AI60" s="21"/>
-      <c r="AJ60" s="21"/>
-      <c r="AK60" s="21"/>
-      <c r="AL60" s="21"/>
-      <c r="AM60" s="21"/>
-      <c r="AN60" s="21"/>
-      <c r="AO60" s="21"/>
-      <c r="AP60" s="21"/>
-      <c r="AQ60" s="21"/>
-      <c r="AR60" s="21"/>
-      <c r="AS60" s="21"/>
-      <c r="AT60" s="21"/>
-      <c r="AU60" s="21"/>
-      <c r="AV60" s="21"/>
-      <c r="AW60" s="21"/>
-      <c r="AX60" s="21"/>
-      <c r="AY60" s="21"/>
-      <c r="AZ60" s="21"/>
-      <c r="BA60" s="21"/>
-      <c r="BB60" s="21"/>
-      <c r="BC60" s="21"/>
-      <c r="BD60" s="21"/>
-      <c r="BE60" s="21"/>
-      <c r="BF60" s="21"/>
-      <c r="BG60" s="21"/>
-      <c r="BH60" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23">
+        <f>IFERROR( HLOOKUP("BE",L60:BF$91,$A$91-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",L60:BF$91,$A$91-$A60+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="23">
+        <f>IFERROR( HLOOKUP("BE",L60:BF$91,$A$91-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",L60:BF$91,$A$91-$A60+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="23"/>
+      <c r="J60" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="22"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
@@ -8120,19 +8193,19 @@
     </row>
     <row r="61" spans="1:98">
       <c r="A61">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B61" s="22"/>
-      <c r="C61" s="28"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$87,$A$87-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$91,$A$91-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$91,$A$91-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$87,$A$87-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$91,$A$91-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$91,$A$91-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I61" s="23"/>
@@ -8228,19 +8301,19 @@
     </row>
     <row r="62" spans="1:98">
       <c r="A62">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B62" s="22"/>
-      <c r="C62" s="28"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="23">
-        <f>IFERROR( HLOOKUP("BE",L62:BF$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$87,$A$87-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$91,$A$91-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$91,$A$91-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H62" s="23">
-        <f>IFERROR( HLOOKUP("BE",L62:BF$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$87,$A$87-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$91,$A$91-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$91,$A$91-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I62" s="23"/>
@@ -8336,19 +8409,19 @@
     </row>
     <row r="63" spans="1:98">
       <c r="A63">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B63" s="22"/>
-      <c r="C63" s="36"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$87,$A$87-$A63+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L63:BF$91,$A$91-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$91,$A$91-$A63+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$87,$A$87-$A63+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L63:BF$91,$A$91-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$91,$A$91-$A63+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I63" s="23"/>
@@ -8442,75 +8515,71 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
     </row>
-    <row r="64" spans="1:98">
+    <row r="64" spans="1:98" s="20" customFormat="1">
       <c r="A64">
-        <v>54</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23">
-        <f>IFERROR( HLOOKUP("BE",L64:BF$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",L64:BF$87,$A$87-$A64+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="23">
-        <f>IFERROR( HLOOKUP("BE",L64:BF$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",L64:BF$87,$A$87-$A64+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="23"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-      <c r="AP64" s="1"/>
-      <c r="AQ64" s="1"/>
-      <c r="AR64" s="1"/>
-      <c r="AS64" s="1"/>
-      <c r="AT64" s="1"/>
-      <c r="AU64" s="1"/>
-      <c r="AV64" s="1"/>
-      <c r="AW64" s="1"/>
-      <c r="AX64" s="1"/>
-      <c r="AY64" s="1"/>
-      <c r="AZ64" s="1"/>
-      <c r="BA64" s="1"/>
-      <c r="BB64" s="1"/>
-      <c r="BC64" s="1"/>
-      <c r="BD64" s="1"/>
-      <c r="BE64" s="1"/>
-      <c r="BF64" s="1"/>
-      <c r="BG64" s="1"/>
-      <c r="BH64" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="21"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="21"/>
+      <c r="AO64" s="21"/>
+      <c r="AP64" s="21"/>
+      <c r="AQ64" s="21"/>
+      <c r="AR64" s="21"/>
+      <c r="AS64" s="21"/>
+      <c r="AT64" s="21"/>
+      <c r="AU64" s="21"/>
+      <c r="AV64" s="21"/>
+      <c r="AW64" s="21"/>
+      <c r="AX64" s="21"/>
+      <c r="AY64" s="21"/>
+      <c r="AZ64" s="21"/>
+      <c r="BA64" s="21"/>
+      <c r="BB64" s="21"/>
+      <c r="BC64" s="21"/>
+      <c r="BD64" s="21"/>
+      <c r="BE64" s="21"/>
+      <c r="BF64" s="21"/>
+      <c r="BG64" s="21"/>
+      <c r="BH64" s="21"/>
       <c r="BI64" s="1"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
@@ -8552,19 +8621,19 @@
     </row>
     <row r="65" spans="1:98">
       <c r="A65">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B65" s="22"/>
-      <c r="C65" s="36"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$87,$A$87-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$91,$A$91-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$91,$A$91-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$87,$A$87-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$91,$A$91-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$91,$A$91-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I65" s="23"/>
@@ -8660,19 +8729,19 @@
     </row>
     <row r="66" spans="1:98">
       <c r="A66">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B66" s="22"/>
-      <c r="C66" s="28"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="23">
-        <f>IFERROR( HLOOKUP("BE",L66:BF$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$87,$A$87-$A66+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L66:BF$91,$A$91-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$91,$A$91-$A66+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="23">
-        <f>IFERROR( HLOOKUP("BE",L66:BF$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$87,$A$87-$A66+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L66:BF$91,$A$91-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$91,$A$91-$A66+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I66" s="23"/>
@@ -8766,71 +8835,75 @@
       <c r="CS66" s="1"/>
       <c r="CT66" s="1"/>
     </row>
-    <row r="67" spans="1:98" s="20" customFormat="1">
+    <row r="67" spans="1:98">
       <c r="A67">
-        <v>57</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-      <c r="AB67" s="21"/>
-      <c r="AC67" s="21"/>
-      <c r="AD67" s="21"/>
-      <c r="AE67" s="21"/>
-      <c r="AF67" s="21"/>
-      <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
-      <c r="AI67" s="21"/>
-      <c r="AJ67" s="21"/>
-      <c r="AK67" s="21"/>
-      <c r="AL67" s="21"/>
-      <c r="AM67" s="21"/>
-      <c r="AN67" s="21"/>
-      <c r="AO67" s="21"/>
-      <c r="AP67" s="21"/>
-      <c r="AQ67" s="21"/>
-      <c r="AR67" s="21"/>
-      <c r="AS67" s="21"/>
-      <c r="AT67" s="21"/>
-      <c r="AU67" s="21"/>
-      <c r="AV67" s="21"/>
-      <c r="AW67" s="21"/>
-      <c r="AX67" s="21"/>
-      <c r="AY67" s="21"/>
-      <c r="AZ67" s="21"/>
-      <c r="BA67" s="21"/>
-      <c r="BB67" s="21"/>
-      <c r="BC67" s="21"/>
-      <c r="BD67" s="21"/>
-      <c r="BE67" s="21"/>
-      <c r="BF67" s="21"/>
-      <c r="BG67" s="21"/>
-      <c r="BH67" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="23">
+        <f>IFERROR( HLOOKUP("BE",L67:BF$91,$A$91-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",L67:BF$91,$A$91-$A67+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="23">
+        <f>IFERROR( HLOOKUP("BE",L67:BF$91,$A$91-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",L67:BF$91,$A$91-$A67+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
       <c r="BI67" s="1"/>
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
@@ -8872,21 +8945,19 @@
     </row>
     <row r="68" spans="1:98">
       <c r="A68">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B68" s="22"/>
-      <c r="C68" s="37" t="s">
-        <v>60</v>
-      </c>
+      <c r="C68" s="34"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="23">
-        <f>IFERROR( HLOOKUP("BE",L68:BF$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$87,$A$87-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$91,$A$91-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$91,$A$91-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="23">
-        <f>IFERROR( HLOOKUP("BE",L68:BF$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$87,$A$87-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$91,$A$91-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$91,$A$91-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I68" s="23"/>
@@ -8982,19 +9053,19 @@
     </row>
     <row r="69" spans="1:98">
       <c r="A69">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B69" s="22"/>
-      <c r="C69" s="36"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$87,$A$87-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$91,$A$91-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$91,$A$91-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$87,$A$87-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$91,$A$91-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$91,$A$91-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I69" s="23"/>
@@ -9090,19 +9161,19 @@
     </row>
     <row r="70" spans="1:98">
       <c r="A70">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B70" s="22"/>
-      <c r="C70" s="36"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$87,$A$87-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$91,$A$91-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$91,$A$91-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$87,$A$87-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$91,$A$91-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$91,$A$91-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I70" s="23"/>
@@ -9196,75 +9267,71 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
     </row>
-    <row r="71" spans="1:98">
+    <row r="71" spans="1:98" s="20" customFormat="1">
       <c r="A71">
-        <v>61</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23">
-        <f>IFERROR( HLOOKUP("BE",L71:BF$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",L71:BF$87,$A$87-$A71+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="23">
-        <f>IFERROR( HLOOKUP("BE",L71:BF$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",L71:BF$87,$A$87-$A71+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="21"/>
+      <c r="AM71" s="21"/>
+      <c r="AN71" s="21"/>
+      <c r="AO71" s="21"/>
+      <c r="AP71" s="21"/>
+      <c r="AQ71" s="21"/>
+      <c r="AR71" s="21"/>
+      <c r="AS71" s="21"/>
+      <c r="AT71" s="21"/>
+      <c r="AU71" s="21"/>
+      <c r="AV71" s="21"/>
+      <c r="AW71" s="21"/>
+      <c r="AX71" s="21"/>
+      <c r="AY71" s="21"/>
+      <c r="AZ71" s="21"/>
+      <c r="BA71" s="21"/>
+      <c r="BB71" s="21"/>
+      <c r="BC71" s="21"/>
+      <c r="BD71" s="21"/>
+      <c r="BE71" s="21"/>
+      <c r="BF71" s="21"/>
+      <c r="BG71" s="21"/>
+      <c r="BH71" s="21"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -9306,19 +9373,21 @@
     </row>
     <row r="72" spans="1:98">
       <c r="A72">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B72" s="22"/>
-      <c r="C72" s="36"/>
+      <c r="C72" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$87,$A$87-$A72+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$91,$A$91-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$91,$A$91-$A72+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$87,$A$87-$A72+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$91,$A$91-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$91,$A$91-$A72+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I72" s="23"/>
@@ -9414,21 +9483,19 @@
     </row>
     <row r="73" spans="1:98">
       <c r="A73">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B73" s="22"/>
-      <c r="C73" s="37" t="s">
-        <v>61</v>
-      </c>
+      <c r="C73" s="34"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="23">
-        <f>IFERROR( HLOOKUP("BE",L73:BF$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$87,$A$87-$A73+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L73:BF$91,$A$91-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$91,$A$91-$A73+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H73" s="23">
-        <f>IFERROR( HLOOKUP("BE",L73:BF$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$87,$A$87-$A73+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L73:BF$91,$A$91-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$91,$A$91-$A73+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I73" s="23"/>
@@ -9524,19 +9591,19 @@
     </row>
     <row r="74" spans="1:98">
       <c r="A74">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="36"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$87,$A$87-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$91,$A$91-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$91,$A$91-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$87,$A$87-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$91,$A$91-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$91,$A$91-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I74" s="23"/>
@@ -9632,19 +9699,19 @@
     </row>
     <row r="75" spans="1:98">
       <c r="A75">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B75" s="22"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$87,$A$87-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$91,$A$91-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$91,$A$91-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$87,$A$87-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$91,$A$91-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$91,$A$91-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="23"/>
@@ -9740,19 +9807,19 @@
     </row>
     <row r="76" spans="1:98">
       <c r="A76">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B76" s="22"/>
-      <c r="C76" s="36"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$87,$A$87-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$91,$A$91-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$91,$A$91-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$87,$A$87-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$91,$A$91-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$91,$A$91-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I76" s="23"/>
@@ -9848,19 +9915,21 @@
     </row>
     <row r="77" spans="1:98">
       <c r="A77">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B77" s="22"/>
-      <c r="C77" s="36"/>
+      <c r="C77" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$87,$A$87-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$91,$A$91-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$91,$A$91-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$87,$A$87-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$91,$A$91-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$91,$A$91-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I77" s="23"/>
@@ -9956,21 +10025,19 @@
     </row>
     <row r="78" spans="1:98">
       <c r="A78">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B78" s="22"/>
-      <c r="C78" s="37" t="s">
-        <v>62</v>
-      </c>
+      <c r="C78" s="34"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$87,$A$87-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$91,$A$91-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$91,$A$91-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$87,$A$87-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$91,$A$91-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$91,$A$91-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="23"/>
@@ -10066,19 +10133,19 @@
     </row>
     <row r="79" spans="1:98">
       <c r="A79">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B79" s="22"/>
-      <c r="C79" s="36"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$87,$A$87-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$91,$A$91-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$91,$A$91-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$87,$A$87-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$91,$A$91-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$91,$A$91-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I79" s="23"/>
@@ -10174,19 +10241,19 @@
     </row>
     <row r="80" spans="1:98">
       <c r="A80">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="36"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$87,$A$87-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$91,$A$91-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$91,$A$91-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$87,$A$87-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$91,$A$91-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$91,$A$91-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="23"/>
@@ -10282,19 +10349,19 @@
     </row>
     <row r="81" spans="1:98">
       <c r="A81">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B81" s="22"/>
-      <c r="C81" s="36"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$87,$A$87-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$91,$A$91-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$91,$A$91-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$87,$A$87-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$91,$A$91-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$91,$A$91-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I81" s="23"/>
@@ -10390,19 +10457,21 @@
     </row>
     <row r="82" spans="1:98">
       <c r="A82">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B82" s="22"/>
-      <c r="C82" s="28"/>
+      <c r="C82" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$87,$A$87-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$91,$A$91-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$91,$A$91-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$87,$A$87-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$91,$A$91-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$91,$A$91-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I82" s="23"/>
@@ -10498,19 +10567,19 @@
     </row>
     <row r="83" spans="1:98">
       <c r="A83">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B83" s="22"/>
-      <c r="C83" s="28"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$87,$A$87-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$91,$A$91-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$91,$A$91-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$87,$A$87-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$91,$A$91-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$91,$A$91-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I83" s="23"/>
@@ -10606,19 +10675,19 @@
     </row>
     <row r="84" spans="1:98">
       <c r="A84">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B84" s="22"/>
-      <c r="C84" s="28"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$87,$A$87-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$91,$A$91-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$91,$A$91-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$87,$A$87-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$91,$A$91-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$91,$A$91-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I84" s="23"/>
@@ -10712,360 +10781,791 @@
       <c r="CS84" s="1"/>
       <c r="CT84" s="1"/>
     </row>
-    <row r="85" spans="1:98" s="20" customFormat="1">
+    <row r="85" spans="1:98">
       <c r="A85">
-        <v>75</v>
-      </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="Z85" s="21"/>
-      <c r="AA85" s="21"/>
-      <c r="AB85" s="21"/>
-      <c r="AC85" s="21"/>
-      <c r="AD85" s="21"/>
-      <c r="AE85" s="21"/>
-      <c r="AF85" s="21"/>
-      <c r="AG85" s="21"/>
-      <c r="AH85" s="21"/>
-      <c r="AI85" s="21"/>
-      <c r="AJ85" s="21"/>
-      <c r="AK85" s="21"/>
-      <c r="AL85" s="21"/>
-      <c r="AM85" s="21"/>
-      <c r="AN85" s="21"/>
-      <c r="AO85" s="21"/>
-      <c r="AP85" s="21"/>
-      <c r="AQ85" s="21"/>
-      <c r="AR85" s="21"/>
-      <c r="AS85" s="21"/>
-      <c r="AT85" s="21"/>
-      <c r="AU85" s="21"/>
-      <c r="AV85" s="21"/>
-      <c r="AW85" s="21"/>
-      <c r="AX85" s="21"/>
-      <c r="AY85" s="21"/>
-      <c r="AZ85" s="21"/>
-      <c r="BA85" s="21"/>
-      <c r="BB85" s="21"/>
-      <c r="BC85" s="21"/>
-      <c r="BD85" s="21"/>
-      <c r="BE85" s="21"/>
-      <c r="BF85" s="21"/>
-      <c r="BG85" s="21"/>
-      <c r="BH85" s="21"/>
-      <c r="BI85" s="21"/>
-      <c r="BJ85" s="21"/>
-      <c r="BK85" s="21"/>
-      <c r="BL85" s="21"/>
-      <c r="BM85" s="21"/>
-      <c r="BN85" s="21"/>
-      <c r="BO85" s="21"/>
-      <c r="BP85" s="21"/>
-      <c r="BQ85" s="21"/>
-      <c r="BR85" s="21"/>
-      <c r="BS85" s="21"/>
-      <c r="BT85" s="21"/>
-      <c r="BU85" s="21"/>
-      <c r="BV85" s="21"/>
-      <c r="BW85" s="21"/>
-      <c r="BX85" s="21"/>
-      <c r="BY85" s="21"/>
-      <c r="BZ85" s="21"/>
-      <c r="CA85" s="21"/>
-      <c r="CB85" s="21"/>
-      <c r="CC85" s="21"/>
-      <c r="CD85" s="21"/>
-      <c r="CE85" s="21"/>
-      <c r="CF85" s="21"/>
-      <c r="CG85" s="21"/>
-      <c r="CH85" s="21"/>
-      <c r="CI85" s="21"/>
-      <c r="CJ85" s="21"/>
-      <c r="CK85" s="21"/>
-      <c r="CL85" s="21"/>
-      <c r="CM85" s="21"/>
-      <c r="CN85" s="21"/>
-      <c r="CO85" s="21"/>
-      <c r="CP85" s="21"/>
-      <c r="CQ85" s="21"/>
-      <c r="CR85" s="21"/>
-      <c r="CS85" s="21"/>
-      <c r="CT85" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="23">
+        <f>IFERROR( HLOOKUP("BE",L85:BF$91,$A$91-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("B",L85:BF$91,$A$91-$A85+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="23">
+        <f>IFERROR( HLOOKUP("BE",L85:BF$91,$A$91-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("E",L85:BF$91,$A$91-$A85+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="23"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="1"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="1"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="1"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="1"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="1"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="1"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="1"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="1"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="1"/>
+      <c r="CT85" s="1"/>
     </row>
     <row r="86" spans="1:98">
       <c r="A86">
+        <v>72</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23">
+        <f>IFERROR( HLOOKUP("BE",L86:BF$91,$A$91-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("B",L86:BF$91,$A$91-$A86+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="23">
+        <f>IFERROR( HLOOKUP("BE",L86:BF$91,$A$91-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("E",L86:BF$91,$A$91-$A86+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="23"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="1"/>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
+      <c r="CT86" s="1"/>
+    </row>
+    <row r="87" spans="1:98">
+      <c r="A87">
+        <v>73</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="23">
+        <f>IFERROR( HLOOKUP("BE",L87:BF$91,$A$91-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("B",L87:BF$91,$A$91-$A87+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="23">
+        <f>IFERROR( HLOOKUP("BE",L87:BF$91,$A$91-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("E",L87:BF$91,$A$91-$A87+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="1"/>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="1"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="1"/>
+      <c r="BT87" s="1"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="1"/>
+      <c r="BX87" s="1"/>
+      <c r="BY87" s="1"/>
+      <c r="BZ87" s="1"/>
+      <c r="CA87" s="1"/>
+      <c r="CB87" s="1"/>
+      <c r="CC87" s="1"/>
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="1"/>
+      <c r="CF87" s="1"/>
+      <c r="CG87" s="1"/>
+      <c r="CH87" s="1"/>
+      <c r="CI87" s="1"/>
+      <c r="CJ87" s="1"/>
+      <c r="CK87" s="1"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="1"/>
+      <c r="CS87" s="1"/>
+      <c r="CT87" s="1"/>
+    </row>
+    <row r="88" spans="1:98">
+      <c r="A88">
+        <v>74</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="23">
+        <f>IFERROR( HLOOKUP("BE",L88:BF$91,$A$91-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("B",L88:BF$91,$A$91-$A88+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="23">
+        <f>IFERROR( HLOOKUP("BE",L88:BF$91,$A$91-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("E",L88:BF$91,$A$91-$A88+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="1"/>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
+      <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="1"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+      <c r="CC88" s="1"/>
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="1"/>
+      <c r="CF88" s="1"/>
+      <c r="CG88" s="1"/>
+      <c r="CH88" s="1"/>
+      <c r="CI88" s="1"/>
+      <c r="CJ88" s="1"/>
+      <c r="CK88" s="1"/>
+      <c r="CL88" s="1"/>
+      <c r="CM88" s="1"/>
+      <c r="CN88" s="1"/>
+      <c r="CO88" s="1"/>
+      <c r="CP88" s="1"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="1"/>
+      <c r="CS88" s="1"/>
+      <c r="CT88" s="1"/>
+    </row>
+    <row r="89" spans="1:98" s="20" customFormat="1">
+      <c r="A89">
+        <v>75</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21"/>
+      <c r="AK89" s="21"/>
+      <c r="AL89" s="21"/>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21"/>
+      <c r="AO89" s="21"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="21"/>
+      <c r="AR89" s="21"/>
+      <c r="AS89" s="21"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="21"/>
+      <c r="AW89" s="21"/>
+      <c r="AX89" s="21"/>
+      <c r="AY89" s="21"/>
+      <c r="AZ89" s="21"/>
+      <c r="BA89" s="21"/>
+      <c r="BB89" s="21"/>
+      <c r="BC89" s="21"/>
+      <c r="BD89" s="21"/>
+      <c r="BE89" s="21"/>
+      <c r="BF89" s="21"/>
+      <c r="BG89" s="21"/>
+      <c r="BH89" s="21"/>
+      <c r="BI89" s="21"/>
+      <c r="BJ89" s="21"/>
+      <c r="BK89" s="21"/>
+      <c r="BL89" s="21"/>
+      <c r="BM89" s="21"/>
+      <c r="BN89" s="21"/>
+      <c r="BO89" s="21"/>
+      <c r="BP89" s="21"/>
+      <c r="BQ89" s="21"/>
+      <c r="BR89" s="21"/>
+      <c r="BS89" s="21"/>
+      <c r="BT89" s="21"/>
+      <c r="BU89" s="21"/>
+      <c r="BV89" s="21"/>
+      <c r="BW89" s="21"/>
+      <c r="BX89" s="21"/>
+      <c r="BY89" s="21"/>
+      <c r="BZ89" s="21"/>
+      <c r="CA89" s="21"/>
+      <c r="CB89" s="21"/>
+      <c r="CC89" s="21"/>
+      <c r="CD89" s="21"/>
+      <c r="CE89" s="21"/>
+      <c r="CF89" s="21"/>
+      <c r="CG89" s="21"/>
+      <c r="CH89" s="21"/>
+      <c r="CI89" s="21"/>
+      <c r="CJ89" s="21"/>
+      <c r="CK89" s="21"/>
+      <c r="CL89" s="21"/>
+      <c r="CM89" s="21"/>
+      <c r="CN89" s="21"/>
+      <c r="CO89" s="21"/>
+      <c r="CP89" s="21"/>
+      <c r="CQ89" s="21"/>
+      <c r="CR89" s="21"/>
+      <c r="CS89" s="21"/>
+      <c r="CT89" s="21"/>
+    </row>
+    <row r="90" spans="1:98">
+      <c r="A90">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:98" s="24" customFormat="1">
-      <c r="A87">
+    <row r="91" spans="1:98" s="24" customFormat="1">
+      <c r="A91">
         <v>77</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C91" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="L87" s="25">
-        <f>L9</f>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="L91" s="25">
+        <f>L13</f>
         <v>41030</v>
       </c>
-      <c r="M87" s="25">
-        <f t="shared" ref="M87:BF87" si="44">M9</f>
+      <c r="M91" s="25">
+        <f t="shared" ref="M91:BF91" si="44">M13</f>
         <v>41031</v>
       </c>
-      <c r="N87" s="25">
+      <c r="N91" s="25">
         <f t="shared" si="44"/>
         <v>41032</v>
       </c>
-      <c r="O87" s="25">
+      <c r="O91" s="25">
         <f t="shared" si="44"/>
         <v>41033</v>
       </c>
-      <c r="P87" s="25">
+      <c r="P91" s="25">
         <f t="shared" si="44"/>
         <v>41034</v>
       </c>
-      <c r="Q87" s="25">
+      <c r="Q91" s="25">
         <f t="shared" si="44"/>
         <v>41035</v>
       </c>
-      <c r="R87" s="25">
+      <c r="R91" s="25">
         <f t="shared" si="44"/>
         <v>41036</v>
       </c>
-      <c r="S87" s="25">
+      <c r="S91" s="25">
         <f t="shared" si="44"/>
         <v>41037</v>
       </c>
-      <c r="T87" s="25">
+      <c r="T91" s="25">
         <f t="shared" si="44"/>
         <v>41038</v>
       </c>
-      <c r="U87" s="25">
+      <c r="U91" s="25">
         <f t="shared" si="44"/>
         <v>41039</v>
       </c>
-      <c r="V87" s="25">
+      <c r="V91" s="25">
         <f t="shared" si="44"/>
         <v>41040</v>
       </c>
-      <c r="W87" s="25">
+      <c r="W91" s="25">
         <f t="shared" si="44"/>
         <v>41041</v>
       </c>
-      <c r="X87" s="25">
+      <c r="X91" s="25">
         <f t="shared" si="44"/>
         <v>41042</v>
       </c>
-      <c r="Y87" s="25">
+      <c r="Y91" s="25">
         <f t="shared" si="44"/>
         <v>41043</v>
       </c>
-      <c r="Z87" s="25">
+      <c r="Z91" s="25">
         <f t="shared" si="44"/>
         <v>41044</v>
       </c>
-      <c r="AA87" s="25">
+      <c r="AA91" s="25">
         <f t="shared" si="44"/>
         <v>41045</v>
       </c>
-      <c r="AB87" s="25">
+      <c r="AB91" s="25">
         <f t="shared" si="44"/>
         <v>41046</v>
       </c>
-      <c r="AC87" s="25">
+      <c r="AC91" s="25">
         <f t="shared" si="44"/>
         <v>41047</v>
       </c>
-      <c r="AD87" s="25">
+      <c r="AD91" s="25">
         <f t="shared" si="44"/>
         <v>41048</v>
       </c>
-      <c r="AE87" s="25">
+      <c r="AE91" s="25">
         <f t="shared" si="44"/>
         <v>41049</v>
       </c>
-      <c r="AF87" s="25">
+      <c r="AF91" s="25">
         <f t="shared" si="44"/>
         <v>41050</v>
       </c>
-      <c r="AG87" s="25">
+      <c r="AG91" s="25">
         <f t="shared" si="44"/>
         <v>41051</v>
       </c>
-      <c r="AH87" s="25">
+      <c r="AH91" s="25">
         <f t="shared" si="44"/>
         <v>41052</v>
       </c>
-      <c r="AI87" s="25">
+      <c r="AI91" s="25">
         <f t="shared" si="44"/>
         <v>41053</v>
       </c>
-      <c r="AJ87" s="25">
+      <c r="AJ91" s="25">
         <f t="shared" si="44"/>
         <v>41054</v>
       </c>
-      <c r="AK87" s="25">
+      <c r="AK91" s="25">
         <f t="shared" si="44"/>
         <v>41055</v>
       </c>
-      <c r="AL87" s="25">
+      <c r="AL91" s="25">
         <f t="shared" si="44"/>
         <v>41056</v>
       </c>
-      <c r="AM87" s="25">
+      <c r="AM91" s="25">
         <f t="shared" si="44"/>
         <v>41057</v>
       </c>
-      <c r="AN87" s="25">
+      <c r="AN91" s="25">
         <f t="shared" si="44"/>
         <v>41058</v>
       </c>
-      <c r="AO87" s="25">
+      <c r="AO91" s="25">
         <f t="shared" si="44"/>
         <v>41059</v>
       </c>
-      <c r="AP87" s="25">
+      <c r="AP91" s="25">
         <f t="shared" si="44"/>
         <v>41060</v>
       </c>
-      <c r="AQ87" s="25">
+      <c r="AQ91" s="25">
         <f t="shared" si="44"/>
         <v>41061</v>
       </c>
-      <c r="AR87" s="25">
+      <c r="AR91" s="25">
         <f t="shared" si="44"/>
         <v>41062</v>
       </c>
-      <c r="AS87" s="25">
+      <c r="AS91" s="25">
         <f t="shared" si="44"/>
         <v>41063</v>
       </c>
-      <c r="AT87" s="25">
+      <c r="AT91" s="25">
         <f t="shared" si="44"/>
         <v>41064</v>
       </c>
-      <c r="AU87" s="25">
+      <c r="AU91" s="25">
         <f t="shared" si="44"/>
         <v>41065</v>
       </c>
-      <c r="AV87" s="25">
+      <c r="AV91" s="25">
         <f t="shared" si="44"/>
         <v>41066</v>
       </c>
-      <c r="AW87" s="25">
+      <c r="AW91" s="25">
         <f t="shared" si="44"/>
         <v>41067</v>
       </c>
-      <c r="AX87" s="25">
+      <c r="AX91" s="25">
         <f t="shared" si="44"/>
         <v>41068</v>
       </c>
-      <c r="AY87" s="25">
+      <c r="AY91" s="25">
         <f t="shared" si="44"/>
         <v>41069</v>
       </c>
-      <c r="AZ87" s="25">
+      <c r="AZ91" s="25">
         <f t="shared" si="44"/>
         <v>41070</v>
       </c>
-      <c r="BA87" s="25">
+      <c r="BA91" s="25">
         <f t="shared" si="44"/>
         <v>41071</v>
       </c>
-      <c r="BB87" s="25">
+      <c r="BB91" s="25">
         <f t="shared" si="44"/>
         <v>41072</v>
       </c>
-      <c r="BC87" s="25">
+      <c r="BC91" s="25">
         <f t="shared" si="44"/>
         <v>41073</v>
       </c>
-      <c r="BD87" s="25">
+      <c r="BD91" s="25">
         <f t="shared" si="44"/>
         <v>41074</v>
       </c>
-      <c r="BE87" s="25">
+      <c r="BE91" s="25">
         <f t="shared" si="44"/>
         <v>41075</v>
       </c>
-      <c r="BF87" s="25">
+      <c r="BF91" s="25">
         <f t="shared" si="44"/>
         <v>41076</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:BG87">
+  <autoFilter ref="A14:BG91">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
   </autoFilter>
-  <conditionalFormatting sqref="L86:AY86 L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
-    <cfRule type="cellIs" dxfId="13" priority="47" operator="equal">
+  <conditionalFormatting sqref="L90:AY90 L55:BF55 L57:BF88 L24:BF40 L15:BF18 L20:BF22 BI20:CT88 L42:BF53">
+    <cfRule type="cellIs" dxfId="5" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
-    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
+  <conditionalFormatting sqref="L55:BF55 L57:BF88 L24:BF40 L15:BF18 L20:BF22 BI20:CT88 L42:BF53">
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51 I53:I84 I28:I36 I16:I18 I11:I14 I20:I26 I38:I49">
-    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
-      <formula>$H$5</formula>
+  <conditionalFormatting sqref="I55 I57:I88 I32:I40 I20:I22 I15:I18 I24:I30 I49:I53 I42:I44 I46:I47">
+    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+      <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I14 I16:I18 I28:I36 I51 I53:I84 I20:I26 I39:I49">
-    <cfRule type="expression" dxfId="8" priority="31">
-      <formula>AND(I11&lt;&gt;$H$5,$H11&lt;TODAY())</formula>
+  <conditionalFormatting sqref="I15:I18 I20:I22 I32:I40 I55 I57:I88 I24:I30 I49:I53 I46:I47 I42:I44">
+    <cfRule type="expression" dxfId="0" priority="90">
+      <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND(I38&lt;&gt;$H$5,$H38&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I51 I11:I18 I61:I66 I53:I59 I68:I84 I33:I36 I28:I31 I20:I26 I38:I49">
-      <formula1>$H$2:$H$5</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55 I42:I53 I24:I30 I32:I35 I37:I40 I72:I88 I57:I63 I65:I70 I15:I22">
+      <formula1>$G$2:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:E89">
       <formula1>thanh_vien</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:E88">
+      <formula1>members</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="33" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11074,10 +11574,10 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11098,12 +11598,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="H1" t="s">
         <v>129</v>
       </c>
@@ -11119,64 +11619,74 @@
       <c r="L1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="60">
-      <c r="A2" s="55" t="s">
+      <c r="M1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="75">
+      <c r="A2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="S2" s="42" t="s">
+      <c r="M2" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="S2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="41">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11185,37 +11695,39 @@
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="1"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="S3" s="42">
+      <c r="S3" s="40">
         <v>1</v>
       </c>
       <c r="T3" s="16" t="s">
@@ -11226,7 +11738,7 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="41">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -11235,25 +11747,25 @@
       <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="1"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="S4" s="42">
+      <c r="S4" s="40">
         <v>2</v>
       </c>
       <c r="T4" s="16" t="s">
@@ -11267,7 +11779,7 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="41">
+      <c r="A5" s="39">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -11276,33 +11788,33 @@
       <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="S5" s="42">
+      <c r="S5" s="40">
         <v>3</v>
       </c>
       <c r="T5" s="16" t="s">
@@ -11316,7 +11828,7 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="41">
+      <c r="A6" s="39">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11325,29 +11837,29 @@
       <c r="C6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="S6" s="42">
+      <c r="S6" s="40">
         <v>4</v>
       </c>
       <c r="T6" s="16" t="s">
@@ -11361,7 +11873,7 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="41">
+      <c r="A7" s="39">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11370,29 +11882,29 @@
       <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="S7" s="42">
+      <c r="S7" s="40">
         <v>5</v>
       </c>
       <c r="T7" s="16" t="s">
@@ -11406,7 +11918,7 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="41">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -11415,27 +11927,27 @@
       <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="1"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="S8" s="42">
+      <c r="S8" s="40">
         <v>6</v>
       </c>
       <c r="T8" s="16" t="s">
@@ -11449,7 +11961,7 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="41">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -11458,33 +11970,33 @@
       <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="1"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="41">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -11493,91 +12005,91 @@
       <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="1"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="51">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="51">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="S14" s="43"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11585,41 +12097,71 @@
     <mergeCell ref="T14:U14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G11">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="32" priority="14">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:K11">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="31" priority="13">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="30" priority="12">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="29" priority="11">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="28" priority="10">
       <formula>LEN(TRIM(L7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="27" priority="9">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:L12">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="26" priority="8">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="M3:M12">
+    <cfRule type="containsBlanks" dxfId="25" priority="7">
+      <formula>LEN(TRIM(M3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="containsBlanks" dxfId="15" priority="5">
+      <formula>LEN(TRIM(N5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="containsBlanks" dxfId="13" priority="4">
+      <formula>LEN(TRIM(N6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="containsBlanks" dxfId="11" priority="3">
+      <formula>LEN(TRIM(N7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
+      <formula>LEN(TRIM(N11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
+      <formula>LEN(TRIM(N12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11">
       <formula1>VI_TRI</formula1>
     </dataValidation>
@@ -11632,14 +12174,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="G6:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="7:8">
+      <c r="G6" t="str">
+        <f>IF(ISNUMBER(FIND("CD",D6)),"x","")</f>
+        <v/>
+      </c>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="7:8">
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" spans="7:8">
+      <c r="G8" t="str">
+        <f t="shared" ref="G7:G10" si="0">IF(ISNUMBER(FIND("CD",D8)),"x","")</f>
+        <v/>
+      </c>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" spans="7:8">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="7:8">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="12" spans="7:8">
+      <c r="G12" s="37"/>
+      <c r="H12" s="56"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -1003,15 +1003,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1023,154 +1014,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -1265,152 +1124,59 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1805,7 +1571,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1822,7 +1588,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="51"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1603,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="56" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1854,7 +1620,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="51"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1869,7 +1635,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="51"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1971,11 +1737,11 @@
   </sheetPr>
   <dimension ref="A1:CT91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2000,7 +1766,7 @@
       <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="55" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="13" t="s">
@@ -2087,7 +1853,7 @@
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
-      <c r="G6" s="57"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:98">
       <c r="A7" s="38"/>
@@ -2101,7 +1867,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
-      <c r="G7" s="57"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:98">
       <c r="A8" s="38"/>
@@ -2115,7 +1881,7 @@
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:98">
       <c r="A9" s="38"/>
@@ -2129,7 +1895,7 @@
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
-      <c r="G9" s="57"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:98">
       <c r="A10" s="38"/>
@@ -2143,7 +1909,7 @@
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
-      <c r="G10" s="57"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:98">
       <c r="A11" s="38"/>
@@ -2157,7 +1923,7 @@
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="57"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:98" s="32" customFormat="1">
       <c r="C12" s="42"/>
@@ -4152,7 +3918,7 @@
       <c r="B25" s="22">
         <v>9</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="51" t="s">
         <v>145</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -11527,28 +11293,28 @@
     <filterColumn colId="4"/>
   </autoFilter>
   <conditionalFormatting sqref="L90:AY90 L55:BF55 L57:BF88 L24:BF40 L15:BF18 L20:BF22 BI20:CT88 L42:BF53">
-    <cfRule type="cellIs" dxfId="5" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:BF55 L57:BF88 L24:BF40 L15:BF18 L20:BF22 BI20:CT88 L42:BF53">
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55 I57:I88 I32:I40 I20:I22 I15:I18 I24:I30 I49:I53 I42:I44 I46:I47">
-    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="81" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I18 I20:I22 I32:I40 I55 I57:I88 I24:I30 I49:I53 I46:I47 I42:I44">
-    <cfRule type="expression" dxfId="0" priority="90">
+    <cfRule type="expression" dxfId="13" priority="90">
       <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11573,11 +11339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C12"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11598,12 +11364,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="H1" t="s">
         <v>129</v>
       </c>
@@ -12088,8 +11854,8 @@
     </row>
     <row r="14" spans="1:22">
       <c r="S14" s="41"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12097,71 +11863,71 @@
     <mergeCell ref="T14:U14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G11">
-    <cfRule type="containsBlanks" dxfId="32" priority="14">
+    <cfRule type="containsBlanks" dxfId="12" priority="14">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:K11">
-    <cfRule type="containsBlanks" dxfId="31" priority="13">
+    <cfRule type="containsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsBlanks" dxfId="30" priority="12">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsBlanks" dxfId="29" priority="11">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsBlanks" dxfId="28" priority="10">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(L7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsBlanks" dxfId="27" priority="9">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:L12">
-    <cfRule type="containsBlanks" dxfId="26" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule type="containsBlanks" dxfId="25" priority="7">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(M3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(N5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="13" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(N6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="11" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(N7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(N11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(N12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11">
       <formula1>VI_TRI</formula1>
     </dataValidation>
@@ -12191,35 +11957,35 @@
         <f>IF(ISNUMBER(FIND("CD",D6)),"x","")</f>
         <v/>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="7:8">
-      <c r="H7" s="55"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="7:8">
       <c r="G8" t="str">
-        <f t="shared" ref="G7:G10" si="0">IF(ISNUMBER(FIND("CD",D8)),"x","")</f>
+        <f t="shared" ref="G8:G10" si="0">IF(ISNUMBER(FIND("CD",D8)),"x","")</f>
         <v/>
       </c>
-      <c r="H8" s="55"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="55"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H10" s="55"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="12" spans="7:8">
       <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
+      <c r="H12" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
   <si>
     <t>GVCM</t>
   </si>
@@ -901,7 +901,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1023,13 +1023,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1737,11 +1757,11 @@
   </sheetPr>
   <dimension ref="A1:CT91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2668,7 +2688,10 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="59">
+        <f>COUNTIF(I15:I88,"Đã xong")/COUNTA(I15:I88) * 100%</f>
+        <v>0.6</v>
+      </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -2783,7 +2806,7 @@
         <v>41032</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -3146,7 +3169,7 @@
       </c>
       <c r="H18" s="23">
         <f>IFERROR( HLOOKUP("BE",L18:BF$91,$A$91-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$91,$A$91-$A18+1,FALSE),0)</f>
-        <v>41035</v>
+        <v>41038</v>
       </c>
       <c r="I18" s="45" t="s">
         <v>36</v>
@@ -3169,11 +3192,17 @@
         <v>47</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -3484,13 +3513,15 @@
       <c r="F21" s="22"/>
       <c r="G21" s="23">
         <f>IFERROR( HLOOKUP("BE",L21:BF$91,$A$91-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$91,$A$91-$A21+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41035</v>
       </c>
       <c r="H21" s="23">
         <f>IFERROR( HLOOKUP("BE",L21:BF$91,$A$91-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$91,$A$91-$A21+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="23"/>
+        <v>41037</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="1"/>
@@ -3498,9 +3529,15 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -3820,7 +3857,9 @@
         <f>IFERROR( HLOOKUP("BE",L24:BF$91,$A$91-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$91,$A$91-$A24+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="1"/>
@@ -3936,7 +3975,9 @@
         <f>IFERROR( HLOOKUP("BE",L25:BF$91,$A$91-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$91,$A$91-$A25+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="1"/>
@@ -4052,7 +4093,9 @@
         <f>IFERROR( HLOOKUP("BE",L26:BF$91,$A$91-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$91,$A$91-$A26+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="1"/>
@@ -5254,13 +5297,15 @@
       <c r="F37" s="22"/>
       <c r="G37" s="23">
         <f>IFERROR( HLOOKUP("BE",L37:BF$91,$A$91-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",L37:BF$91,$A$91-$A37+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41036</v>
       </c>
       <c r="H37" s="23">
         <f>IFERROR( HLOOKUP("BE",L37:BF$91,$A$91-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",L37:BF$91,$A$91-$A37+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="23"/>
+        <v>41040</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="1"/>
@@ -5269,11 +5314,21 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -5363,7 +5418,7 @@
         <v>90</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23">
@@ -5375,7 +5430,7 @@
         <v>41041</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
@@ -5505,7 +5560,7 @@
         <v>41040</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
@@ -5634,7 +5689,9 @@
         <f>IFERROR( HLOOKUP("BE",L40:BF$91,$A$91-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$91,$A$91-$A40+1,FALSE),0)</f>
         <v>41045</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="1"/>
@@ -11293,33 +11350,33 @@
     <filterColumn colId="4"/>
   </autoFilter>
   <conditionalFormatting sqref="L90:AY90 L55:BF55 L57:BF88 L24:BF40 L15:BF18 L20:BF22 BI20:CT88 L42:BF53">
-    <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:BF55 L57:BF88 L24:BF40 L15:BF18 L20:BF22 BI20:CT88 L42:BF53">
-    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55 I57:I88 I32:I40 I20:I22 I15:I18 I24:I30 I49:I53 I42:I44 I46:I47">
-    <cfRule type="cellIs" dxfId="14" priority="81" operator="equal">
+  <conditionalFormatting sqref="I55 I57:I88 I32:I40 I20:I22 I15:I18 I49:I53 I42:I44 I46:I47 I24:I30">
+    <cfRule type="cellIs" dxfId="16" priority="81" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I18 I20:I22 I32:I40 I55 I57:I88 I24:I30 I49:I53 I46:I47 I42:I44">
-    <cfRule type="expression" dxfId="13" priority="90">
+  <conditionalFormatting sqref="I15:I18 I20:I22 I32:I40 I55 I57:I88 I49:I53 I46:I47 I42:I44 I24:I30">
+    <cfRule type="expression" dxfId="15" priority="90">
       <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55 I42:I53 I24:I30 I32:I35 I37:I40 I72:I88 I57:I63 I65:I70 I15:I22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55 I42:I53 I15:I22 I32:I35 I37:I40 I72:I88 I57:I63 I65:I70 I24:I30">
       <formula1>$G$2:$G$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:E89">
@@ -11339,11 +11396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11863,67 +11920,67 @@
     <mergeCell ref="T14:U14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G11">
-    <cfRule type="containsBlanks" dxfId="12" priority="14">
+    <cfRule type="containsBlanks" dxfId="14" priority="14">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:K11">
-    <cfRule type="containsBlanks" dxfId="11" priority="13">
+    <cfRule type="containsBlanks" dxfId="13" priority="13">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="12" priority="12">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsBlanks" dxfId="9" priority="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+    <cfRule type="containsBlanks" dxfId="10" priority="10">
       <formula>LEN(TRIM(L7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="9">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:L12">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="8">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="7" priority="7">
       <formula>LEN(TRIM(M3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="6" priority="5">
       <formula>LEN(TRIM(N5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(N6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(N7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(N11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(N12))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -14,76 +14,16 @@
     <sheet name="Quyết toán" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$14:$BG$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BG$87</definedName>
     <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$T$4:$T$12</definedName>
-    <definedName name="members">'Thành viên - Vị trí'!$C$3:$C$13</definedName>
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
     <definedName name="VI_TRI">'Thành viên - Vị trí'!$T$3:$T$10</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Khảo sát bên TOPICA, Giảng viên sẽ dùng tài khoản nào để đăng nhập(mã giảng viên, tạo account mới theo tên,…)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sử dụng Procedure
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -212,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="145">
   <si>
     <t>GVCM</t>
   </si>
@@ -652,50 +592,26 @@
     <t>Thêm dữ liệu công việc giảng viên mới vào CSDL</t>
   </si>
   <si>
+    <t>Assign công</t>
+  </si>
+  <si>
     <t>Người phụ trách</t>
   </si>
   <si>
     <t>Người thiết kế</t>
-  </si>
-  <si>
-    <t>Đổ toàn bộ account giảng viên vào bảng NGUOI_SU_SUNG</t>
-  </si>
-  <si>
-    <t>Assign công việc giảng viên</t>
-  </si>
-  <si>
-    <t>Gen ra thanh toán từ công việc giảng viên</t>
-  </si>
-  <si>
-    <t>Đã đọc tài liệu hướng dẫn SVN</t>
-  </si>
-  <si>
-    <t>Quản lý danh mục các hồ sơ</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin hồ sơ theo giảng viên</t>
-  </si>
-  <si>
-    <t>Theo dõi trạng thái hồ sơ giảng viên</t>
-  </si>
-  <si>
-    <t>Viết được 1 Procedure sử dụng Cursor</t>
-  </si>
-  <si>
-    <t>CD, RP, IE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,13 +709,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -901,7 +810,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -947,6 +856,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -962,6 +874,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,6 +900,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1003,17 +925,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,33 +934,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1102,42 +993,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1207,6 +1063,11 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1285,6 +1146,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1319,6 +1181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1494,52 +1357,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25">
+    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25">
+    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
@@ -1549,14 +1412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1564,7 +1427,7 @@
     <col min="4" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="12" customFormat="1">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1590,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>22</v>
       </c>
@@ -1607,7 +1470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1622,7 +1485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>21</v>
       </c>
@@ -1639,7 +1502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1654,7 +1517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1669,7 +1532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1683,7 +1546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1691,52 +1554,52 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -1751,1200 +1614,1612 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT91"/>
+  <dimension ref="A1:CT87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="10" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" style="30" customWidth="1"/>
+    <col min="3" max="3" width="48" style="31" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="98" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
       <c r="C1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:98">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="16" t="s">
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="40">
-        <f>SUMIF($E$14:$E$89,C2,$F$14:$F$89)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16">
+        <f t="shared" ref="E2:E7" si="0">SUMIF($E$10:$E$85,C2,$F$10:$F$85)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:98">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="40">
-        <f>SUMIF($E$14:$E$89,C3,$F$14:$F$89)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="17" t="s">
+      <c r="J2" s="15"/>
+      <c r="M2" s="38"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="1:98">
-      <c r="B4" s="38"/>
-      <c r="C4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="40">
-        <f>SUMIF($E$14:$E$89,C4,$F$14:$F$89)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:98">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="40">
-        <f>SUMIF($E$14:$E$89,C5,$F$14:$F$89)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="17" t="s">
+      <c r="J3" s="15"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:98">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="40">
-        <f t="shared" ref="D6:D11" si="0">SUMIF($E$14:$E$89,C6,$F$14:$F$89)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="54"/>
-    </row>
-    <row r="7" spans="1:98">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="54"/>
-    </row>
-    <row r="8" spans="1:98">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="40">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="54"/>
-    </row>
-    <row r="9" spans="1:98">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" spans="1:98">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="11" spans="1:98">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="54"/>
-    </row>
-    <row r="12" spans="1:98" s="32" customFormat="1">
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="L12" s="32">
-        <f>L13</f>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:98" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="L8" s="34">
+        <f>L9</f>
         <v>41030</v>
       </c>
-      <c r="M12" s="32">
-        <f t="shared" ref="M12:BX12" si="1">M13</f>
+      <c r="M8" s="34">
+        <f t="shared" ref="M8:BX8" si="1">M9</f>
         <v>41031</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N8" s="34">
         <f t="shared" si="1"/>
         <v>41032</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O8" s="34">
         <f t="shared" si="1"/>
         <v>41033</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P8" s="34">
         <f t="shared" si="1"/>
         <v>41034</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q8" s="34">
         <f t="shared" si="1"/>
         <v>41035</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R8" s="34">
         <f t="shared" si="1"/>
         <v>41036</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S8" s="34">
         <f t="shared" si="1"/>
         <v>41037</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T8" s="34">
         <f t="shared" si="1"/>
         <v>41038</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U8" s="34">
         <f t="shared" si="1"/>
         <v>41039</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V8" s="34">
         <f t="shared" si="1"/>
         <v>41040</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W8" s="34">
         <f t="shared" si="1"/>
         <v>41041</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X8" s="34">
         <f t="shared" si="1"/>
         <v>41042</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y8" s="34">
         <f t="shared" si="1"/>
         <v>41043</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z8" s="34">
         <f t="shared" si="1"/>
         <v>41044</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA8" s="34">
         <f t="shared" si="1"/>
         <v>41045</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB8" s="34">
         <f t="shared" si="1"/>
         <v>41046</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC8" s="34">
         <f t="shared" si="1"/>
         <v>41047</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD8" s="34">
         <f t="shared" si="1"/>
         <v>41048</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE8" s="34">
         <f t="shared" si="1"/>
         <v>41049</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF8" s="34">
         <f t="shared" si="1"/>
         <v>41050</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG8" s="34">
         <f t="shared" si="1"/>
         <v>41051</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH8" s="34">
         <f t="shared" si="1"/>
         <v>41052</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI8" s="34">
         <f t="shared" si="1"/>
         <v>41053</v>
       </c>
-      <c r="AJ12" s="32">
+      <c r="AJ8" s="34">
         <f t="shared" si="1"/>
         <v>41054</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AK8" s="34">
         <f t="shared" si="1"/>
         <v>41055</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AL8" s="34">
         <f t="shared" si="1"/>
         <v>41056</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AM8" s="34">
         <f t="shared" si="1"/>
         <v>41057</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN8" s="34">
         <f t="shared" si="1"/>
         <v>41058</v>
       </c>
-      <c r="AO12" s="32">
+      <c r="AO8" s="34">
         <f t="shared" si="1"/>
         <v>41059</v>
       </c>
-      <c r="AP12" s="32">
+      <c r="AP8" s="34">
         <f t="shared" si="1"/>
         <v>41060</v>
       </c>
-      <c r="AQ12" s="32">
+      <c r="AQ8" s="34">
         <f t="shared" si="1"/>
         <v>41061</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AR8" s="34">
         <f t="shared" si="1"/>
         <v>41062</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AS8" s="34">
         <f t="shared" si="1"/>
         <v>41063</v>
       </c>
-      <c r="AT12" s="32">
+      <c r="AT8" s="34">
         <f t="shared" si="1"/>
         <v>41064</v>
       </c>
-      <c r="AU12" s="32">
+      <c r="AU8" s="34">
         <f t="shared" si="1"/>
         <v>41065</v>
       </c>
-      <c r="AV12" s="32">
+      <c r="AV8" s="34">
         <f t="shared" si="1"/>
         <v>41066</v>
       </c>
-      <c r="AW12" s="32">
+      <c r="AW8" s="34">
         <f t="shared" si="1"/>
         <v>41067</v>
       </c>
-      <c r="AX12" s="32">
+      <c r="AX8" s="34">
         <f t="shared" si="1"/>
         <v>41068</v>
       </c>
-      <c r="AY12" s="32">
+      <c r="AY8" s="34">
         <f t="shared" si="1"/>
         <v>41069</v>
       </c>
-      <c r="AZ12" s="32">
+      <c r="AZ8" s="34">
         <f t="shared" si="1"/>
         <v>41070</v>
       </c>
-      <c r="BA12" s="32">
+      <c r="BA8" s="34">
         <f t="shared" si="1"/>
         <v>41071</v>
       </c>
-      <c r="BB12" s="32">
+      <c r="BB8" s="34">
         <f t="shared" si="1"/>
         <v>41072</v>
       </c>
-      <c r="BC12" s="32">
+      <c r="BC8" s="34">
         <f t="shared" si="1"/>
         <v>41073</v>
       </c>
-      <c r="BD12" s="32">
+      <c r="BD8" s="34">
         <f t="shared" si="1"/>
         <v>41074</v>
       </c>
-      <c r="BE12" s="32">
+      <c r="BE8" s="34">
         <f t="shared" si="1"/>
         <v>41075</v>
       </c>
-      <c r="BF12" s="32">
+      <c r="BF8" s="34">
         <f t="shared" si="1"/>
         <v>41076</v>
       </c>
-      <c r="BG12" s="32">
+      <c r="BG8" s="34">
         <f t="shared" si="1"/>
         <v>41077</v>
       </c>
-      <c r="BH12" s="32">
+      <c r="BH8" s="34">
         <f t="shared" si="1"/>
         <v>41078</v>
       </c>
-      <c r="BI12" s="32">
+      <c r="BI8" s="34">
         <f t="shared" si="1"/>
         <v>41079</v>
       </c>
-      <c r="BJ12" s="32">
+      <c r="BJ8" s="34">
         <f t="shared" si="1"/>
         <v>41080</v>
       </c>
-      <c r="BK12" s="32">
+      <c r="BK8" s="34">
         <f t="shared" si="1"/>
         <v>41081</v>
       </c>
-      <c r="BL12" s="32">
+      <c r="BL8" s="34">
         <f t="shared" si="1"/>
         <v>41082</v>
       </c>
-      <c r="BM12" s="32">
+      <c r="BM8" s="34">
         <f t="shared" si="1"/>
         <v>41083</v>
       </c>
-      <c r="BN12" s="32">
+      <c r="BN8" s="34">
         <f t="shared" si="1"/>
         <v>41084</v>
       </c>
-      <c r="BO12" s="32">
+      <c r="BO8" s="34">
         <f t="shared" si="1"/>
         <v>41085</v>
       </c>
-      <c r="BP12" s="32">
+      <c r="BP8" s="34">
         <f t="shared" si="1"/>
         <v>41086</v>
       </c>
-      <c r="BQ12" s="32">
+      <c r="BQ8" s="34">
         <f t="shared" si="1"/>
         <v>41087</v>
       </c>
-      <c r="BR12" s="32">
+      <c r="BR8" s="34">
         <f t="shared" si="1"/>
         <v>41088</v>
       </c>
-      <c r="BS12" s="32">
+      <c r="BS8" s="34">
         <f t="shared" si="1"/>
         <v>41089</v>
       </c>
-      <c r="BT12" s="32">
+      <c r="BT8" s="34">
         <f t="shared" si="1"/>
         <v>41090</v>
       </c>
-      <c r="BU12" s="32">
+      <c r="BU8" s="34">
         <f t="shared" si="1"/>
         <v>41091</v>
       </c>
-      <c r="BV12" s="32">
+      <c r="BV8" s="34">
         <f t="shared" si="1"/>
         <v>41092</v>
       </c>
-      <c r="BW12" s="32">
+      <c r="BW8" s="34">
         <f t="shared" si="1"/>
         <v>41093</v>
       </c>
-      <c r="BX12" s="32">
+      <c r="BX8" s="34">
         <f t="shared" si="1"/>
         <v>41094</v>
       </c>
-      <c r="BY12" s="32">
-        <f t="shared" ref="BY12:CT12" si="2">BY13</f>
+      <c r="BY8" s="34">
+        <f t="shared" ref="BY8:CT8" si="2">BY9</f>
         <v>41095</v>
       </c>
-      <c r="BZ12" s="32">
+      <c r="BZ8" s="34">
         <f t="shared" si="2"/>
         <v>41096</v>
       </c>
-      <c r="CA12" s="32">
+      <c r="CA8" s="34">
         <f t="shared" si="2"/>
         <v>41097</v>
       </c>
-      <c r="CB12" s="32">
+      <c r="CB8" s="34">
         <f t="shared" si="2"/>
         <v>41098</v>
       </c>
-      <c r="CC12" s="32">
+      <c r="CC8" s="34">
         <f t="shared" si="2"/>
         <v>41099</v>
       </c>
-      <c r="CD12" s="32">
+      <c r="CD8" s="34">
         <f t="shared" si="2"/>
         <v>41100</v>
       </c>
-      <c r="CE12" s="32">
+      <c r="CE8" s="34">
         <f t="shared" si="2"/>
         <v>41101</v>
       </c>
-      <c r="CF12" s="32">
+      <c r="CF8" s="34">
         <f t="shared" si="2"/>
         <v>41102</v>
       </c>
-      <c r="CG12" s="32">
+      <c r="CG8" s="34">
         <f t="shared" si="2"/>
         <v>41103</v>
       </c>
-      <c r="CH12" s="32">
+      <c r="CH8" s="34">
         <f t="shared" si="2"/>
         <v>41104</v>
       </c>
-      <c r="CI12" s="32">
+      <c r="CI8" s="34">
         <f t="shared" si="2"/>
         <v>41105</v>
       </c>
-      <c r="CJ12" s="32">
+      <c r="CJ8" s="34">
         <f t="shared" si="2"/>
         <v>41106</v>
       </c>
-      <c r="CK12" s="32">
+      <c r="CK8" s="34">
         <f t="shared" si="2"/>
         <v>41107</v>
       </c>
-      <c r="CL12" s="32">
+      <c r="CL8" s="34">
         <f t="shared" si="2"/>
         <v>41108</v>
       </c>
-      <c r="CM12" s="32">
+      <c r="CM8" s="34">
         <f t="shared" si="2"/>
         <v>41109</v>
       </c>
-      <c r="CN12" s="32">
+      <c r="CN8" s="34">
         <f t="shared" si="2"/>
         <v>41110</v>
       </c>
-      <c r="CO12" s="32">
+      <c r="CO8" s="34">
         <f t="shared" si="2"/>
         <v>41111</v>
       </c>
-      <c r="CP12" s="32">
+      <c r="CP8" s="34">
         <f t="shared" si="2"/>
         <v>41112</v>
       </c>
-      <c r="CQ12" s="32">
+      <c r="CQ8" s="34">
         <f t="shared" si="2"/>
         <v>41113</v>
       </c>
-      <c r="CR12" s="32">
+      <c r="CR8" s="34">
         <f t="shared" si="2"/>
         <v>41114</v>
       </c>
-      <c r="CS12" s="32">
+      <c r="CS8" s="34">
         <f t="shared" si="2"/>
         <v>41115</v>
       </c>
-      <c r="CT12" s="32">
+      <c r="CT8" s="34">
         <f t="shared" si="2"/>
         <v>41116</v>
       </c>
     </row>
-    <row r="13" spans="1:98" s="18" customFormat="1" ht="30">
-      <c r="B13" s="19" t="s">
+    <row r="9" spans="1:98" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L9" s="19">
         <v>41030</v>
       </c>
-      <c r="M13" s="19">
-        <f>L13+1</f>
+      <c r="M9" s="19">
+        <f>L9+1</f>
         <v>41031</v>
       </c>
-      <c r="N13" s="19">
-        <f t="shared" ref="N13:BF13" si="3">M13+1</f>
+      <c r="N9" s="19">
+        <f t="shared" ref="N9:BF9" si="3">M9+1</f>
         <v>41032</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O9" s="19">
         <f t="shared" si="3"/>
         <v>41033</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P9" s="19">
         <f t="shared" si="3"/>
         <v>41034</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q9" s="19">
         <f t="shared" si="3"/>
         <v>41035</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R9" s="19">
         <f t="shared" si="3"/>
         <v>41036</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S9" s="19">
         <f t="shared" si="3"/>
         <v>41037</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T9" s="19">
         <f t="shared" si="3"/>
         <v>41038</v>
       </c>
-      <c r="U13" s="19">
+      <c r="U9" s="19">
         <f t="shared" si="3"/>
         <v>41039</v>
       </c>
-      <c r="V13" s="19">
+      <c r="V9" s="19">
         <f t="shared" si="3"/>
         <v>41040</v>
       </c>
-      <c r="W13" s="19">
+      <c r="W9" s="19">
         <f t="shared" si="3"/>
         <v>41041</v>
       </c>
-      <c r="X13" s="19">
+      <c r="X9" s="19">
         <f t="shared" si="3"/>
         <v>41042</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="Y9" s="19">
         <f t="shared" si="3"/>
         <v>41043</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z9" s="19">
         <f t="shared" si="3"/>
         <v>41044</v>
       </c>
-      <c r="AA13" s="19">
+      <c r="AA9" s="19">
         <f t="shared" si="3"/>
         <v>41045</v>
       </c>
-      <c r="AB13" s="19">
+      <c r="AB9" s="19">
         <f t="shared" si="3"/>
         <v>41046</v>
       </c>
-      <c r="AC13" s="19">
+      <c r="AC9" s="19">
         <f t="shared" si="3"/>
         <v>41047</v>
       </c>
-      <c r="AD13" s="19">
+      <c r="AD9" s="19">
         <f t="shared" si="3"/>
         <v>41048</v>
       </c>
-      <c r="AE13" s="19">
+      <c r="AE9" s="19">
         <f t="shared" si="3"/>
         <v>41049</v>
       </c>
-      <c r="AF13" s="19">
+      <c r="AF9" s="19">
         <f t="shared" si="3"/>
         <v>41050</v>
       </c>
-      <c r="AG13" s="19">
+      <c r="AG9" s="19">
         <f t="shared" si="3"/>
         <v>41051</v>
       </c>
-      <c r="AH13" s="19">
+      <c r="AH9" s="19">
         <f t="shared" si="3"/>
         <v>41052</v>
       </c>
-      <c r="AI13" s="19">
+      <c r="AI9" s="19">
         <f t="shared" si="3"/>
         <v>41053</v>
       </c>
-      <c r="AJ13" s="19">
+      <c r="AJ9" s="19">
         <f t="shared" si="3"/>
         <v>41054</v>
       </c>
-      <c r="AK13" s="19">
+      <c r="AK9" s="19">
         <f t="shared" si="3"/>
         <v>41055</v>
       </c>
-      <c r="AL13" s="19">
+      <c r="AL9" s="19">
         <f t="shared" si="3"/>
         <v>41056</v>
       </c>
-      <c r="AM13" s="19">
+      <c r="AM9" s="19">
         <f t="shared" si="3"/>
         <v>41057</v>
       </c>
-      <c r="AN13" s="19">
+      <c r="AN9" s="19">
         <f t="shared" si="3"/>
         <v>41058</v>
       </c>
-      <c r="AO13" s="19">
+      <c r="AO9" s="19">
         <f t="shared" si="3"/>
         <v>41059</v>
       </c>
-      <c r="AP13" s="19">
+      <c r="AP9" s="19">
         <f t="shared" si="3"/>
         <v>41060</v>
       </c>
-      <c r="AQ13" s="19">
+      <c r="AQ9" s="19">
         <f t="shared" si="3"/>
         <v>41061</v>
       </c>
-      <c r="AR13" s="19">
+      <c r="AR9" s="19">
         <f t="shared" si="3"/>
         <v>41062</v>
       </c>
-      <c r="AS13" s="19">
+      <c r="AS9" s="19">
         <f t="shared" si="3"/>
         <v>41063</v>
       </c>
-      <c r="AT13" s="19">
+      <c r="AT9" s="19">
         <f t="shared" si="3"/>
         <v>41064</v>
       </c>
-      <c r="AU13" s="19">
+      <c r="AU9" s="19">
         <f t="shared" si="3"/>
         <v>41065</v>
       </c>
-      <c r="AV13" s="19">
+      <c r="AV9" s="19">
         <f t="shared" si="3"/>
         <v>41066</v>
       </c>
-      <c r="AW13" s="19">
+      <c r="AW9" s="19">
         <f t="shared" si="3"/>
         <v>41067</v>
       </c>
-      <c r="AX13" s="19">
+      <c r="AX9" s="19">
         <f t="shared" si="3"/>
         <v>41068</v>
       </c>
-      <c r="AY13" s="19">
+      <c r="AY9" s="19">
         <f t="shared" si="3"/>
         <v>41069</v>
       </c>
-      <c r="AZ13" s="19">
+      <c r="AZ9" s="19">
         <f t="shared" si="3"/>
         <v>41070</v>
       </c>
-      <c r="BA13" s="19">
+      <c r="BA9" s="19">
         <f t="shared" si="3"/>
         <v>41071</v>
       </c>
-      <c r="BB13" s="19">
+      <c r="BB9" s="19">
         <f t="shared" si="3"/>
         <v>41072</v>
       </c>
-      <c r="BC13" s="19">
+      <c r="BC9" s="19">
         <f t="shared" si="3"/>
         <v>41073</v>
       </c>
-      <c r="BD13" s="19">
+      <c r="BD9" s="19">
         <f t="shared" si="3"/>
         <v>41074</v>
       </c>
-      <c r="BE13" s="19">
+      <c r="BE9" s="19">
         <f t="shared" si="3"/>
         <v>41075</v>
       </c>
-      <c r="BF13" s="19">
+      <c r="BF9" s="19">
         <f t="shared" si="3"/>
         <v>41076</v>
       </c>
-      <c r="BG13" s="19">
-        <f t="shared" ref="BG13" si="4">BF13+1</f>
+      <c r="BG9" s="19">
+        <f t="shared" ref="BG9" si="4">BF9+1</f>
         <v>41077</v>
       </c>
-      <c r="BH13" s="19">
-        <f t="shared" ref="BH13" si="5">BG13+1</f>
+      <c r="BH9" s="19">
+        <f t="shared" ref="BH9" si="5">BG9+1</f>
         <v>41078</v>
       </c>
-      <c r="BI13" s="19">
-        <f t="shared" ref="BI13" si="6">BH13+1</f>
+      <c r="BI9" s="19">
+        <f t="shared" ref="BI9" si="6">BH9+1</f>
         <v>41079</v>
       </c>
-      <c r="BJ13" s="19">
-        <f t="shared" ref="BJ13" si="7">BI13+1</f>
+      <c r="BJ9" s="19">
+        <f t="shared" ref="BJ9" si="7">BI9+1</f>
         <v>41080</v>
       </c>
-      <c r="BK13" s="19">
-        <f t="shared" ref="BK13" si="8">BJ13+1</f>
+      <c r="BK9" s="19">
+        <f t="shared" ref="BK9" si="8">BJ9+1</f>
         <v>41081</v>
       </c>
-      <c r="BL13" s="19">
-        <f t="shared" ref="BL13" si="9">BK13+1</f>
+      <c r="BL9" s="19">
+        <f t="shared" ref="BL9" si="9">BK9+1</f>
         <v>41082</v>
       </c>
-      <c r="BM13" s="19">
-        <f t="shared" ref="BM13" si="10">BL13+1</f>
+      <c r="BM9" s="19">
+        <f t="shared" ref="BM9" si="10">BL9+1</f>
         <v>41083</v>
       </c>
-      <c r="BN13" s="19">
-        <f t="shared" ref="BN13" si="11">BM13+1</f>
+      <c r="BN9" s="19">
+        <f t="shared" ref="BN9" si="11">BM9+1</f>
         <v>41084</v>
       </c>
-      <c r="BO13" s="19">
-        <f t="shared" ref="BO13" si="12">BN13+1</f>
+      <c r="BO9" s="19">
+        <f t="shared" ref="BO9" si="12">BN9+1</f>
         <v>41085</v>
       </c>
-      <c r="BP13" s="19">
-        <f t="shared" ref="BP13" si="13">BO13+1</f>
+      <c r="BP9" s="19">
+        <f t="shared" ref="BP9" si="13">BO9+1</f>
         <v>41086</v>
       </c>
-      <c r="BQ13" s="19">
-        <f t="shared" ref="BQ13" si="14">BP13+1</f>
+      <c r="BQ9" s="19">
+        <f t="shared" ref="BQ9" si="14">BP9+1</f>
         <v>41087</v>
       </c>
-      <c r="BR13" s="19">
-        <f t="shared" ref="BR13" si="15">BQ13+1</f>
+      <c r="BR9" s="19">
+        <f t="shared" ref="BR9" si="15">BQ9+1</f>
         <v>41088</v>
       </c>
-      <c r="BS13" s="19">
-        <f t="shared" ref="BS13" si="16">BR13+1</f>
+      <c r="BS9" s="19">
+        <f t="shared" ref="BS9" si="16">BR9+1</f>
         <v>41089</v>
       </c>
-      <c r="BT13" s="19">
-        <f t="shared" ref="BT13" si="17">BS13+1</f>
+      <c r="BT9" s="19">
+        <f t="shared" ref="BT9" si="17">BS9+1</f>
         <v>41090</v>
       </c>
-      <c r="BU13" s="19">
-        <f t="shared" ref="BU13" si="18">BT13+1</f>
+      <c r="BU9" s="19">
+        <f t="shared" ref="BU9" si="18">BT9+1</f>
         <v>41091</v>
       </c>
-      <c r="BV13" s="19">
-        <f t="shared" ref="BV13" si="19">BU13+1</f>
+      <c r="BV9" s="19">
+        <f t="shared" ref="BV9" si="19">BU9+1</f>
         <v>41092</v>
       </c>
-      <c r="BW13" s="19">
-        <f t="shared" ref="BW13" si="20">BV13+1</f>
+      <c r="BW9" s="19">
+        <f t="shared" ref="BW9" si="20">BV9+1</f>
         <v>41093</v>
       </c>
-      <c r="BX13" s="19">
-        <f t="shared" ref="BX13" si="21">BW13+1</f>
+      <c r="BX9" s="19">
+        <f t="shared" ref="BX9" si="21">BW9+1</f>
         <v>41094</v>
       </c>
-      <c r="BY13" s="19">
-        <f t="shared" ref="BY13" si="22">BX13+1</f>
+      <c r="BY9" s="19">
+        <f t="shared" ref="BY9" si="22">BX9+1</f>
         <v>41095</v>
       </c>
-      <c r="BZ13" s="19">
-        <f t="shared" ref="BZ13" si="23">BY13+1</f>
+      <c r="BZ9" s="19">
+        <f t="shared" ref="BZ9" si="23">BY9+1</f>
         <v>41096</v>
       </c>
-      <c r="CA13" s="19">
-        <f t="shared" ref="CA13" si="24">BZ13+1</f>
+      <c r="CA9" s="19">
+        <f t="shared" ref="CA9" si="24">BZ9+1</f>
         <v>41097</v>
       </c>
-      <c r="CB13" s="19">
-        <f t="shared" ref="CB13" si="25">CA13+1</f>
+      <c r="CB9" s="19">
+        <f t="shared" ref="CB9" si="25">CA9+1</f>
         <v>41098</v>
       </c>
-      <c r="CC13" s="19">
-        <f t="shared" ref="CC13" si="26">CB13+1</f>
+      <c r="CC9" s="19">
+        <f t="shared" ref="CC9" si="26">CB9+1</f>
         <v>41099</v>
       </c>
-      <c r="CD13" s="19">
-        <f t="shared" ref="CD13" si="27">CC13+1</f>
+      <c r="CD9" s="19">
+        <f t="shared" ref="CD9" si="27">CC9+1</f>
         <v>41100</v>
       </c>
-      <c r="CE13" s="19">
-        <f t="shared" ref="CE13" si="28">CD13+1</f>
+      <c r="CE9" s="19">
+        <f t="shared" ref="CE9" si="28">CD9+1</f>
         <v>41101</v>
       </c>
-      <c r="CF13" s="19">
-        <f t="shared" ref="CF13" si="29">CE13+1</f>
+      <c r="CF9" s="19">
+        <f t="shared" ref="CF9" si="29">CE9+1</f>
         <v>41102</v>
       </c>
-      <c r="CG13" s="19">
-        <f t="shared" ref="CG13" si="30">CF13+1</f>
+      <c r="CG9" s="19">
+        <f t="shared" ref="CG9" si="30">CF9+1</f>
         <v>41103</v>
       </c>
-      <c r="CH13" s="19">
-        <f t="shared" ref="CH13" si="31">CG13+1</f>
+      <c r="CH9" s="19">
+        <f t="shared" ref="CH9" si="31">CG9+1</f>
         <v>41104</v>
       </c>
-      <c r="CI13" s="19">
-        <f t="shared" ref="CI13" si="32">CH13+1</f>
+      <c r="CI9" s="19">
+        <f t="shared" ref="CI9" si="32">CH9+1</f>
         <v>41105</v>
       </c>
-      <c r="CJ13" s="19">
-        <f t="shared" ref="CJ13" si="33">CI13+1</f>
+      <c r="CJ9" s="19">
+        <f t="shared" ref="CJ9" si="33">CI9+1</f>
         <v>41106</v>
       </c>
-      <c r="CK13" s="19">
-        <f t="shared" ref="CK13" si="34">CJ13+1</f>
+      <c r="CK9" s="19">
+        <f t="shared" ref="CK9" si="34">CJ9+1</f>
         <v>41107</v>
       </c>
-      <c r="CL13" s="19">
-        <f t="shared" ref="CL13" si="35">CK13+1</f>
+      <c r="CL9" s="19">
+        <f t="shared" ref="CL9" si="35">CK9+1</f>
         <v>41108</v>
       </c>
-      <c r="CM13" s="19">
-        <f t="shared" ref="CM13" si="36">CL13+1</f>
+      <c r="CM9" s="19">
+        <f t="shared" ref="CM9" si="36">CL9+1</f>
         <v>41109</v>
       </c>
-      <c r="CN13" s="19">
-        <f t="shared" ref="CN13" si="37">CM13+1</f>
+      <c r="CN9" s="19">
+        <f t="shared" ref="CN9" si="37">CM9+1</f>
         <v>41110</v>
       </c>
-      <c r="CO13" s="19">
-        <f t="shared" ref="CO13" si="38">CN13+1</f>
+      <c r="CO9" s="19">
+        <f t="shared" ref="CO9" si="38">CN9+1</f>
         <v>41111</v>
       </c>
-      <c r="CP13" s="19">
-        <f t="shared" ref="CP13" si="39">CO13+1</f>
+      <c r="CP9" s="19">
+        <f t="shared" ref="CP9" si="39">CO9+1</f>
         <v>41112</v>
       </c>
-      <c r="CQ13" s="19">
-        <f t="shared" ref="CQ13" si="40">CP13+1</f>
+      <c r="CQ9" s="19">
+        <f t="shared" ref="CQ9" si="40">CP9+1</f>
         <v>41113</v>
       </c>
-      <c r="CR13" s="19">
-        <f t="shared" ref="CR13" si="41">CQ13+1</f>
+      <c r="CR9" s="19">
+        <f t="shared" ref="CR9" si="41">CQ9+1</f>
         <v>41114</v>
       </c>
-      <c r="CS13" s="19">
-        <f t="shared" ref="CS13" si="42">CR13+1</f>
+      <c r="CS9" s="19">
+        <f t="shared" ref="CS9" si="42">CR9+1</f>
         <v>41115</v>
       </c>
-      <c r="CT13" s="19">
-        <f t="shared" ref="CT13" si="43">CS13+1</f>
+      <c r="CT9" s="19">
+        <f t="shared" ref="CT9" si="43">CS9+1</f>
         <v>41116</v>
       </c>
     </row>
-    <row r="14" spans="1:98" s="20" customFormat="1">
-      <c r="B14" s="21"/>
+    <row r="10" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="21"/>
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" s="21"/>
+      <c r="CI10" s="21"/>
+      <c r="CJ10" s="21"/>
+      <c r="CK10" s="21"/>
+      <c r="CL10" s="21"/>
+      <c r="CM10" s="21"/>
+      <c r="CN10" s="21"/>
+      <c r="CO10" s="21"/>
+      <c r="CP10" s="21"/>
+      <c r="CQ10" s="21"/>
+      <c r="CR10" s="21"/>
+      <c r="CS10" s="21"/>
+      <c r="CT10" s="21"/>
+    </row>
+    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23">
+        <f>IFERROR( HLOOKUP("BE",L11:BF$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",L11:BF$87,$A$87-$A11+1,FALSE),0)</f>
+        <v>41030</v>
+      </c>
+      <c r="H11" s="23">
+        <f>IFERROR( HLOOKUP("BE",L11:BF$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",L11:BF$87,$A$87-$A11+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+    </row>
+    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23">
+        <f>IFERROR( HLOOKUP("BE",L12:BF$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",L12:BF$87,$A$87-$A12+1,FALSE),0)</f>
+        <v>41031</v>
+      </c>
+      <c r="H12" s="23">
+        <f>IFERROR( HLOOKUP("BE",L12:BF$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",L12:BF$87,$A$87-$A12+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+    </row>
+    <row r="13" spans="1:98" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="22">
+        <v>3</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23">
+        <f>IFERROR( HLOOKUP("BE",L13:BF$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",L13:BF$87,$A$87-$A13+1,FALSE),0)</f>
+        <v>41031</v>
+      </c>
+      <c r="H13" s="23">
+        <f>IFERROR( HLOOKUP("BE",L13:BF$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",L13:BF$87,$A$87-$A13+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+    </row>
+    <row r="14" spans="1:98" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="22">
+        <v>4</v>
+      </c>
       <c r="C14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="59">
-        <f>COUNTIF(I15:I88,"Đã xong")/COUNTA(I15:I88) * 100%</f>
-        <v>0.6</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21"/>
-      <c r="BO14" s="21"/>
-      <c r="BP14" s="21"/>
-      <c r="BQ14" s="21"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
-      <c r="BT14" s="21"/>
-      <c r="BU14" s="21"/>
-      <c r="BV14" s="21"/>
-      <c r="BW14" s="21"/>
-      <c r="BX14" s="21"/>
-      <c r="BY14" s="21"/>
-      <c r="BZ14" s="21"/>
-      <c r="CA14" s="21"/>
-      <c r="CB14" s="21"/>
-      <c r="CC14" s="21"/>
-      <c r="CD14" s="21"/>
-      <c r="CE14" s="21"/>
-      <c r="CF14" s="21"/>
-      <c r="CG14" s="21"/>
-      <c r="CH14" s="21"/>
-      <c r="CI14" s="21"/>
-      <c r="CJ14" s="21"/>
-      <c r="CK14" s="21"/>
-      <c r="CL14" s="21"/>
-      <c r="CM14" s="21"/>
-      <c r="CN14" s="21"/>
-      <c r="CO14" s="21"/>
-      <c r="CP14" s="21"/>
-      <c r="CQ14" s="21"/>
-      <c r="CR14" s="21"/>
-      <c r="CS14" s="21"/>
-      <c r="CT14" s="21"/>
-    </row>
-    <row r="15" spans="1:98">
+        <v>106</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23">
+        <f>IFERROR( HLOOKUP("BE",L14:BF$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",L14:BF$87,$A$87-$A14+1,FALSE),0)</f>
+        <v>41030</v>
+      </c>
+      <c r="H14" s="23">
+        <f>IFERROR( HLOOKUP("BE",L14:BF$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",L14:BF$87,$A$87-$A14+1,FALSE),0)</f>
+        <v>41035</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+    </row>
+    <row r="15" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="22">
-        <v>1</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23">
-        <f>IFERROR( HLOOKUP("BE",L15:BF$91,$A$91-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",L15:BF$91,$A$91-$A15+1,FALSE),0)</f>
-        <v>41030</v>
-      </c>
-      <c r="H15" s="23">
-        <f>IFERROR( HLOOKUP("BE",L15:BF$91,$A$91-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",L15:BF$91,$A$91-$A15+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="1"/>
-      <c r="BQ15" s="1"/>
-      <c r="BR15" s="1"/>
-      <c r="BS15" s="1"/>
-      <c r="BT15" s="1"/>
-      <c r="BU15" s="1"/>
-      <c r="BV15" s="1"/>
-      <c r="BW15" s="1"/>
-      <c r="BX15" s="1"/>
-      <c r="BY15" s="1"/>
-      <c r="BZ15" s="1"/>
-      <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
-      <c r="CI15" s="1"/>
-      <c r="CJ15" s="1"/>
-      <c r="CK15" s="1"/>
-      <c r="CL15" s="1"/>
-      <c r="CM15" s="1"/>
-      <c r="CN15" s="1"/>
-      <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
-      <c r="CR15" s="1"/>
-      <c r="CS15" s="1"/>
-      <c r="CT15" s="1"/>
-    </row>
-    <row r="16" spans="1:98">
+        <v>5</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
+      <c r="BE15" s="21"/>
+      <c r="BF15" s="21"/>
+      <c r="BG15" s="21"/>
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
+      <c r="BK15" s="21"/>
+      <c r="BL15" s="21"/>
+      <c r="BM15" s="21"/>
+      <c r="BN15" s="21"/>
+      <c r="BO15" s="21"/>
+      <c r="BP15" s="21"/>
+      <c r="BQ15" s="21"/>
+      <c r="BR15" s="21"/>
+      <c r="BS15" s="21"/>
+      <c r="BT15" s="21"/>
+      <c r="BU15" s="21"/>
+      <c r="BV15" s="21"/>
+      <c r="BW15" s="21"/>
+      <c r="BX15" s="21"/>
+      <c r="BY15" s="21"/>
+      <c r="BZ15" s="21"/>
+      <c r="CA15" s="21"/>
+      <c r="CB15" s="21"/>
+      <c r="CC15" s="21"/>
+      <c r="CD15" s="21"/>
+      <c r="CE15" s="21"/>
+      <c r="CF15" s="21"/>
+      <c r="CG15" s="21"/>
+      <c r="CH15" s="21"/>
+      <c r="CI15" s="21"/>
+      <c r="CJ15" s="21"/>
+      <c r="CK15" s="21"/>
+      <c r="CL15" s="21"/>
+      <c r="CM15" s="21"/>
+      <c r="CN15" s="21"/>
+      <c r="CO15" s="21"/>
+      <c r="CP15" s="21"/>
+      <c r="CQ15" s="21"/>
+      <c r="CR15" s="21"/>
+      <c r="CS15" s="21"/>
+      <c r="CT15" s="21"/>
+    </row>
+    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" s="22">
-        <v>2</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$91,$A$91-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$91,$A$91-$A16+1,FALSE),0)</f>
-        <v>41031</v>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$87,$A$87-$A16+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$91,$A$91-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$91,$A$91-$A16+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>36</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$87,$A$87-$A16+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="23"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3028,41 +3303,33 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
     </row>
-    <row r="17" spans="1:98" ht="30">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17" s="22">
-        <v>3</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$91,$A$91-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$91,$A$91-$A17+1,FALSE),0)</f>
-        <v>41031</v>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$87,$A$87-$A17+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$91,$A$91-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$91,$A$91-$A17+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>37</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$87,$A$87-$A17+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="23"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -3148,61 +3415,39 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
     </row>
-    <row r="18" spans="1:98" ht="30">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" s="22">
-        <v>4</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>106</v>
+        <v>7</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
-        <f>IFERROR( HLOOKUP("BE",L18:BF$91,$A$91-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$91,$A$91-$A18+1,FALSE),0)</f>
-        <v>41030</v>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$87,$A$87-$A18+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H18" s="23">
-        <f>IFERROR( HLOOKUP("BE",L18:BF$91,$A$91-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$91,$A$91-$A18+1,FALSE),0)</f>
-        <v>41038</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>36</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$87,$A$87-$A18+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -3282,13 +3527,13 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
     </row>
-    <row r="19" spans="1:98" s="20" customFormat="1">
+    <row r="19" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="28" t="s">
-        <v>109</v>
+      <c r="C19" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -3347,64 +3592,64 @@
       <c r="BF19" s="21"/>
       <c r="BG19" s="21"/>
       <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="21"/>
-      <c r="BQ19" s="21"/>
-      <c r="BR19" s="21"/>
-      <c r="BS19" s="21"/>
-      <c r="BT19" s="21"/>
-      <c r="BU19" s="21"/>
-      <c r="BV19" s="21"/>
-      <c r="BW19" s="21"/>
-      <c r="BX19" s="21"/>
-      <c r="BY19" s="21"/>
-      <c r="BZ19" s="21"/>
-      <c r="CA19" s="21"/>
-      <c r="CB19" s="21"/>
-      <c r="CC19" s="21"/>
-      <c r="CD19" s="21"/>
-      <c r="CE19" s="21"/>
-      <c r="CF19" s="21"/>
-      <c r="CG19" s="21"/>
-      <c r="CH19" s="21"/>
-      <c r="CI19" s="21"/>
-      <c r="CJ19" s="21"/>
-      <c r="CK19" s="21"/>
-      <c r="CL19" s="21"/>
-      <c r="CM19" s="21"/>
-      <c r="CN19" s="21"/>
-      <c r="CO19" s="21"/>
-      <c r="CP19" s="21"/>
-      <c r="CQ19" s="21"/>
-      <c r="CR19" s="21"/>
-      <c r="CS19" s="21"/>
-      <c r="CT19" s="21"/>
-    </row>
-    <row r="20" spans="1:98">
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+    </row>
+    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" s="22">
-        <v>5</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>111</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>141</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$91,$A$91-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$91,$A$91-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$87,$A$87-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$91,$A$91-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$91,$A$91-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$87,$A$87-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="23"/>
@@ -3498,30 +3743,28 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
     </row>
-    <row r="21" spans="1:98">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B21" s="22">
-        <v>6</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>94</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$91,$A$91-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$91,$A$91-$A21+1,FALSE),0)</f>
-        <v>41035</v>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$87,$A$87-$A21+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$91,$A$91-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$91,$A$91-$A21+1,FALSE),0)</f>
-        <v>41037</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>37</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$87,$A$87-$A21+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="23"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="1"/>
@@ -3529,15 +3772,9 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -3618,25 +3855,21 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
     </row>
-    <row r="22" spans="1:98">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22" s="22">
-        <v>7</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>112</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23">
-        <f>IFERROR( HLOOKUP("BE",L22:BF$91,$A$91-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$91,$A$91-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$87,$A$87-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="23">
-        <f>IFERROR( HLOOKUP("BE",L22:BF$91,$A$91-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$91,$A$91-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$87,$A$87-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="23"/>
@@ -3730,71 +3963,75 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
     </row>
-    <row r="23" spans="1:98" s="20" customFormat="1">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23">
+        <f>IFERROR( HLOOKUP("BE",L23:BF$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",L23:BF$87,$A$87-$A23+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
+        <f>IFERROR( HLOOKUP("BE",L23:BF$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",L23:BF$87,$A$87-$A23+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
@@ -3834,32 +4071,24 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
     </row>
-    <row r="24" spans="1:98">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24" s="22">
-        <v>8</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>141</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
-        <v>114</v>
-      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="23">
-        <f>IFERROR( HLOOKUP("BE",L24:BF$91,$A$91-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$91,$A$91-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$87,$A$87-$A24+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="23">
-        <f>IFERROR( HLOOKUP("BE",L24:BF$91,$A$91-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$91,$A$91-$A24+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>35</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$87,$A$87-$A24+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="23"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="1"/>
@@ -3950,34 +4179,24 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
     </row>
-    <row r="25" spans="1:98">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25" s="22">
-        <v>9</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>87</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="23">
-        <f>IFERROR( HLOOKUP("BE",L25:BF$91,$A$91-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$91,$A$91-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L25:BF$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$87,$A$87-$A25+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="23">
-        <f>IFERROR( HLOOKUP("BE",L25:BF$91,$A$91-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$91,$A$91-$A25+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>35</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L25:BF$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$87,$A$87-$A25+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="23"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="1"/>
@@ -4068,34 +4287,24 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
     </row>
-    <row r="26" spans="1:98">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" s="22">
-        <v>10</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>52</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="23">
-        <f>IFERROR( HLOOKUP("BE",L26:BF$91,$A$91-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$91,$A$91-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L26:BF$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$87,$A$87-$A26+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="23">
-        <f>IFERROR( HLOOKUP("BE",L26:BF$91,$A$91-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$91,$A$91-$A26+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>35</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L26:BF$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$87,$A$87-$A26+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="23"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="1"/>
@@ -4186,77 +4395,71 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
     </row>
-    <row r="27" spans="1:98">
+    <row r="27" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27" s="22">
-        <v>11</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23">
-        <f>IFERROR( HLOOKUP("BE",L27:BF$91,$A$91-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",L27:BF$91,$A$91-$A27+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="23">
-        <f>IFERROR( HLOOKUP("BE",L27:BF$91,$A$91-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",L27:BF$91,$A$91-$A27+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
-      <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="21"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
+      <c r="AW27" s="21"/>
+      <c r="AX27" s="21"/>
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="21"/>
+      <c r="BA27" s="21"/>
+      <c r="BB27" s="21"/>
+      <c r="BC27" s="21"/>
+      <c r="BD27" s="21"/>
+      <c r="BE27" s="21"/>
+      <c r="BF27" s="21"/>
+      <c r="BG27" s="21"/>
+      <c r="BH27" s="21"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
@@ -4296,23 +4499,21 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
     </row>
-    <row r="28" spans="1:98">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>14</v>
-      </c>
-      <c r="B28" s="22">
-        <v>12</v>
-      </c>
-      <c r="C28" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$91,$A$91-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$91,$A$91-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$87,$A$87-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$91,$A$91-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$91,$A$91-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$87,$A$87-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I28" s="23"/>
@@ -4406,21 +4607,21 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
     </row>
-    <row r="29" spans="1:98">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="29"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23">
-        <f>IFERROR( HLOOKUP("BE",L29:BF$91,$A$91-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$91,$A$91-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$87,$A$87-$A29+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H29" s="23">
-        <f>IFERROR( HLOOKUP("BE",L29:BF$91,$A$91-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$91,$A$91-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$87,$A$87-$A29+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I29" s="23"/>
@@ -4514,21 +4715,21 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
     </row>
-    <row r="30" spans="1:98">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23">
-        <f>IFERROR( HLOOKUP("BE",L30:BF$91,$A$91-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",L30:BF$91,$A$91-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L30:BF$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",L30:BF$87,$A$87-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="23">
-        <f>IFERROR( HLOOKUP("BE",L30:BF$91,$A$91-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",L30:BF$91,$A$91-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L30:BF$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",L30:BF$87,$A$87-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I30" s="23"/>
@@ -4622,71 +4823,75 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
     </row>
-    <row r="31" spans="1:98" s="20" customFormat="1">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>17</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AQ31" s="21"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="21"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23">
+        <f>IFERROR( HLOOKUP("BE",L31:BF$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",L31:BF$87,$A$87-$A31+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="23">
+        <f>IFERROR( HLOOKUP("BE",L31:BF$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",L31:BF$87,$A$87-$A31+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
@@ -4726,81 +4931,71 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
     </row>
-    <row r="32" spans="1:98">
+    <row r="32" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>18</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23">
-        <f>IFERROR( HLOOKUP("BE",L32:BF$91,$A$91-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",L32:BF$91,$A$91-$A32+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
-        <f>IFERROR( HLOOKUP("BE",L32:BF$91,$A$91-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",L32:BF$91,$A$91-$A32+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+      <c r="AP32" s="21"/>
+      <c r="AQ32" s="21"/>
+      <c r="AR32" s="21"/>
+      <c r="AS32" s="21"/>
+      <c r="AT32" s="21"/>
+      <c r="AU32" s="21"/>
+      <c r="AV32" s="21"/>
+      <c r="AW32" s="21"/>
+      <c r="AX32" s="21"/>
+      <c r="AY32" s="21"/>
+      <c r="AZ32" s="21"/>
+      <c r="BA32" s="21"/>
+      <c r="BB32" s="21"/>
+      <c r="BC32" s="21"/>
+      <c r="BD32" s="21"/>
+      <c r="BE32" s="21"/>
+      <c r="BF32" s="21"/>
+      <c r="BG32" s="21"/>
+      <c r="BH32" s="21"/>
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
@@ -4840,27 +5035,25 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
     </row>
-    <row r="33" spans="1:98">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C33" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L33:BF$91,$A$91-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$91,$A$91-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$87,$A$87-$A33+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L33:BF$91,$A$91-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$91,$A$91-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$87,$A$87-$A33+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I33" s="23"/>
@@ -4954,27 +5147,23 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
     </row>
-    <row r="34" spans="1:98">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>87</v>
-      </c>
+      <c r="C34" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$91,$A$91-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$91,$A$91-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$87,$A$87-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$91,$A$91-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$91,$A$91-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$87,$A$87-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I34" s="23"/>
@@ -5068,32 +5257,42 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
     </row>
-    <row r="35" spans="1:98">
+    <row r="35" spans="1:98" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="27"/>
+      <c r="C35" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="E35" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23">
-        <f>IFERROR( HLOOKUP("BE",L35:BF$91,$A$91-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$91,$A$91-$A35+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$87,$A$87-$A35+1,FALSE),0)</f>
+        <v>41034</v>
       </c>
       <c r="H35" s="23">
-        <f>IFERROR( HLOOKUP("BE",L35:BF$91,$A$91-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$91,$A$91-$A35+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="23"/>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$87,$A$87-$A35+1,FALSE),0)</f>
+        <v>41035</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -5176,71 +5375,75 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
     </row>
-    <row r="36" spans="1:98" s="20" customFormat="1">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
-      <c r="AK36" s="21"/>
-      <c r="AL36" s="21"/>
-      <c r="AM36" s="21"/>
-      <c r="AN36" s="21"/>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="21"/>
-      <c r="AR36" s="21"/>
-      <c r="AS36" s="21"/>
-      <c r="AT36" s="21"/>
-      <c r="AU36" s="21"/>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="21"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="21"/>
-      <c r="BA36" s="21"/>
-      <c r="BB36" s="21"/>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-      <c r="BF36" s="21"/>
-      <c r="BG36" s="21"/>
-      <c r="BH36" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23">
+        <f>IFERROR( HLOOKUP("BE",L36:BF$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",L36:BF$87,$A$87-$A36+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="23">
+        <f>IFERROR( HLOOKUP("BE",L36:BF$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",L36:BF$87,$A$87-$A36+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
@@ -5280,93 +5483,71 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
     </row>
-    <row r="37" spans="1:98">
+    <row r="37" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23">
-        <f>IFERROR( HLOOKUP("BE",L37:BF$91,$A$91-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",L37:BF$91,$A$91-$A37+1,FALSE),0)</f>
-        <v>41036</v>
-      </c>
-      <c r="H37" s="23">
-        <f>IFERROR( HLOOKUP("BE",L37:BF$91,$A$91-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",L37:BF$91,$A$91-$A37+1,FALSE),0)</f>
-        <v>41040</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="21"/>
+      <c r="BB37" s="21"/>
+      <c r="BC37" s="21"/>
+      <c r="BD37" s="21"/>
+      <c r="BE37" s="21"/>
+      <c r="BF37" s="21"/>
+      <c r="BG37" s="21"/>
+      <c r="BH37" s="21"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
@@ -5406,32 +5587,26 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
     </row>
-    <row r="38" spans="1:98">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="C38" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23">
-        <f>IFERROR( HLOOKUP("BE",L38:BF$91,$A$91-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$91,$A$91-$A38+1,FALSE),0)</f>
-        <v>41035</v>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$87,$A$87-$A38+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H38" s="23">
-        <f>IFERROR( HLOOKUP("BE",L38:BF$91,$A$91-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$91,$A$91-$A38+1,FALSE),0)</f>
-        <v>41041</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>37</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$87,$A$87-$A38+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="23"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="1"/>
@@ -5439,27 +5614,13 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -5536,59 +5697,39 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
     </row>
-    <row r="39" spans="1:98" ht="30">
+    <row r="39" spans="1:98" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" s="22"/>
-      <c r="C39" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="C39" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$91,$A$91-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$91,$A$91-$A39+1,FALSE),0)</f>
-        <v>41034</v>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$87,$A$87-$A39+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$91,$A$91-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$91,$A$91-$A39+1,FALSE),0)</f>
-        <v>41040</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>37</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$87,$A$87-$A39+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="23"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -5666,32 +5807,26 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
     </row>
-    <row r="40" spans="1:98" ht="30">
+    <row r="40" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" s="22"/>
-      <c r="C40" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>114</v>
-      </c>
+      <c r="C40" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="23">
-        <f>IFERROR( HLOOKUP("BE",L40:BF$91,$A$91-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$91,$A$91-$A40+1,FALSE),0)</f>
-        <v>41041</v>
+        <f>IFERROR( HLOOKUP("BE",L40:BF$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$87,$A$87-$A40+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H40" s="23">
-        <f>IFERROR( HLOOKUP("BE",L40:BF$91,$A$91-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$91,$A$91-$A40+1,FALSE),0)</f>
-        <v>41045</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>35</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L40:BF$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$87,$A$87-$A40+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="23"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="1"/>
@@ -5705,21 +5840,11 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -5792,71 +5917,77 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
     </row>
-    <row r="41" spans="1:98" s="20" customFormat="1">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>27</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-      <c r="AJ41" s="21"/>
-      <c r="AK41" s="21"/>
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="21"/>
-      <c r="AN41" s="21"/>
-      <c r="AO41" s="21"/>
-      <c r="AP41" s="21"/>
-      <c r="AQ41" s="21"/>
-      <c r="AR41" s="21"/>
-      <c r="AS41" s="21"/>
-      <c r="AT41" s="21"/>
-      <c r="AU41" s="21"/>
-      <c r="AV41" s="21"/>
-      <c r="AW41" s="21"/>
-      <c r="AX41" s="21"/>
-      <c r="AY41" s="21"/>
-      <c r="AZ41" s="21"/>
-      <c r="BA41" s="21"/>
-      <c r="BB41" s="21"/>
-      <c r="BC41" s="21"/>
-      <c r="BD41" s="21"/>
-      <c r="BE41" s="21"/>
-      <c r="BF41" s="21"/>
-      <c r="BG41" s="21"/>
-      <c r="BH41" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23">
+        <f>IFERROR( HLOOKUP("BE",L41:BF$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",L41:BF$87,$A$87-$A41+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="23">
+        <f>IFERROR( HLOOKUP("BE",L41:BF$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",L41:BF$87,$A$87-$A41+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
@@ -5896,19 +6027,25 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
     </row>
-    <row r="42" spans="1:98">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B42" s="22"/>
-      <c r="C42" s="35" t="s">
-        <v>95</v>
+      <c r="C42" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="G42" s="23">
+        <f>IFERROR( HLOOKUP("BE",L42:BF$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",L42:BF$87,$A$87-$A42+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="23">
+        <f>IFERROR( HLOOKUP("BE",L42:BF$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",L42:BF$87,$A$87-$A42+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="I42" s="23"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
@@ -6000,27 +6137,23 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
     </row>
-    <row r="43" spans="1:98" ht="30">
+    <row r="43" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B43" s="22"/>
-      <c r="C43" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>88</v>
-      </c>
+      <c r="C43" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="23">
-        <f>IFERROR( HLOOKUP("BE",L43:BF$91,$A$91-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",L43:BF$91,$A$91-$A43+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L43:BF$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",L43:BF$87,$A$87-$A43+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H43" s="23">
-        <f>IFERROR( HLOOKUP("BE",L43:BF$91,$A$91-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",L43:BF$91,$A$91-$A43+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L43:BF$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",L43:BF$87,$A$87-$A43+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I43" s="23"/>
@@ -6114,27 +6247,23 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
     </row>
-    <row r="44" spans="1:98">
+    <row r="44" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B44" s="22"/>
-      <c r="C44" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>88</v>
-      </c>
+      <c r="C44" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="23">
-        <f>IFERROR( HLOOKUP("BE",L44:BF$91,$A$91-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",L44:BF$91,$A$91-$A44+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L44:BF$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",L44:BF$87,$A$87-$A44+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H44" s="23">
-        <f>IFERROR( HLOOKUP("BE",L44:BF$91,$A$91-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",L44:BF$91,$A$91-$A44+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L44:BF$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",L44:BF$87,$A$87-$A44+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I44" s="23"/>
@@ -6228,27 +6357,47 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
     </row>
-    <row r="45" spans="1:98">
+    <row r="45" spans="1:98" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23">
+        <f>IFERROR( HLOOKUP("BE",L45:BF$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",L45:BF$87,$A$87-$A45+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="H45" s="23">
+        <f>IFERROR( HLOOKUP("BE",L45:BF$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",L45:BF$87,$A$87-$A45+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -6332,37 +6481,47 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
     </row>
-    <row r="46" spans="1:98">
+    <row r="46" spans="1:98" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B46" s="22"/>
-      <c r="C46" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>90</v>
-      </c>
+      <c r="C46" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="22"/>
       <c r="E46" s="22" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="23">
-        <f>IFERROR( HLOOKUP("BE",L46:BF$91,$A$91-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$91,$A$91-$A46+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L46:BF$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$87,$A$87-$A46+1,FALSE),0)</f>
+        <v>41032</v>
       </c>
       <c r="H46" s="23">
-        <f>IFERROR( HLOOKUP("BE",L46:BF$91,$A$91-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$91,$A$91-$A46+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L46:BF$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$87,$A$87-$A46+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -6446,37 +6605,47 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
     </row>
-    <row r="47" spans="1:98">
+    <row r="47" spans="1:98" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B47" s="22"/>
-      <c r="C47" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>90</v>
-      </c>
+      <c r="C47" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="23">
-        <f>IFERROR( HLOOKUP("BE",L47:BF$91,$A$91-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",L47:BF$91,$A$91-$A47+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L47:BF$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",L47:BF$87,$A$87-$A47+1,FALSE),0)</f>
+        <v>41032</v>
       </c>
       <c r="H47" s="23">
-        <f>IFERROR( HLOOKUP("BE",L47:BF$91,$A$91-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",L47:BF$91,$A$91-$A47+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L47:BF$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",L47:BF$87,$A$87-$A47+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -6560,20 +6729,24 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
     </row>
-    <row r="48" spans="1:98">
+    <row r="48" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B48" s="22"/>
-      <c r="C48" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23">
+        <f>IFERROR( HLOOKUP("BE",L48:BF$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",L48:BF$87,$A$87-$A48+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="23">
+        <f>IFERROR( HLOOKUP("BE",L48:BF$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",L48:BF$87,$A$87-$A48+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="23"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
@@ -6664,49 +6837,31 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
     </row>
-    <row r="49" spans="1:98" ht="30">
+    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B49" s="22"/>
-      <c r="C49" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="23">
-        <f>IFERROR( HLOOKUP("BE",L49:BF$91,$A$91-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",L49:BF$91,$A$91-$A49+1,FALSE),0)</f>
-        <v>41032</v>
+        <f>IFERROR( HLOOKUP("BE",L49:BF$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",L49:BF$87,$A$87-$A49+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H49" s="23">
-        <f>IFERROR( HLOOKUP("BE",L49:BF$91,$A$91-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",L49:BF$91,$A$91-$A49+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>139</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L49:BF$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",L49:BF$87,$A$87-$A49+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -6790,93 +6945,71 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
     </row>
-    <row r="50" spans="1:98" ht="30">
+    <row r="50" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>36</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23">
-        <f>IFERROR( HLOOKUP("BE",L50:BF$91,$A$91-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",L50:BF$91,$A$91-$A50+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="H50" s="23">
-        <f>IFERROR( HLOOKUP("BE",L50:BF$91,$A$91-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",L50:BF$91,$A$91-$A50+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="1"/>
-      <c r="AZ50" s="1"/>
-      <c r="BA50" s="1"/>
-      <c r="BB50" s="1"/>
-      <c r="BC50" s="1"/>
-      <c r="BD50" s="1"/>
-      <c r="BE50" s="1"/>
-      <c r="BF50" s="1"/>
-      <c r="BG50" s="1"/>
-      <c r="BH50" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="21"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="21"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21"/>
+      <c r="AO50" s="21"/>
+      <c r="AP50" s="21"/>
+      <c r="AQ50" s="21"/>
+      <c r="AR50" s="21"/>
+      <c r="AS50" s="21"/>
+      <c r="AT50" s="21"/>
+      <c r="AU50" s="21"/>
+      <c r="AV50" s="21"/>
+      <c r="AW50" s="21"/>
+      <c r="AX50" s="21"/>
+      <c r="AY50" s="21"/>
+      <c r="AZ50" s="21"/>
+      <c r="BA50" s="21"/>
+      <c r="BB50" s="21"/>
+      <c r="BC50" s="21"/>
+      <c r="BD50" s="21"/>
+      <c r="BE50" s="21"/>
+      <c r="BF50" s="21"/>
+      <c r="BG50" s="21"/>
+      <c r="BH50" s="21"/>
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
@@ -6916,49 +7049,33 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
     </row>
-    <row r="51" spans="1:98" ht="30">
+    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B51" s="22"/>
-      <c r="C51" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="C51" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="23">
-        <f>IFERROR( HLOOKUP("BE",L51:BF$91,$A$91-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$91,$A$91-$A51+1,FALSE),0)</f>
-        <v>41032</v>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$87,$A$87-$A51+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H51" s="23">
-        <f>IFERROR( HLOOKUP("BE",L51:BF$91,$A$91-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$91,$A$91-$A51+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>139</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$87,$A$87-$A51+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -7042,75 +7159,71 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
     </row>
-    <row r="52" spans="1:98">
+    <row r="52" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>38</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23">
-        <f>IFERROR( HLOOKUP("BE",L52:BF$91,$A$91-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",L52:BF$91,$A$91-$A52+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="23">
-        <f>IFERROR( HLOOKUP("BE",L52:BF$91,$A$91-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",L52:BF$91,$A$91-$A52+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="1"/>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AU52" s="1"/>
-      <c r="AV52" s="1"/>
-      <c r="AW52" s="1"/>
-      <c r="AX52" s="1"/>
-      <c r="AY52" s="1"/>
-      <c r="AZ52" s="1"/>
-      <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
-      <c r="BC52" s="1"/>
-      <c r="BD52" s="1"/>
-      <c r="BE52" s="1"/>
-      <c r="BF52" s="1"/>
-      <c r="BG52" s="1"/>
-      <c r="BH52" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="21"/>
+      <c r="AQ52" s="21"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="21"/>
+      <c r="AT52" s="21"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="21"/>
+      <c r="AY52" s="21"/>
+      <c r="AZ52" s="21"/>
+      <c r="BA52" s="21"/>
+      <c r="BB52" s="21"/>
+      <c r="BC52" s="21"/>
+      <c r="BD52" s="21"/>
+      <c r="BE52" s="21"/>
+      <c r="BF52" s="21"/>
+      <c r="BG52" s="21"/>
+      <c r="BH52" s="21"/>
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
@@ -7150,21 +7263,21 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
     </row>
-    <row r="53" spans="1:98">
+    <row r="53" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B53" s="22"/>
-      <c r="C53" s="27"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$91,$A$91-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$91,$A$91-$A53+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$87,$A$87-$A53+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$91,$A$91-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$91,$A$91-$A53+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$87,$A$87-$A53+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I53" s="23"/>
@@ -7258,71 +7371,75 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
     </row>
-    <row r="54" spans="1:98" s="20" customFormat="1">
+    <row r="54" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>40</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
-      <c r="AI54" s="21"/>
-      <c r="AJ54" s="21"/>
-      <c r="AK54" s="21"/>
-      <c r="AL54" s="21"/>
-      <c r="AM54" s="21"/>
-      <c r="AN54" s="21"/>
-      <c r="AO54" s="21"/>
-      <c r="AP54" s="21"/>
-      <c r="AQ54" s="21"/>
-      <c r="AR54" s="21"/>
-      <c r="AS54" s="21"/>
-      <c r="AT54" s="21"/>
-      <c r="AU54" s="21"/>
-      <c r="AV54" s="21"/>
-      <c r="AW54" s="21"/>
-      <c r="AX54" s="21"/>
-      <c r="AY54" s="21"/>
-      <c r="AZ54" s="21"/>
-      <c r="BA54" s="21"/>
-      <c r="BB54" s="21"/>
-      <c r="BC54" s="21"/>
-      <c r="BD54" s="21"/>
-      <c r="BE54" s="21"/>
-      <c r="BF54" s="21"/>
-      <c r="BG54" s="21"/>
-      <c r="BH54" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23">
+        <f>IFERROR( HLOOKUP("BE",L54:BF$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",L54:BF$87,$A$87-$A54+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <f>IFERROR( HLOOKUP("BE",L54:BF$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",L54:BF$87,$A$87-$A54+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
@@ -7362,27 +7479,21 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
     </row>
-    <row r="55" spans="1:98">
+    <row r="55" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B55" s="22"/>
-      <c r="C55" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$91,$A$91-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$91,$A$91-$A55+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L55:BF$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$87,$A$87-$A55+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$91,$A$91-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$91,$A$91-$A55+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L55:BF$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$87,$A$87-$A55+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I55" s="23"/>
@@ -7476,71 +7587,77 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
     </row>
-    <row r="56" spans="1:98" s="20" customFormat="1">
+    <row r="56" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>42</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="21"/>
-      <c r="AO56" s="21"/>
-      <c r="AP56" s="21"/>
-      <c r="AQ56" s="21"/>
-      <c r="AR56" s="21"/>
-      <c r="AS56" s="21"/>
-      <c r="AT56" s="21"/>
-      <c r="AU56" s="21"/>
-      <c r="AV56" s="21"/>
-      <c r="AW56" s="21"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="21"/>
-      <c r="AZ56" s="21"/>
-      <c r="BA56" s="21"/>
-      <c r="BB56" s="21"/>
-      <c r="BC56" s="21"/>
-      <c r="BD56" s="21"/>
-      <c r="BE56" s="21"/>
-      <c r="BF56" s="21"/>
-      <c r="BG56" s="21"/>
-      <c r="BH56" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23">
+        <f>IFERROR( HLOOKUP("BE",L56:BF$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",L56:BF$87,$A$87-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
+        <f>IFERROR( HLOOKUP("BE",L56:BF$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",L56:BF$87,$A$87-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="22"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
@@ -7580,21 +7697,21 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
     </row>
-    <row r="57" spans="1:98">
+    <row r="57" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B57" s="22"/>
-      <c r="C57" s="27"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$91,$A$91-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$91,$A$91-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$87,$A$87-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$91,$A$91-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$91,$A$91-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$87,$A$87-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I57" s="23"/>
@@ -7688,21 +7805,21 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
     </row>
-    <row r="58" spans="1:98">
+    <row r="58" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="27"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="23">
-        <f>IFERROR( HLOOKUP("BE",L58:BF$91,$A$91-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",L58:BF$91,$A$91-$A58+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L58:BF$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",L58:BF$87,$A$87-$A58+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H58" s="23">
-        <f>IFERROR( HLOOKUP("BE",L58:BF$91,$A$91-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",L58:BF$91,$A$91-$A58+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L58:BF$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",L58:BF$87,$A$87-$A58+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I58" s="23"/>
@@ -7796,21 +7913,21 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
     </row>
-    <row r="59" spans="1:98">
+    <row r="59" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$91,$A$91-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$91,$A$91-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$87,$A$87-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$91,$A$91-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$91,$A$91-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$87,$A$87-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I59" s="23"/>
@@ -7904,77 +8021,71 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
     </row>
-    <row r="60" spans="1:98">
+    <row r="60" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>46</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23">
-        <f>IFERROR( HLOOKUP("BE",L60:BF$91,$A$91-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",L60:BF$91,$A$91-$A60+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="23">
-        <f>IFERROR( HLOOKUP("BE",L60:BF$91,$A$91-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",L60:BF$91,$A$91-$A60+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
-      <c r="AO60" s="1"/>
-      <c r="AP60" s="1"/>
-      <c r="AQ60" s="1"/>
-      <c r="AR60" s="1"/>
-      <c r="AS60" s="1"/>
-      <c r="AT60" s="1"/>
-      <c r="AU60" s="1"/>
-      <c r="AV60" s="1"/>
-      <c r="AW60" s="1"/>
-      <c r="AX60" s="1"/>
-      <c r="AY60" s="1"/>
-      <c r="AZ60" s="1"/>
-      <c r="BA60" s="1"/>
-      <c r="BB60" s="1"/>
-      <c r="BC60" s="1"/>
-      <c r="BD60" s="1"/>
-      <c r="BE60" s="1"/>
-      <c r="BF60" s="1"/>
-      <c r="BG60" s="1"/>
-      <c r="BH60" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="21"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="21"/>
+      <c r="AP60" s="21"/>
+      <c r="AQ60" s="21"/>
+      <c r="AR60" s="21"/>
+      <c r="AS60" s="21"/>
+      <c r="AT60" s="21"/>
+      <c r="AU60" s="21"/>
+      <c r="AV60" s="21"/>
+      <c r="AW60" s="21"/>
+      <c r="AX60" s="21"/>
+      <c r="AY60" s="21"/>
+      <c r="AZ60" s="21"/>
+      <c r="BA60" s="21"/>
+      <c r="BB60" s="21"/>
+      <c r="BC60" s="21"/>
+      <c r="BD60" s="21"/>
+      <c r="BE60" s="21"/>
+      <c r="BF60" s="21"/>
+      <c r="BG60" s="21"/>
+      <c r="BH60" s="21"/>
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
@@ -8014,21 +8125,21 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
     </row>
-    <row r="61" spans="1:98">
+    <row r="61" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B61" s="22"/>
-      <c r="C61" s="27"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$91,$A$91-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$91,$A$91-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$87,$A$87-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$91,$A$91-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$91,$A$91-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$87,$A$87-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I61" s="23"/>
@@ -8122,21 +8233,21 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
     </row>
-    <row r="62" spans="1:98">
+    <row r="62" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B62" s="22"/>
-      <c r="C62" s="27"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="23">
-        <f>IFERROR( HLOOKUP("BE",L62:BF$91,$A$91-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$91,$A$91-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$87,$A$87-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H62" s="23">
-        <f>IFERROR( HLOOKUP("BE",L62:BF$91,$A$91-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$91,$A$91-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$87,$A$87-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I62" s="23"/>
@@ -8230,21 +8341,21 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
     </row>
-    <row r="63" spans="1:98">
+    <row r="63" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B63" s="22"/>
-      <c r="C63" s="27"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$91,$A$91-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$91,$A$91-$A63+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L63:BF$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$87,$A$87-$A63+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$91,$A$91-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$91,$A$91-$A63+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L63:BF$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$87,$A$87-$A63+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I63" s="23"/>
@@ -8338,71 +8449,75 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
     </row>
-    <row r="64" spans="1:98" s="20" customFormat="1">
+    <row r="64" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>50</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
-      <c r="AB64" s="21"/>
-      <c r="AC64" s="21"/>
-      <c r="AD64" s="21"/>
-      <c r="AE64" s="21"/>
-      <c r="AF64" s="21"/>
-      <c r="AG64" s="21"/>
-      <c r="AH64" s="21"/>
-      <c r="AI64" s="21"/>
-      <c r="AJ64" s="21"/>
-      <c r="AK64" s="21"/>
-      <c r="AL64" s="21"/>
-      <c r="AM64" s="21"/>
-      <c r="AN64" s="21"/>
-      <c r="AO64" s="21"/>
-      <c r="AP64" s="21"/>
-      <c r="AQ64" s="21"/>
-      <c r="AR64" s="21"/>
-      <c r="AS64" s="21"/>
-      <c r="AT64" s="21"/>
-      <c r="AU64" s="21"/>
-      <c r="AV64" s="21"/>
-      <c r="AW64" s="21"/>
-      <c r="AX64" s="21"/>
-      <c r="AY64" s="21"/>
-      <c r="AZ64" s="21"/>
-      <c r="BA64" s="21"/>
-      <c r="BB64" s="21"/>
-      <c r="BC64" s="21"/>
-      <c r="BD64" s="21"/>
-      <c r="BE64" s="21"/>
-      <c r="BF64" s="21"/>
-      <c r="BG64" s="21"/>
-      <c r="BH64" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="23">
+        <f>IFERROR( HLOOKUP("BE",L64:BF$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",L64:BF$87,$A$87-$A64+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="23">
+        <f>IFERROR( HLOOKUP("BE",L64:BF$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",L64:BF$87,$A$87-$A64+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
       <c r="BI64" s="1"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
@@ -8442,21 +8557,21 @@
       <c r="CS64" s="1"/>
       <c r="CT64" s="1"/>
     </row>
-    <row r="65" spans="1:98">
+    <row r="65" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B65" s="22"/>
-      <c r="C65" s="27"/>
+      <c r="C65" s="36"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$91,$A$91-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$91,$A$91-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$87,$A$87-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$91,$A$91-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$91,$A$91-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$87,$A$87-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I65" s="23"/>
@@ -8550,21 +8665,21 @@
       <c r="CS65" s="1"/>
       <c r="CT65" s="1"/>
     </row>
-    <row r="66" spans="1:98">
+    <row r="66" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B66" s="22"/>
-      <c r="C66" s="27"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="23">
-        <f>IFERROR( HLOOKUP("BE",L66:BF$91,$A$91-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$91,$A$91-$A66+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L66:BF$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$87,$A$87-$A66+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="23">
-        <f>IFERROR( HLOOKUP("BE",L66:BF$91,$A$91-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$91,$A$91-$A66+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L66:BF$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$87,$A$87-$A66+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I66" s="23"/>
@@ -8658,75 +8773,71 @@
       <c r="CS66" s="1"/>
       <c r="CT66" s="1"/>
     </row>
-    <row r="67" spans="1:98">
+    <row r="67" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>53</v>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="23">
-        <f>IFERROR( HLOOKUP("BE",L67:BF$91,$A$91-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",L67:BF$91,$A$91-$A67+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="23">
-        <f>IFERROR( HLOOKUP("BE",L67:BF$91,$A$91-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",L67:BF$91,$A$91-$A67+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
-      <c r="AR67" s="1"/>
-      <c r="AS67" s="1"/>
-      <c r="AT67" s="1"/>
-      <c r="AU67" s="1"/>
-      <c r="AV67" s="1"/>
-      <c r="AW67" s="1"/>
-      <c r="AX67" s="1"/>
-      <c r="AY67" s="1"/>
-      <c r="AZ67" s="1"/>
-      <c r="BA67" s="1"/>
-      <c r="BB67" s="1"/>
-      <c r="BC67" s="1"/>
-      <c r="BD67" s="1"/>
-      <c r="BE67" s="1"/>
-      <c r="BF67" s="1"/>
-      <c r="BG67" s="1"/>
-      <c r="BH67" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="21"/>
+      <c r="AC67" s="21"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="21"/>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="21"/>
+      <c r="AH67" s="21"/>
+      <c r="AI67" s="21"/>
+      <c r="AJ67" s="21"/>
+      <c r="AK67" s="21"/>
+      <c r="AL67" s="21"/>
+      <c r="AM67" s="21"/>
+      <c r="AN67" s="21"/>
+      <c r="AO67" s="21"/>
+      <c r="AP67" s="21"/>
+      <c r="AQ67" s="21"/>
+      <c r="AR67" s="21"/>
+      <c r="AS67" s="21"/>
+      <c r="AT67" s="21"/>
+      <c r="AU67" s="21"/>
+      <c r="AV67" s="21"/>
+      <c r="AW67" s="21"/>
+      <c r="AX67" s="21"/>
+      <c r="AY67" s="21"/>
+      <c r="AZ67" s="21"/>
+      <c r="BA67" s="21"/>
+      <c r="BB67" s="21"/>
+      <c r="BC67" s="21"/>
+      <c r="BD67" s="21"/>
+      <c r="BE67" s="21"/>
+      <c r="BF67" s="21"/>
+      <c r="BG67" s="21"/>
+      <c r="BH67" s="21"/>
       <c r="BI67" s="1"/>
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
@@ -8766,21 +8877,23 @@
       <c r="CS67" s="1"/>
       <c r="CT67" s="1"/>
     </row>
-    <row r="68" spans="1:98">
+    <row r="68" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B68" s="22"/>
-      <c r="C68" s="34"/>
+      <c r="C68" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="23">
-        <f>IFERROR( HLOOKUP("BE",L68:BF$91,$A$91-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$91,$A$91-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$87,$A$87-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="23">
-        <f>IFERROR( HLOOKUP("BE",L68:BF$91,$A$91-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$91,$A$91-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$87,$A$87-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I68" s="23"/>
@@ -8874,21 +8987,21 @@
       <c r="CS68" s="1"/>
       <c r="CT68" s="1"/>
     </row>
-    <row r="69" spans="1:98">
+    <row r="69" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B69" s="22"/>
-      <c r="C69" s="34"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$91,$A$91-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$91,$A$91-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$87,$A$87-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$91,$A$91-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$91,$A$91-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$87,$A$87-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I69" s="23"/>
@@ -8982,21 +9095,21 @@
       <c r="CS69" s="1"/>
       <c r="CT69" s="1"/>
     </row>
-    <row r="70" spans="1:98">
+    <row r="70" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B70" s="22"/>
-      <c r="C70" s="27"/>
+      <c r="C70" s="36"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$91,$A$91-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$91,$A$91-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$87,$A$87-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$91,$A$91-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$91,$A$91-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$87,$A$87-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I70" s="23"/>
@@ -9090,71 +9203,75 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
     </row>
-    <row r="71" spans="1:98" s="20" customFormat="1">
+    <row r="71" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>57</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="21"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
-      <c r="AA71" s="21"/>
-      <c r="AB71" s="21"/>
-      <c r="AC71" s="21"/>
-      <c r="AD71" s="21"/>
-      <c r="AE71" s="21"/>
-      <c r="AF71" s="21"/>
-      <c r="AG71" s="21"/>
-      <c r="AH71" s="21"/>
-      <c r="AI71" s="21"/>
-      <c r="AJ71" s="21"/>
-      <c r="AK71" s="21"/>
-      <c r="AL71" s="21"/>
-      <c r="AM71" s="21"/>
-      <c r="AN71" s="21"/>
-      <c r="AO71" s="21"/>
-      <c r="AP71" s="21"/>
-      <c r="AQ71" s="21"/>
-      <c r="AR71" s="21"/>
-      <c r="AS71" s="21"/>
-      <c r="AT71" s="21"/>
-      <c r="AU71" s="21"/>
-      <c r="AV71" s="21"/>
-      <c r="AW71" s="21"/>
-      <c r="AX71" s="21"/>
-      <c r="AY71" s="21"/>
-      <c r="AZ71" s="21"/>
-      <c r="BA71" s="21"/>
-      <c r="BB71" s="21"/>
-      <c r="BC71" s="21"/>
-      <c r="BD71" s="21"/>
-      <c r="BE71" s="21"/>
-      <c r="BF71" s="21"/>
-      <c r="BG71" s="21"/>
-      <c r="BH71" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="23">
+        <f>IFERROR( HLOOKUP("BE",L71:BF$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",L71:BF$87,$A$87-$A71+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="23">
+        <f>IFERROR( HLOOKUP("BE",L71:BF$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",L71:BF$87,$A$87-$A71+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -9194,23 +9311,21 @@
       <c r="CS71" s="1"/>
       <c r="CT71" s="1"/>
     </row>
-    <row r="72" spans="1:98">
+    <row r="72" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B72" s="22"/>
-      <c r="C72" s="35" t="s">
-        <v>60</v>
-      </c>
+      <c r="C72" s="36"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$91,$A$91-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$91,$A$91-$A72+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$87,$A$87-$A72+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$91,$A$91-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$91,$A$91-$A72+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$87,$A$87-$A72+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I72" s="23"/>
@@ -9304,21 +9419,23 @@
       <c r="CS72" s="1"/>
       <c r="CT72" s="1"/>
     </row>
-    <row r="73" spans="1:98">
+    <row r="73" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B73" s="22"/>
-      <c r="C73" s="34"/>
+      <c r="C73" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="23">
-        <f>IFERROR( HLOOKUP("BE",L73:BF$91,$A$91-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$91,$A$91-$A73+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L73:BF$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$87,$A$87-$A73+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H73" s="23">
-        <f>IFERROR( HLOOKUP("BE",L73:BF$91,$A$91-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$91,$A$91-$A73+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L73:BF$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$87,$A$87-$A73+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I73" s="23"/>
@@ -9412,21 +9529,21 @@
       <c r="CS73" s="1"/>
       <c r="CT73" s="1"/>
     </row>
-    <row r="74" spans="1:98">
+    <row r="74" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="34"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$91,$A$91-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$91,$A$91-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$87,$A$87-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$91,$A$91-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$91,$A$91-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$87,$A$87-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I74" s="23"/>
@@ -9520,21 +9637,21 @@
       <c r="CS74" s="1"/>
       <c r="CT74" s="1"/>
     </row>
-    <row r="75" spans="1:98">
+    <row r="75" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B75" s="22"/>
-      <c r="C75" s="34"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$91,$A$91-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$91,$A$91-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$87,$A$87-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$91,$A$91-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$91,$A$91-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$87,$A$87-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="23"/>
@@ -9628,21 +9745,21 @@
       <c r="CS75" s="1"/>
       <c r="CT75" s="1"/>
     </row>
-    <row r="76" spans="1:98">
+    <row r="76" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B76" s="22"/>
-      <c r="C76" s="34"/>
+      <c r="C76" s="36"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$91,$A$91-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$91,$A$91-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$87,$A$87-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$91,$A$91-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$91,$A$91-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$87,$A$87-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I76" s="23"/>
@@ -9736,23 +9853,21 @@
       <c r="CS76" s="1"/>
       <c r="CT76" s="1"/>
     </row>
-    <row r="77" spans="1:98">
+    <row r="77" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B77" s="22"/>
-      <c r="C77" s="35" t="s">
-        <v>61</v>
-      </c>
+      <c r="C77" s="36"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$91,$A$91-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$91,$A$91-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$87,$A$87-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$91,$A$91-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$91,$A$91-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$87,$A$87-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I77" s="23"/>
@@ -9846,21 +9961,23 @@
       <c r="CS77" s="1"/>
       <c r="CT77" s="1"/>
     </row>
-    <row r="78" spans="1:98">
+    <row r="78" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B78" s="22"/>
-      <c r="C78" s="34"/>
+      <c r="C78" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$91,$A$91-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$91,$A$91-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$87,$A$87-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$91,$A$91-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$91,$A$91-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$87,$A$87-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="23"/>
@@ -9954,21 +10071,21 @@
       <c r="CS78" s="1"/>
       <c r="CT78" s="1"/>
     </row>
-    <row r="79" spans="1:98">
+    <row r="79" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B79" s="22"/>
-      <c r="C79" s="34"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$91,$A$91-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$91,$A$91-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$87,$A$87-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$91,$A$91-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$91,$A$91-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$87,$A$87-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I79" s="23"/>
@@ -10062,21 +10179,21 @@
       <c r="CS79" s="1"/>
       <c r="CT79" s="1"/>
     </row>
-    <row r="80" spans="1:98">
+    <row r="80" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="34"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$91,$A$91-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$91,$A$91-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$87,$A$87-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$91,$A$91-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$91,$A$91-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$87,$A$87-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="23"/>
@@ -10170,21 +10287,21 @@
       <c r="CS80" s="1"/>
       <c r="CT80" s="1"/>
     </row>
-    <row r="81" spans="1:98">
+    <row r="81" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B81" s="22"/>
-      <c r="C81" s="34"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$91,$A$91-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$91,$A$91-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$87,$A$87-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$91,$A$91-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$91,$A$91-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$87,$A$87-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I81" s="23"/>
@@ -10278,23 +10395,21 @@
       <c r="CS81" s="1"/>
       <c r="CT81" s="1"/>
     </row>
-    <row r="82" spans="1:98">
+    <row r="82" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B82" s="22"/>
-      <c r="C82" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="C82" s="28"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$91,$A$91-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$91,$A$91-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$87,$A$87-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$91,$A$91-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$91,$A$91-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$87,$A$87-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I82" s="23"/>
@@ -10388,21 +10503,21 @@
       <c r="CS82" s="1"/>
       <c r="CT82" s="1"/>
     </row>
-    <row r="83" spans="1:98">
+    <row r="83" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B83" s="22"/>
-      <c r="C83" s="34"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$91,$A$91-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$91,$A$91-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$87,$A$87-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$91,$A$91-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$91,$A$91-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$87,$A$87-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I83" s="23"/>
@@ -10496,21 +10611,21 @@
       <c r="CS83" s="1"/>
       <c r="CT83" s="1"/>
     </row>
-    <row r="84" spans="1:98">
+    <row r="84" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B84" s="22"/>
-      <c r="C84" s="34"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$91,$A$91-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$91,$A$91-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$87,$A$87-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$91,$A$91-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$91,$A$91-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$87,$A$87-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I84" s="23"/>
@@ -10604,806 +10719,372 @@
       <c r="CS84" s="1"/>
       <c r="CT84" s="1"/>
     </row>
-    <row r="85" spans="1:98">
+    <row r="85" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>71</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23">
-        <f>IFERROR( HLOOKUP("BE",L85:BF$91,$A$91-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("B",L85:BF$91,$A$91-$A85+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="23">
-        <f>IFERROR( HLOOKUP("BE",L85:BF$91,$A$91-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("E",L85:BF$91,$A$91-$A85+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="23"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
-      <c r="AP85" s="1"/>
-      <c r="AQ85" s="1"/>
-      <c r="AR85" s="1"/>
-      <c r="AS85" s="1"/>
-      <c r="AT85" s="1"/>
-      <c r="AU85" s="1"/>
-      <c r="AV85" s="1"/>
-      <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="1"/>
-      <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BD85" s="1"/>
-      <c r="BE85" s="1"/>
-      <c r="BF85" s="1"/>
-      <c r="BG85" s="1"/>
-      <c r="BH85" s="1"/>
-      <c r="BI85" s="1"/>
-      <c r="BJ85" s="1"/>
-      <c r="BK85" s="1"/>
-      <c r="BL85" s="1"/>
-      <c r="BM85" s="1"/>
-      <c r="BN85" s="1"/>
-      <c r="BO85" s="1"/>
-      <c r="BP85" s="1"/>
-      <c r="BQ85" s="1"/>
-      <c r="BR85" s="1"/>
-      <c r="BS85" s="1"/>
-      <c r="BT85" s="1"/>
-      <c r="BU85" s="1"/>
-      <c r="BV85" s="1"/>
-      <c r="BW85" s="1"/>
-      <c r="BX85" s="1"/>
-      <c r="BY85" s="1"/>
-      <c r="BZ85" s="1"/>
-      <c r="CA85" s="1"/>
-      <c r="CB85" s="1"/>
-      <c r="CC85" s="1"/>
-      <c r="CD85" s="1"/>
-      <c r="CE85" s="1"/>
-      <c r="CF85" s="1"/>
-      <c r="CG85" s="1"/>
-      <c r="CH85" s="1"/>
-      <c r="CI85" s="1"/>
-      <c r="CJ85" s="1"/>
-      <c r="CK85" s="1"/>
-      <c r="CL85" s="1"/>
-      <c r="CM85" s="1"/>
-      <c r="CN85" s="1"/>
-      <c r="CO85" s="1"/>
-      <c r="CP85" s="1"/>
-      <c r="CQ85" s="1"/>
-      <c r="CR85" s="1"/>
-      <c r="CS85" s="1"/>
-      <c r="CT85" s="1"/>
-    </row>
-    <row r="86" spans="1:98">
+        <v>75</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="21"/>
+      <c r="Y85" s="21"/>
+      <c r="Z85" s="21"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="21"/>
+      <c r="AC85" s="21"/>
+      <c r="AD85" s="21"/>
+      <c r="AE85" s="21"/>
+      <c r="AF85" s="21"/>
+      <c r="AG85" s="21"/>
+      <c r="AH85" s="21"/>
+      <c r="AI85" s="21"/>
+      <c r="AJ85" s="21"/>
+      <c r="AK85" s="21"/>
+      <c r="AL85" s="21"/>
+      <c r="AM85" s="21"/>
+      <c r="AN85" s="21"/>
+      <c r="AO85" s="21"/>
+      <c r="AP85" s="21"/>
+      <c r="AQ85" s="21"/>
+      <c r="AR85" s="21"/>
+      <c r="AS85" s="21"/>
+      <c r="AT85" s="21"/>
+      <c r="AU85" s="21"/>
+      <c r="AV85" s="21"/>
+      <c r="AW85" s="21"/>
+      <c r="AX85" s="21"/>
+      <c r="AY85" s="21"/>
+      <c r="AZ85" s="21"/>
+      <c r="BA85" s="21"/>
+      <c r="BB85" s="21"/>
+      <c r="BC85" s="21"/>
+      <c r="BD85" s="21"/>
+      <c r="BE85" s="21"/>
+      <c r="BF85" s="21"/>
+      <c r="BG85" s="21"/>
+      <c r="BH85" s="21"/>
+      <c r="BI85" s="21"/>
+      <c r="BJ85" s="21"/>
+      <c r="BK85" s="21"/>
+      <c r="BL85" s="21"/>
+      <c r="BM85" s="21"/>
+      <c r="BN85" s="21"/>
+      <c r="BO85" s="21"/>
+      <c r="BP85" s="21"/>
+      <c r="BQ85" s="21"/>
+      <c r="BR85" s="21"/>
+      <c r="BS85" s="21"/>
+      <c r="BT85" s="21"/>
+      <c r="BU85" s="21"/>
+      <c r="BV85" s="21"/>
+      <c r="BW85" s="21"/>
+      <c r="BX85" s="21"/>
+      <c r="BY85" s="21"/>
+      <c r="BZ85" s="21"/>
+      <c r="CA85" s="21"/>
+      <c r="CB85" s="21"/>
+      <c r="CC85" s="21"/>
+      <c r="CD85" s="21"/>
+      <c r="CE85" s="21"/>
+      <c r="CF85" s="21"/>
+      <c r="CG85" s="21"/>
+      <c r="CH85" s="21"/>
+      <c r="CI85" s="21"/>
+      <c r="CJ85" s="21"/>
+      <c r="CK85" s="21"/>
+      <c r="CL85" s="21"/>
+      <c r="CM85" s="21"/>
+      <c r="CN85" s="21"/>
+      <c r="CO85" s="21"/>
+      <c r="CP85" s="21"/>
+      <c r="CQ85" s="21"/>
+      <c r="CR85" s="21"/>
+      <c r="CS85" s="21"/>
+      <c r="CT85" s="21"/>
+    </row>
+    <row r="86" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>72</v>
-      </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23">
-        <f>IFERROR( HLOOKUP("BE",L86:BF$91,$A$91-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("B",L86:BF$91,$A$91-$A86+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="23">
-        <f>IFERROR( HLOOKUP("BE",L86:BF$91,$A$91-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("E",L86:BF$91,$A$91-$A86+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
-      <c r="AP86" s="1"/>
-      <c r="AQ86" s="1"/>
-      <c r="AR86" s="1"/>
-      <c r="AS86" s="1"/>
-      <c r="AT86" s="1"/>
-      <c r="AU86" s="1"/>
-      <c r="AV86" s="1"/>
-      <c r="AW86" s="1"/>
-      <c r="AX86" s="1"/>
-      <c r="AY86" s="1"/>
-      <c r="AZ86" s="1"/>
-      <c r="BA86" s="1"/>
-      <c r="BB86" s="1"/>
-      <c r="BC86" s="1"/>
-      <c r="BD86" s="1"/>
-      <c r="BE86" s="1"/>
-      <c r="BF86" s="1"/>
-      <c r="BG86" s="1"/>
-      <c r="BH86" s="1"/>
-      <c r="BI86" s="1"/>
-      <c r="BJ86" s="1"/>
-      <c r="BK86" s="1"/>
-      <c r="BL86" s="1"/>
-      <c r="BM86" s="1"/>
-      <c r="BN86" s="1"/>
-      <c r="BO86" s="1"/>
-      <c r="BP86" s="1"/>
-      <c r="BQ86" s="1"/>
-      <c r="BR86" s="1"/>
-      <c r="BS86" s="1"/>
-      <c r="BT86" s="1"/>
-      <c r="BU86" s="1"/>
-      <c r="BV86" s="1"/>
-      <c r="BW86" s="1"/>
-      <c r="BX86" s="1"/>
-      <c r="BY86" s="1"/>
-      <c r="BZ86" s="1"/>
-      <c r="CA86" s="1"/>
-      <c r="CB86" s="1"/>
-      <c r="CC86" s="1"/>
-      <c r="CD86" s="1"/>
-      <c r="CE86" s="1"/>
-      <c r="CF86" s="1"/>
-      <c r="CG86" s="1"/>
-      <c r="CH86" s="1"/>
-      <c r="CI86" s="1"/>
-      <c r="CJ86" s="1"/>
-      <c r="CK86" s="1"/>
-      <c r="CL86" s="1"/>
-      <c r="CM86" s="1"/>
-      <c r="CN86" s="1"/>
-      <c r="CO86" s="1"/>
-      <c r="CP86" s="1"/>
-      <c r="CQ86" s="1"/>
-      <c r="CR86" s="1"/>
-      <c r="CS86" s="1"/>
-      <c r="CT86" s="1"/>
-    </row>
-    <row r="87" spans="1:98">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:98" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>73</v>
-      </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="23">
-        <f>IFERROR( HLOOKUP("BE",L87:BF$91,$A$91-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("B",L87:BF$91,$A$91-$A87+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="23">
-        <f>IFERROR( HLOOKUP("BE",L87:BF$91,$A$91-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("E",L87:BF$91,$A$91-$A87+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-      <c r="AR87" s="1"/>
-      <c r="AS87" s="1"/>
-      <c r="AT87" s="1"/>
-      <c r="AU87" s="1"/>
-      <c r="AV87" s="1"/>
-      <c r="AW87" s="1"/>
-      <c r="AX87" s="1"/>
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
-      <c r="BC87" s="1"/>
-      <c r="BD87" s="1"/>
-      <c r="BE87" s="1"/>
-      <c r="BF87" s="1"/>
-      <c r="BG87" s="1"/>
-      <c r="BH87" s="1"/>
-      <c r="BI87" s="1"/>
-      <c r="BJ87" s="1"/>
-      <c r="BK87" s="1"/>
-      <c r="BL87" s="1"/>
-      <c r="BM87" s="1"/>
-      <c r="BN87" s="1"/>
-      <c r="BO87" s="1"/>
-      <c r="BP87" s="1"/>
-      <c r="BQ87" s="1"/>
-      <c r="BR87" s="1"/>
-      <c r="BS87" s="1"/>
-      <c r="BT87" s="1"/>
-      <c r="BU87" s="1"/>
-      <c r="BV87" s="1"/>
-      <c r="BW87" s="1"/>
-      <c r="BX87" s="1"/>
-      <c r="BY87" s="1"/>
-      <c r="BZ87" s="1"/>
-      <c r="CA87" s="1"/>
-      <c r="CB87" s="1"/>
-      <c r="CC87" s="1"/>
-      <c r="CD87" s="1"/>
-      <c r="CE87" s="1"/>
-      <c r="CF87" s="1"/>
-      <c r="CG87" s="1"/>
-      <c r="CH87" s="1"/>
-      <c r="CI87" s="1"/>
-      <c r="CJ87" s="1"/>
-      <c r="CK87" s="1"/>
-      <c r="CL87" s="1"/>
-      <c r="CM87" s="1"/>
-      <c r="CN87" s="1"/>
-      <c r="CO87" s="1"/>
-      <c r="CP87" s="1"/>
-      <c r="CQ87" s="1"/>
-      <c r="CR87" s="1"/>
-      <c r="CS87" s="1"/>
-      <c r="CT87" s="1"/>
-    </row>
-    <row r="88" spans="1:98">
-      <c r="A88">
-        <v>74</v>
-      </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="23">
-        <f>IFERROR( HLOOKUP("BE",L88:BF$91,$A$91-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("B",L88:BF$91,$A$91-$A88+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="23">
-        <f>IFERROR( HLOOKUP("BE",L88:BF$91,$A$91-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("E",L88:BF$91,$A$91-$A88+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="23"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
-      <c r="AP88" s="1"/>
-      <c r="AQ88" s="1"/>
-      <c r="AR88" s="1"/>
-      <c r="AS88" s="1"/>
-      <c r="AT88" s="1"/>
-      <c r="AU88" s="1"/>
-      <c r="AV88" s="1"/>
-      <c r="AW88" s="1"/>
-      <c r="AX88" s="1"/>
-      <c r="AY88" s="1"/>
-      <c r="AZ88" s="1"/>
-      <c r="BA88" s="1"/>
-      <c r="BB88" s="1"/>
-      <c r="BC88" s="1"/>
-      <c r="BD88" s="1"/>
-      <c r="BE88" s="1"/>
-      <c r="BF88" s="1"/>
-      <c r="BG88" s="1"/>
-      <c r="BH88" s="1"/>
-      <c r="BI88" s="1"/>
-      <c r="BJ88" s="1"/>
-      <c r="BK88" s="1"/>
-      <c r="BL88" s="1"/>
-      <c r="BM88" s="1"/>
-      <c r="BN88" s="1"/>
-      <c r="BO88" s="1"/>
-      <c r="BP88" s="1"/>
-      <c r="BQ88" s="1"/>
-      <c r="BR88" s="1"/>
-      <c r="BS88" s="1"/>
-      <c r="BT88" s="1"/>
-      <c r="BU88" s="1"/>
-      <c r="BV88" s="1"/>
-      <c r="BW88" s="1"/>
-      <c r="BX88" s="1"/>
-      <c r="BY88" s="1"/>
-      <c r="BZ88" s="1"/>
-      <c r="CA88" s="1"/>
-      <c r="CB88" s="1"/>
-      <c r="CC88" s="1"/>
-      <c r="CD88" s="1"/>
-      <c r="CE88" s="1"/>
-      <c r="CF88" s="1"/>
-      <c r="CG88" s="1"/>
-      <c r="CH88" s="1"/>
-      <c r="CI88" s="1"/>
-      <c r="CJ88" s="1"/>
-      <c r="CK88" s="1"/>
-      <c r="CL88" s="1"/>
-      <c r="CM88" s="1"/>
-      <c r="CN88" s="1"/>
-      <c r="CO88" s="1"/>
-      <c r="CP88" s="1"/>
-      <c r="CQ88" s="1"/>
-      <c r="CR88" s="1"/>
-      <c r="CS88" s="1"/>
-      <c r="CT88" s="1"/>
-    </row>
-    <row r="89" spans="1:98" s="20" customFormat="1">
-      <c r="A89">
-        <v>75</v>
-      </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="21"/>
-      <c r="Y89" s="21"/>
-      <c r="Z89" s="21"/>
-      <c r="AA89" s="21"/>
-      <c r="AB89" s="21"/>
-      <c r="AC89" s="21"/>
-      <c r="AD89" s="21"/>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="21"/>
-      <c r="AG89" s="21"/>
-      <c r="AH89" s="21"/>
-      <c r="AI89" s="21"/>
-      <c r="AJ89" s="21"/>
-      <c r="AK89" s="21"/>
-      <c r="AL89" s="21"/>
-      <c r="AM89" s="21"/>
-      <c r="AN89" s="21"/>
-      <c r="AO89" s="21"/>
-      <c r="AP89" s="21"/>
-      <c r="AQ89" s="21"/>
-      <c r="AR89" s="21"/>
-      <c r="AS89" s="21"/>
-      <c r="AT89" s="21"/>
-      <c r="AU89" s="21"/>
-      <c r="AV89" s="21"/>
-      <c r="AW89" s="21"/>
-      <c r="AX89" s="21"/>
-      <c r="AY89" s="21"/>
-      <c r="AZ89" s="21"/>
-      <c r="BA89" s="21"/>
-      <c r="BB89" s="21"/>
-      <c r="BC89" s="21"/>
-      <c r="BD89" s="21"/>
-      <c r="BE89" s="21"/>
-      <c r="BF89" s="21"/>
-      <c r="BG89" s="21"/>
-      <c r="BH89" s="21"/>
-      <c r="BI89" s="21"/>
-      <c r="BJ89" s="21"/>
-      <c r="BK89" s="21"/>
-      <c r="BL89" s="21"/>
-      <c r="BM89" s="21"/>
-      <c r="BN89" s="21"/>
-      <c r="BO89" s="21"/>
-      <c r="BP89" s="21"/>
-      <c r="BQ89" s="21"/>
-      <c r="BR89" s="21"/>
-      <c r="BS89" s="21"/>
-      <c r="BT89" s="21"/>
-      <c r="BU89" s="21"/>
-      <c r="BV89" s="21"/>
-      <c r="BW89" s="21"/>
-      <c r="BX89" s="21"/>
-      <c r="BY89" s="21"/>
-      <c r="BZ89" s="21"/>
-      <c r="CA89" s="21"/>
-      <c r="CB89" s="21"/>
-      <c r="CC89" s="21"/>
-      <c r="CD89" s="21"/>
-      <c r="CE89" s="21"/>
-      <c r="CF89" s="21"/>
-      <c r="CG89" s="21"/>
-      <c r="CH89" s="21"/>
-      <c r="CI89" s="21"/>
-      <c r="CJ89" s="21"/>
-      <c r="CK89" s="21"/>
-      <c r="CL89" s="21"/>
-      <c r="CM89" s="21"/>
-      <c r="CN89" s="21"/>
-      <c r="CO89" s="21"/>
-      <c r="CP89" s="21"/>
-      <c r="CQ89" s="21"/>
-      <c r="CR89" s="21"/>
-      <c r="CS89" s="21"/>
-      <c r="CT89" s="21"/>
-    </row>
-    <row r="90" spans="1:98">
-      <c r="A90">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:98" s="24" customFormat="1">
-      <c r="A91">
         <v>77</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C87" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="L91" s="25">
-        <f>L13</f>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="L87" s="25">
+        <f>L9</f>
         <v>41030</v>
       </c>
-      <c r="M91" s="25">
-        <f t="shared" ref="M91:BF91" si="44">M13</f>
+      <c r="M87" s="25">
+        <f t="shared" ref="M87:BF87" si="44">M9</f>
         <v>41031</v>
       </c>
-      <c r="N91" s="25">
+      <c r="N87" s="25">
         <f t="shared" si="44"/>
         <v>41032</v>
       </c>
-      <c r="O91" s="25">
+      <c r="O87" s="25">
         <f t="shared" si="44"/>
         <v>41033</v>
       </c>
-      <c r="P91" s="25">
+      <c r="P87" s="25">
         <f t="shared" si="44"/>
         <v>41034</v>
       </c>
-      <c r="Q91" s="25">
+      <c r="Q87" s="25">
         <f t="shared" si="44"/>
         <v>41035</v>
       </c>
-      <c r="R91" s="25">
+      <c r="R87" s="25">
         <f t="shared" si="44"/>
         <v>41036</v>
       </c>
-      <c r="S91" s="25">
+      <c r="S87" s="25">
         <f t="shared" si="44"/>
         <v>41037</v>
       </c>
-      <c r="T91" s="25">
+      <c r="T87" s="25">
         <f t="shared" si="44"/>
         <v>41038</v>
       </c>
-      <c r="U91" s="25">
+      <c r="U87" s="25">
         <f t="shared" si="44"/>
         <v>41039</v>
       </c>
-      <c r="V91" s="25">
+      <c r="V87" s="25">
         <f t="shared" si="44"/>
         <v>41040</v>
       </c>
-      <c r="W91" s="25">
+      <c r="W87" s="25">
         <f t="shared" si="44"/>
         <v>41041</v>
       </c>
-      <c r="X91" s="25">
+      <c r="X87" s="25">
         <f t="shared" si="44"/>
         <v>41042</v>
       </c>
-      <c r="Y91" s="25">
+      <c r="Y87" s="25">
         <f t="shared" si="44"/>
         <v>41043</v>
       </c>
-      <c r="Z91" s="25">
+      <c r="Z87" s="25">
         <f t="shared" si="44"/>
         <v>41044</v>
       </c>
-      <c r="AA91" s="25">
+      <c r="AA87" s="25">
         <f t="shared" si="44"/>
         <v>41045</v>
       </c>
-      <c r="AB91" s="25">
+      <c r="AB87" s="25">
         <f t="shared" si="44"/>
         <v>41046</v>
       </c>
-      <c r="AC91" s="25">
+      <c r="AC87" s="25">
         <f t="shared" si="44"/>
         <v>41047</v>
       </c>
-      <c r="AD91" s="25">
+      <c r="AD87" s="25">
         <f t="shared" si="44"/>
         <v>41048</v>
       </c>
-      <c r="AE91" s="25">
+      <c r="AE87" s="25">
         <f t="shared" si="44"/>
         <v>41049</v>
       </c>
-      <c r="AF91" s="25">
+      <c r="AF87" s="25">
         <f t="shared" si="44"/>
         <v>41050</v>
       </c>
-      <c r="AG91" s="25">
+      <c r="AG87" s="25">
         <f t="shared" si="44"/>
         <v>41051</v>
       </c>
-      <c r="AH91" s="25">
+      <c r="AH87" s="25">
         <f t="shared" si="44"/>
         <v>41052</v>
       </c>
-      <c r="AI91" s="25">
+      <c r="AI87" s="25">
         <f t="shared" si="44"/>
         <v>41053</v>
       </c>
-      <c r="AJ91" s="25">
+      <c r="AJ87" s="25">
         <f t="shared" si="44"/>
         <v>41054</v>
       </c>
-      <c r="AK91" s="25">
+      <c r="AK87" s="25">
         <f t="shared" si="44"/>
         <v>41055</v>
       </c>
-      <c r="AL91" s="25">
+      <c r="AL87" s="25">
         <f t="shared" si="44"/>
         <v>41056</v>
       </c>
-      <c r="AM91" s="25">
+      <c r="AM87" s="25">
         <f t="shared" si="44"/>
         <v>41057</v>
       </c>
-      <c r="AN91" s="25">
+      <c r="AN87" s="25">
         <f t="shared" si="44"/>
         <v>41058</v>
       </c>
-      <c r="AO91" s="25">
+      <c r="AO87" s="25">
         <f t="shared" si="44"/>
         <v>41059</v>
       </c>
-      <c r="AP91" s="25">
+      <c r="AP87" s="25">
         <f t="shared" si="44"/>
         <v>41060</v>
       </c>
-      <c r="AQ91" s="25">
+      <c r="AQ87" s="25">
         <f t="shared" si="44"/>
         <v>41061</v>
       </c>
-      <c r="AR91" s="25">
+      <c r="AR87" s="25">
         <f t="shared" si="44"/>
         <v>41062</v>
       </c>
-      <c r="AS91" s="25">
+      <c r="AS87" s="25">
         <f t="shared" si="44"/>
         <v>41063</v>
       </c>
-      <c r="AT91" s="25">
+      <c r="AT87" s="25">
         <f t="shared" si="44"/>
         <v>41064</v>
       </c>
-      <c r="AU91" s="25">
+      <c r="AU87" s="25">
         <f t="shared" si="44"/>
         <v>41065</v>
       </c>
-      <c r="AV91" s="25">
+      <c r="AV87" s="25">
         <f t="shared" si="44"/>
         <v>41066</v>
       </c>
-      <c r="AW91" s="25">
+      <c r="AW87" s="25">
         <f t="shared" si="44"/>
         <v>41067</v>
       </c>
-      <c r="AX91" s="25">
+      <c r="AX87" s="25">
         <f t="shared" si="44"/>
         <v>41068</v>
       </c>
-      <c r="AY91" s="25">
+      <c r="AY87" s="25">
         <f t="shared" si="44"/>
         <v>41069</v>
       </c>
-      <c r="AZ91" s="25">
+      <c r="AZ87" s="25">
         <f t="shared" si="44"/>
         <v>41070</v>
       </c>
-      <c r="BA91" s="25">
+      <c r="BA87" s="25">
         <f t="shared" si="44"/>
         <v>41071</v>
       </c>
-      <c r="BB91" s="25">
+      <c r="BB87" s="25">
         <f t="shared" si="44"/>
         <v>41072</v>
       </c>
-      <c r="BC91" s="25">
+      <c r="BC87" s="25">
         <f t="shared" si="44"/>
         <v>41073</v>
       </c>
-      <c r="BD91" s="25">
+      <c r="BD87" s="25">
         <f t="shared" si="44"/>
         <v>41074</v>
       </c>
-      <c r="BE91" s="25">
+      <c r="BE87" s="25">
         <f t="shared" si="44"/>
         <v>41075</v>
       </c>
-      <c r="BF91" s="25">
+      <c r="BF87" s="25">
         <f t="shared" si="44"/>
         <v>41076</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A14:BG91">
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-  </autoFilter>
-  <conditionalFormatting sqref="L90:AY90 L55:BF55 L57:BF88 L24:BF40 L15:BF18 L20:BF22 BI20:CT88 L42:BF53">
-    <cfRule type="cellIs" dxfId="20" priority="47" operator="equal">
+  <autoFilter ref="A10:BG87"/>
+  <conditionalFormatting sqref="L86:AY86 L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
+    <cfRule type="cellIs" dxfId="13" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55:BF55 L57:BF88 L24:BF40 L15:BF18 L20:BF22 BI20:CT88 L42:BF53">
-    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
+  <conditionalFormatting sqref="L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
+    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55 I57:I88 I32:I40 I20:I22 I15:I18 I49:I53 I42:I44 I46:I47 I24:I30">
-    <cfRule type="cellIs" dxfId="16" priority="81" operator="equal">
-      <formula>$G$5</formula>
+  <conditionalFormatting sqref="I51 I53:I84 I28:I36 I16:I18 I11:I14 I20:I26 I38:I49">
+    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
+      <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I18 I20:I22 I32:I40 I55 I57:I88 I49:I53 I46:I47 I42:I44 I24:I30">
-    <cfRule type="expression" dxfId="15" priority="90">
-      <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
+  <conditionalFormatting sqref="I11:I14 I16:I18 I28:I36 I51 I53:I84 I20:I26 I39:I49">
+    <cfRule type="expression" dxfId="8" priority="31">
+      <formula>AND(I11&lt;&gt;$H$5,$H11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55 I42:I53 I15:I22 I32:I35 I37:I40 I72:I88 I57:I63 I65:I70 I24:I30">
-      <formula1>$G$2:$G$5</formula1>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>AND(I38&lt;&gt;$H$5,$H38&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I51 I11:I18 I61:I66 I53:I59 I68:I84 I33:I36 I28:I31 I20:I26 I38:I49">
+      <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:E89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E85">
       <formula1>thanh_vien</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:E88">
-      <formula1>members</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="33" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -11420,7 +11101,7 @@
     <col min="22" max="22" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>74</v>
       </c>
@@ -11442,74 +11123,64 @@
       <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="75">
-      <c r="A2" s="50" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="S2" s="40" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="S2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="39">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11518,39 +11189,37 @@
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39" t="s">
-        <v>10</v>
-      </c>
+      <c r="L3" s="41"/>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="S3" s="40">
+      <c r="S3" s="42">
         <v>1</v>
       </c>
       <c r="T3" s="16" t="s">
@@ -11560,8 +11229,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="39">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -11570,25 +11239,25 @@
       <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="S4" s="40">
+      <c r="S4" s="42">
         <v>2</v>
       </c>
       <c r="T4" s="16" t="s">
@@ -11601,8 +11270,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="39">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -11611,33 +11280,33 @@
       <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="S5" s="40">
+      <c r="S5" s="42">
         <v>3</v>
       </c>
       <c r="T5" s="16" t="s">
@@ -11650,8 +11319,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="39">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11660,29 +11329,29 @@
       <c r="C6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="S6" s="40">
+      <c r="S6" s="42">
         <v>4</v>
       </c>
       <c r="T6" s="16" t="s">
@@ -11695,8 +11364,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="39">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11705,29 +11374,29 @@
       <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="S7" s="40">
+      <c r="S7" s="42">
         <v>5</v>
       </c>
       <c r="T7" s="16" t="s">
@@ -11740,8 +11409,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="39">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -11750,27 +11419,27 @@
       <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="S8" s="40">
+      <c r="S8" s="42">
         <v>6</v>
       </c>
       <c r="T8" s="16" t="s">
@@ -11783,8 +11452,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="39">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -11793,33 +11462,33 @@
       <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="39">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -11828,89 +11497,93 @@
       <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="46">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="46">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
         <v>11</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="14" spans="1:22">
-      <c r="S14" s="41"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S14" s="43"/>
       <c r="T14" s="58"/>
       <c r="U14" s="58"/>
     </row>
@@ -11920,68 +11593,38 @@
     <mergeCell ref="T14:U14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G11">
-    <cfRule type="containsBlanks" dxfId="14" priority="14">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:K11">
-    <cfRule type="containsBlanks" dxfId="13" priority="13">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsBlanks" dxfId="11" priority="11">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsBlanks" dxfId="10" priority="10">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(L7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsBlanks" dxfId="9" priority="9">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:L12">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M12">
-    <cfRule type="containsBlanks" dxfId="7" priority="7">
-      <formula>LEN(TRIM(M3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="6" priority="5">
-      <formula>LEN(TRIM(N5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(N6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
-      <formula>LEN(TRIM(N7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(N11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(N12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11996,56 +11639,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G6:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="7:8">
-      <c r="G6" t="str">
-        <f>IF(ISNUMBER(FIND("CD",D6)),"x","")</f>
-        <v/>
-      </c>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="7:8">
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="7:8">
-      <c r="G8" t="str">
-        <f t="shared" ref="G8:G10" si="0">IF(ISNUMBER(FIND("CD",D8)),"x","")</f>
-        <v/>
-      </c>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="7:8">
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="7:8">
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="12" spans="7:8">
-      <c r="G12" s="37"/>
-      <c r="H12" s="53"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="3"/>
@@ -14,12 +14,13 @@
     <sheet name="Quyết toán" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BG$87</definedName>
-    <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$T$4:$T$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$14:$BG$93</definedName>
+    <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$U$4:$U$12</definedName>
+    <definedName name="members">'Thành viên - Vị trí'!$C$3:$C$13</definedName>
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
-    <definedName name="VI_TRI">'Thành viên - Vị trí'!$T$3:$T$10</definedName>
+    <definedName name="VI_TRI">'Thành viên - Vị trí'!$U$3:$U$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -29,7 +30,66 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0">
+    <comment ref="C42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Khảo sát bên TOPICA, Giảng viên sẽ dùng tài khoản nào để đăng nhập(mã giảng viên, tạo account mới theo tên,…)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sử dụng Procedure
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0">
+    <comment ref="U4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0">
+    <comment ref="U5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0">
+    <comment ref="U6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="U7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="157">
   <si>
     <t>GVCM</t>
   </si>
@@ -592,26 +652,62 @@
     <t>Thêm dữ liệu công việc giảng viên mới vào CSDL</t>
   </si>
   <si>
-    <t>Assign công</t>
-  </si>
-  <si>
     <t>Người phụ trách</t>
   </si>
   <si>
     <t>Người thiết kế</t>
+  </si>
+  <si>
+    <t>Đổ toàn bộ account giảng viên vào bảng NGUOI_SU_SUNG</t>
+  </si>
+  <si>
+    <t>Assign công việc giảng viên</t>
+  </si>
+  <si>
+    <t>Gen ra thanh toán từ công việc giảng viên</t>
+  </si>
+  <si>
+    <t>Đã đọc tài liệu hướng dẫn SVN</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục các hồ sơ</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin hồ sơ theo giảng viên</t>
+  </si>
+  <si>
+    <t>Theo dõi trạng thái hồ sơ giảng viên</t>
+  </si>
+  <si>
+    <t>Viết được 1 Procedure sử dụng Cursor</t>
+  </si>
+  <si>
+    <t>CD, RP, IE</t>
+  </si>
+  <si>
+    <t>Buổi 4</t>
+  </si>
+  <si>
+    <t>Hoàn thiện Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đổi mật khẩu </t>
+  </si>
+  <si>
+    <t>Tự động thêm Account vào bảng người dùng khi thêm 1 giảng viên mới</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +805,20 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -810,7 +920,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -856,9 +966,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -874,7 +981,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,15 +1006,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -925,6 +1022,20 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,59 +1045,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -994,6 +1099,100 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1056,6 +1255,139 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1063,11 +1395,6 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1146,7 +1473,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1181,7 +1507,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1357,52 +1682,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
@@ -1412,14 +1737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1427,7 +1752,7 @@
     <col min="4" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1453,8 +1778,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1470,8 +1795,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="57"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1485,8 +1810,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1502,8 +1827,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="57"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1517,8 +1842,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="57"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1554,52 +1879,52 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -1614,1612 +1939,1199 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT87"/>
+  <dimension ref="A1:CT93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" style="31" customWidth="1"/>
+    <col min="3" max="3" width="48" style="30" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="98" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:98">
       <c r="C1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="27" t="s">
+    </row>
+    <row r="2" spans="1:98">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16">
-        <f t="shared" ref="E2:E7" si="0">SUMIF($E$10:$E$85,C2,$F$10:$F$85)</f>
+      <c r="D2" s="40">
+        <f>SUMIF($E$14:$E$91,C2,$F$14:$F$91)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="M2" s="38"/>
-      <c r="P2" s="39"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16">
+      <c r="L2" s="36"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:98">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="40">
+        <f>SUMIF($E$14:$E$91,C3,$F$14:$F$91)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:98">
+      <c r="B4" s="38"/>
+      <c r="C4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="40">
+        <f>SUMIF($E$14:$E$91,C4,$F$14:$F$91)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:98">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="40">
+        <f>SUMIF($E$14:$E$91,C5,$F$14:$F$91)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="40">
+        <f t="shared" ref="D6:D11" si="0">SUMIF($E$14:$E$91,C6,$F$14:$F$91)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:98">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:98">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" spans="1:98">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:98">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="1:98">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="1:98" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="L8" s="34">
-        <f>L9</f>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:98" s="32" customFormat="1">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="L12" s="32">
+        <f>L13</f>
         <v>41030</v>
       </c>
-      <c r="M8" s="34">
-        <f t="shared" ref="M8:BX8" si="1">M9</f>
+      <c r="M12" s="32">
+        <f t="shared" ref="M12:BX12" si="1">M13</f>
         <v>41031</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N12" s="32">
         <f t="shared" si="1"/>
         <v>41032</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O12" s="32">
         <f t="shared" si="1"/>
         <v>41033</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P12" s="32">
         <f t="shared" si="1"/>
         <v>41034</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q12" s="32">
         <f t="shared" si="1"/>
         <v>41035</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R12" s="32">
         <f t="shared" si="1"/>
         <v>41036</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S12" s="32">
         <f t="shared" si="1"/>
         <v>41037</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T12" s="32">
         <f t="shared" si="1"/>
         <v>41038</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U12" s="32">
         <f t="shared" si="1"/>
         <v>41039</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V12" s="32">
         <f t="shared" si="1"/>
         <v>41040</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W12" s="32">
         <f t="shared" si="1"/>
         <v>41041</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X12" s="32">
         <f t="shared" si="1"/>
         <v>41042</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y12" s="32">
         <f t="shared" si="1"/>
         <v>41043</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z12" s="32">
         <f t="shared" si="1"/>
         <v>41044</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA12" s="32">
         <f t="shared" si="1"/>
         <v>41045</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB12" s="32">
         <f t="shared" si="1"/>
         <v>41046</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AC12" s="32">
         <f t="shared" si="1"/>
         <v>41047</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD12" s="32">
         <f t="shared" si="1"/>
         <v>41048</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE12" s="32">
         <f t="shared" si="1"/>
         <v>41049</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF12" s="32">
         <f t="shared" si="1"/>
         <v>41050</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG12" s="32">
         <f t="shared" si="1"/>
         <v>41051</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH12" s="32">
         <f t="shared" si="1"/>
         <v>41052</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AI12" s="32">
         <f t="shared" si="1"/>
         <v>41053</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ12" s="32">
         <f t="shared" si="1"/>
         <v>41054</v>
       </c>
-      <c r="AK8" s="34">
+      <c r="AK12" s="32">
         <f t="shared" si="1"/>
         <v>41055</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AL12" s="32">
         <f t="shared" si="1"/>
         <v>41056</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM12" s="32">
         <f t="shared" si="1"/>
         <v>41057</v>
       </c>
-      <c r="AN8" s="34">
+      <c r="AN12" s="32">
         <f t="shared" si="1"/>
         <v>41058</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="AO12" s="32">
         <f t="shared" si="1"/>
         <v>41059</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AP12" s="32">
         <f t="shared" si="1"/>
         <v>41060</v>
       </c>
-      <c r="AQ8" s="34">
+      <c r="AQ12" s="32">
         <f t="shared" si="1"/>
         <v>41061</v>
       </c>
-      <c r="AR8" s="34">
+      <c r="AR12" s="32">
         <f t="shared" si="1"/>
         <v>41062</v>
       </c>
-      <c r="AS8" s="34">
+      <c r="AS12" s="32">
         <f t="shared" si="1"/>
         <v>41063</v>
       </c>
-      <c r="AT8" s="34">
+      <c r="AT12" s="32">
         <f t="shared" si="1"/>
         <v>41064</v>
       </c>
-      <c r="AU8" s="34">
+      <c r="AU12" s="32">
         <f t="shared" si="1"/>
         <v>41065</v>
       </c>
-      <c r="AV8" s="34">
+      <c r="AV12" s="32">
         <f t="shared" si="1"/>
         <v>41066</v>
       </c>
-      <c r="AW8" s="34">
+      <c r="AW12" s="32">
         <f t="shared" si="1"/>
         <v>41067</v>
       </c>
-      <c r="AX8" s="34">
+      <c r="AX12" s="32">
         <f t="shared" si="1"/>
         <v>41068</v>
       </c>
-      <c r="AY8" s="34">
+      <c r="AY12" s="32">
         <f t="shared" si="1"/>
         <v>41069</v>
       </c>
-      <c r="AZ8" s="34">
+      <c r="AZ12" s="32">
         <f t="shared" si="1"/>
         <v>41070</v>
       </c>
-      <c r="BA8" s="34">
+      <c r="BA12" s="32">
         <f t="shared" si="1"/>
         <v>41071</v>
       </c>
-      <c r="BB8" s="34">
+      <c r="BB12" s="32">
         <f t="shared" si="1"/>
         <v>41072</v>
       </c>
-      <c r="BC8" s="34">
+      <c r="BC12" s="32">
         <f t="shared" si="1"/>
         <v>41073</v>
       </c>
-      <c r="BD8" s="34">
+      <c r="BD12" s="32">
         <f t="shared" si="1"/>
         <v>41074</v>
       </c>
-      <c r="BE8" s="34">
+      <c r="BE12" s="32">
         <f t="shared" si="1"/>
         <v>41075</v>
       </c>
-      <c r="BF8" s="34">
+      <c r="BF12" s="32">
         <f t="shared" si="1"/>
         <v>41076</v>
       </c>
-      <c r="BG8" s="34">
+      <c r="BG12" s="32">
         <f t="shared" si="1"/>
         <v>41077</v>
       </c>
-      <c r="BH8" s="34">
+      <c r="BH12" s="32">
         <f t="shared" si="1"/>
         <v>41078</v>
       </c>
-      <c r="BI8" s="34">
+      <c r="BI12" s="32">
         <f t="shared" si="1"/>
         <v>41079</v>
       </c>
-      <c r="BJ8" s="34">
+      <c r="BJ12" s="32">
         <f t="shared" si="1"/>
         <v>41080</v>
       </c>
-      <c r="BK8" s="34">
+      <c r="BK12" s="32">
         <f t="shared" si="1"/>
         <v>41081</v>
       </c>
-      <c r="BL8" s="34">
+      <c r="BL12" s="32">
         <f t="shared" si="1"/>
         <v>41082</v>
       </c>
-      <c r="BM8" s="34">
+      <c r="BM12" s="32">
         <f t="shared" si="1"/>
         <v>41083</v>
       </c>
-      <c r="BN8" s="34">
+      <c r="BN12" s="32">
         <f t="shared" si="1"/>
         <v>41084</v>
       </c>
-      <c r="BO8" s="34">
+      <c r="BO12" s="32">
         <f t="shared" si="1"/>
         <v>41085</v>
       </c>
-      <c r="BP8" s="34">
+      <c r="BP12" s="32">
         <f t="shared" si="1"/>
         <v>41086</v>
       </c>
-      <c r="BQ8" s="34">
+      <c r="BQ12" s="32">
         <f t="shared" si="1"/>
         <v>41087</v>
       </c>
-      <c r="BR8" s="34">
+      <c r="BR12" s="32">
         <f t="shared" si="1"/>
         <v>41088</v>
       </c>
-      <c r="BS8" s="34">
+      <c r="BS12" s="32">
         <f t="shared" si="1"/>
         <v>41089</v>
       </c>
-      <c r="BT8" s="34">
+      <c r="BT12" s="32">
         <f t="shared" si="1"/>
         <v>41090</v>
       </c>
-      <c r="BU8" s="34">
+      <c r="BU12" s="32">
         <f t="shared" si="1"/>
         <v>41091</v>
       </c>
-      <c r="BV8" s="34">
+      <c r="BV12" s="32">
         <f t="shared" si="1"/>
         <v>41092</v>
       </c>
-      <c r="BW8" s="34">
+      <c r="BW12" s="32">
         <f t="shared" si="1"/>
         <v>41093</v>
       </c>
-      <c r="BX8" s="34">
+      <c r="BX12" s="32">
         <f t="shared" si="1"/>
         <v>41094</v>
       </c>
-      <c r="BY8" s="34">
-        <f t="shared" ref="BY8:CT8" si="2">BY9</f>
+      <c r="BY12" s="32">
+        <f t="shared" ref="BY12:CT12" si="2">BY13</f>
         <v>41095</v>
       </c>
-      <c r="BZ8" s="34">
+      <c r="BZ12" s="32">
         <f t="shared" si="2"/>
         <v>41096</v>
       </c>
-      <c r="CA8" s="34">
+      <c r="CA12" s="32">
         <f t="shared" si="2"/>
         <v>41097</v>
       </c>
-      <c r="CB8" s="34">
+      <c r="CB12" s="32">
         <f t="shared" si="2"/>
         <v>41098</v>
       </c>
-      <c r="CC8" s="34">
+      <c r="CC12" s="32">
         <f t="shared" si="2"/>
         <v>41099</v>
       </c>
-      <c r="CD8" s="34">
+      <c r="CD12" s="32">
         <f t="shared" si="2"/>
         <v>41100</v>
       </c>
-      <c r="CE8" s="34">
+      <c r="CE12" s="32">
         <f t="shared" si="2"/>
         <v>41101</v>
       </c>
-      <c r="CF8" s="34">
+      <c r="CF12" s="32">
         <f t="shared" si="2"/>
         <v>41102</v>
       </c>
-      <c r="CG8" s="34">
+      <c r="CG12" s="32">
         <f t="shared" si="2"/>
         <v>41103</v>
       </c>
-      <c r="CH8" s="34">
+      <c r="CH12" s="32">
         <f t="shared" si="2"/>
         <v>41104</v>
       </c>
-      <c r="CI8" s="34">
+      <c r="CI12" s="32">
         <f t="shared" si="2"/>
         <v>41105</v>
       </c>
-      <c r="CJ8" s="34">
+      <c r="CJ12" s="32">
         <f t="shared" si="2"/>
         <v>41106</v>
       </c>
-      <c r="CK8" s="34">
+      <c r="CK12" s="32">
         <f t="shared" si="2"/>
         <v>41107</v>
       </c>
-      <c r="CL8" s="34">
+      <c r="CL12" s="32">
         <f t="shared" si="2"/>
         <v>41108</v>
       </c>
-      <c r="CM8" s="34">
+      <c r="CM12" s="32">
         <f t="shared" si="2"/>
         <v>41109</v>
       </c>
-      <c r="CN8" s="34">
+      <c r="CN12" s="32">
         <f t="shared" si="2"/>
         <v>41110</v>
       </c>
-      <c r="CO8" s="34">
+      <c r="CO12" s="32">
         <f t="shared" si="2"/>
         <v>41111</v>
       </c>
-      <c r="CP8" s="34">
+      <c r="CP12" s="32">
         <f t="shared" si="2"/>
         <v>41112</v>
       </c>
-      <c r="CQ8" s="34">
+      <c r="CQ12" s="32">
         <f t="shared" si="2"/>
         <v>41113</v>
       </c>
-      <c r="CR8" s="34">
+      <c r="CR12" s="32">
         <f t="shared" si="2"/>
         <v>41114</v>
       </c>
-      <c r="CS8" s="34">
+      <c r="CS12" s="32">
         <f t="shared" si="2"/>
         <v>41115</v>
       </c>
-      <c r="CT8" s="34">
+      <c r="CT12" s="32">
         <f t="shared" si="2"/>
         <v>41116</v>
       </c>
     </row>
-    <row r="9" spans="1:98" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+    <row r="13" spans="1:98" s="18" customFormat="1" ht="30">
+      <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="E13" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L13" s="19">
         <v>41030</v>
       </c>
-      <c r="M9" s="19">
-        <f>L9+1</f>
+      <c r="M13" s="19">
+        <f>L13+1</f>
         <v>41031</v>
       </c>
-      <c r="N9" s="19">
-        <f t="shared" ref="N9:BF9" si="3">M9+1</f>
+      <c r="N13" s="19">
+        <f t="shared" ref="N13:BF13" si="3">M13+1</f>
         <v>41032</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O13" s="19">
         <f t="shared" si="3"/>
         <v>41033</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P13" s="19">
         <f t="shared" si="3"/>
         <v>41034</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q13" s="19">
         <f t="shared" si="3"/>
         <v>41035</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R13" s="19">
         <f t="shared" si="3"/>
         <v>41036</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S13" s="19">
         <f t="shared" si="3"/>
         <v>41037</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T13" s="19">
         <f t="shared" si="3"/>
         <v>41038</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U13" s="19">
         <f t="shared" si="3"/>
         <v>41039</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V13" s="19">
         <f t="shared" si="3"/>
         <v>41040</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W13" s="19">
         <f t="shared" si="3"/>
         <v>41041</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X13" s="19">
         <f t="shared" si="3"/>
         <v>41042</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Y13" s="19">
         <f t="shared" si="3"/>
         <v>41043</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z13" s="19">
         <f t="shared" si="3"/>
         <v>41044</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA13" s="19">
         <f t="shared" si="3"/>
         <v>41045</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB13" s="19">
         <f t="shared" si="3"/>
         <v>41046</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC13" s="19">
         <f t="shared" si="3"/>
         <v>41047</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD13" s="19">
         <f t="shared" si="3"/>
         <v>41048</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AE13" s="19">
         <f t="shared" si="3"/>
         <v>41049</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF13" s="19">
         <f t="shared" si="3"/>
         <v>41050</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AG13" s="19">
         <f t="shared" si="3"/>
         <v>41051</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AH13" s="19">
         <f t="shared" si="3"/>
         <v>41052</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AI13" s="19">
         <f t="shared" si="3"/>
         <v>41053</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AJ13" s="19">
         <f t="shared" si="3"/>
         <v>41054</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AK13" s="19">
         <f t="shared" si="3"/>
         <v>41055</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AL13" s="19">
         <f t="shared" si="3"/>
         <v>41056</v>
       </c>
-      <c r="AM9" s="19">
+      <c r="AM13" s="19">
         <f t="shared" si="3"/>
         <v>41057</v>
       </c>
-      <c r="AN9" s="19">
+      <c r="AN13" s="19">
         <f t="shared" si="3"/>
         <v>41058</v>
       </c>
-      <c r="AO9" s="19">
+      <c r="AO13" s="19">
         <f t="shared" si="3"/>
         <v>41059</v>
       </c>
-      <c r="AP9" s="19">
+      <c r="AP13" s="19">
         <f t="shared" si="3"/>
         <v>41060</v>
       </c>
-      <c r="AQ9" s="19">
+      <c r="AQ13" s="19">
         <f t="shared" si="3"/>
         <v>41061</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="AR13" s="19">
         <f t="shared" si="3"/>
         <v>41062</v>
       </c>
-      <c r="AS9" s="19">
+      <c r="AS13" s="19">
         <f t="shared" si="3"/>
         <v>41063</v>
       </c>
-      <c r="AT9" s="19">
+      <c r="AT13" s="19">
         <f t="shared" si="3"/>
         <v>41064</v>
       </c>
-      <c r="AU9" s="19">
+      <c r="AU13" s="19">
         <f t="shared" si="3"/>
         <v>41065</v>
       </c>
-      <c r="AV9" s="19">
+      <c r="AV13" s="19">
         <f t="shared" si="3"/>
         <v>41066</v>
       </c>
-      <c r="AW9" s="19">
+      <c r="AW13" s="19">
         <f t="shared" si="3"/>
         <v>41067</v>
       </c>
-      <c r="AX9" s="19">
+      <c r="AX13" s="19">
         <f t="shared" si="3"/>
         <v>41068</v>
       </c>
-      <c r="AY9" s="19">
+      <c r="AY13" s="19">
         <f t="shared" si="3"/>
         <v>41069</v>
       </c>
-      <c r="AZ9" s="19">
+      <c r="AZ13" s="19">
         <f t="shared" si="3"/>
         <v>41070</v>
       </c>
-      <c r="BA9" s="19">
+      <c r="BA13" s="19">
         <f t="shared" si="3"/>
         <v>41071</v>
       </c>
-      <c r="BB9" s="19">
+      <c r="BB13" s="19">
         <f t="shared" si="3"/>
         <v>41072</v>
       </c>
-      <c r="BC9" s="19">
+      <c r="BC13" s="19">
         <f t="shared" si="3"/>
         <v>41073</v>
       </c>
-      <c r="BD9" s="19">
+      <c r="BD13" s="19">
         <f t="shared" si="3"/>
         <v>41074</v>
       </c>
-      <c r="BE9" s="19">
+      <c r="BE13" s="19">
         <f t="shared" si="3"/>
         <v>41075</v>
       </c>
-      <c r="BF9" s="19">
+      <c r="BF13" s="19">
         <f t="shared" si="3"/>
         <v>41076</v>
       </c>
-      <c r="BG9" s="19">
-        <f t="shared" ref="BG9" si="4">BF9+1</f>
+      <c r="BG13" s="19">
+        <f t="shared" ref="BG13" si="4">BF13+1</f>
         <v>41077</v>
       </c>
-      <c r="BH9" s="19">
-        <f t="shared" ref="BH9" si="5">BG9+1</f>
+      <c r="BH13" s="19">
+        <f t="shared" ref="BH13" si="5">BG13+1</f>
         <v>41078</v>
       </c>
-      <c r="BI9" s="19">
-        <f t="shared" ref="BI9" si="6">BH9+1</f>
+      <c r="BI13" s="19">
+        <f t="shared" ref="BI13" si="6">BH13+1</f>
         <v>41079</v>
       </c>
-      <c r="BJ9" s="19">
-        <f t="shared" ref="BJ9" si="7">BI9+1</f>
+      <c r="BJ13" s="19">
+        <f t="shared" ref="BJ13" si="7">BI13+1</f>
         <v>41080</v>
       </c>
-      <c r="BK9" s="19">
-        <f t="shared" ref="BK9" si="8">BJ9+1</f>
+      <c r="BK13" s="19">
+        <f t="shared" ref="BK13" si="8">BJ13+1</f>
         <v>41081</v>
       </c>
-      <c r="BL9" s="19">
-        <f t="shared" ref="BL9" si="9">BK9+1</f>
+      <c r="BL13" s="19">
+        <f t="shared" ref="BL13" si="9">BK13+1</f>
         <v>41082</v>
       </c>
-      <c r="BM9" s="19">
-        <f t="shared" ref="BM9" si="10">BL9+1</f>
+      <c r="BM13" s="19">
+        <f t="shared" ref="BM13" si="10">BL13+1</f>
         <v>41083</v>
       </c>
-      <c r="BN9" s="19">
-        <f t="shared" ref="BN9" si="11">BM9+1</f>
+      <c r="BN13" s="19">
+        <f t="shared" ref="BN13" si="11">BM13+1</f>
         <v>41084</v>
       </c>
-      <c r="BO9" s="19">
-        <f t="shared" ref="BO9" si="12">BN9+1</f>
+      <c r="BO13" s="19">
+        <f t="shared" ref="BO13" si="12">BN13+1</f>
         <v>41085</v>
       </c>
-      <c r="BP9" s="19">
-        <f t="shared" ref="BP9" si="13">BO9+1</f>
+      <c r="BP13" s="19">
+        <f t="shared" ref="BP13" si="13">BO13+1</f>
         <v>41086</v>
       </c>
-      <c r="BQ9" s="19">
-        <f t="shared" ref="BQ9" si="14">BP9+1</f>
+      <c r="BQ13" s="19">
+        <f t="shared" ref="BQ13" si="14">BP13+1</f>
         <v>41087</v>
       </c>
-      <c r="BR9" s="19">
-        <f t="shared" ref="BR9" si="15">BQ9+1</f>
+      <c r="BR13" s="19">
+        <f t="shared" ref="BR13" si="15">BQ13+1</f>
         <v>41088</v>
       </c>
-      <c r="BS9" s="19">
-        <f t="shared" ref="BS9" si="16">BR9+1</f>
+      <c r="BS13" s="19">
+        <f t="shared" ref="BS13" si="16">BR13+1</f>
         <v>41089</v>
       </c>
-      <c r="BT9" s="19">
-        <f t="shared" ref="BT9" si="17">BS9+1</f>
+      <c r="BT13" s="19">
+        <f t="shared" ref="BT13" si="17">BS13+1</f>
         <v>41090</v>
       </c>
-      <c r="BU9" s="19">
-        <f t="shared" ref="BU9" si="18">BT9+1</f>
+      <c r="BU13" s="19">
+        <f t="shared" ref="BU13" si="18">BT13+1</f>
         <v>41091</v>
       </c>
-      <c r="BV9" s="19">
-        <f t="shared" ref="BV9" si="19">BU9+1</f>
+      <c r="BV13" s="19">
+        <f t="shared" ref="BV13" si="19">BU13+1</f>
         <v>41092</v>
       </c>
-      <c r="BW9" s="19">
-        <f t="shared" ref="BW9" si="20">BV9+1</f>
+      <c r="BW13" s="19">
+        <f t="shared" ref="BW13" si="20">BV13+1</f>
         <v>41093</v>
       </c>
-      <c r="BX9" s="19">
-        <f t="shared" ref="BX9" si="21">BW9+1</f>
+      <c r="BX13" s="19">
+        <f t="shared" ref="BX13" si="21">BW13+1</f>
         <v>41094</v>
       </c>
-      <c r="BY9" s="19">
-        <f t="shared" ref="BY9" si="22">BX9+1</f>
+      <c r="BY13" s="19">
+        <f t="shared" ref="BY13" si="22">BX13+1</f>
         <v>41095</v>
       </c>
-      <c r="BZ9" s="19">
-        <f t="shared" ref="BZ9" si="23">BY9+1</f>
+      <c r="BZ13" s="19">
+        <f t="shared" ref="BZ13" si="23">BY13+1</f>
         <v>41096</v>
       </c>
-      <c r="CA9" s="19">
-        <f t="shared" ref="CA9" si="24">BZ9+1</f>
+      <c r="CA13" s="19">
+        <f t="shared" ref="CA13" si="24">BZ13+1</f>
         <v>41097</v>
       </c>
-      <c r="CB9" s="19">
-        <f t="shared" ref="CB9" si="25">CA9+1</f>
+      <c r="CB13" s="19">
+        <f t="shared" ref="CB13" si="25">CA13+1</f>
         <v>41098</v>
       </c>
-      <c r="CC9" s="19">
-        <f t="shared" ref="CC9" si="26">CB9+1</f>
+      <c r="CC13" s="19">
+        <f t="shared" ref="CC13" si="26">CB13+1</f>
         <v>41099</v>
       </c>
-      <c r="CD9" s="19">
-        <f t="shared" ref="CD9" si="27">CC9+1</f>
+      <c r="CD13" s="19">
+        <f t="shared" ref="CD13" si="27">CC13+1</f>
         <v>41100</v>
       </c>
-      <c r="CE9" s="19">
-        <f t="shared" ref="CE9" si="28">CD9+1</f>
+      <c r="CE13" s="19">
+        <f t="shared" ref="CE13" si="28">CD13+1</f>
         <v>41101</v>
       </c>
-      <c r="CF9" s="19">
-        <f t="shared" ref="CF9" si="29">CE9+1</f>
+      <c r="CF13" s="19">
+        <f t="shared" ref="CF13" si="29">CE13+1</f>
         <v>41102</v>
       </c>
-      <c r="CG9" s="19">
-        <f t="shared" ref="CG9" si="30">CF9+1</f>
+      <c r="CG13" s="19">
+        <f t="shared" ref="CG13" si="30">CF13+1</f>
         <v>41103</v>
       </c>
-      <c r="CH9" s="19">
-        <f t="shared" ref="CH9" si="31">CG9+1</f>
+      <c r="CH13" s="19">
+        <f t="shared" ref="CH13" si="31">CG13+1</f>
         <v>41104</v>
       </c>
-      <c r="CI9" s="19">
-        <f t="shared" ref="CI9" si="32">CH9+1</f>
+      <c r="CI13" s="19">
+        <f t="shared" ref="CI13" si="32">CH13+1</f>
         <v>41105</v>
       </c>
-      <c r="CJ9" s="19">
-        <f t="shared" ref="CJ9" si="33">CI9+1</f>
+      <c r="CJ13" s="19">
+        <f t="shared" ref="CJ13" si="33">CI13+1</f>
         <v>41106</v>
       </c>
-      <c r="CK9" s="19">
-        <f t="shared" ref="CK9" si="34">CJ9+1</f>
+      <c r="CK13" s="19">
+        <f t="shared" ref="CK13" si="34">CJ13+1</f>
         <v>41107</v>
       </c>
-      <c r="CL9" s="19">
-        <f t="shared" ref="CL9" si="35">CK9+1</f>
+      <c r="CL13" s="19">
+        <f t="shared" ref="CL13" si="35">CK13+1</f>
         <v>41108</v>
       </c>
-      <c r="CM9" s="19">
-        <f t="shared" ref="CM9" si="36">CL9+1</f>
+      <c r="CM13" s="19">
+        <f t="shared" ref="CM13" si="36">CL13+1</f>
         <v>41109</v>
       </c>
-      <c r="CN9" s="19">
-        <f t="shared" ref="CN9" si="37">CM9+1</f>
+      <c r="CN13" s="19">
+        <f t="shared" ref="CN13" si="37">CM13+1</f>
         <v>41110</v>
       </c>
-      <c r="CO9" s="19">
-        <f t="shared" ref="CO9" si="38">CN9+1</f>
+      <c r="CO13" s="19">
+        <f t="shared" ref="CO13" si="38">CN13+1</f>
         <v>41111</v>
       </c>
-      <c r="CP9" s="19">
-        <f t="shared" ref="CP9" si="39">CO9+1</f>
+      <c r="CP13" s="19">
+        <f t="shared" ref="CP13" si="39">CO13+1</f>
         <v>41112</v>
       </c>
-      <c r="CQ9" s="19">
-        <f t="shared" ref="CQ9" si="40">CP9+1</f>
+      <c r="CQ13" s="19">
+        <f t="shared" ref="CQ13" si="40">CP13+1</f>
         <v>41113</v>
       </c>
-      <c r="CR9" s="19">
-        <f t="shared" ref="CR9" si="41">CQ9+1</f>
+      <c r="CR13" s="19">
+        <f t="shared" ref="CR13" si="41">CQ13+1</f>
         <v>41114</v>
       </c>
-      <c r="CS9" s="19">
-        <f t="shared" ref="CS9" si="42">CR9+1</f>
+      <c r="CS13" s="19">
+        <f t="shared" ref="CS13" si="42">CR13+1</f>
         <v>41115</v>
       </c>
-      <c r="CT9" s="19">
-        <f t="shared" ref="CT9" si="43">CS9+1</f>
+      <c r="CT13" s="19">
+        <f t="shared" ref="CT13" si="43">CS13+1</f>
         <v>41116</v>
       </c>
     </row>
-    <row r="10" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="29" t="s">
+    <row r="14" spans="1:98" s="20" customFormat="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="21"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
-      <c r="BN10" s="21"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="21"/>
-      <c r="BU10" s="21"/>
-      <c r="BV10" s="21"/>
-      <c r="BW10" s="21"/>
-      <c r="BX10" s="21"/>
-      <c r="BY10" s="21"/>
-      <c r="BZ10" s="21"/>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="21"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="21"/>
-      <c r="CE10" s="21"/>
-      <c r="CF10" s="21"/>
-      <c r="CG10" s="21"/>
-      <c r="CH10" s="21"/>
-      <c r="CI10" s="21"/>
-      <c r="CJ10" s="21"/>
-      <c r="CK10" s="21"/>
-      <c r="CL10" s="21"/>
-      <c r="CM10" s="21"/>
-      <c r="CN10" s="21"/>
-      <c r="CO10" s="21"/>
-      <c r="CP10" s="21"/>
-      <c r="CQ10" s="21"/>
-      <c r="CR10" s="21"/>
-      <c r="CS10" s="21"/>
-      <c r="CT10" s="21"/>
-    </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="56">
+        <f>COUNTIF(I15:I90,"Đã xong")/COUNTA(I15:I90) * 100%</f>
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="21"/>
+      <c r="BU14" s="21"/>
+      <c r="BV14" s="21"/>
+      <c r="BW14" s="21"/>
+      <c r="BX14" s="21"/>
+      <c r="BY14" s="21"/>
+      <c r="BZ14" s="21"/>
+      <c r="CA14" s="21"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" s="21"/>
+      <c r="CI14" s="21"/>
+      <c r="CJ14" s="21"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
+      <c r="CM14" s="21"/>
+      <c r="CN14" s="21"/>
+      <c r="CO14" s="21"/>
+      <c r="CP14" s="21"/>
+      <c r="CQ14" s="21"/>
+      <c r="CR14" s="21"/>
+      <c r="CS14" s="21"/>
+      <c r="CT14" s="21"/>
+    </row>
+    <row r="15" spans="1:98">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B15" s="22">
         <v>1</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23">
-        <f>IFERROR( HLOOKUP("BE",L11:BF$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",L11:BF$87,$A$87-$A11+1,FALSE),0)</f>
-        <v>41030</v>
-      </c>
-      <c r="H11" s="23">
-        <f>IFERROR( HLOOKUP("BE",L11:BF$87,$A$87-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",L11:BF$87,$A$87-$A11+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="1" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="23">
+        <f>IFERROR( HLOOKUP("BE",L15:BF$93,$A$93-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",L15:BF$93,$A$93-$A15+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="23">
+        <f>IFERROR( HLOOKUP("BE",L15:BF$93,$A$93-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",L15:BF$93,$A$93-$A15+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-    </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+    </row>
+    <row r="16" spans="1:98">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B16" s="22">
         <v>2</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23">
-        <f>IFERROR( HLOOKUP("BE",L12:BF$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",L12:BF$87,$A$87-$A12+1,FALSE),0)</f>
-        <v>41031</v>
-      </c>
-      <c r="H12" s="23">
-        <f>IFERROR( HLOOKUP("BE",L12:BF$87,$A$87-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",L12:BF$87,$A$87-$A12+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="1"/>
-      <c r="BV12" s="1"/>
-      <c r="BW12" s="1"/>
-      <c r="BX12" s="1"/>
-      <c r="BY12" s="1"/>
-      <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
-      <c r="CM12" s="1"/>
-      <c r="CN12" s="1"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
-    </row>
-    <row r="13" spans="1:98" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="22">
-        <v>3</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23">
-        <f>IFERROR( HLOOKUP("BE",L13:BF$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",L13:BF$87,$A$87-$A13+1,FALSE),0)</f>
-        <v>41031</v>
-      </c>
-      <c r="H13" s="23">
-        <f>IFERROR( HLOOKUP("BE",L13:BF$87,$A$87-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",L13:BF$87,$A$87-$A13+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="1"/>
-      <c r="BV13" s="1"/>
-      <c r="BW13" s="1"/>
-      <c r="BX13" s="1"/>
-      <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
-      <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-    </row>
-    <row r="14" spans="1:98" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="22">
-        <v>4</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23">
-        <f>IFERROR( HLOOKUP("BE",L14:BF$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",L14:BF$87,$A$87-$A14+1,FALSE),0)</f>
-        <v>41030</v>
-      </c>
-      <c r="H14" s="23">
-        <f>IFERROR( HLOOKUP("BE",L14:BF$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",L14:BF$87,$A$87-$A14+1,FALSE),0)</f>
-        <v>41035</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
-      <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-    </row>
-    <row r="15" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
-      <c r="BT15" s="21"/>
-      <c r="BU15" s="21"/>
-      <c r="BV15" s="21"/>
-      <c r="BW15" s="21"/>
-      <c r="BX15" s="21"/>
-      <c r="BY15" s="21"/>
-      <c r="BZ15" s="21"/>
-      <c r="CA15" s="21"/>
-      <c r="CB15" s="21"/>
-      <c r="CC15" s="21"/>
-      <c r="CD15" s="21"/>
-      <c r="CE15" s="21"/>
-      <c r="CF15" s="21"/>
-      <c r="CG15" s="21"/>
-      <c r="CH15" s="21"/>
-      <c r="CI15" s="21"/>
-      <c r="CJ15" s="21"/>
-      <c r="CK15" s="21"/>
-      <c r="CL15" s="21"/>
-      <c r="CM15" s="21"/>
-      <c r="CN15" s="21"/>
-      <c r="CO15" s="21"/>
-      <c r="CP15" s="21"/>
-      <c r="CQ15" s="21"/>
-      <c r="CR15" s="21"/>
-      <c r="CS15" s="21"/>
-      <c r="CT15" s="21"/>
-    </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="22">
-        <v>5</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$87,$A$87-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$93,$A$93-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$93,$A$93-$A16+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$87,$A$87-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$87,$A$87-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$93,$A$93-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$93,$A$93-$A16+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3303,33 +3215,41 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:98" ht="30">
       <c r="A17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="22">
-        <v>6</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$87,$A$87-$A17+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$93,$A$93-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$93,$A$93-$A17+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$87,$A$87-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$87,$A$87-$A17+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$93,$A$93-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$93,$A$93-$A17+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -3415,39 +3335,61 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:98" ht="30">
       <c r="A18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" s="22">
-        <v>7</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>112</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
-        <f>IFERROR( HLOOKUP("BE",L18:BF$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$87,$A$87-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$93,$A$93-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$93,$A$93-$A18+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="23">
-        <f>IFERROR( HLOOKUP("BE",L18:BF$87,$A$87-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$87,$A$87-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$93,$A$93-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$93,$A$93-$A18+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="45" t="s">
+        <v>36</v>
+      </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -3527,16 +3469,20 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
     </row>
-    <row r="19" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:98" s="20" customFormat="1">
       <c r="A19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>86</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3592,64 +3538,64 @@
       <c r="BF19" s="21"/>
       <c r="BG19" s="21"/>
       <c r="BH19" s="21"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
-      <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
-      <c r="BY19" s="1"/>
-      <c r="BZ19" s="1"/>
-      <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
-      <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
-    </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="21"/>
+      <c r="BZ19" s="21"/>
+      <c r="CA19" s="21"/>
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="21"/>
+      <c r="CH19" s="21"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
+      <c r="CO19" s="21"/>
+      <c r="CP19" s="21"/>
+      <c r="CQ19" s="21"/>
+      <c r="CR19" s="21"/>
+      <c r="CS19" s="21"/>
+      <c r="CT19" s="21"/>
+    </row>
+    <row r="20" spans="1:98">
       <c r="A20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="22">
-        <v>8</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$87,$A$87-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$93,$A$93-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$93,$A$93-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$87,$A$87-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$87,$A$87-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$93,$A$93-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$93,$A$93-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="23"/>
@@ -3743,28 +3689,30 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:98">
       <c r="A21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" s="22">
-        <v>9</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>142</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$87,$A$87-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$93,$A$93-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$93,$A$93-$A21+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$87,$A$87-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$87,$A$87-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$93,$A$93-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$93,$A$93-$A21+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="1"/>
@@ -3772,9 +3720,15 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -3855,21 +3809,25 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:98">
       <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="B22" s="22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23">
-        <f>IFERROR( HLOOKUP("BE",L22:BF$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$87,$A$87-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$93,$A$93-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$93,$A$93-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="23">
-        <f>IFERROR( HLOOKUP("BE",L22:BF$87,$A$87-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$87,$A$87-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$93,$A$93-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$93,$A$93-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="23"/>
@@ -3963,75 +3921,71 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:98" s="20" customFormat="1">
       <c r="A23">
-        <v>13</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23">
-        <f>IFERROR( HLOOKUP("BE",L23:BF$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",L23:BF$87,$A$87-$A23+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="23">
-        <f>IFERROR( HLOOKUP("BE",L23:BF$87,$A$87-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",L23:BF$87,$A$87-$A23+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
@@ -4071,24 +4025,32 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:98">
       <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="28"/>
+        <v>10</v>
+      </c>
+      <c r="B24" s="22">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23">
-        <f>IFERROR( HLOOKUP("BE",L24:BF$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$87,$A$87-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$93,$A$93-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$93,$A$93-$A24+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="23">
-        <f>IFERROR( HLOOKUP("BE",L24:BF$87,$A$87-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$87,$A$87-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$93,$A$93-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$93,$A$93-$A24+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="1"/>
@@ -4112,12 +4074,24 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
+      <c r="AG24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -4179,24 +4153,34 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:98">
       <c r="A25">
-        <v>15</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B25" s="22">
+        <v>9</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="23">
-        <f>IFERROR( HLOOKUP("BE",L25:BF$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$87,$A$87-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L25:BF$93,$A$93-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$93,$A$93-$A25+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="23">
-        <f>IFERROR( HLOOKUP("BE",L25:BF$87,$A$87-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$87,$A$87-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L25:BF$93,$A$93-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$93,$A$93-$A25+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="1"/>
@@ -4220,13 +4204,27 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
+      <c r="AG25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
@@ -4287,24 +4285,34 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:98">
       <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B26" s="22">
+        <v>10</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F26" s="22"/>
       <c r="G26" s="23">
-        <f>IFERROR( HLOOKUP("BE",L26:BF$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$87,$A$87-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L26:BF$93,$A$93-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$93,$A$93-$A26+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="23">
-        <f>IFERROR( HLOOKUP("BE",L26:BF$87,$A$87-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$87,$A$87-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L26:BF$93,$A$93-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$93,$A$93-$A26+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="1"/>
@@ -4328,14 +4336,30 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
+      <c r="AG26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -4395,71 +4419,77 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
     </row>
-    <row r="27" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:98">
       <c r="A27">
-        <v>17</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="21"/>
-      <c r="AL27" s="21"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="21"/>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="21"/>
-      <c r="AQ27" s="21"/>
-      <c r="AR27" s="21"/>
-      <c r="AS27" s="21"/>
-      <c r="AT27" s="21"/>
-      <c r="AU27" s="21"/>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="21"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21"/>
-      <c r="BF27" s="21"/>
-      <c r="BG27" s="21"/>
-      <c r="BH27" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="B27" s="22">
+        <v>11</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23">
+        <f>IFERROR( HLOOKUP("BE",L27:BF$93,$A$93-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",L27:BF$93,$A$93-$A27+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
+        <f>IFERROR( HLOOKUP("BE",L27:BF$93,$A$93-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",L27:BF$93,$A$93-$A27+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
@@ -4499,21 +4529,23 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:98">
       <c r="A28">
-        <v>18</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="B28" s="22">
+        <v>12</v>
+      </c>
+      <c r="C28" s="27"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$87,$A$87-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$93,$A$93-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$93,$A$93-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$87,$A$87-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$87,$A$87-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$93,$A$93-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$93,$A$93-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I28" s="23"/>
@@ -4607,21 +4639,21 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
     </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:98">
       <c r="A29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23">
-        <f>IFERROR( HLOOKUP("BE",L29:BF$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$87,$A$87-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$93,$A$93-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$93,$A$93-$A29+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H29" s="23">
-        <f>IFERROR( HLOOKUP("BE",L29:BF$87,$A$87-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$87,$A$87-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$93,$A$93-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$93,$A$93-$A29+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I29" s="23"/>
@@ -4715,21 +4747,21 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
     </row>
-    <row r="30" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:98">
       <c r="A30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23">
-        <f>IFERROR( HLOOKUP("BE",L30:BF$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",L30:BF$87,$A$87-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L30:BF$93,$A$93-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",L30:BF$93,$A$93-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="23">
-        <f>IFERROR( HLOOKUP("BE",L30:BF$87,$A$87-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",L30:BF$87,$A$87-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L30:BF$93,$A$93-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",L30:BF$93,$A$93-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I30" s="23"/>
@@ -4823,75 +4855,71 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:98" s="20" customFormat="1">
       <c r="A31">
-        <v>21</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23">
-        <f>IFERROR( HLOOKUP("BE",L31:BF$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",L31:BF$87,$A$87-$A31+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
-        <f>IFERROR( HLOOKUP("BE",L31:BF$87,$A$87-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",L31:BF$87,$A$87-$A31+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
@@ -4931,71 +4959,91 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
     </row>
-    <row r="32" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:98">
       <c r="A32">
-        <v>22</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23">
+        <f>IFERROR( HLOOKUP("BE",L32:BF$93,$A$93-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",L32:BF$93,$A$93-$A32+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="23">
+        <f>IFERROR( HLOOKUP("BE",L32:BF$93,$A$93-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",L32:BF$93,$A$93-$A32+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
@@ -5035,25 +5083,27 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:98">
       <c r="A33">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="22"/>
+      <c r="C33" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="E33" s="22" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L33:BF$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$87,$A$87-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$93,$A$93-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$93,$A$93-$A33+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L33:BF$87,$A$87-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$87,$A$87-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$93,$A$93-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$93,$A$93-$A33+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I33" s="23"/>
@@ -5073,13 +5123,27 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
+      <c r="Z33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
@@ -5147,23 +5211,27 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
     </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:98">
       <c r="A34">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$87,$A$87-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$93,$A$93-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$93,$A$93-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$87,$A$87-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$87,$A$87-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$93,$A$93-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$93,$A$93-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I34" s="23"/>
@@ -5182,13 +5250,27 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
+      <c r="Y34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -5257,42 +5339,32 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
     </row>
-    <row r="35" spans="1:98" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:98">
       <c r="A35">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="28" t="s">
-        <v>140</v>
-      </c>
+      <c r="C35" s="27"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23">
-        <f>IFERROR( HLOOKUP("BE",L35:BF$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$87,$A$87-$A35+1,FALSE),0)</f>
-        <v>41034</v>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$93,$A$93-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$93,$A$93-$A35+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H35" s="23">
-        <f>IFERROR( HLOOKUP("BE",L35:BF$87,$A$87-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$87,$A$87-$A35+1,FALSE),0)</f>
-        <v>41035</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>35</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$93,$A$93-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$93,$A$93-$A35+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="23"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -5375,75 +5447,71 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
     </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:98" s="20" customFormat="1">
       <c r="A36">
-        <v>26</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23">
-        <f>IFERROR( HLOOKUP("BE",L36:BF$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",L36:BF$87,$A$87-$A36+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
-        <f>IFERROR( HLOOKUP("BE",L36:BF$87,$A$87-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",L36:BF$87,$A$87-$A36+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
+      <c r="AT36" s="21"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="21"/>
+      <c r="BA36" s="21"/>
+      <c r="BB36" s="21"/>
+      <c r="BC36" s="21"/>
+      <c r="BD36" s="21"/>
+      <c r="BE36" s="21"/>
+      <c r="BF36" s="21"/>
+      <c r="BG36" s="21"/>
+      <c r="BH36" s="21"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
@@ -5483,71 +5551,93 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
     </row>
-    <row r="37" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:98">
       <c r="A37">
-        <v>27</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="21"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="21"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23">
+        <f>IFERROR( HLOOKUP("BE",L37:BF$93,$A$93-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",L37:BF$93,$A$93-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <f>IFERROR( HLOOKUP("BE",L37:BF$93,$A$93-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",L37:BF$93,$A$93-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
@@ -5587,26 +5677,32 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:98">
       <c r="A38">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23">
-        <f>IFERROR( HLOOKUP("BE",L38:BF$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$87,$A$87-$A38+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$93,$A$93-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$93,$A$93-$A38+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H38" s="23">
-        <f>IFERROR( HLOOKUP("BE",L38:BF$87,$A$87-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$87,$A$87-$A38+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$93,$A$93-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$93,$A$93-$A38+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="1"/>
@@ -5614,13 +5710,27 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
+      <c r="Q38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -5697,39 +5807,59 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
     </row>
-    <row r="39" spans="1:98" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:98" ht="30">
       <c r="A39">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B39" s="22"/>
-      <c r="C39" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="C39" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F39" s="22"/>
       <c r="G39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$87,$A$87-$A39+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$93,$A$93-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$93,$A$93-$A39+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$87,$A$87-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$87,$A$87-$A39+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$93,$A$93-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$93,$A$93-$A39+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="P39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -5807,25 +5937,16 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
     </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>30</v>
-      </c>
+    <row r="40" spans="1:98">
       <c r="B40" s="22"/>
-      <c r="C40" s="28" t="s">
-        <v>96</v>
+      <c r="C40" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="23">
-        <f>IFERROR( HLOOKUP("BE",L40:BF$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$87,$A$87-$A40+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="23">
-        <f>IFERROR( HLOOKUP("BE",L40:BF$87,$A$87-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$87,$A$87-$A40+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
@@ -5917,25 +6038,16 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>31</v>
-      </c>
+    <row r="41" spans="1:98" ht="30">
       <c r="B41" s="22"/>
-      <c r="C41" s="37" t="s">
-        <v>98</v>
+      <c r="C41" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="23">
-        <f>IFERROR( HLOOKUP("BE",L41:BF$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",L41:BF$87,$A$87-$A41+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="23">
-        <f>IFERROR( HLOOKUP("BE",L41:BF$87,$A$87-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",L41:BF$87,$A$87-$A41+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
@@ -6027,26 +6139,32 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
     </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:98" ht="30">
       <c r="A42">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B42" s="22"/>
-      <c r="C42" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+      <c r="C42" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="F42" s="22"/>
       <c r="G42" s="23">
-        <f>IFERROR( HLOOKUP("BE",L42:BF$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",L42:BF$87,$A$87-$A42+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L42:BF$93,$A$93-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",L42:BF$93,$A$93-$A42+1,FALSE),0)</f>
+        <v>41041</v>
       </c>
       <c r="H42" s="23">
-        <f>IFERROR( HLOOKUP("BE",L42:BF$87,$A$87-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",L42:BF$87,$A$87-$A42+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="23"/>
+        <f>IFERROR( HLOOKUP("BE",L42:BF$93,$A$93-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",L42:BF$93,$A$93-$A42+1,FALSE),0)</f>
+        <v>41045</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="1"/>
@@ -6060,11 +6178,21 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
+      <c r="W42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -6137,77 +6265,71 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
     </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:98" s="20" customFormat="1">
       <c r="A43">
-        <v>33</v>
-      </c>
-      <c r="B43" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="B43" s="21"/>
       <c r="C43" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23">
-        <f>IFERROR( HLOOKUP("BE",L43:BF$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",L43:BF$87,$A$87-$A43+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="23">
-        <f>IFERROR( HLOOKUP("BE",L43:BF$87,$A$87-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",L43:BF$87,$A$87-$A43+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="21"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="21"/>
+      <c r="AV43" s="21"/>
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="21"/>
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="21"/>
+      <c r="BA43" s="21"/>
+      <c r="BB43" s="21"/>
+      <c r="BC43" s="21"/>
+      <c r="BD43" s="21"/>
+      <c r="BE43" s="21"/>
+      <c r="BF43" s="21"/>
+      <c r="BG43" s="21"/>
+      <c r="BH43" s="21"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
@@ -6247,25 +6369,19 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:98">
       <c r="A44">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B44" s="22"/>
-      <c r="C44" s="37" t="s">
-        <v>100</v>
+      <c r="C44" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="23">
-        <f>IFERROR( HLOOKUP("BE",L44:BF$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",L44:BF$87,$A$87-$A44+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
-        <f>IFERROR( HLOOKUP("BE",L44:BF$87,$A$87-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",L44:BF$87,$A$87-$A44+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
@@ -6357,47 +6473,37 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
     </row>
-    <row r="45" spans="1:98" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:98" ht="30">
       <c r="A45">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B45" s="22"/>
-      <c r="C45" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="22"/>
+      <c r="C45" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="E45" s="22" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="23">
-        <f>IFERROR( HLOOKUP("BE",L45:BF$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",L45:BF$87,$A$87-$A45+1,FALSE),0)</f>
-        <v>41032</v>
+        <f>IFERROR( HLOOKUP("BE",L45:BF$93,$A$93-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",L45:BF$93,$A$93-$A45+1,FALSE),0)</f>
+        <v>41046</v>
       </c>
       <c r="H45" s="23">
-        <f>IFERROR( HLOOKUP("BE",L45:BF$87,$A$87-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",L45:BF$87,$A$87-$A45+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>139</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L45:BF$93,$A$93-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",L45:BF$93,$A$93-$A45+1,FALSE),0)</f>
+        <v>41051</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -6409,12 +6515,24 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
+      <c r="AB45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -6481,47 +6599,37 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
     </row>
-    <row r="46" spans="1:98" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:98">
       <c r="A46">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B46" s="22"/>
-      <c r="C46" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="22"/>
+      <c r="C46" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="E46" s="22" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="23">
-        <f>IFERROR( HLOOKUP("BE",L46:BF$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$87,$A$87-$A46+1,FALSE),0)</f>
-        <v>41032</v>
+        <f>IFERROR( HLOOKUP("BE",L46:BF$93,$A$93-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$93,$A$93-$A46+1,FALSE),0)</f>
+        <v>41048</v>
       </c>
       <c r="H46" s="23">
-        <f>IFERROR( HLOOKUP("BE",L46:BF$87,$A$87-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$87,$A$87-$A46+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>139</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L46:BF$93,$A$93-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$93,$A$93-$A46+1,FALSE),0)</f>
+        <v>41053</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -6535,12 +6643,24 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
+      <c r="AD46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -6605,47 +6725,27 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
     </row>
-    <row r="47" spans="1:98" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:98">
       <c r="A47">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23">
-        <f>IFERROR( HLOOKUP("BE",L47:BF$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",L47:BF$87,$A$87-$A47+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="H47" s="23">
-        <f>IFERROR( HLOOKUP("BE",L47:BF$87,$A$87-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",L47:BF$87,$A$87-$A47+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>139</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -6729,22 +6829,28 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
     </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:98">
       <c r="A48">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B48" s="22"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="C48" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="F48" s="22"/>
       <c r="G48" s="23">
-        <f>IFERROR( HLOOKUP("BE",L48:BF$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",L48:BF$87,$A$87-$A48+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L48:BF$93,$A$93-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",L48:BF$93,$A$93-$A48+1,FALSE),0)</f>
+        <v>41046</v>
       </c>
       <c r="H48" s="23">
-        <f>IFERROR( HLOOKUP("BE",L48:BF$87,$A$87-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",L48:BF$87,$A$87-$A48+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L48:BF$93,$A$93-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",L48:BF$93,$A$93-$A48+1,FALSE),0)</f>
+        <v>41051</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="22"/>
@@ -6765,12 +6871,24 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
+      <c r="AB48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
@@ -6837,22 +6955,28 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
     </row>
-    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:98">
       <c r="A49">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B49" s="22"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="C49" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="F49" s="22"/>
       <c r="G49" s="23">
-        <f>IFERROR( HLOOKUP("BE",L49:BF$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",L49:BF$87,$A$87-$A49+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L49:BF$93,$A$93-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",L49:BF$93,$A$93-$A49+1,FALSE),0)</f>
+        <v>41048</v>
       </c>
       <c r="H49" s="23">
-        <f>IFERROR( HLOOKUP("BE",L49:BF$87,$A$87-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",L49:BF$87,$A$87-$A49+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L49:BF$93,$A$93-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",L49:BF$93,$A$93-$A49+1,FALSE),0)</f>
+        <v>41053</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="22"/>
@@ -6875,12 +6999,24 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
+      <c r="AD49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -6945,13 +7081,13 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
     </row>
-    <row r="50" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:98">
       <c r="A50">
-        <v>40</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="29" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -6959,57 +7095,57 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
-      <c r="AK50" s="21"/>
-      <c r="AL50" s="21"/>
-      <c r="AM50" s="21"/>
-      <c r="AN50" s="21"/>
-      <c r="AO50" s="21"/>
-      <c r="AP50" s="21"/>
-      <c r="AQ50" s="21"/>
-      <c r="AR50" s="21"/>
-      <c r="AS50" s="21"/>
-      <c r="AT50" s="21"/>
-      <c r="AU50" s="21"/>
-      <c r="AV50" s="21"/>
-      <c r="AW50" s="21"/>
-      <c r="AX50" s="21"/>
-      <c r="AY50" s="21"/>
-      <c r="AZ50" s="21"/>
-      <c r="BA50" s="21"/>
-      <c r="BB50" s="21"/>
-      <c r="BC50" s="21"/>
-      <c r="BD50" s="21"/>
-      <c r="BE50" s="21"/>
-      <c r="BF50" s="21"/>
-      <c r="BG50" s="21"/>
-      <c r="BH50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
@@ -7049,33 +7185,49 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
     </row>
-    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:98" ht="30">
       <c r="A51">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B51" s="22"/>
-      <c r="C51" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="C51" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F51" s="22"/>
       <c r="G51" s="23">
-        <f>IFERROR( HLOOKUP("BE",L51:BF$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$87,$A$87-$A51+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$93,$A$93-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$93,$A$93-$A51+1,FALSE),0)</f>
+        <v>41032</v>
       </c>
       <c r="H51" s="23">
-        <f>IFERROR( HLOOKUP("BE",L51:BF$87,$A$87-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$87,$A$87-$A51+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$93,$A$93-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$93,$A$93-$A51+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -7159,71 +7311,93 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
     </row>
-    <row r="52" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:98" ht="30">
       <c r="A52">
-        <v>42</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
-      <c r="AE52" s="21"/>
-      <c r="AF52" s="21"/>
-      <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="21"/>
-      <c r="AM52" s="21"/>
-      <c r="AN52" s="21"/>
-      <c r="AO52" s="21"/>
-      <c r="AP52" s="21"/>
-      <c r="AQ52" s="21"/>
-      <c r="AR52" s="21"/>
-      <c r="AS52" s="21"/>
-      <c r="AT52" s="21"/>
-      <c r="AU52" s="21"/>
-      <c r="AV52" s="21"/>
-      <c r="AW52" s="21"/>
-      <c r="AX52" s="21"/>
-      <c r="AY52" s="21"/>
-      <c r="AZ52" s="21"/>
-      <c r="BA52" s="21"/>
-      <c r="BB52" s="21"/>
-      <c r="BC52" s="21"/>
-      <c r="BD52" s="21"/>
-      <c r="BE52" s="21"/>
-      <c r="BF52" s="21"/>
-      <c r="BG52" s="21"/>
-      <c r="BH52" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23">
+        <f>IFERROR( HLOOKUP("BE",L52:BF$93,$A$93-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",L52:BF$93,$A$93-$A52+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="H52" s="23">
+        <f>IFERROR( HLOOKUP("BE",L52:BF$93,$A$93-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",L52:BF$93,$A$93-$A52+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
@@ -7263,31 +7437,49 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
     </row>
-    <row r="53" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:98" ht="30">
       <c r="A53">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B53" s="22"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="C53" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F53" s="22"/>
       <c r="G53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$87,$A$87-$A53+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$93,$A$93-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$93,$A$93-$A53+1,FALSE),0)</f>
+        <v>41032</v>
       </c>
       <c r="H53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$87,$A$87-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$87,$A$87-$A53+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$93,$A$93-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$93,$A$93-$A53+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="N53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -7371,21 +7563,21 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
     </row>
-    <row r="54" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:98">
       <c r="A54">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B54" s="22"/>
-      <c r="C54" s="28"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="23">
-        <f>IFERROR( HLOOKUP("BE",L54:BF$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",L54:BF$87,$A$87-$A54+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L54:BF$93,$A$93-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",L54:BF$93,$A$93-$A54+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H54" s="23">
-        <f>IFERROR( HLOOKUP("BE",L54:BF$87,$A$87-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",L54:BF$87,$A$87-$A54+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L54:BF$93,$A$93-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",L54:BF$93,$A$93-$A54+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I54" s="23"/>
@@ -7479,21 +7671,21 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
     </row>
-    <row r="55" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:98">
       <c r="A55">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B55" s="22"/>
-      <c r="C55" s="28"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$87,$A$87-$A55+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L55:BF$93,$A$93-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$93,$A$93-$A55+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$87,$A$87-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$87,$A$87-$A55+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L55:BF$93,$A$93-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$93,$A$93-$A55+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I55" s="23"/>
@@ -7587,77 +7779,71 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
     </row>
-    <row r="56" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:98" s="20" customFormat="1">
       <c r="A56">
-        <v>46</v>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23">
-        <f>IFERROR( HLOOKUP("BE",L56:BF$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",L56:BF$87,$A$87-$A56+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
-        <f>IFERROR( HLOOKUP("BE",L56:BF$87,$A$87-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",L56:BF$87,$A$87-$A56+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" s="22"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="21"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+      <c r="BB56" s="21"/>
+      <c r="BC56" s="21"/>
+      <c r="BD56" s="21"/>
+      <c r="BE56" s="21"/>
+      <c r="BF56" s="21"/>
+      <c r="BG56" s="21"/>
+      <c r="BH56" s="21"/>
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
@@ -7697,21 +7883,27 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
     </row>
-    <row r="57" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:98">
       <c r="A57">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B57" s="22"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="C57" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="F57" s="22"/>
       <c r="G57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$87,$A$87-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$93,$A$93-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$93,$A$93-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$87,$A$87-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$87,$A$87-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$93,$A$93-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$93,$A$93-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I57" s="23"/>
@@ -7805,75 +7997,71 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
     </row>
-    <row r="58" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:98" s="20" customFormat="1">
       <c r="A58">
-        <v>48</v>
-      </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23">
-        <f>IFERROR( HLOOKUP("BE",L58:BF$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",L58:BF$87,$A$87-$A58+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="23">
-        <f>IFERROR( HLOOKUP("BE",L58:BF$87,$A$87-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",L58:BF$87,$A$87-$A58+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-      <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
-      <c r="AR58" s="1"/>
-      <c r="AS58" s="1"/>
-      <c r="AT58" s="1"/>
-      <c r="AU58" s="1"/>
-      <c r="AV58" s="1"/>
-      <c r="AW58" s="1"/>
-      <c r="AX58" s="1"/>
-      <c r="AY58" s="1"/>
-      <c r="AZ58" s="1"/>
-      <c r="BA58" s="1"/>
-      <c r="BB58" s="1"/>
-      <c r="BC58" s="1"/>
-      <c r="BD58" s="1"/>
-      <c r="BE58" s="1"/>
-      <c r="BF58" s="1"/>
-      <c r="BG58" s="1"/>
-      <c r="BH58" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="21"/>
+      <c r="AL58" s="21"/>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="21"/>
+      <c r="AO58" s="21"/>
+      <c r="AP58" s="21"/>
+      <c r="AQ58" s="21"/>
+      <c r="AR58" s="21"/>
+      <c r="AS58" s="21"/>
+      <c r="AT58" s="21"/>
+      <c r="AU58" s="21"/>
+      <c r="AV58" s="21"/>
+      <c r="AW58" s="21"/>
+      <c r="AX58" s="21"/>
+      <c r="AY58" s="21"/>
+      <c r="AZ58" s="21"/>
+      <c r="BA58" s="21"/>
+      <c r="BB58" s="21"/>
+      <c r="BC58" s="21"/>
+      <c r="BD58" s="21"/>
+      <c r="BE58" s="21"/>
+      <c r="BF58" s="21"/>
+      <c r="BG58" s="21"/>
+      <c r="BH58" s="21"/>
       <c r="BI58" s="1"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
@@ -7913,21 +8101,21 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
     </row>
-    <row r="59" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:98">
       <c r="A59">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="28"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$87,$A$87-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$93,$A$93-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$93,$A$93-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$87,$A$87-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$87,$A$87-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$93,$A$93-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$93,$A$93-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I59" s="23"/>
@@ -8021,71 +8209,75 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
     </row>
-    <row r="60" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:98">
       <c r="A60">
-        <v>50</v>
-      </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
-      <c r="AI60" s="21"/>
-      <c r="AJ60" s="21"/>
-      <c r="AK60" s="21"/>
-      <c r="AL60" s="21"/>
-      <c r="AM60" s="21"/>
-      <c r="AN60" s="21"/>
-      <c r="AO60" s="21"/>
-      <c r="AP60" s="21"/>
-      <c r="AQ60" s="21"/>
-      <c r="AR60" s="21"/>
-      <c r="AS60" s="21"/>
-      <c r="AT60" s="21"/>
-      <c r="AU60" s="21"/>
-      <c r="AV60" s="21"/>
-      <c r="AW60" s="21"/>
-      <c r="AX60" s="21"/>
-      <c r="AY60" s="21"/>
-      <c r="AZ60" s="21"/>
-      <c r="BA60" s="21"/>
-      <c r="BB60" s="21"/>
-      <c r="BC60" s="21"/>
-      <c r="BD60" s="21"/>
-      <c r="BE60" s="21"/>
-      <c r="BF60" s="21"/>
-      <c r="BG60" s="21"/>
-      <c r="BH60" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23">
+        <f>IFERROR( HLOOKUP("BE",L60:BF$93,$A$93-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",L60:BF$93,$A$93-$A60+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="23">
+        <f>IFERROR( HLOOKUP("BE",L60:BF$93,$A$93-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",L60:BF$93,$A$93-$A60+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="23"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
@@ -8125,21 +8317,21 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
     </row>
-    <row r="61" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:98">
       <c r="A61">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B61" s="22"/>
-      <c r="C61" s="28"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$87,$A$87-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$93,$A$93-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$93,$A$93-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$87,$A$87-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$87,$A$87-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$93,$A$93-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$93,$A$93-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I61" s="23"/>
@@ -8233,25 +8425,27 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
     </row>
-    <row r="62" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:98">
       <c r="A62">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B62" s="22"/>
-      <c r="C62" s="28"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="23">
-        <f>IFERROR( HLOOKUP("BE",L62:BF$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$87,$A$87-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$93,$A$93-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$93,$A$93-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H62" s="23">
-        <f>IFERROR( HLOOKUP("BE",L62:BF$87,$A$87-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$87,$A$87-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$93,$A$93-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$93,$A$93-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I62" s="23"/>
-      <c r="J62" s="22"/>
+      <c r="J62" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -8341,21 +8535,21 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
     </row>
-    <row r="63" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:98">
       <c r="A63">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B63" s="22"/>
-      <c r="C63" s="36"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$87,$A$87-$A63+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L63:BF$93,$A$93-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$93,$A$93-$A63+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$87,$A$87-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$87,$A$87-$A63+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L63:BF$93,$A$93-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$93,$A$93-$A63+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I63" s="23"/>
@@ -8449,21 +8643,21 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
     </row>
-    <row r="64" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:98">
       <c r="A64">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B64" s="22"/>
-      <c r="C64" s="36"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="23">
-        <f>IFERROR( HLOOKUP("BE",L64:BF$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",L64:BF$87,$A$87-$A64+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L64:BF$93,$A$93-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",L64:BF$93,$A$93-$A64+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H64" s="23">
-        <f>IFERROR( HLOOKUP("BE",L64:BF$87,$A$87-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",L64:BF$87,$A$87-$A64+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L64:BF$93,$A$93-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",L64:BF$93,$A$93-$A64+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I64" s="23"/>
@@ -8557,21 +8751,21 @@
       <c r="CS64" s="1"/>
       <c r="CT64" s="1"/>
     </row>
-    <row r="65" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:98">
       <c r="A65">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B65" s="22"/>
-      <c r="C65" s="36"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$87,$A$87-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$93,$A$93-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$93,$A$93-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$87,$A$87-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$87,$A$87-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$93,$A$93-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$93,$A$93-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I65" s="23"/>
@@ -8665,75 +8859,71 @@
       <c r="CS65" s="1"/>
       <c r="CT65" s="1"/>
     </row>
-    <row r="66" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:98" s="20" customFormat="1">
       <c r="A66">
-        <v>56</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="23">
-        <f>IFERROR( HLOOKUP("BE",L66:BF$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$87,$A$87-$A66+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="23">
-        <f>IFERROR( HLOOKUP("BE",L66:BF$87,$A$87-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$87,$A$87-$A66+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="1"/>
-      <c r="AO66" s="1"/>
-      <c r="AP66" s="1"/>
-      <c r="AQ66" s="1"/>
-      <c r="AR66" s="1"/>
-      <c r="AS66" s="1"/>
-      <c r="AT66" s="1"/>
-      <c r="AU66" s="1"/>
-      <c r="AV66" s="1"/>
-      <c r="AW66" s="1"/>
-      <c r="AX66" s="1"/>
-      <c r="AY66" s="1"/>
-      <c r="AZ66" s="1"/>
-      <c r="BA66" s="1"/>
-      <c r="BB66" s="1"/>
-      <c r="BC66" s="1"/>
-      <c r="BD66" s="1"/>
-      <c r="BE66" s="1"/>
-      <c r="BF66" s="1"/>
-      <c r="BG66" s="1"/>
-      <c r="BH66" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21"/>
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21"/>
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+      <c r="AP66" s="21"/>
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
+      <c r="AT66" s="21"/>
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+      <c r="AX66" s="21"/>
+      <c r="AY66" s="21"/>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="21"/>
+      <c r="BB66" s="21"/>
+      <c r="BC66" s="21"/>
+      <c r="BD66" s="21"/>
+      <c r="BE66" s="21"/>
+      <c r="BF66" s="21"/>
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
       <c r="BI66" s="1"/>
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
@@ -8773,71 +8963,75 @@
       <c r="CS66" s="1"/>
       <c r="CT66" s="1"/>
     </row>
-    <row r="67" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:98">
       <c r="A67">
-        <v>57</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-      <c r="AB67" s="21"/>
-      <c r="AC67" s="21"/>
-      <c r="AD67" s="21"/>
-      <c r="AE67" s="21"/>
-      <c r="AF67" s="21"/>
-      <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
-      <c r="AI67" s="21"/>
-      <c r="AJ67" s="21"/>
-      <c r="AK67" s="21"/>
-      <c r="AL67" s="21"/>
-      <c r="AM67" s="21"/>
-      <c r="AN67" s="21"/>
-      <c r="AO67" s="21"/>
-      <c r="AP67" s="21"/>
-      <c r="AQ67" s="21"/>
-      <c r="AR67" s="21"/>
-      <c r="AS67" s="21"/>
-      <c r="AT67" s="21"/>
-      <c r="AU67" s="21"/>
-      <c r="AV67" s="21"/>
-      <c r="AW67" s="21"/>
-      <c r="AX67" s="21"/>
-      <c r="AY67" s="21"/>
-      <c r="AZ67" s="21"/>
-      <c r="BA67" s="21"/>
-      <c r="BB67" s="21"/>
-      <c r="BC67" s="21"/>
-      <c r="BD67" s="21"/>
-      <c r="BE67" s="21"/>
-      <c r="BF67" s="21"/>
-      <c r="BG67" s="21"/>
-      <c r="BH67" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="23">
+        <f>IFERROR( HLOOKUP("BE",L67:BF$93,$A$93-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",L67:BF$93,$A$93-$A67+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="23">
+        <f>IFERROR( HLOOKUP("BE",L67:BF$93,$A$93-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",L67:BF$93,$A$93-$A67+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
       <c r="BI67" s="1"/>
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
@@ -8877,23 +9071,21 @@
       <c r="CS67" s="1"/>
       <c r="CT67" s="1"/>
     </row>
-    <row r="68" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:98">
       <c r="A68">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B68" s="22"/>
-      <c r="C68" s="37" t="s">
-        <v>60</v>
-      </c>
+      <c r="C68" s="27"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="23">
-        <f>IFERROR( HLOOKUP("BE",L68:BF$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$87,$A$87-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$93,$A$93-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$93,$A$93-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="23">
-        <f>IFERROR( HLOOKUP("BE",L68:BF$87,$A$87-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$87,$A$87-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$93,$A$93-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$93,$A$93-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I68" s="23"/>
@@ -8987,21 +9179,21 @@
       <c r="CS68" s="1"/>
       <c r="CT68" s="1"/>
     </row>
-    <row r="69" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:98">
       <c r="A69">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B69" s="22"/>
-      <c r="C69" s="36"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$87,$A$87-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$93,$A$93-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$93,$A$93-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$87,$A$87-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$87,$A$87-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$93,$A$93-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$93,$A$93-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I69" s="23"/>
@@ -9095,21 +9287,21 @@
       <c r="CS69" s="1"/>
       <c r="CT69" s="1"/>
     </row>
-    <row r="70" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:98">
       <c r="A70">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B70" s="22"/>
-      <c r="C70" s="36"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$87,$A$87-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$93,$A$93-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$93,$A$93-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$87,$A$87-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$87,$A$87-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$93,$A$93-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$93,$A$93-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I70" s="23"/>
@@ -9203,21 +9395,21 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
     </row>
-    <row r="71" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:98">
       <c r="A71">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B71" s="22"/>
-      <c r="C71" s="36"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
       <c r="G71" s="23">
-        <f>IFERROR( HLOOKUP("BE",L71:BF$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",L71:BF$87,$A$87-$A71+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L71:BF$93,$A$93-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",L71:BF$93,$A$93-$A71+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H71" s="23">
-        <f>IFERROR( HLOOKUP("BE",L71:BF$87,$A$87-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",L71:BF$87,$A$87-$A71+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L71:BF$93,$A$93-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",L71:BF$93,$A$93-$A71+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I71" s="23"/>
@@ -9311,21 +9503,21 @@
       <c r="CS71" s="1"/>
       <c r="CT71" s="1"/>
     </row>
-    <row r="72" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:98">
       <c r="A72">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B72" s="22"/>
-      <c r="C72" s="36"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$87,$A$87-$A72+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$93,$A$93-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$93,$A$93-$A72+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$87,$A$87-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$87,$A$87-$A72+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$93,$A$93-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$93,$A$93-$A72+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I72" s="23"/>
@@ -9419,77 +9611,71 @@
       <c r="CS72" s="1"/>
       <c r="CT72" s="1"/>
     </row>
-    <row r="73" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:98" s="20" customFormat="1">
       <c r="A73">
-        <v>63</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="23">
-        <f>IFERROR( HLOOKUP("BE",L73:BF$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$87,$A$87-$A73+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="23">
-        <f>IFERROR( HLOOKUP("BE",L73:BF$87,$A$87-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$87,$A$87-$A73+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
-      <c r="AO73" s="1"/>
-      <c r="AP73" s="1"/>
-      <c r="AQ73" s="1"/>
-      <c r="AR73" s="1"/>
-      <c r="AS73" s="1"/>
-      <c r="AT73" s="1"/>
-      <c r="AU73" s="1"/>
-      <c r="AV73" s="1"/>
-      <c r="AW73" s="1"/>
-      <c r="AX73" s="1"/>
-      <c r="AY73" s="1"/>
-      <c r="AZ73" s="1"/>
-      <c r="BA73" s="1"/>
-      <c r="BB73" s="1"/>
-      <c r="BC73" s="1"/>
-      <c r="BD73" s="1"/>
-      <c r="BE73" s="1"/>
-      <c r="BF73" s="1"/>
-      <c r="BG73" s="1"/>
-      <c r="BH73" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="21"/>
+      <c r="AL73" s="21"/>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="21"/>
+      <c r="AP73" s="21"/>
+      <c r="AQ73" s="21"/>
+      <c r="AR73" s="21"/>
+      <c r="AS73" s="21"/>
+      <c r="AT73" s="21"/>
+      <c r="AU73" s="21"/>
+      <c r="AV73" s="21"/>
+      <c r="AW73" s="21"/>
+      <c r="AX73" s="21"/>
+      <c r="AY73" s="21"/>
+      <c r="AZ73" s="21"/>
+      <c r="BA73" s="21"/>
+      <c r="BB73" s="21"/>
+      <c r="BC73" s="21"/>
+      <c r="BD73" s="21"/>
+      <c r="BE73" s="21"/>
+      <c r="BF73" s="21"/>
+      <c r="BG73" s="21"/>
+      <c r="BH73" s="21"/>
       <c r="BI73" s="1"/>
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
@@ -9529,21 +9715,23 @@
       <c r="CS73" s="1"/>
       <c r="CT73" s="1"/>
     </row>
-    <row r="74" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:98">
       <c r="A74">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="36"/>
+      <c r="C74" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$87,$A$87-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$93,$A$93-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$93,$A$93-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$87,$A$87-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$87,$A$87-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$93,$A$93-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$93,$A$93-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I74" s="23"/>
@@ -9637,21 +9825,21 @@
       <c r="CS74" s="1"/>
       <c r="CT74" s="1"/>
     </row>
-    <row r="75" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:98">
       <c r="A75">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B75" s="22"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$87,$A$87-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$93,$A$93-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$93,$A$93-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$87,$A$87-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$87,$A$87-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$93,$A$93-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$93,$A$93-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="23"/>
@@ -9745,21 +9933,21 @@
       <c r="CS75" s="1"/>
       <c r="CT75" s="1"/>
     </row>
-    <row r="76" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:98">
       <c r="A76">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B76" s="22"/>
-      <c r="C76" s="36"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$87,$A$87-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$93,$A$93-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$93,$A$93-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$87,$A$87-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$87,$A$87-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$93,$A$93-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$93,$A$93-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I76" s="23"/>
@@ -9853,21 +10041,21 @@
       <c r="CS76" s="1"/>
       <c r="CT76" s="1"/>
     </row>
-    <row r="77" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:98">
       <c r="A77">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B77" s="22"/>
-      <c r="C77" s="36"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$87,$A$87-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$93,$A$93-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$93,$A$93-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$87,$A$87-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$87,$A$87-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$93,$A$93-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$93,$A$93-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I77" s="23"/>
@@ -9961,23 +10149,21 @@
       <c r="CS77" s="1"/>
       <c r="CT77" s="1"/>
     </row>
-    <row r="78" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:98">
       <c r="A78">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B78" s="22"/>
-      <c r="C78" s="37" t="s">
-        <v>62</v>
-      </c>
+      <c r="C78" s="34"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$87,$A$87-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$93,$A$93-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$93,$A$93-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$87,$A$87-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$87,$A$87-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$93,$A$93-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$93,$A$93-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="23"/>
@@ -10071,21 +10257,23 @@
       <c r="CS78" s="1"/>
       <c r="CT78" s="1"/>
     </row>
-    <row r="79" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:98">
       <c r="A79">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B79" s="22"/>
-      <c r="C79" s="36"/>
+      <c r="C79" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$87,$A$87-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$93,$A$93-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$93,$A$93-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$87,$A$87-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$87,$A$87-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$93,$A$93-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$93,$A$93-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I79" s="23"/>
@@ -10179,21 +10367,21 @@
       <c r="CS79" s="1"/>
       <c r="CT79" s="1"/>
     </row>
-    <row r="80" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:98">
       <c r="A80">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="36"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$87,$A$87-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$93,$A$93-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$93,$A$93-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$87,$A$87-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$87,$A$87-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$93,$A$93-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$93,$A$93-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="23"/>
@@ -10287,21 +10475,21 @@
       <c r="CS80" s="1"/>
       <c r="CT80" s="1"/>
     </row>
-    <row r="81" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:98">
       <c r="A81">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B81" s="22"/>
-      <c r="C81" s="36"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$87,$A$87-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$93,$A$93-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$93,$A$93-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$87,$A$87-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$87,$A$87-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$93,$A$93-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$93,$A$93-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I81" s="23"/>
@@ -10395,21 +10583,21 @@
       <c r="CS81" s="1"/>
       <c r="CT81" s="1"/>
     </row>
-    <row r="82" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:98">
       <c r="A82">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B82" s="22"/>
-      <c r="C82" s="28"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$87,$A$87-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$93,$A$93-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$93,$A$93-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$87,$A$87-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$87,$A$87-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$93,$A$93-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$93,$A$93-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I82" s="23"/>
@@ -10503,21 +10691,21 @@
       <c r="CS82" s="1"/>
       <c r="CT82" s="1"/>
     </row>
-    <row r="83" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:98">
       <c r="A83">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B83" s="22"/>
-      <c r="C83" s="28"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$87,$A$87-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$93,$A$93-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$93,$A$93-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$87,$A$87-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$87,$A$87-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$93,$A$93-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$93,$A$93-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I83" s="23"/>
@@ -10611,21 +10799,23 @@
       <c r="CS83" s="1"/>
       <c r="CT83" s="1"/>
     </row>
-    <row r="84" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:98">
       <c r="A84">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B84" s="22"/>
-      <c r="C84" s="28"/>
+      <c r="C84" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$87,$A$87-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$93,$A$93-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$93,$A$93-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$87,$A$87-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$87,$A$87-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$93,$A$93-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$93,$A$93-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I84" s="23"/>
@@ -10719,468 +10909,1133 @@
       <c r="CS84" s="1"/>
       <c r="CT84" s="1"/>
     </row>
-    <row r="85" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:98">
       <c r="A85">
+        <v>69</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="23">
+        <f>IFERROR( HLOOKUP("BE",L85:BF$93,$A$93-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("B",L85:BF$93,$A$93-$A85+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="23">
+        <f>IFERROR( HLOOKUP("BE",L85:BF$93,$A$93-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("E",L85:BF$93,$A$93-$A85+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="23"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="1"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="1"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="1"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="1"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="1"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="1"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="1"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="1"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="1"/>
+      <c r="CT85" s="1"/>
+    </row>
+    <row r="86" spans="1:98">
+      <c r="A86">
+        <v>70</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23">
+        <f>IFERROR( HLOOKUP("BE",L86:BF$93,$A$93-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("B",L86:BF$93,$A$93-$A86+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="23">
+        <f>IFERROR( HLOOKUP("BE",L86:BF$93,$A$93-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("E",L86:BF$93,$A$93-$A86+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="23"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="1"/>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
+      <c r="CT86" s="1"/>
+    </row>
+    <row r="87" spans="1:98">
+      <c r="A87">
+        <v>71</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="23">
+        <f>IFERROR( HLOOKUP("BE",L87:BF$93,$A$93-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("B",L87:BF$93,$A$93-$A87+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="23">
+        <f>IFERROR( HLOOKUP("BE",L87:BF$93,$A$93-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("E",L87:BF$93,$A$93-$A87+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="1"/>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="1"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="1"/>
+      <c r="BT87" s="1"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="1"/>
+      <c r="BX87" s="1"/>
+      <c r="BY87" s="1"/>
+      <c r="BZ87" s="1"/>
+      <c r="CA87" s="1"/>
+      <c r="CB87" s="1"/>
+      <c r="CC87" s="1"/>
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="1"/>
+      <c r="CF87" s="1"/>
+      <c r="CG87" s="1"/>
+      <c r="CH87" s="1"/>
+      <c r="CI87" s="1"/>
+      <c r="CJ87" s="1"/>
+      <c r="CK87" s="1"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="1"/>
+      <c r="CS87" s="1"/>
+      <c r="CT87" s="1"/>
+    </row>
+    <row r="88" spans="1:98">
+      <c r="A88">
+        <v>72</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="23">
+        <f>IFERROR( HLOOKUP("BE",L88:BF$93,$A$93-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("B",L88:BF$93,$A$93-$A88+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="23">
+        <f>IFERROR( HLOOKUP("BE",L88:BF$93,$A$93-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("E",L88:BF$93,$A$93-$A88+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="1"/>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
+      <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="1"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+      <c r="CC88" s="1"/>
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="1"/>
+      <c r="CF88" s="1"/>
+      <c r="CG88" s="1"/>
+      <c r="CH88" s="1"/>
+      <c r="CI88" s="1"/>
+      <c r="CJ88" s="1"/>
+      <c r="CK88" s="1"/>
+      <c r="CL88" s="1"/>
+      <c r="CM88" s="1"/>
+      <c r="CN88" s="1"/>
+      <c r="CO88" s="1"/>
+      <c r="CP88" s="1"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="1"/>
+      <c r="CS88" s="1"/>
+      <c r="CT88" s="1"/>
+    </row>
+    <row r="89" spans="1:98">
+      <c r="A89">
+        <v>73</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="23">
+        <f>IFERROR( HLOOKUP("BE",L89:BF$93,$A$93-$A89+1,FALSE),0)+ IFERROR( HLOOKUP("B",L89:BF$93,$A$93-$A89+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="23">
+        <f>IFERROR( HLOOKUP("BE",L89:BF$93,$A$93-$A89+1,FALSE),0)+ IFERROR( HLOOKUP("E",L89:BF$93,$A$93-$A89+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="23"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="1"/>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="1"/>
+      <c r="BR89" s="1"/>
+      <c r="BS89" s="1"/>
+      <c r="BT89" s="1"/>
+      <c r="BU89" s="1"/>
+      <c r="BV89" s="1"/>
+      <c r="BW89" s="1"/>
+      <c r="BX89" s="1"/>
+      <c r="BY89" s="1"/>
+      <c r="BZ89" s="1"/>
+      <c r="CA89" s="1"/>
+      <c r="CB89" s="1"/>
+      <c r="CC89" s="1"/>
+      <c r="CD89" s="1"/>
+      <c r="CE89" s="1"/>
+      <c r="CF89" s="1"/>
+      <c r="CG89" s="1"/>
+      <c r="CH89" s="1"/>
+      <c r="CI89" s="1"/>
+      <c r="CJ89" s="1"/>
+      <c r="CK89" s="1"/>
+      <c r="CL89" s="1"/>
+      <c r="CM89" s="1"/>
+      <c r="CN89" s="1"/>
+      <c r="CO89" s="1"/>
+      <c r="CP89" s="1"/>
+      <c r="CQ89" s="1"/>
+      <c r="CR89" s="1"/>
+      <c r="CS89" s="1"/>
+      <c r="CT89" s="1"/>
+    </row>
+    <row r="90" spans="1:98">
+      <c r="A90">
+        <v>74</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="23">
+        <f>IFERROR( HLOOKUP("BE",L90:BF$93,$A$93-$A90+1,FALSE),0)+ IFERROR( HLOOKUP("B",L90:BF$93,$A$93-$A90+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="23">
+        <f>IFERROR( HLOOKUP("BE",L90:BF$93,$A$93-$A90+1,FALSE),0)+ IFERROR( HLOOKUP("E",L90:BF$93,$A$93-$A90+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="23"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="1"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="1"/>
+      <c r="CS90" s="1"/>
+      <c r="CT90" s="1"/>
+    </row>
+    <row r="91" spans="1:98" s="20" customFormat="1">
+      <c r="A91">
         <v>75</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="29" t="s">
+      <c r="B91" s="21"/>
+      <c r="C91" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="Z85" s="21"/>
-      <c r="AA85" s="21"/>
-      <c r="AB85" s="21"/>
-      <c r="AC85" s="21"/>
-      <c r="AD85" s="21"/>
-      <c r="AE85" s="21"/>
-      <c r="AF85" s="21"/>
-      <c r="AG85" s="21"/>
-      <c r="AH85" s="21"/>
-      <c r="AI85" s="21"/>
-      <c r="AJ85" s="21"/>
-      <c r="AK85" s="21"/>
-      <c r="AL85" s="21"/>
-      <c r="AM85" s="21"/>
-      <c r="AN85" s="21"/>
-      <c r="AO85" s="21"/>
-      <c r="AP85" s="21"/>
-      <c r="AQ85" s="21"/>
-      <c r="AR85" s="21"/>
-      <c r="AS85" s="21"/>
-      <c r="AT85" s="21"/>
-      <c r="AU85" s="21"/>
-      <c r="AV85" s="21"/>
-      <c r="AW85" s="21"/>
-      <c r="AX85" s="21"/>
-      <c r="AY85" s="21"/>
-      <c r="AZ85" s="21"/>
-      <c r="BA85" s="21"/>
-      <c r="BB85" s="21"/>
-      <c r="BC85" s="21"/>
-      <c r="BD85" s="21"/>
-      <c r="BE85" s="21"/>
-      <c r="BF85" s="21"/>
-      <c r="BG85" s="21"/>
-      <c r="BH85" s="21"/>
-      <c r="BI85" s="21"/>
-      <c r="BJ85" s="21"/>
-      <c r="BK85" s="21"/>
-      <c r="BL85" s="21"/>
-      <c r="BM85" s="21"/>
-      <c r="BN85" s="21"/>
-      <c r="BO85" s="21"/>
-      <c r="BP85" s="21"/>
-      <c r="BQ85" s="21"/>
-      <c r="BR85" s="21"/>
-      <c r="BS85" s="21"/>
-      <c r="BT85" s="21"/>
-      <c r="BU85" s="21"/>
-      <c r="BV85" s="21"/>
-      <c r="BW85" s="21"/>
-      <c r="BX85" s="21"/>
-      <c r="BY85" s="21"/>
-      <c r="BZ85" s="21"/>
-      <c r="CA85" s="21"/>
-      <c r="CB85" s="21"/>
-      <c r="CC85" s="21"/>
-      <c r="CD85" s="21"/>
-      <c r="CE85" s="21"/>
-      <c r="CF85" s="21"/>
-      <c r="CG85" s="21"/>
-      <c r="CH85" s="21"/>
-      <c r="CI85" s="21"/>
-      <c r="CJ85" s="21"/>
-      <c r="CK85" s="21"/>
-      <c r="CL85" s="21"/>
-      <c r="CM85" s="21"/>
-      <c r="CN85" s="21"/>
-      <c r="CO85" s="21"/>
-      <c r="CP85" s="21"/>
-      <c r="CQ85" s="21"/>
-      <c r="CR85" s="21"/>
-      <c r="CS85" s="21"/>
-      <c r="CT85" s="21"/>
-    </row>
-    <row r="86" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="21"/>
+      <c r="AH91" s="21"/>
+      <c r="AI91" s="21"/>
+      <c r="AJ91" s="21"/>
+      <c r="AK91" s="21"/>
+      <c r="AL91" s="21"/>
+      <c r="AM91" s="21"/>
+      <c r="AN91" s="21"/>
+      <c r="AO91" s="21"/>
+      <c r="AP91" s="21"/>
+      <c r="AQ91" s="21"/>
+      <c r="AR91" s="21"/>
+      <c r="AS91" s="21"/>
+      <c r="AT91" s="21"/>
+      <c r="AU91" s="21"/>
+      <c r="AV91" s="21"/>
+      <c r="AW91" s="21"/>
+      <c r="AX91" s="21"/>
+      <c r="AY91" s="21"/>
+      <c r="AZ91" s="21"/>
+      <c r="BA91" s="21"/>
+      <c r="BB91" s="21"/>
+      <c r="BC91" s="21"/>
+      <c r="BD91" s="21"/>
+      <c r="BE91" s="21"/>
+      <c r="BF91" s="21"/>
+      <c r="BG91" s="21"/>
+      <c r="BH91" s="21"/>
+      <c r="BI91" s="21"/>
+      <c r="BJ91" s="21"/>
+      <c r="BK91" s="21"/>
+      <c r="BL91" s="21"/>
+      <c r="BM91" s="21"/>
+      <c r="BN91" s="21"/>
+      <c r="BO91" s="21"/>
+      <c r="BP91" s="21"/>
+      <c r="BQ91" s="21"/>
+      <c r="BR91" s="21"/>
+      <c r="BS91" s="21"/>
+      <c r="BT91" s="21"/>
+      <c r="BU91" s="21"/>
+      <c r="BV91" s="21"/>
+      <c r="BW91" s="21"/>
+      <c r="BX91" s="21"/>
+      <c r="BY91" s="21"/>
+      <c r="BZ91" s="21"/>
+      <c r="CA91" s="21"/>
+      <c r="CB91" s="21"/>
+      <c r="CC91" s="21"/>
+      <c r="CD91" s="21"/>
+      <c r="CE91" s="21"/>
+      <c r="CF91" s="21"/>
+      <c r="CG91" s="21"/>
+      <c r="CH91" s="21"/>
+      <c r="CI91" s="21"/>
+      <c r="CJ91" s="21"/>
+      <c r="CK91" s="21"/>
+      <c r="CL91" s="21"/>
+      <c r="CM91" s="21"/>
+      <c r="CN91" s="21"/>
+      <c r="CO91" s="21"/>
+      <c r="CP91" s="21"/>
+      <c r="CQ91" s="21"/>
+      <c r="CR91" s="21"/>
+      <c r="CS91" s="21"/>
+      <c r="CT91" s="21"/>
+    </row>
+    <row r="92" spans="1:98">
+      <c r="A92">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:98" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="93" spans="1:98" s="24" customFormat="1">
+      <c r="A93">
         <v>77</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C93" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="L87" s="25">
-        <f>L9</f>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="L93" s="25">
+        <f>L13</f>
         <v>41030</v>
       </c>
-      <c r="M87" s="25">
-        <f t="shared" ref="M87:BF87" si="44">M9</f>
+      <c r="M93" s="25">
+        <f t="shared" ref="M93:BF93" si="44">M13</f>
         <v>41031</v>
       </c>
-      <c r="N87" s="25">
+      <c r="N93" s="25">
         <f t="shared" si="44"/>
         <v>41032</v>
       </c>
-      <c r="O87" s="25">
+      <c r="O93" s="25">
         <f t="shared" si="44"/>
         <v>41033</v>
       </c>
-      <c r="P87" s="25">
+      <c r="P93" s="25">
         <f t="shared" si="44"/>
         <v>41034</v>
       </c>
-      <c r="Q87" s="25">
+      <c r="Q93" s="25">
         <f t="shared" si="44"/>
         <v>41035</v>
       </c>
-      <c r="R87" s="25">
+      <c r="R93" s="25">
         <f t="shared" si="44"/>
         <v>41036</v>
       </c>
-      <c r="S87" s="25">
+      <c r="S93" s="25">
         <f t="shared" si="44"/>
         <v>41037</v>
       </c>
-      <c r="T87" s="25">
+      <c r="T93" s="25">
         <f t="shared" si="44"/>
         <v>41038</v>
       </c>
-      <c r="U87" s="25">
+      <c r="U93" s="25">
         <f t="shared" si="44"/>
         <v>41039</v>
       </c>
-      <c r="V87" s="25">
+      <c r="V93" s="25">
         <f t="shared" si="44"/>
         <v>41040</v>
       </c>
-      <c r="W87" s="25">
+      <c r="W93" s="25">
         <f t="shared" si="44"/>
         <v>41041</v>
       </c>
-      <c r="X87" s="25">
+      <c r="X93" s="25">
         <f t="shared" si="44"/>
         <v>41042</v>
       </c>
-      <c r="Y87" s="25">
+      <c r="Y93" s="25">
         <f t="shared" si="44"/>
         <v>41043</v>
       </c>
-      <c r="Z87" s="25">
+      <c r="Z93" s="25">
         <f t="shared" si="44"/>
         <v>41044</v>
       </c>
-      <c r="AA87" s="25">
+      <c r="AA93" s="25">
         <f t="shared" si="44"/>
         <v>41045</v>
       </c>
-      <c r="AB87" s="25">
+      <c r="AB93" s="25">
         <f t="shared" si="44"/>
         <v>41046</v>
       </c>
-      <c r="AC87" s="25">
+      <c r="AC93" s="25">
         <f t="shared" si="44"/>
         <v>41047</v>
       </c>
-      <c r="AD87" s="25">
+      <c r="AD93" s="25">
         <f t="shared" si="44"/>
         <v>41048</v>
       </c>
-      <c r="AE87" s="25">
+      <c r="AE93" s="25">
         <f t="shared" si="44"/>
         <v>41049</v>
       </c>
-      <c r="AF87" s="25">
+      <c r="AF93" s="25">
         <f t="shared" si="44"/>
         <v>41050</v>
       </c>
-      <c r="AG87" s="25">
+      <c r="AG93" s="25">
         <f t="shared" si="44"/>
         <v>41051</v>
       </c>
-      <c r="AH87" s="25">
+      <c r="AH93" s="25">
         <f t="shared" si="44"/>
         <v>41052</v>
       </c>
-      <c r="AI87" s="25">
+      <c r="AI93" s="25">
         <f t="shared" si="44"/>
         <v>41053</v>
       </c>
-      <c r="AJ87" s="25">
+      <c r="AJ93" s="25">
         <f t="shared" si="44"/>
         <v>41054</v>
       </c>
-      <c r="AK87" s="25">
+      <c r="AK93" s="25">
         <f t="shared" si="44"/>
         <v>41055</v>
       </c>
-      <c r="AL87" s="25">
+      <c r="AL93" s="25">
         <f t="shared" si="44"/>
         <v>41056</v>
       </c>
-      <c r="AM87" s="25">
+      <c r="AM93" s="25">
         <f t="shared" si="44"/>
         <v>41057</v>
       </c>
-      <c r="AN87" s="25">
+      <c r="AN93" s="25">
         <f t="shared" si="44"/>
         <v>41058</v>
       </c>
-      <c r="AO87" s="25">
+      <c r="AO93" s="25">
         <f t="shared" si="44"/>
         <v>41059</v>
       </c>
-      <c r="AP87" s="25">
+      <c r="AP93" s="25">
         <f t="shared" si="44"/>
         <v>41060</v>
       </c>
-      <c r="AQ87" s="25">
+      <c r="AQ93" s="25">
         <f t="shared" si="44"/>
         <v>41061</v>
       </c>
-      <c r="AR87" s="25">
+      <c r="AR93" s="25">
         <f t="shared" si="44"/>
         <v>41062</v>
       </c>
-      <c r="AS87" s="25">
+      <c r="AS93" s="25">
         <f t="shared" si="44"/>
         <v>41063</v>
       </c>
-      <c r="AT87" s="25">
+      <c r="AT93" s="25">
         <f t="shared" si="44"/>
         <v>41064</v>
       </c>
-      <c r="AU87" s="25">
+      <c r="AU93" s="25">
         <f t="shared" si="44"/>
         <v>41065</v>
       </c>
-      <c r="AV87" s="25">
+      <c r="AV93" s="25">
         <f t="shared" si="44"/>
         <v>41066</v>
       </c>
-      <c r="AW87" s="25">
+      <c r="AW93" s="25">
         <f t="shared" si="44"/>
         <v>41067</v>
       </c>
-      <c r="AX87" s="25">
+      <c r="AX93" s="25">
         <f t="shared" si="44"/>
         <v>41068</v>
       </c>
-      <c r="AY87" s="25">
+      <c r="AY93" s="25">
         <f t="shared" si="44"/>
         <v>41069</v>
       </c>
-      <c r="AZ87" s="25">
+      <c r="AZ93" s="25">
         <f t="shared" si="44"/>
         <v>41070</v>
       </c>
-      <c r="BA87" s="25">
+      <c r="BA93" s="25">
         <f t="shared" si="44"/>
         <v>41071</v>
       </c>
-      <c r="BB87" s="25">
+      <c r="BB93" s="25">
         <f t="shared" si="44"/>
         <v>41072</v>
       </c>
-      <c r="BC87" s="25">
+      <c r="BC93" s="25">
         <f t="shared" si="44"/>
         <v>41073</v>
       </c>
-      <c r="BD87" s="25">
+      <c r="BD93" s="25">
         <f t="shared" si="44"/>
         <v>41074</v>
       </c>
-      <c r="BE87" s="25">
+      <c r="BE93" s="25">
         <f t="shared" si="44"/>
         <v>41075</v>
       </c>
-      <c r="BF87" s="25">
+      <c r="BF93" s="25">
         <f t="shared" si="44"/>
         <v>41076</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:BG87"/>
-  <conditionalFormatting sqref="L86:AY86 L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
-    <cfRule type="cellIs" dxfId="13" priority="47" operator="equal">
+  <autoFilter ref="A14:BG93">
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <conditionalFormatting sqref="L92:AY92 L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L24:BF42 L44:BF55">
+    <cfRule type="cellIs" dxfId="5" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:BF51 L53:BF84 L20:BF36 L11:BF14 L16:BF18 BI16:CT84 L38:BF49">
-    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
+  <conditionalFormatting sqref="L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L24:BF42 L44:BF55">
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51 I53:I84 I28:I36 I16:I18 I11:I14 I20:I26 I38:I49">
-    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
-      <formula>$H$5</formula>
+  <conditionalFormatting sqref="I57 I59:I90 I32:I42 I20:I22 I15:I18 I44:I46 I48:I49 I24:I30 I51:I55">
+    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+      <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I14 I16:I18 I28:I36 I51 I53:I84 I20:I26 I39:I49">
-    <cfRule type="expression" dxfId="8" priority="31">
-      <formula>AND(I11&lt;&gt;$H$5,$H11&lt;TODAY())</formula>
+  <conditionalFormatting sqref="I15:I18 I20:I22 I32:I42 I57 I59:I90 I48:I49 I44:I46 I24:I30 I51:I55">
+    <cfRule type="expression" dxfId="0" priority="90">
+      <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND(I38&lt;&gt;$H$5,$H38&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I51 I11:I18 I61:I66 I53:I59 I68:I84 I33:I36 I28:I31 I20:I26 I38:I49">
-      <formula1>$H$2:$H$5</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57 I24:I30 I15:I22 I32:I35 I37:I42 I74:I90 I59:I65 I67:I72 I44:I55">
+      <formula1>$G$2:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D91:E91">
       <formula1>thanh_vien</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:E90">
+      <formula1>members</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="33" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="17" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="18" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:23" ht="15.75">
+      <c r="A1" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="H1" t="s">
-        <v>129</v>
-      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="I1" t="s">
         <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K1" t="s">
         <v>133</v>
       </c>
       <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="60">
+      <c r="A2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="J2" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="K2" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="M2" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="S2" s="42" t="s">
+      <c r="N2" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="T2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="U2" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="V2" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="W2" s="48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+    <row r="3" spans="1:23">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11189,48 +12044,53 @@
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="S3" s="42">
+      <c r="R3" s="1"/>
+      <c r="T3" s="40">
         <v>1</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+    <row r="4" spans="1:23">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -11239,39 +12099,46 @@
       <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="S4" s="42">
+      <c r="R4" s="1"/>
+      <c r="T4" s="40">
         <v>2</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="V4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+    <row r="5" spans="1:23">
+      <c r="A5" s="39">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -11280,47 +12147,54 @@
       <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41" t="s">
+      <c r="I5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="J5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="S5" s="42">
+      <c r="R5" s="1"/>
+      <c r="T5" s="40">
         <v>3</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="U5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="V5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+    <row r="6" spans="1:23">
+      <c r="A6" s="39">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11329,43 +12203,48 @@
       <c r="C6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="H6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="S6" s="42">
+      <c r="R6" s="1"/>
+      <c r="T6" s="40">
         <v>4</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="U6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="V6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+    <row r="7" spans="1:23">
+      <c r="A7" s="39">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11374,43 +12253,44 @@
       <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="S7" s="42">
+      <c r="R7" s="1"/>
+      <c r="T7" s="40">
         <v>5</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="U7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="V7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+    <row r="8" spans="1:23">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -11419,41 +12299,50 @@
       <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="S8" s="42">
+      <c r="R8" s="1"/>
+      <c r="T8" s="40">
         <v>6</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="U8" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="V8" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+    <row r="9" spans="1:23">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -11462,33 +12351,40 @@
       <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="H9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="I9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -11497,134 +12393,185 @@
       <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="J10" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="H11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="39"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="H12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="39"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S14" s="43"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="T14" s="41"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U14:V14"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:G11">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+  <conditionalFormatting sqref="E3:H11">
+    <cfRule type="containsBlanks" dxfId="36" priority="14">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:K11">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="J3:L11">
+    <cfRule type="containsBlanks" dxfId="35" priority="13">
+      <formula>LEN(TRIM(J3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I11">
+    <cfRule type="containsBlanks" dxfId="34" priority="12">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(H3))=0</formula>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="containsBlanks" dxfId="33" priority="11">
+      <formula>LEN(TRIM(M5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(L5))=0</formula>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="containsBlanks" dxfId="32" priority="10">
+      <formula>LEN(TRIM(M7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(L7))=0</formula>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="containsBlanks" dxfId="31" priority="9">
+      <formula>LEN(TRIM(M6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(L6))=0</formula>
+  <conditionalFormatting sqref="E12:M12">
+    <cfRule type="containsBlanks" dxfId="30" priority="8">
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:L12">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(E12))=0</formula>
+  <conditionalFormatting sqref="N3:N12">
+    <cfRule type="containsBlanks" dxfId="29" priority="7">
+      <formula>LEN(TRIM(N3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="containsBlanks" dxfId="28" priority="5">
+      <formula>LEN(TRIM(O5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="containsBlanks" dxfId="27" priority="4">
+      <formula>LEN(TRIM(O6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="containsBlanks" dxfId="26" priority="3">
+      <formula>LEN(TRIM(O7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="containsBlanks" dxfId="25" priority="2">
+      <formula>LEN(TRIM(O11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="containsBlanks" dxfId="24" priority="1">
+      <formula>LEN(TRIM(O12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11639,15 +12586,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G6:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="7:8">
+      <c r="G6" t="str">
+        <f>IF(ISNUMBER(FIND("CD",D6)),"x","")</f>
+        <v/>
+      </c>
+      <c r="H6" s="52"/>
+    </row>
+    <row r="7" spans="7:8">
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="7:8">
+      <c r="G8" t="str">
+        <f t="shared" ref="G8:G10" si="0">IF(ISNUMBER(FIND("CD",D8)),"x","")</f>
+        <v/>
+      </c>
+      <c r="H8" s="52"/>
+    </row>
+    <row r="9" spans="7:8">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="52"/>
+    </row>
+    <row r="10" spans="7:8">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="52"/>
+    </row>
+    <row r="12" spans="7:8">
+      <c r="G12" s="37"/>
+      <c r="H12" s="53"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -15,10 +15,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$14:$BG$93</definedName>
-    <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$U$4:$U$12</definedName>
+    <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$V$4:$V$12</definedName>
     <definedName name="members">'Thành viên - Vị trí'!$C$3:$C$13</definedName>
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
-    <definedName name="VI_TRI">'Thành viên - Vị trí'!$U$3:$U$10</definedName>
+    <definedName name="VI_TRI">'Thành viên - Vị trí'!$V$3:$V$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -89,7 +89,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U4" authorId="0">
+    <comment ref="V4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0">
+    <comment ref="V5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="V6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U7" authorId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="168">
   <si>
     <t>GVCM</t>
   </si>
@@ -361,12 +361,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Số form</t>
-  </si>
-  <si>
-    <t>Chuẩn bị</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>2. Test Nghiệp vụ</t>
   </si>
   <si>
-    <t>3. Viết tài liệu hướng dẫn</t>
-  </si>
-  <si>
     <t>Chỉnh sửa lại CDSL TRM.v2.0</t>
   </si>
   <si>
@@ -649,9 +640,6 @@
     <t>Theo dõi các quá trình thanh toán của giảng viên (ELC + Topica)</t>
   </si>
   <si>
-    <t>Thêm dữ liệu công việc giảng viên mới vào CSDL</t>
-  </si>
-  <si>
     <t>Người phụ trách</t>
   </si>
   <si>
@@ -661,24 +649,12 @@
     <t>Đổ toàn bộ account giảng viên vào bảng NGUOI_SU_SUNG</t>
   </si>
   <si>
-    <t>Assign công việc giảng viên</t>
-  </si>
-  <si>
     <t>Gen ra thanh toán từ công việc giảng viên</t>
   </si>
   <si>
     <t>Đã đọc tài liệu hướng dẫn SVN</t>
   </si>
   <si>
-    <t>Quản lý danh mục các hồ sơ</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin hồ sơ theo giảng viên</t>
-  </si>
-  <si>
-    <t>Theo dõi trạng thái hồ sơ giảng viên</t>
-  </si>
-  <si>
     <t>Viết được 1 Procedure sử dụng Cursor</t>
   </si>
   <si>
@@ -695,6 +671,63 @@
   </si>
   <si>
     <t>Tự động thêm Account vào bảng người dùng khi thêm 1 giảng viên mới</t>
+  </si>
+  <si>
+    <t>Danh mục các hồ sơ (thêm, cập nhật, xóa, search)</t>
+  </si>
+  <si>
+    <t>Hồ sơ detail</t>
+  </si>
+  <si>
+    <t>Danh mục sự kiện</t>
+  </si>
+  <si>
+    <t>Assign sự kiện cho giảng viên</t>
+  </si>
+  <si>
+    <t>Assign công việc cho giảng viên</t>
+  </si>
+  <si>
+    <t>3. Báo cáo</t>
+  </si>
+  <si>
+    <t>4. Viết tài liệu hướng dẫn</t>
+  </si>
+  <si>
+    <t>Buổi 5</t>
+  </si>
+  <si>
+    <t>CD, RP, TW, IE</t>
+  </si>
+  <si>
+    <t>Lần họp lần sau, sau ngày 26/05/2012: Đỏ 1 ô, phạt 5K</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>F606</t>
+  </si>
+  <si>
+    <t>F607</t>
+  </si>
+  <si>
+    <t>Số form / Folder</t>
+  </si>
+  <si>
+    <t>F608</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F303</t>
   </si>
 </sst>
 </file>
@@ -920,7 +953,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1036,6 +1069,7 @@
     <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,216 +1079,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1385,6 +1217,65 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1779,7 +1670,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1796,7 +1687,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1811,7 +1702,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1824,11 +1715,11 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1839,11 +1730,11 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1868,7 +1759,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1945,8 +1836,12 @@
   </sheetPr>
   <dimension ref="A1:CT93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1972,10 +1867,10 @@
         <v>33</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>34</v>
@@ -1985,7 +1880,7 @@
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="40">
         <f>SUMIF($E$14:$E$91,C2,$F$14:$F$91)</f>
@@ -2003,7 +1898,7 @@
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="40">
         <f>SUMIF($E$14:$E$91,C3,$F$14:$F$91)</f>
@@ -2019,7 +1914,7 @@
     <row r="4" spans="1:98">
       <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" s="40">
         <f>SUMIF($E$14:$E$91,C4,$F$14:$F$91)</f>
@@ -2028,7 +1923,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -2036,7 +1931,7 @@
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="40">
         <f>SUMIF($E$14:$E$91,C5,$F$14:$F$91)</f>
@@ -2052,7 +1947,7 @@
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="40">
         <f t="shared" ref="D6:D11" si="0">SUMIF($E$14:$E$91,C6,$F$14:$F$91)</f>
@@ -2066,7 +1961,7 @@
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D7" s="40">
         <f t="shared" si="0"/>
@@ -2080,7 +1975,7 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8" s="40">
         <f t="shared" si="0"/>
@@ -2094,7 +1989,7 @@
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" s="40">
         <f t="shared" si="0"/>
@@ -2108,7 +2003,7 @@
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="40">
         <f t="shared" si="0"/>
@@ -2122,7 +2017,7 @@
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D11" s="40">
         <f t="shared" si="0"/>
@@ -2494,10 +2389,10 @@
         <v>39</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>40</v>
@@ -2515,7 +2410,7 @@
         <v>44</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="L13" s="19">
         <v>41030</v>
@@ -2867,9 +2762,7 @@
     </row>
     <row r="14" spans="1:98" s="20" customFormat="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="28" t="s">
-        <v>46</v>
-      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -2877,7 +2770,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="56">
         <f>COUNTIF(I15:I90,"Đã xong")/COUNTA(I15:I90) * 100%</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2977,20 +2870,20 @@
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23">
         <f>IFERROR( HLOOKUP("BE",L15:BF$93,$A$93-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",L15:BF$93,$A$93-$A15+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41030</v>
       </c>
       <c r="H15" s="23">
         <f>IFERROR( HLOOKUP("BE",L15:BF$93,$A$93-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",L15:BF$93,$A$93-$A15+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41032</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>37</v>
@@ -2998,13 +2891,13 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3099,38 +2992,38 @@
         <v>2</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23">
         <f>IFERROR( HLOOKUP("BE",L16:BF$93,$A$93-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$93,$A$93-$A16+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41031</v>
       </c>
       <c r="H16" s="23">
         <f>IFERROR( HLOOKUP("BE",L16:BF$93,$A$93-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$93,$A$93-$A16+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41034</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3223,20 +3116,20 @@
         <v>3</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23">
         <f>IFERROR( HLOOKUP("BE",L17:BF$93,$A$93-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$93,$A$93-$A17+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41031</v>
       </c>
       <c r="H17" s="23">
         <f>IFERROR( HLOOKUP("BE",L17:BF$93,$A$93-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$93,$A$93-$A17+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41032</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>37</v>
@@ -3245,10 +3138,10 @@
       <c r="K17" s="22"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3343,20 +3236,20 @@
         <v>4</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
         <f>IFERROR( HLOOKUP("BE",L18:BF$93,$A$93-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$93,$A$93-$A18+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41030</v>
       </c>
       <c r="H18" s="23">
         <f>IFERROR( HLOOKUP("BE",L18:BF$93,$A$93-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$93,$A$93-$A18+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41038</v>
       </c>
       <c r="I18" s="45" t="s">
         <v>36</v>
@@ -3364,31 +3257,31 @@
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -3475,14 +3368,10 @@
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>86</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3585,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -3598,7 +3487,9 @@
         <f>IFERROR( HLOOKUP("BE",L20:BF$93,$A$93-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$93,$A$93-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="1"/>
@@ -3697,18 +3588,18 @@
         <v>6</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23">
         <f>IFERROR( HLOOKUP("BE",L21:BF$93,$A$93-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$93,$A$93-$A21+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41035</v>
       </c>
       <c r="H21" s="23">
         <f>IFERROR( HLOOKUP("BE",L21:BF$93,$A$93-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$93,$A$93-$A21+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41037</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>37</v>
@@ -3721,13 +3612,13 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -3817,7 +3708,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -3830,7 +3721,9 @@
         <f>IFERROR( HLOOKUP("BE",L22:BF$93,$A$93-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$93,$A$93-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="1"/>
@@ -3927,7 +3820,7 @@
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -4032,27 +3925,33 @@
       <c r="B24" s="22">
         <v>8</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="22"/>
+      <c r="C24" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="E24" s="22" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23">
         <f>IFERROR( HLOOKUP("BE",L24:BF$93,$A$93-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$93,$A$93-$A24+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41054</v>
       </c>
       <c r="H24" s="23">
         <f>IFERROR( HLOOKUP("BE",L24:BF$93,$A$93-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$93,$A$93-$A24+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41057</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -4074,25 +3973,21 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI24" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
       <c r="AJ24" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM24" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
@@ -4160,29 +4055,33 @@
       <c r="B25" s="22">
         <v>9</v>
       </c>
-      <c r="C25" s="51" t="s">
-        <v>145</v>
+      <c r="C25" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="23">
         <f>IFERROR( HLOOKUP("BE",L25:BF$93,$A$93-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$93,$A$93-$A25+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41055</v>
       </c>
       <c r="H25" s="23">
         <f>IFERROR( HLOOKUP("BE",L25:BF$93,$A$93-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$93,$A$93-$A25+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41058</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="J25" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -4204,28 +4103,22 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
       <c r="AK25" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN25" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
@@ -4293,28 +4186,32 @@
         <v>10</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="23">
         <f>IFERROR( HLOOKUP("BE",L26:BF$93,$A$93-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$93,$A$93-$A26+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41055</v>
       </c>
       <c r="H26" s="23">
         <f>IFERROR( HLOOKUP("BE",L26:BF$93,$A$93-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$93,$A$93-$A26+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41059</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="J26" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -4336,31 +4233,25 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
       <c r="AK26" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO26" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
@@ -4426,9 +4317,15 @@
       <c r="B27" s="22">
         <v>11</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F27" s="22"/>
       <c r="G27" s="23">
         <f>IFERROR( HLOOKUP("BE",L27:BF$93,$A$93-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",L27:BF$93,$A$93-$A27+1,FALSE),0)</f>
@@ -4438,9 +4335,15 @@
         <f>IFERROR( HLOOKUP("BE",L27:BF$93,$A$93-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",L27:BF$93,$A$93-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="I27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -4533,9 +4436,7 @@
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="22">
-        <v>12</v>
-      </c>
+      <c r="B28" s="22"/>
       <c r="C28" s="27"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -4861,7 +4762,7 @@
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -4965,26 +4866,30 @@
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="23">
         <f>IFERROR( HLOOKUP("BE",L32:BF$93,$A$93-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",L32:BF$93,$A$93-$A32+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41055</v>
       </c>
       <c r="H32" s="23">
         <f>IFERROR( HLOOKUP("BE",L32:BF$93,$A$93-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",L32:BF$93,$A$93-$A32+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41059</v>
       </c>
       <c r="I32" s="23"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+      <c r="J32" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -4997,21 +4902,11 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -5020,11 +4915,21 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
+      <c r="AK32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -5089,26 +4994,30 @@
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="23">
         <f>IFERROR( HLOOKUP("BE",L33:BF$93,$A$93-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$93,$A$93-$A33+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41055</v>
       </c>
       <c r="H33" s="23">
         <f>IFERROR( HLOOKUP("BE",L33:BF$93,$A$93-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$93,$A$93-$A33+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41059</v>
       </c>
       <c r="I33" s="23"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="J33" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -5123,36 +5032,32 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF33" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
+      <c r="AK33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -5216,23 +5121,17 @@
         <v>20</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>87</v>
-      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="23">
         <f>IFERROR( HLOOKUP("BE",L34:BF$93,$A$93-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$93,$A$93-$A34+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41043</v>
       </c>
       <c r="H34" s="23">
         <f>IFERROR( HLOOKUP("BE",L34:BF$93,$A$93-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$93,$A$93-$A34+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41049</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="22"/>
@@ -5251,25 +5150,25 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
@@ -5453,7 +5352,7 @@
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -5557,22 +5456,22 @@
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23">
         <f>IFERROR( HLOOKUP("BE",L37:BF$93,$A$93-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",L37:BF$93,$A$93-$A37+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41036</v>
       </c>
       <c r="H37" s="23">
         <f>IFERROR( HLOOKUP("BE",L37:BF$93,$A$93-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",L37:BF$93,$A$93-$A37+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41040</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>37</v>
@@ -5586,19 +5485,19 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -5683,22 +5582,22 @@
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23">
         <f>IFERROR( HLOOKUP("BE",L38:BF$93,$A$93-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$93,$A$93-$A38+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41035</v>
       </c>
       <c r="H38" s="23">
         <f>IFERROR( HLOOKUP("BE",L38:BF$93,$A$93-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$93,$A$93-$A38+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41041</v>
       </c>
       <c r="I38" s="23" t="s">
         <v>37</v>
@@ -5711,25 +5610,25 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -5813,22 +5712,22 @@
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="23">
         <f>IFERROR( HLOOKUP("BE",L39:BF$93,$A$93-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$93,$A$93-$A39+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41034</v>
       </c>
       <c r="H39" s="23">
         <f>IFERROR( HLOOKUP("BE",L39:BF$93,$A$93-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$93,$A$93-$A39+1,FALSE),0)</f>
-        <v>0</v>
+        <v>41040</v>
       </c>
       <c r="I39" s="23" t="s">
         <v>37</v>
@@ -5840,25 +5739,25 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -5938,16 +5837,25 @@
       <c r="CT39" s="1"/>
     </row>
     <row r="40" spans="1:98">
+      <c r="A40">
+        <v>26</v>
+      </c>
       <c r="B40" s="22"/>
       <c r="C40" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+        <v>147</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="I40" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="1"/>
@@ -6039,9 +5947,12 @@
       <c r="CT40" s="1"/>
     </row>
     <row r="41" spans="1:98" ht="30">
+      <c r="A41">
+        <v>27</v>
+      </c>
       <c r="B41" s="22"/>
       <c r="C41" s="27" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -6141,17 +6052,17 @@
     </row>
     <row r="42" spans="1:98" ht="30">
       <c r="A42">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="23">
@@ -6179,19 +6090,19 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
@@ -6267,11 +6178,11 @@
     </row>
     <row r="43" spans="1:98" s="20" customFormat="1">
       <c r="A43">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
@@ -6371,11 +6282,11 @@
     </row>
     <row r="44" spans="1:98">
       <c r="A44">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -6475,17 +6386,17 @@
     </row>
     <row r="45" spans="1:98" ht="30">
       <c r="A45">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="23">
@@ -6516,22 +6427,22 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
@@ -6601,17 +6512,17 @@
     </row>
     <row r="46" spans="1:98">
       <c r="A46">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="23">
@@ -6644,22 +6555,22 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AI46" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -6727,11 +6638,11 @@
     </row>
     <row r="47" spans="1:98">
       <c r="A47">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
@@ -6831,17 +6742,17 @@
     </row>
     <row r="48" spans="1:98">
       <c r="A48">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="23">
@@ -6872,22 +6783,22 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
@@ -6957,17 +6868,17 @@
     </row>
     <row r="49" spans="1:98">
       <c r="A49">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="23">
@@ -7000,22 +6911,22 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
@@ -7083,11 +6994,11 @@
     </row>
     <row r="50" spans="1:98">
       <c r="A50">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -7187,17 +7098,17 @@
     </row>
     <row r="51" spans="1:98" ht="30">
       <c r="A51">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="23">
@@ -7209,24 +7120,24 @@
         <v>41034</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -7313,17 +7224,17 @@
     </row>
     <row r="52" spans="1:98" ht="30">
       <c r="A52">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="23">
@@ -7335,24 +7246,24 @@
         <v>41034</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -7439,17 +7350,17 @@
     </row>
     <row r="53" spans="1:98" ht="30">
       <c r="A53">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="23">
@@ -7461,24 +7372,24 @@
         <v>41034</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -7565,7 +7476,7 @@
     </row>
     <row r="54" spans="1:98">
       <c r="A54">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="27"/>
@@ -7673,7 +7584,7 @@
     </row>
     <row r="55" spans="1:98">
       <c r="A55">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="27"/>
@@ -7781,11 +7692,11 @@
     </row>
     <row r="56" spans="1:98" s="20" customFormat="1">
       <c r="A56">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
@@ -7885,17 +7796,17 @@
     </row>
     <row r="57" spans="1:98">
       <c r="A57">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="23">
@@ -7906,7 +7817,9 @@
         <f>IFERROR( HLOOKUP("BE",L57:BF$93,$A$93-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$93,$A$93-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="23"/>
+      <c r="I57" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="1"/>
@@ -7999,11 +7912,11 @@
     </row>
     <row r="58" spans="1:98" s="20" customFormat="1">
       <c r="A58">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
@@ -8103,7 +8016,7 @@
     </row>
     <row r="59" spans="1:98">
       <c r="A59">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="34"/>
@@ -8211,7 +8124,7 @@
     </row>
     <row r="60" spans="1:98">
       <c r="A60">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="27"/>
@@ -8319,7 +8232,7 @@
     </row>
     <row r="61" spans="1:98">
       <c r="A61">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="27"/>
@@ -8427,7 +8340,7 @@
     </row>
     <row r="62" spans="1:98">
       <c r="A62">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="27"/>
@@ -8444,7 +8357,7 @@
       </c>
       <c r="I62" s="23"/>
       <c r="J62" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
@@ -8537,7 +8450,7 @@
     </row>
     <row r="63" spans="1:98">
       <c r="A63">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="27"/>
@@ -8645,7 +8558,7 @@
     </row>
     <row r="64" spans="1:98">
       <c r="A64">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="27"/>
@@ -8753,7 +8666,7 @@
     </row>
     <row r="65" spans="1:98">
       <c r="A65">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="27"/>
@@ -8861,11 +8774,11 @@
     </row>
     <row r="66" spans="1:98" s="20" customFormat="1">
       <c r="A66">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
@@ -8965,10 +8878,10 @@
     </row>
     <row r="67" spans="1:98">
       <c r="A67">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B67" s="22"/>
-      <c r="C67" s="27"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -9073,7 +8986,7 @@
     </row>
     <row r="68" spans="1:98">
       <c r="A68">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="27"/>
@@ -9181,10 +9094,10 @@
     </row>
     <row r="69" spans="1:98">
       <c r="A69">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B69" s="22"/>
-      <c r="C69" s="34"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
@@ -9289,10 +9202,10 @@
     </row>
     <row r="70" spans="1:98">
       <c r="A70">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B70" s="22"/>
-      <c r="C70" s="34"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -9397,7 +9310,7 @@
     </row>
     <row r="71" spans="1:98">
       <c r="A71">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="34"/>
@@ -9505,7 +9418,7 @@
     </row>
     <row r="72" spans="1:98">
       <c r="A72">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="27"/>
@@ -9613,11 +9526,11 @@
     </row>
     <row r="73" spans="1:98" s="20" customFormat="1">
       <c r="A73">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -9717,11 +9630,11 @@
     </row>
     <row r="74" spans="1:98">
       <c r="A74">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -9827,10 +9740,12 @@
     </row>
     <row r="75" spans="1:98">
       <c r="A75">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B75" s="22"/>
-      <c r="C75" s="34"/>
+      <c r="C75" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -9935,7 +9850,7 @@
     </row>
     <row r="76" spans="1:98">
       <c r="A76">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="34"/>
@@ -10043,7 +9958,7 @@
     </row>
     <row r="77" spans="1:98">
       <c r="A77">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="34"/>
@@ -10151,7 +10066,7 @@
     </row>
     <row r="78" spans="1:98">
       <c r="A78">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="34"/>
@@ -10259,11 +10174,11 @@
     </row>
     <row r="79" spans="1:98">
       <c r="A79">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -10369,10 +10284,12 @@
     </row>
     <row r="80" spans="1:98">
       <c r="A80">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="34"/>
+      <c r="C80" s="27" t="s">
+        <v>153</v>
+      </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -10477,10 +10394,12 @@
     </row>
     <row r="81" spans="1:98">
       <c r="A81">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B81" s="22"/>
-      <c r="C81" s="34"/>
+      <c r="C81" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
@@ -10585,10 +10504,12 @@
     </row>
     <row r="82" spans="1:98">
       <c r="A82">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B82" s="22"/>
-      <c r="C82" s="34"/>
+      <c r="C82" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
@@ -10693,10 +10614,12 @@
     </row>
     <row r="83" spans="1:98">
       <c r="A83">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B83" s="22"/>
-      <c r="C83" s="34"/>
+      <c r="C83" s="35" t="s">
+        <v>154</v>
+      </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
@@ -10801,12 +10724,10 @@
     </row>
     <row r="84" spans="1:98">
       <c r="A84">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B84" s="22"/>
-      <c r="C84" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="C84" s="35"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
@@ -10911,7 +10832,7 @@
     </row>
     <row r="85" spans="1:98">
       <c r="A85">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="34"/>
@@ -11019,7 +10940,7 @@
     </row>
     <row r="86" spans="1:98">
       <c r="A86">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="34"/>
@@ -11127,10 +11048,12 @@
     </row>
     <row r="87" spans="1:98">
       <c r="A87">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B87" s="22"/>
-      <c r="C87" s="34"/>
+      <c r="C87" s="35" t="s">
+        <v>155</v>
+      </c>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
@@ -11235,7 +11158,7 @@
     </row>
     <row r="88" spans="1:98">
       <c r="A88">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B88" s="22"/>
       <c r="C88" s="27"/>
@@ -11343,7 +11266,7 @@
     </row>
     <row r="89" spans="1:98">
       <c r="A89">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="27"/>
@@ -11451,7 +11374,7 @@
     </row>
     <row r="90" spans="1:98">
       <c r="A90">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="27"/>
@@ -11559,11 +11482,11 @@
     </row>
     <row r="91" spans="1:98" s="20" customFormat="1">
       <c r="A91">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
@@ -11663,15 +11586,15 @@
     </row>
     <row r="92" spans="1:98">
       <c r="A92">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:98" s="24" customFormat="1">
       <c r="A93">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
@@ -11870,34 +11793,34 @@
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
   </autoFilter>
-  <conditionalFormatting sqref="L92:AY92 L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L24:BF42 L44:BF55">
-    <cfRule type="cellIs" dxfId="5" priority="47" operator="equal">
+  <conditionalFormatting sqref="L92:AY92 L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L44:BF55 L24:BF42">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L24:BF42 L44:BF55">
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+  <conditionalFormatting sqref="L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L44:BF55 L24:BF42">
+    <cfRule type="cellIs" dxfId="19" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57 I59:I90 I32:I42 I20:I22 I15:I18 I44:I46 I48:I49 I24:I30 I51:I55">
-    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="81" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I18 I20:I22 I32:I42 I57 I59:I90 I48:I49 I44:I46 I24:I30 I51:I55">
-    <cfRule type="expression" dxfId="0" priority="90">
+    <cfRule type="expression" dxfId="17" priority="90">
       <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57 I24:I30 I15:I22 I32:I35 I37:I42 I74:I90 I59:I65 I67:I72 I44:I55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57 I44:I55 I67:I72 I59:I65 I74:I90 I37:I42 I32:I35 I15:I22 I24:I30">
       <formula1>$G$2:$G$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D91:E91">
@@ -11915,13 +11838,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11930,122 +11853,125 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="18" width="10.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="19" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75">
-      <c r="A1" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="I1" t="s">
-        <v>129</v>
-      </c>
+    <row r="1" spans="1:24" ht="15.75">
+      <c r="A1" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="M1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="60">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="60">
       <c r="A2" s="50" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>132</v>
-      </c>
       <c r="M2" s="49" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="49"/>
+        <v>142</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>143</v>
+      </c>
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
-      <c r="T2" s="40" t="s">
+      <c r="S2" s="49"/>
+      <c r="U2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="40" t="s">
-        <v>75</v>
-      </c>
       <c r="V2" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>72</v>
+      </c>
+      <c r="W2" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>10</v>
@@ -12071,36 +11997,39 @@
       <c r="L3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="1"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="T3" s="40">
+      <c r="S3" s="1"/>
+      <c r="U3" s="40">
         <v>1</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="V3" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>81</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="39">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>10</v>
@@ -12110,45 +12039,46 @@
       <c r="H4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="39"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="39"/>
+      <c r="O4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="T4" s="40">
+      <c r="S4" s="1"/>
+      <c r="U4" s="40">
         <v>2</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="V4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>75</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="39">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>10</v>
@@ -12171,40 +12101,43 @@
       <c r="K5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39" t="s">
+      <c r="L5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="O5" s="39"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="T5" s="40">
+      <c r="S5" s="1"/>
+      <c r="U5" s="40">
         <v>3</v>
       </c>
-      <c r="U5" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="V5" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="W5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>76</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="X5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="39">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>10</v>
@@ -12218,43 +12151,48 @@
       <c r="H6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="39"/>
+      <c r="K6" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="T6" s="40">
+      <c r="S6" s="1"/>
+      <c r="U6" s="40">
         <v>4</v>
       </c>
-      <c r="U6" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="V6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="W6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>77</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="39">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>10</v>
@@ -12264,43 +12202,48 @@
         <v>10</v>
       </c>
       <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="T7" s="40">
+      <c r="S7" s="1"/>
+      <c r="U7" s="40">
         <v>5</v>
       </c>
-      <c r="U7" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="V7" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="W7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>78</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="39">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>10</v>
@@ -12318,41 +12261,44 @@
       <c r="J8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="39"/>
+      <c r="O8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="T8" s="40">
+      <c r="S8" s="1"/>
+      <c r="U8" s="40">
         <v>6</v>
       </c>
-      <c r="U8" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="V8" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="W8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>115</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="39">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>10</v>
@@ -12375,26 +12321,29 @@
       <c r="K9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="M9" s="39"/>
       <c r="N9" s="39"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="39">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
@@ -12404,35 +12353,36 @@
       <c r="H10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>10</v>
-      </c>
+      <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="39"/>
+      <c r="O10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="46">
         <v>10</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39" t="s">
@@ -12444,33 +12394,36 @@
       <c r="H11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39" t="s">
+      <c r="I11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="39"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="46">
         <v>11</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -12489,89 +12442,95 @@
       <c r="K12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="39"/>
+      <c r="L12" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="M12" s="39"/>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="39"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="T14" s="41"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="M14" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="U14" s="41"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="V14:W14"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:H11">
-    <cfRule type="containsBlanks" dxfId="36" priority="14">
+  <conditionalFormatting sqref="E3:I11">
+    <cfRule type="containsBlanks" dxfId="16" priority="14">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L11">
-    <cfRule type="containsBlanks" dxfId="35" priority="13">
+  <conditionalFormatting sqref="K3:M11">
+    <cfRule type="containsBlanks" dxfId="15" priority="13">
+      <formula>LEN(TRIM(K3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J11">
+    <cfRule type="containsBlanks" dxfId="14" priority="12">
       <formula>LEN(TRIM(J3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I11">
-    <cfRule type="containsBlanks" dxfId="34" priority="12">
-      <formula>LEN(TRIM(I3))=0</formula>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="containsBlanks" dxfId="13" priority="11">
+      <formula>LEN(TRIM(N5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="containsBlanks" dxfId="33" priority="11">
-      <formula>LEN(TRIM(M5))=0</formula>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="containsBlanks" dxfId="12" priority="10">
+      <formula>LEN(TRIM(N7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="containsBlanks" dxfId="32" priority="10">
-      <formula>LEN(TRIM(M7))=0</formula>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="containsBlanks" dxfId="11" priority="9">
+      <formula>LEN(TRIM(N6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="containsBlanks" dxfId="31" priority="9">
-      <formula>LEN(TRIM(M6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:M12">
-    <cfRule type="containsBlanks" dxfId="30" priority="8">
+  <conditionalFormatting sqref="E12:N12">
+    <cfRule type="containsBlanks" dxfId="10" priority="8">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N12">
-    <cfRule type="containsBlanks" dxfId="29" priority="7">
-      <formula>LEN(TRIM(N3))=0</formula>
+  <conditionalFormatting sqref="O3:O12">
+    <cfRule type="containsBlanks" dxfId="9" priority="7">
+      <formula>LEN(TRIM(O3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="containsBlanks" dxfId="28" priority="5">
-      <formula>LEN(TRIM(O5))=0</formula>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
+      <formula>LEN(TRIM(P5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="containsBlanks" dxfId="27" priority="4">
-      <formula>LEN(TRIM(O6))=0</formula>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="containsBlanks" dxfId="7" priority="4">
+      <formula>LEN(TRIM(P6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="containsBlanks" dxfId="26" priority="3">
-      <formula>LEN(TRIM(O7))=0</formula>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
+      <formula>LEN(TRIM(P7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
-    <cfRule type="containsBlanks" dxfId="25" priority="2">
-      <formula>LEN(TRIM(O11))=0</formula>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(P11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12">
-    <cfRule type="containsBlanks" dxfId="24" priority="1">
-      <formula>LEN(TRIM(O12))=0</formula>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(P12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -1837,11 +1837,11 @@
   <dimension ref="A1:CT93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -1070,6 +1070,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,56 +1080,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -1670,7 +1628,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1687,7 +1645,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1660,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1719,7 +1677,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1692,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1831,17 +1789,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CT93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2862,7 +2820,7 @@
       <c r="CS14" s="21"/>
       <c r="CT14" s="21"/>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" hidden="1">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2984,7 +2942,7 @@
       <c r="CS15" s="1"/>
       <c r="CT15" s="1"/>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:98" hidden="1">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3108,7 +3066,7 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
     </row>
-    <row r="17" spans="1:98" ht="30">
+    <row r="17" spans="1:98" ht="30" hidden="1">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3228,7 +3186,7 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
     </row>
-    <row r="18" spans="1:98" ht="30">
+    <row r="18" spans="1:98" ht="30" hidden="1">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3362,7 +3320,7 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
     </row>
-    <row r="19" spans="1:98" s="20" customFormat="1">
+    <row r="19" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3466,7 +3424,7 @@
       <c r="CS19" s="21"/>
       <c r="CT19" s="21"/>
     </row>
-    <row r="20" spans="1:98">
+    <row r="20" spans="1:98" hidden="1">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3580,7 +3538,7 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
     </row>
-    <row r="21" spans="1:98">
+    <row r="21" spans="1:98" hidden="1">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3700,7 +3658,7 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
     </row>
-    <row r="22" spans="1:98">
+    <row r="22" spans="1:98" hidden="1">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3814,7 +3772,7 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
     </row>
-    <row r="23" spans="1:98" s="20" customFormat="1">
+    <row r="23" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A23">
         <v>9</v>
       </c>
@@ -4048,7 +4006,7 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
     </row>
-    <row r="25" spans="1:98">
+    <row r="25" spans="1:98" hidden="1">
       <c r="A25">
         <v>11</v>
       </c>
@@ -4178,7 +4136,7 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
     </row>
-    <row r="26" spans="1:98">
+    <row r="26" spans="1:98" hidden="1">
       <c r="A26">
         <v>12</v>
       </c>
@@ -4310,7 +4268,7 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
     </row>
-    <row r="27" spans="1:98">
+    <row r="27" spans="1:98" hidden="1">
       <c r="A27">
         <v>13</v>
       </c>
@@ -4432,7 +4390,7 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
     </row>
-    <row r="28" spans="1:98">
+    <row r="28" spans="1:98" hidden="1">
       <c r="A28">
         <v>14</v>
       </c>
@@ -4540,7 +4498,7 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
     </row>
-    <row r="29" spans="1:98">
+    <row r="29" spans="1:98" hidden="1">
       <c r="A29">
         <v>15</v>
       </c>
@@ -4648,7 +4606,7 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
     </row>
-    <row r="30" spans="1:98">
+    <row r="30" spans="1:98" hidden="1">
       <c r="A30">
         <v>16</v>
       </c>
@@ -4756,7 +4714,7 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
     </row>
-    <row r="31" spans="1:98" s="20" customFormat="1">
+    <row r="31" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A31">
         <v>17</v>
       </c>
@@ -5116,7 +5074,7 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
     </row>
-    <row r="34" spans="1:98">
+    <row r="34" spans="1:98" hidden="1">
       <c r="A34">
         <v>20</v>
       </c>
@@ -5238,7 +5196,7 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
     </row>
-    <row r="35" spans="1:98">
+    <row r="35" spans="1:98" hidden="1">
       <c r="A35">
         <v>21</v>
       </c>
@@ -5346,7 +5304,7 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
     </row>
-    <row r="36" spans="1:98" s="20" customFormat="1">
+    <row r="36" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A36">
         <v>22</v>
       </c>
@@ -5450,7 +5408,7 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
     </row>
-    <row r="37" spans="1:98">
+    <row r="37" spans="1:98" hidden="1">
       <c r="A37">
         <v>23</v>
       </c>
@@ -5576,7 +5534,7 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
     </row>
-    <row r="38" spans="1:98">
+    <row r="38" spans="1:98" hidden="1">
       <c r="A38">
         <v>24</v>
       </c>
@@ -5706,7 +5664,7 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
     </row>
-    <row r="39" spans="1:98" ht="30">
+    <row r="39" spans="1:98" ht="30" hidden="1">
       <c r="A39">
         <v>25</v>
       </c>
@@ -5836,7 +5794,7 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
     </row>
-    <row r="40" spans="1:98">
+    <row r="40" spans="1:98" hidden="1">
       <c r="A40">
         <v>26</v>
       </c>
@@ -5946,7 +5904,7 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
     </row>
-    <row r="41" spans="1:98" ht="30">
+    <row r="41" spans="1:98" ht="30" hidden="1">
       <c r="A41">
         <v>27</v>
       </c>
@@ -6050,7 +6008,7 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
     </row>
-    <row r="42" spans="1:98" ht="30">
+    <row r="42" spans="1:98" ht="30" hidden="1">
       <c r="A42">
         <v>28</v>
       </c>
@@ -6176,7 +6134,7 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
     </row>
-    <row r="43" spans="1:98" s="20" customFormat="1">
+    <row r="43" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A43">
         <v>29</v>
       </c>
@@ -6280,7 +6238,7 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
     </row>
-    <row r="44" spans="1:98">
+    <row r="44" spans="1:98" hidden="1">
       <c r="A44">
         <v>30</v>
       </c>
@@ -6384,7 +6342,7 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
     </row>
-    <row r="45" spans="1:98" ht="30">
+    <row r="45" spans="1:98" ht="30" hidden="1">
       <c r="A45">
         <v>31</v>
       </c>
@@ -6510,7 +6468,7 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
     </row>
-    <row r="46" spans="1:98">
+    <row r="46" spans="1:98" hidden="1">
       <c r="A46">
         <v>32</v>
       </c>
@@ -6636,7 +6594,7 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
     </row>
-    <row r="47" spans="1:98">
+    <row r="47" spans="1:98" hidden="1">
       <c r="A47">
         <v>33</v>
       </c>
@@ -6740,7 +6698,7 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
     </row>
-    <row r="48" spans="1:98">
+    <row r="48" spans="1:98" hidden="1">
       <c r="A48">
         <v>34</v>
       </c>
@@ -6866,7 +6824,7 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
     </row>
-    <row r="49" spans="1:98">
+    <row r="49" spans="1:98" hidden="1">
       <c r="A49">
         <v>35</v>
       </c>
@@ -6992,7 +6950,7 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
     </row>
-    <row r="50" spans="1:98">
+    <row r="50" spans="1:98" hidden="1">
       <c r="A50">
         <v>36</v>
       </c>
@@ -7096,7 +7054,7 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
     </row>
-    <row r="51" spans="1:98" ht="30">
+    <row r="51" spans="1:98" ht="30" hidden="1">
       <c r="A51">
         <v>37</v>
       </c>
@@ -7222,7 +7180,7 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
     </row>
-    <row r="52" spans="1:98" ht="30">
+    <row r="52" spans="1:98" ht="30" hidden="1">
       <c r="A52">
         <v>38</v>
       </c>
@@ -7348,7 +7306,7 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
     </row>
-    <row r="53" spans="1:98" ht="30">
+    <row r="53" spans="1:98" ht="30" hidden="1">
       <c r="A53">
         <v>39</v>
       </c>
@@ -7474,7 +7432,7 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
     </row>
-    <row r="54" spans="1:98">
+    <row r="54" spans="1:98" hidden="1">
       <c r="A54">
         <v>40</v>
       </c>
@@ -7582,7 +7540,7 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
     </row>
-    <row r="55" spans="1:98">
+    <row r="55" spans="1:98" hidden="1">
       <c r="A55">
         <v>41</v>
       </c>
@@ -7690,7 +7648,7 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
     </row>
-    <row r="56" spans="1:98" s="20" customFormat="1">
+    <row r="56" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A56">
         <v>42</v>
       </c>
@@ -7794,7 +7752,7 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
     </row>
-    <row r="57" spans="1:98">
+    <row r="57" spans="1:98" hidden="1">
       <c r="A57">
         <v>43</v>
       </c>
@@ -7910,7 +7868,7 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
     </row>
-    <row r="58" spans="1:98" s="20" customFormat="1">
+    <row r="58" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A58">
         <v>44</v>
       </c>
@@ -8014,7 +7972,7 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
     </row>
-    <row r="59" spans="1:98">
+    <row r="59" spans="1:98" hidden="1">
       <c r="A59">
         <v>45</v>
       </c>
@@ -8122,7 +8080,7 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
     </row>
-    <row r="60" spans="1:98">
+    <row r="60" spans="1:98" hidden="1">
       <c r="A60">
         <v>46</v>
       </c>
@@ -8230,7 +8188,7 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
     </row>
-    <row r="61" spans="1:98">
+    <row r="61" spans="1:98" hidden="1">
       <c r="A61">
         <v>47</v>
       </c>
@@ -8338,7 +8296,7 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
     </row>
-    <row r="62" spans="1:98">
+    <row r="62" spans="1:98" hidden="1">
       <c r="A62">
         <v>48</v>
       </c>
@@ -8448,7 +8406,7 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
     </row>
-    <row r="63" spans="1:98">
+    <row r="63" spans="1:98" hidden="1">
       <c r="A63">
         <v>49</v>
       </c>
@@ -8556,7 +8514,7 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
     </row>
-    <row r="64" spans="1:98">
+    <row r="64" spans="1:98" hidden="1">
       <c r="A64">
         <v>50</v>
       </c>
@@ -8664,7 +8622,7 @@
       <c r="CS64" s="1"/>
       <c r="CT64" s="1"/>
     </row>
-    <row r="65" spans="1:98">
+    <row r="65" spans="1:98" hidden="1">
       <c r="A65">
         <v>51</v>
       </c>
@@ -8772,7 +8730,7 @@
       <c r="CS65" s="1"/>
       <c r="CT65" s="1"/>
     </row>
-    <row r="66" spans="1:98" s="20" customFormat="1">
+    <row r="66" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A66">
         <v>52</v>
       </c>
@@ -8876,7 +8834,7 @@
       <c r="CS66" s="1"/>
       <c r="CT66" s="1"/>
     </row>
-    <row r="67" spans="1:98">
+    <row r="67" spans="1:98" hidden="1">
       <c r="A67">
         <v>53</v>
       </c>
@@ -8984,7 +8942,7 @@
       <c r="CS67" s="1"/>
       <c r="CT67" s="1"/>
     </row>
-    <row r="68" spans="1:98">
+    <row r="68" spans="1:98" hidden="1">
       <c r="A68">
         <v>54</v>
       </c>
@@ -9092,7 +9050,7 @@
       <c r="CS68" s="1"/>
       <c r="CT68" s="1"/>
     </row>
-    <row r="69" spans="1:98">
+    <row r="69" spans="1:98" hidden="1">
       <c r="A69">
         <v>55</v>
       </c>
@@ -9200,7 +9158,7 @@
       <c r="CS69" s="1"/>
       <c r="CT69" s="1"/>
     </row>
-    <row r="70" spans="1:98">
+    <row r="70" spans="1:98" hidden="1">
       <c r="A70">
         <v>56</v>
       </c>
@@ -9308,7 +9266,7 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
     </row>
-    <row r="71" spans="1:98">
+    <row r="71" spans="1:98" hidden="1">
       <c r="A71">
         <v>57</v>
       </c>
@@ -9416,7 +9374,7 @@
       <c r="CS71" s="1"/>
       <c r="CT71" s="1"/>
     </row>
-    <row r="72" spans="1:98">
+    <row r="72" spans="1:98" hidden="1">
       <c r="A72">
         <v>58</v>
       </c>
@@ -9524,7 +9482,7 @@
       <c r="CS72" s="1"/>
       <c r="CT72" s="1"/>
     </row>
-    <row r="73" spans="1:98" s="20" customFormat="1">
+    <row r="73" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A73">
         <v>59</v>
       </c>
@@ -9628,7 +9586,7 @@
       <c r="CS73" s="1"/>
       <c r="CT73" s="1"/>
     </row>
-    <row r="74" spans="1:98">
+    <row r="74" spans="1:98" hidden="1">
       <c r="A74">
         <v>60</v>
       </c>
@@ -9738,7 +9696,7 @@
       <c r="CS74" s="1"/>
       <c r="CT74" s="1"/>
     </row>
-    <row r="75" spans="1:98">
+    <row r="75" spans="1:98" hidden="1">
       <c r="A75">
         <v>61</v>
       </c>
@@ -9848,7 +9806,7 @@
       <c r="CS75" s="1"/>
       <c r="CT75" s="1"/>
     </row>
-    <row r="76" spans="1:98">
+    <row r="76" spans="1:98" hidden="1">
       <c r="A76">
         <v>62</v>
       </c>
@@ -9956,7 +9914,7 @@
       <c r="CS76" s="1"/>
       <c r="CT76" s="1"/>
     </row>
-    <row r="77" spans="1:98">
+    <row r="77" spans="1:98" hidden="1">
       <c r="A77">
         <v>63</v>
       </c>
@@ -10064,7 +10022,7 @@
       <c r="CS77" s="1"/>
       <c r="CT77" s="1"/>
     </row>
-    <row r="78" spans="1:98">
+    <row r="78" spans="1:98" hidden="1">
       <c r="A78">
         <v>64</v>
       </c>
@@ -10172,7 +10130,7 @@
       <c r="CS78" s="1"/>
       <c r="CT78" s="1"/>
     </row>
-    <row r="79" spans="1:98">
+    <row r="79" spans="1:98" hidden="1">
       <c r="A79">
         <v>65</v>
       </c>
@@ -10282,7 +10240,7 @@
       <c r="CS79" s="1"/>
       <c r="CT79" s="1"/>
     </row>
-    <row r="80" spans="1:98">
+    <row r="80" spans="1:98" hidden="1">
       <c r="A80">
         <v>66</v>
       </c>
@@ -10392,7 +10350,7 @@
       <c r="CS80" s="1"/>
       <c r="CT80" s="1"/>
     </row>
-    <row r="81" spans="1:98">
+    <row r="81" spans="1:98" hidden="1">
       <c r="A81">
         <v>67</v>
       </c>
@@ -10502,7 +10460,7 @@
       <c r="CS81" s="1"/>
       <c r="CT81" s="1"/>
     </row>
-    <row r="82" spans="1:98">
+    <row r="82" spans="1:98" hidden="1">
       <c r="A82">
         <v>68</v>
       </c>
@@ -10612,7 +10570,7 @@
       <c r="CS82" s="1"/>
       <c r="CT82" s="1"/>
     </row>
-    <row r="83" spans="1:98">
+    <row r="83" spans="1:98" hidden="1">
       <c r="A83">
         <v>69</v>
       </c>
@@ -10722,7 +10680,7 @@
       <c r="CS83" s="1"/>
       <c r="CT83" s="1"/>
     </row>
-    <row r="84" spans="1:98">
+    <row r="84" spans="1:98" hidden="1">
       <c r="A84">
         <v>70</v>
       </c>
@@ -10830,7 +10788,7 @@
       <c r="CS84" s="1"/>
       <c r="CT84" s="1"/>
     </row>
-    <row r="85" spans="1:98">
+    <row r="85" spans="1:98" hidden="1">
       <c r="A85">
         <v>71</v>
       </c>
@@ -10938,7 +10896,7 @@
       <c r="CS85" s="1"/>
       <c r="CT85" s="1"/>
     </row>
-    <row r="86" spans="1:98">
+    <row r="86" spans="1:98" hidden="1">
       <c r="A86">
         <v>72</v>
       </c>
@@ -11046,7 +11004,7 @@
       <c r="CS86" s="1"/>
       <c r="CT86" s="1"/>
     </row>
-    <row r="87" spans="1:98">
+    <row r="87" spans="1:98" hidden="1">
       <c r="A87">
         <v>73</v>
       </c>
@@ -11156,7 +11114,7 @@
       <c r="CS87" s="1"/>
       <c r="CT87" s="1"/>
     </row>
-    <row r="88" spans="1:98">
+    <row r="88" spans="1:98" hidden="1">
       <c r="A88">
         <v>74</v>
       </c>
@@ -11264,7 +11222,7 @@
       <c r="CS88" s="1"/>
       <c r="CT88" s="1"/>
     </row>
-    <row r="89" spans="1:98">
+    <row r="89" spans="1:98" hidden="1">
       <c r="A89">
         <v>75</v>
       </c>
@@ -11372,7 +11330,7 @@
       <c r="CS89" s="1"/>
       <c r="CT89" s="1"/>
     </row>
-    <row r="90" spans="1:98">
+    <row r="90" spans="1:98" hidden="1">
       <c r="A90">
         <v>76</v>
       </c>
@@ -11480,7 +11438,7 @@
       <c r="CS90" s="1"/>
       <c r="CT90" s="1"/>
     </row>
-    <row r="91" spans="1:98" s="20" customFormat="1">
+    <row r="91" spans="1:98" s="20" customFormat="1" hidden="1">
       <c r="A91">
         <v>77</v>
       </c>
@@ -11584,12 +11542,12 @@
       <c r="CS91" s="21"/>
       <c r="CT91" s="21"/>
     </row>
-    <row r="92" spans="1:98">
+    <row r="92" spans="1:98" hidden="1">
       <c r="A92">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:98" s="24" customFormat="1">
+    <row r="93" spans="1:98" s="24" customFormat="1" hidden="1">
       <c r="A93">
         <v>79</v>
       </c>
@@ -11791,31 +11749,35 @@
   </sheetData>
   <autoFilter ref="A14:BG93">
     <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="MinhNN"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="L92:AY92 L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L44:BF55 L24:BF42">
-    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L44:BF55 L24:BF42">
-    <cfRule type="cellIs" dxfId="19" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57 I59:I90 I32:I42 I20:I22 I15:I18 I44:I46 I48:I49 I24:I30 I51:I55">
-    <cfRule type="cellIs" dxfId="18" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="81" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I18 I20:I22 I32:I42 I57 I59:I90 I48:I49 I44:I46 I24:I30 I51:I55">
-    <cfRule type="expression" dxfId="17" priority="90">
+    <cfRule type="expression" dxfId="13" priority="90">
       <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11867,12 +11829,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="J1" t="s">
         <v>126</v>
       </c>
@@ -12456,12 +12418,12 @@
       <c r="S12" s="1"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="58" t="s">
         <v>158</v>
       </c>
       <c r="U14" s="41"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12469,67 +12431,67 @@
     <mergeCell ref="V14:W14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I11">
-    <cfRule type="containsBlanks" dxfId="16" priority="14">
+    <cfRule type="containsBlanks" dxfId="12" priority="14">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M11">
-    <cfRule type="containsBlanks" dxfId="15" priority="13">
+    <cfRule type="containsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(K3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsBlanks" dxfId="14" priority="12">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(J3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="13" priority="11">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(N5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="12" priority="10">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(N7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="11" priority="9">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(N6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:N12">
-    <cfRule type="containsBlanks" dxfId="10" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O12">
-    <cfRule type="containsBlanks" dxfId="9" priority="7">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(O3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(P5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(P6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="containsBlanks" dxfId="6" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(P7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(P11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(P12))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
@@ -20,7 +20,7 @@
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
     <definedName name="VI_TRI">'Thành viên - Vị trí'!$V$3:$V$10</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="168">
   <si>
     <t>GVCM</t>
   </si>
@@ -733,14 +733,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,7 +1086,58 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1244,6 +1295,11 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1322,6 +1378,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1356,6 +1413,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1531,52 +1589,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25">
+    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25">
+    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
@@ -1586,14 +1644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1601,7 +1659,7 @@
     <col min="4" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="12" customFormat="1">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1627,7 +1685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>22</v>
       </c>
@@ -1644,7 +1702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1659,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>21</v>
       </c>
@@ -1676,7 +1734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1691,7 +1749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1706,7 +1764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +1778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1728,52 +1786,52 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -1788,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1799,10 +1857,10 @@
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
@@ -1817,7 +1875,7 @@
     <col min="12" max="98" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
       <c r="C1" s="26" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="16" t="s">
@@ -1852,7 +1910,7 @@
       <c r="L2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="16" t="s">
@@ -1869,7 +1927,7 @@
       </c>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>84</v>
@@ -1885,7 +1943,7 @@
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="16" t="s">
@@ -1901,7 +1959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="16" t="s">
@@ -1915,7 +1973,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="54"/>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="16" t="s">
@@ -1929,7 +1987,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="54"/>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="16" t="s">
@@ -1943,7 +2001,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="54"/>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="16" t="s">
@@ -1957,7 +2015,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="54"/>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="16" t="s">
@@ -1971,7 +2029,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="54"/>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="16" t="s">
@@ -1985,7 +2043,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="54"/>
     </row>
-    <row r="12" spans="1:98" s="32" customFormat="1">
+    <row r="12" spans="1:98" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="42"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -2339,7 +2397,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="13" spans="1:98" s="18" customFormat="1" ht="30">
+    <row r="13" spans="1:98" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
@@ -2718,7 +2776,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="14" spans="1:98" s="20" customFormat="1">
+    <row r="14" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="28"/>
       <c r="D14" s="21"/>
@@ -2728,7 +2786,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="56">
         <f>COUNTIF(I15:I90,"Đã xong")/COUNTA(I15:I90) * 100%</f>
-        <v>0.5</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2820,7 +2878,7 @@
       <c r="CS14" s="21"/>
       <c r="CT14" s="21"/>
     </row>
-    <row r="15" spans="1:98" hidden="1">
+    <row r="15" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2942,7 +3000,7 @@
       <c r="CS15" s="1"/>
       <c r="CT15" s="1"/>
     </row>
-    <row r="16" spans="1:98" hidden="1">
+    <row r="16" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3066,7 +3124,7 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
     </row>
-    <row r="17" spans="1:98" ht="30" hidden="1">
+    <row r="17" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3186,7 +3244,7 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
     </row>
-    <row r="18" spans="1:98" ht="30" hidden="1">
+    <row r="18" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3320,7 +3378,7 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
     </row>
-    <row r="19" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="19" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3424,7 +3482,7 @@
       <c r="CS19" s="21"/>
       <c r="CT19" s="21"/>
     </row>
-    <row r="20" spans="1:98" hidden="1">
+    <row r="20" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3538,7 +3596,7 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
     </row>
-    <row r="21" spans="1:98" hidden="1">
+    <row r="21" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3658,7 +3716,7 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
     </row>
-    <row r="22" spans="1:98" hidden="1">
+    <row r="22" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3772,7 +3830,7 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
     </row>
-    <row r="23" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="23" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3876,7 +3934,7 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
     </row>
-    <row r="24" spans="1:98">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -3902,7 +3960,7 @@
         <v>41057</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>159</v>
@@ -4006,7 +4064,7 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
     </row>
-    <row r="25" spans="1:98" hidden="1">
+    <row r="25" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -4136,7 +4194,7 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
     </row>
-    <row r="26" spans="1:98" hidden="1">
+    <row r="26" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -4268,7 +4326,7 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
     </row>
-    <row r="27" spans="1:98" hidden="1">
+    <row r="27" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -4390,7 +4448,7 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
     </row>
-    <row r="28" spans="1:98" hidden="1">
+    <row r="28" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
@@ -4498,7 +4556,7 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
     </row>
-    <row r="29" spans="1:98" hidden="1">
+    <row r="29" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -4606,7 +4664,7 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
     </row>
-    <row r="30" spans="1:98" hidden="1">
+    <row r="30" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
@@ -4714,7 +4772,7 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
     </row>
-    <row r="31" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="31" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
@@ -4818,7 +4876,7 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
     </row>
-    <row r="32" spans="1:98">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
@@ -4841,7 +4899,9 @@
         <f>IFERROR( HLOOKUP("BE",L32:BF$93,$A$93-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",L32:BF$93,$A$93-$A32+1,FALSE),0)</f>
         <v>41059</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J32" s="22" t="s">
         <v>166</v>
       </c>
@@ -4946,7 +5006,7 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
     </row>
-    <row r="33" spans="1:98">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
@@ -4969,7 +5029,9 @@
         <f>IFERROR( HLOOKUP("BE",L33:BF$93,$A$93-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$93,$A$93-$A33+1,FALSE),0)</f>
         <v>41059</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J33" s="22" t="s">
         <v>167</v>
       </c>
@@ -5074,7 +5136,7 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
     </row>
-    <row r="34" spans="1:98" hidden="1">
+    <row r="34" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -5196,7 +5258,7 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
     </row>
-    <row r="35" spans="1:98" hidden="1">
+    <row r="35" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>21</v>
       </c>
@@ -5304,7 +5366,7 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
     </row>
-    <row r="36" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="36" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22</v>
       </c>
@@ -5408,7 +5470,7 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
     </row>
-    <row r="37" spans="1:98" hidden="1">
+    <row r="37" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23</v>
       </c>
@@ -5534,7 +5596,7 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
     </row>
-    <row r="38" spans="1:98" hidden="1">
+    <row r="38" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
@@ -5664,7 +5726,7 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
     </row>
-    <row r="39" spans="1:98" ht="30" hidden="1">
+    <row r="39" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25</v>
       </c>
@@ -5794,7 +5856,7 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
     </row>
-    <row r="40" spans="1:98" hidden="1">
+    <row r="40" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>26</v>
       </c>
@@ -5904,7 +5966,7 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
     </row>
-    <row r="41" spans="1:98" ht="30" hidden="1">
+    <row r="41" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27</v>
       </c>
@@ -6008,7 +6070,7 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
     </row>
-    <row r="42" spans="1:98" ht="30" hidden="1">
+    <row r="42" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28</v>
       </c>
@@ -6134,7 +6196,7 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
     </row>
-    <row r="43" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="43" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>29</v>
       </c>
@@ -6238,7 +6300,7 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
     </row>
-    <row r="44" spans="1:98" hidden="1">
+    <row r="44" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>30</v>
       </c>
@@ -6342,7 +6404,7 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
     </row>
-    <row r="45" spans="1:98" ht="30" hidden="1">
+    <row r="45" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>31</v>
       </c>
@@ -6468,7 +6530,7 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
     </row>
-    <row r="46" spans="1:98" hidden="1">
+    <row r="46" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>32</v>
       </c>
@@ -6594,7 +6656,7 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
     </row>
-    <row r="47" spans="1:98" hidden="1">
+    <row r="47" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>33</v>
       </c>
@@ -6698,7 +6760,7 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
     </row>
-    <row r="48" spans="1:98" hidden="1">
+    <row r="48" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>34</v>
       </c>
@@ -6824,7 +6886,7 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
     </row>
-    <row r="49" spans="1:98" hidden="1">
+    <row r="49" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>35</v>
       </c>
@@ -6950,7 +7012,7 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
     </row>
-    <row r="50" spans="1:98" hidden="1">
+    <row r="50" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>36</v>
       </c>
@@ -7054,7 +7116,7 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
     </row>
-    <row r="51" spans="1:98" ht="30" hidden="1">
+    <row r="51" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>37</v>
       </c>
@@ -7180,7 +7242,7 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
     </row>
-    <row r="52" spans="1:98" ht="30" hidden="1">
+    <row r="52" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>38</v>
       </c>
@@ -7306,7 +7368,7 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
     </row>
-    <row r="53" spans="1:98" ht="30" hidden="1">
+    <row r="53" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>39</v>
       </c>
@@ -7432,7 +7494,7 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
     </row>
-    <row r="54" spans="1:98" hidden="1">
+    <row r="54" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>40</v>
       </c>
@@ -7540,7 +7602,7 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
     </row>
-    <row r="55" spans="1:98" hidden="1">
+    <row r="55" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>41</v>
       </c>
@@ -7648,7 +7710,7 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
     </row>
-    <row r="56" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="56" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>42</v>
       </c>
@@ -7752,7 +7814,7 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
     </row>
-    <row r="57" spans="1:98" hidden="1">
+    <row r="57" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>43</v>
       </c>
@@ -7868,7 +7930,7 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
     </row>
-    <row r="58" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="58" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44</v>
       </c>
@@ -7972,7 +8034,7 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
     </row>
-    <row r="59" spans="1:98" hidden="1">
+    <row r="59" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>45</v>
       </c>
@@ -8080,7 +8142,7 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
     </row>
-    <row r="60" spans="1:98" hidden="1">
+    <row r="60" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>46</v>
       </c>
@@ -8188,7 +8250,7 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
     </row>
-    <row r="61" spans="1:98" hidden="1">
+    <row r="61" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>47</v>
       </c>
@@ -8296,7 +8358,7 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
     </row>
-    <row r="62" spans="1:98" hidden="1">
+    <row r="62" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>48</v>
       </c>
@@ -8406,7 +8468,7 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
     </row>
-    <row r="63" spans="1:98" hidden="1">
+    <row r="63" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>49</v>
       </c>
@@ -8514,7 +8576,7 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
     </row>
-    <row r="64" spans="1:98" hidden="1">
+    <row r="64" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>50</v>
       </c>
@@ -8622,7 +8684,7 @@
       <c r="CS64" s="1"/>
       <c r="CT64" s="1"/>
     </row>
-    <row r="65" spans="1:98" hidden="1">
+    <row r="65" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>51</v>
       </c>
@@ -8730,7 +8792,7 @@
       <c r="CS65" s="1"/>
       <c r="CT65" s="1"/>
     </row>
-    <row r="66" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="66" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>52</v>
       </c>
@@ -8834,7 +8896,7 @@
       <c r="CS66" s="1"/>
       <c r="CT66" s="1"/>
     </row>
-    <row r="67" spans="1:98" hidden="1">
+    <row r="67" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>53</v>
       </c>
@@ -8942,7 +9004,7 @@
       <c r="CS67" s="1"/>
       <c r="CT67" s="1"/>
     </row>
-    <row r="68" spans="1:98" hidden="1">
+    <row r="68" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>54</v>
       </c>
@@ -9050,7 +9112,7 @@
       <c r="CS68" s="1"/>
       <c r="CT68" s="1"/>
     </row>
-    <row r="69" spans="1:98" hidden="1">
+    <row r="69" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>55</v>
       </c>
@@ -9158,7 +9220,7 @@
       <c r="CS69" s="1"/>
       <c r="CT69" s="1"/>
     </row>
-    <row r="70" spans="1:98" hidden="1">
+    <row r="70" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>56</v>
       </c>
@@ -9266,7 +9328,7 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
     </row>
-    <row r="71" spans="1:98" hidden="1">
+    <row r="71" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>57</v>
       </c>
@@ -9374,7 +9436,7 @@
       <c r="CS71" s="1"/>
       <c r="CT71" s="1"/>
     </row>
-    <row r="72" spans="1:98" hidden="1">
+    <row r="72" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>58</v>
       </c>
@@ -9482,7 +9544,7 @@
       <c r="CS72" s="1"/>
       <c r="CT72" s="1"/>
     </row>
-    <row r="73" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="73" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>59</v>
       </c>
@@ -9586,7 +9648,7 @@
       <c r="CS73" s="1"/>
       <c r="CT73" s="1"/>
     </row>
-    <row r="74" spans="1:98" hidden="1">
+    <row r="74" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>60</v>
       </c>
@@ -9696,7 +9758,7 @@
       <c r="CS74" s="1"/>
       <c r="CT74" s="1"/>
     </row>
-    <row r="75" spans="1:98" hidden="1">
+    <row r="75" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>61</v>
       </c>
@@ -9806,7 +9868,7 @@
       <c r="CS75" s="1"/>
       <c r="CT75" s="1"/>
     </row>
-    <row r="76" spans="1:98" hidden="1">
+    <row r="76" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>62</v>
       </c>
@@ -9914,7 +9976,7 @@
       <c r="CS76" s="1"/>
       <c r="CT76" s="1"/>
     </row>
-    <row r="77" spans="1:98" hidden="1">
+    <row r="77" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>63</v>
       </c>
@@ -10022,7 +10084,7 @@
       <c r="CS77" s="1"/>
       <c r="CT77" s="1"/>
     </row>
-    <row r="78" spans="1:98" hidden="1">
+    <row r="78" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>64</v>
       </c>
@@ -10130,7 +10192,7 @@
       <c r="CS78" s="1"/>
       <c r="CT78" s="1"/>
     </row>
-    <row r="79" spans="1:98" hidden="1">
+    <row r="79" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>65</v>
       </c>
@@ -10240,7 +10302,7 @@
       <c r="CS79" s="1"/>
       <c r="CT79" s="1"/>
     </row>
-    <row r="80" spans="1:98" hidden="1">
+    <row r="80" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
@@ -10350,7 +10412,7 @@
       <c r="CS80" s="1"/>
       <c r="CT80" s="1"/>
     </row>
-    <row r="81" spans="1:98" hidden="1">
+    <row r="81" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>67</v>
       </c>
@@ -10460,7 +10522,7 @@
       <c r="CS81" s="1"/>
       <c r="CT81" s="1"/>
     </row>
-    <row r="82" spans="1:98" hidden="1">
+    <row r="82" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>68</v>
       </c>
@@ -10570,7 +10632,7 @@
       <c r="CS82" s="1"/>
       <c r="CT82" s="1"/>
     </row>
-    <row r="83" spans="1:98" hidden="1">
+    <row r="83" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>69</v>
       </c>
@@ -10680,7 +10742,7 @@
       <c r="CS83" s="1"/>
       <c r="CT83" s="1"/>
     </row>
-    <row r="84" spans="1:98" hidden="1">
+    <row r="84" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>70</v>
       </c>
@@ -10788,7 +10850,7 @@
       <c r="CS84" s="1"/>
       <c r="CT84" s="1"/>
     </row>
-    <row r="85" spans="1:98" hidden="1">
+    <row r="85" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>71</v>
       </c>
@@ -10896,7 +10958,7 @@
       <c r="CS85" s="1"/>
       <c r="CT85" s="1"/>
     </row>
-    <row r="86" spans="1:98" hidden="1">
+    <row r="86" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>72</v>
       </c>
@@ -11004,7 +11066,7 @@
       <c r="CS86" s="1"/>
       <c r="CT86" s="1"/>
     </row>
-    <row r="87" spans="1:98" hidden="1">
+    <row r="87" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>73</v>
       </c>
@@ -11114,7 +11176,7 @@
       <c r="CS87" s="1"/>
       <c r="CT87" s="1"/>
     </row>
-    <row r="88" spans="1:98" hidden="1">
+    <row r="88" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>74</v>
       </c>
@@ -11222,7 +11284,7 @@
       <c r="CS88" s="1"/>
       <c r="CT88" s="1"/>
     </row>
-    <row r="89" spans="1:98" hidden="1">
+    <row r="89" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>75</v>
       </c>
@@ -11330,7 +11392,7 @@
       <c r="CS89" s="1"/>
       <c r="CT89" s="1"/>
     </row>
-    <row r="90" spans="1:98" hidden="1">
+    <row r="90" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>76</v>
       </c>
@@ -11438,7 +11500,7 @@
       <c r="CS90" s="1"/>
       <c r="CT90" s="1"/>
     </row>
-    <row r="91" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="91" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>77</v>
       </c>
@@ -11542,12 +11604,12 @@
       <c r="CS91" s="21"/>
       <c r="CT91" s="21"/>
     </row>
-    <row r="92" spans="1:98" hidden="1">
+    <row r="92" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:98" s="24" customFormat="1" hidden="1">
+    <row r="93" spans="1:98" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>79</v>
       </c>
@@ -11748,7 +11810,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A14:BG93">
-    <filterColumn colId="3"/>
     <filterColumn colId="4">
       <filters>
         <filter val="MinhNN"/>
@@ -11756,33 +11817,33 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="L92:AY92 L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L44:BF55 L24:BF42">
-    <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L44:BF55 L24:BF42">
-    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57 I59:I90 I32:I42 I20:I22 I15:I18 I44:I46 I48:I49 I24:I30 I51:I55">
-    <cfRule type="cellIs" dxfId="14" priority="81" operator="equal">
+  <conditionalFormatting sqref="I57 I59:I90 I20:I22 I15:I18 I44:I46 I48:I49 I51:I55 I24:I30 I32:I42">
+    <cfRule type="cellIs" dxfId="20" priority="81" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I18 I20:I22 I32:I42 I57 I59:I90 I48:I49 I44:I46 I24:I30 I51:I55">
-    <cfRule type="expression" dxfId="13" priority="90">
+  <conditionalFormatting sqref="I15:I18 I20:I22 I57 I59:I90 I48:I49 I44:I46 I51:I55 I24:I30 I32:I42">
+    <cfRule type="expression" dxfId="19" priority="90">
       <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57 I44:I55 I67:I72 I59:I65 I74:I90 I37:I42 I32:I35 I15:I22 I24:I30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57 I44:I55 I67:I72 I59:I65 I74:I90 I37:I42 I24:I30 I15:I22 I32:I35">
       <formula1>$G$2:$G$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D91:E91">
@@ -11799,7 +11860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11809,7 +11870,7 @@
       <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -11828,7 +11889,7 @@
     <col min="24" max="24" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>71</v>
       </c>
@@ -11857,7 +11918,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="60">
+    <row r="2" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>38</v>
       </c>
@@ -11922,7 +11983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>1</v>
       </c>
@@ -11980,7 +12041,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -12029,7 +12090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>3</v>
       </c>
@@ -12088,7 +12149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>4</v>
       </c>
@@ -12143,7 +12204,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -12194,7 +12255,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -12249,7 +12310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -12294,7 +12355,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>9</v>
       </c>
@@ -12333,7 +12394,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>10</v>
       </c>
@@ -12374,7 +12435,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>11</v>
       </c>
@@ -12417,7 +12478,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M14" s="58" t="s">
         <v>158</v>
       </c>
@@ -12431,67 +12492,67 @@
     <mergeCell ref="V14:W14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I11">
-    <cfRule type="containsBlanks" dxfId="12" priority="14">
+    <cfRule type="containsBlanks" dxfId="18" priority="14">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M11">
-    <cfRule type="containsBlanks" dxfId="11" priority="13">
+    <cfRule type="containsBlanks" dxfId="17" priority="13">
       <formula>LEN(TRIM(K3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="16" priority="12">
       <formula>LEN(TRIM(J3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="9" priority="11">
+    <cfRule type="containsBlanks" dxfId="15" priority="11">
       <formula>LEN(TRIM(N5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+    <cfRule type="containsBlanks" dxfId="14" priority="10">
       <formula>LEN(TRIM(N7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="13" priority="9">
       <formula>LEN(TRIM(N6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:N12">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="12" priority="8">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O12">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="11" priority="7">
       <formula>LEN(TRIM(O3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="10" priority="5">
       <formula>LEN(TRIM(P5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="9" priority="4">
       <formula>LEN(TRIM(P6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(P7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(P11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(P12))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12507,51 +12568,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G6:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:8">
+    <row r="6" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G6" t="str">
         <f>IF(ISNUMBER(FIND("CD",D6)),"x","")</f>
         <v/>
       </c>
       <c r="H6" s="52"/>
     </row>
-    <row r="7" spans="7:8">
+    <row r="7" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="7:8">
+    <row r="8" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G8" t="str">
         <f t="shared" ref="G8:G10" si="0">IF(ISNUMBER(FIND("CD",D8)),"x","")</f>
         <v/>
       </c>
       <c r="H8" s="52"/>
     </row>
-    <row r="9" spans="7:8">
+    <row r="9" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="7:8">
+    <row r="10" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10" s="52"/>
     </row>
-    <row r="12" spans="7:8">
+    <row r="12" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G12" s="37"/>
       <c r="H12" s="53"/>
     </row>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
@@ -14,13 +14,13 @@
     <sheet name="Quyết toán" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$14:$BG$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$14:$BG$98</definedName>
     <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$V$4:$V$12</definedName>
     <definedName name="members">'Thành viên - Vị trí'!$C$3:$C$13</definedName>
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
     <definedName name="VI_TRI">'Thành viên - Vị trí'!$V$3:$V$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C42" authorId="0">
+    <comment ref="C47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0">
+    <comment ref="D47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,6 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -105,6 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Chức năng này tác động vào những bảng nào? Đọc, ghi,…???</t>
@@ -212,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="175">
   <si>
     <t>GVCM</t>
   </si>
@@ -729,18 +731,39 @@
   <si>
     <t>F303</t>
   </si>
+  <si>
+    <t>Quản lý sự kiện giảng viên tham gia</t>
+  </si>
+  <si>
+    <t>Lên kế hoạch công việc cho giảng viên</t>
+  </si>
+  <si>
+    <t>Nghiệm thu công việc giảng viên</t>
+  </si>
+  <si>
+    <t>Duyệt công việc giảng viên</t>
+  </si>
+  <si>
+    <t>Duyệt chuyển thanh toán công việc</t>
+  </si>
+  <si>
+    <t>Chuyển thanh toán</t>
+  </si>
+  <si>
+    <t>Duyệt chuyển thanh toán sự kiện</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,17 +850,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1061,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1069,7 +1081,7 @@
     <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,58 +1098,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -1295,11 +1256,6 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1378,7 +1334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1413,7 +1368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1589,52 +1543,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
@@ -1644,14 +1598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1659,7 +1613,7 @@
     <col min="4" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1685,7 +1639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59" t="s">
         <v>22</v>
       </c>
@@ -1702,7 +1656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1717,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59" t="s">
         <v>21</v>
       </c>
@@ -1734,7 +1688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1749,7 +1703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="59"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1764,7 +1718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1786,52 +1740,52 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -1846,21 +1800,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT93"/>
+  <dimension ref="A1:CT98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
@@ -1875,7 +1829,7 @@
     <col min="12" max="98" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:98">
       <c r="C1" s="26" t="s">
         <v>32</v>
       </c>
@@ -1892,14 +1846,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:98">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="40">
-        <f>SUMIF($E$14:$E$91,C2,$F$14:$F$91)</f>
+        <f t="shared" ref="D2:D11" si="0">SUMIF($E$14:$E$96,C2,$F$14:$F$96)</f>
         <v>0</v>
       </c>
       <c r="E2" s="40"/>
@@ -1910,14 +1864,14 @@
       <c r="L2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:98">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="40">
-        <f>SUMIF($E$14:$E$91,C3,$F$14:$F$91)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="40"/>
@@ -1927,13 +1881,13 @@
       </c>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:98">
       <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="40">
-        <f>SUMIF($E$14:$E$91,C4,$F$14:$F$91)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="40"/>
@@ -1943,14 +1897,14 @@
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:98">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="40">
-        <f>SUMIF($E$14:$E$91,C5,$F$14:$F$91)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="40"/>
@@ -1959,21 +1913,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:98">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="40">
-        <f t="shared" ref="D6:D11" si="0">SUMIF($E$14:$E$91,C6,$F$14:$F$91)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="54"/>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:98">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="16" t="s">
@@ -1987,7 +1941,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="54"/>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:98">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="16" t="s">
@@ -2001,7 +1955,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="54"/>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:98">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="16" t="s">
@@ -2015,7 +1969,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="54"/>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:98">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="16" t="s">
@@ -2029,7 +1983,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="54"/>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:98">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="16" t="s">
@@ -2043,7 +1997,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="54"/>
     </row>
-    <row r="12" spans="1:98" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:98" s="32" customFormat="1">
       <c r="C12" s="42"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -2397,7 +2351,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="13" spans="1:98" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:98" s="18" customFormat="1" ht="30">
       <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
@@ -2776,7 +2730,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="14" spans="1:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:98" s="20" customFormat="1">
       <c r="B14" s="21"/>
       <c r="C14" s="28"/>
       <c r="D14" s="21"/>
@@ -2785,8 +2739,8 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="56">
-        <f>COUNTIF(I15:I90,"Đã xong")/COUNTA(I15:I90) * 100%</f>
-        <v>0.59090909090909094</v>
+        <f>COUNTIF(I15:I95,"Đã xong")/COUNTA(I15:I95) * 100%</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2878,7 +2832,7 @@
       <c r="CS14" s="21"/>
       <c r="CT14" s="21"/>
     </row>
-    <row r="15" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:98">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2894,11 +2848,11 @@
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23">
-        <f>IFERROR( HLOOKUP("BE",L15:BF$93,$A$93-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",L15:BF$93,$A$93-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L15:BF$98,$A$98-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",L15:BF$98,$A$98-$A15+1,FALSE),0)</f>
         <v>41030</v>
       </c>
       <c r="H15" s="23">
-        <f>IFERROR( HLOOKUP("BE",L15:BF$93,$A$93-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",L15:BF$93,$A$93-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L15:BF$98,$A$98-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",L15:BF$98,$A$98-$A15+1,FALSE),0)</f>
         <v>41032</v>
       </c>
       <c r="I15" s="23" t="s">
@@ -3000,7 +2954,7 @@
       <c r="CS15" s="1"/>
       <c r="CT15" s="1"/>
     </row>
-    <row r="16" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:98">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3016,11 +2970,11 @@
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$93,$A$93-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$93,$A$93-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$98,$A$98-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$98,$A$98-$A16+1,FALSE),0)</f>
         <v>41031</v>
       </c>
       <c r="H16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$93,$A$93-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$93,$A$93-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$98,$A$98-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$98,$A$98-$A16+1,FALSE),0)</f>
         <v>41034</v>
       </c>
       <c r="I16" s="23" t="s">
@@ -3124,7 +3078,7 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
     </row>
-    <row r="17" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:98" ht="30">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3140,11 +3094,11 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$93,$A$93-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$93,$A$93-$A17+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$98,$A$98-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$98,$A$98-$A17+1,FALSE),0)</f>
         <v>41031</v>
       </c>
       <c r="H17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$93,$A$93-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$93,$A$93-$A17+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L17:BF$98,$A$98-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$98,$A$98-$A17+1,FALSE),0)</f>
         <v>41032</v>
       </c>
       <c r="I17" s="23" t="s">
@@ -3244,7 +3198,7 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
     </row>
-    <row r="18" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:98" ht="30">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3260,15 +3214,15 @@
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
-        <f>IFERROR( HLOOKUP("BE",L18:BF$93,$A$93-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$93,$A$93-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$98,$A$98-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$98,$A$98-$A18+1,FALSE),0)</f>
         <v>41030</v>
       </c>
       <c r="H18" s="23">
-        <f>IFERROR( HLOOKUP("BE",L18:BF$93,$A$93-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$93,$A$93-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L18:BF$98,$A$98-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$98,$A$98-$A18+1,FALSE),0)</f>
         <v>41038</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -3378,7 +3332,7 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
     </row>
-    <row r="19" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:98" s="20" customFormat="1">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3482,7 +3436,7 @@
       <c r="CS19" s="21"/>
       <c r="CT19" s="21"/>
     </row>
-    <row r="20" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:98">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3496,11 +3450,11 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$93,$A$93-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$93,$A$93-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$98,$A$98-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$98,$A$98-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$93,$A$93-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$93,$A$93-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$98,$A$98-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$98,$A$98-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -3596,7 +3550,7 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
     </row>
-    <row r="21" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:98">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3610,11 +3564,11 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$93,$A$93-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$93,$A$93-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$98,$A$98-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$98,$A$98-$A21+1,FALSE),0)</f>
         <v>41035</v>
       </c>
       <c r="H21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$93,$A$93-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$93,$A$93-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$98,$A$98-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$98,$A$98-$A21+1,FALSE),0)</f>
         <v>41037</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -3716,7 +3670,7 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
     </row>
-    <row r="22" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:98">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3730,11 +3684,11 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23">
-        <f>IFERROR( HLOOKUP("BE",L22:BF$93,$A$93-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$93,$A$93-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$98,$A$98-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$98,$A$98-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="23">
-        <f>IFERROR( HLOOKUP("BE",L22:BF$93,$A$93-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$93,$A$93-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L22:BF$98,$A$98-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$98,$A$98-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -3830,7 +3784,7 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
     </row>
-    <row r="23" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:98" s="20" customFormat="1">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3934,39 +3888,39 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:98">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" s="22">
         <v>8</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>151</v>
+      <c r="C24" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23">
-        <f>IFERROR( HLOOKUP("BE",L24:BF$93,$A$93-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$93,$A$93-$A24+1,FALSE),0)</f>
-        <v>41054</v>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$98,$A$98-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$98,$A$98-$A24+1,FALSE),0)</f>
+        <v>41055</v>
       </c>
       <c r="H24" s="23">
-        <f>IFERROR( HLOOKUP("BE",L24:BF$93,$A$93-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$93,$A$93-$A24+1,FALSE),0)</f>
-        <v>41057</v>
+        <f>IFERROR( HLOOKUP("BE",L24:BF$98,$A$98-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$98,$A$98-$A24+1,FALSE),0)</f>
+        <v>41058</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3992,19 +3946,19 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="1" t="s">
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AL24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AM24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
@@ -4064,7 +4018,7 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
     </row>
-    <row r="25" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:98">
       <c r="A25">
         <v>11</v>
       </c>
@@ -4072,32 +4026,16 @@
         <v>9</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>84</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="23">
-        <f>IFERROR( HLOOKUP("BE",L25:BF$93,$A$93-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",L25:BF$93,$A$93-$A25+1,FALSE),0)</f>
-        <v>41055</v>
-      </c>
-      <c r="H25" s="23">
-        <f>IFERROR( HLOOKUP("BE",L25:BF$93,$A$93-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",L25:BF$93,$A$93-$A25+1,FALSE),0)</f>
-        <v>41058</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>161</v>
-      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -4123,18 +4061,10 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-      <c r="AK25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
@@ -4194,7 +4124,7 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
     </row>
-    <row r="26" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:98">
       <c r="A26">
         <v>12</v>
       </c>
@@ -4202,32 +4132,16 @@
         <v>10</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>84</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="23">
-        <f>IFERROR( HLOOKUP("BE",L26:BF$93,$A$93-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",L26:BF$93,$A$93-$A26+1,FALSE),0)</f>
-        <v>41055</v>
-      </c>
-      <c r="H26" s="23">
-        <f>IFERROR( HLOOKUP("BE",L26:BF$93,$A$93-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",L26:BF$93,$A$93-$A26+1,FALSE),0)</f>
-        <v>41059</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>161</v>
-      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -4253,21 +4167,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
-      <c r="AK26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO26" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
@@ -4326,7 +4230,7 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
     </row>
-    <row r="27" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:98">
       <c r="A27">
         <v>13</v>
       </c>
@@ -4334,32 +4238,16 @@
         <v>11</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>50</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="23">
-        <f>IFERROR( HLOOKUP("BE",L27:BF$93,$A$93-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",L27:BF$93,$A$93-$A27+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="23">
-        <f>IFERROR( HLOOKUP("BE",L27:BF$93,$A$93-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",L27:BF$93,$A$93-$A27+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>161</v>
-      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -4448,26 +4336,40 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
     </row>
-    <row r="28" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:98">
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="22">
+        <v>12</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F28" s="22"/>
       <c r="G28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$93,$A$93-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$93,$A$93-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$98,$A$98-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$98,$A$98-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$93,$A$93-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$93,$A$93-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$98,$A$98-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$98,$A$98-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="I28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -4556,23 +4458,17 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
     </row>
-    <row r="29" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:98">
       <c r="A29">
         <v>15</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="29"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="23">
-        <f>IFERROR( HLOOKUP("BE",L29:BF$93,$A$93-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$93,$A$93-$A29+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
-        <f>IFERROR( HLOOKUP("BE",L29:BF$93,$A$93-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$93,$A$93-$A29+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
@@ -4664,75 +4560,71 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
     </row>
-    <row r="30" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:98" s="20" customFormat="1">
       <c r="A30">
         <v>16</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23">
-        <f>IFERROR( HLOOKUP("BE",L30:BF$93,$A$93-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",L30:BF$93,$A$93-$A30+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
-        <f>IFERROR( HLOOKUP("BE",L30:BF$93,$A$93-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",L30:BF$93,$A$93-$A30+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="21"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="21"/>
+      <c r="AR30" s="21"/>
+      <c r="AS30" s="21"/>
+      <c r="AT30" s="21"/>
+      <c r="AU30" s="21"/>
+      <c r="AV30" s="21"/>
+      <c r="AW30" s="21"/>
+      <c r="AX30" s="21"/>
+      <c r="AY30" s="21"/>
+      <c r="AZ30" s="21"/>
+      <c r="BA30" s="21"/>
+      <c r="BB30" s="21"/>
+      <c r="BC30" s="21"/>
+      <c r="BD30" s="21"/>
+      <c r="BE30" s="21"/>
+      <c r="BF30" s="21"/>
+      <c r="BG30" s="21"/>
+      <c r="BH30" s="21"/>
       <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
@@ -4772,71 +4664,91 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
     </row>
-    <row r="31" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:98">
       <c r="A31">
         <v>17</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AQ31" s="21"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="21"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="21"/>
+      <c r="B31" s="22">
+        <v>13</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
@@ -4876,37 +4788,39 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
     </row>
-    <row r="32" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:98">
       <c r="A32">
         <v>18</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="22">
+        <v>14</v>
+      </c>
       <c r="C32" s="27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="23">
-        <f>IFERROR( HLOOKUP("BE",L32:BF$93,$A$93-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",L32:BF$93,$A$93-$A32+1,FALSE),0)</f>
-        <v>41055</v>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$98,$A$98-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$98,$A$98-$A32+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H32" s="23">
-        <f>IFERROR( HLOOKUP("BE",L32:BF$93,$A$93-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",L32:BF$93,$A$93-$A32+1,FALSE),0)</f>
-        <v>41059</v>
+        <f>IFERROR( HLOOKUP("BE",L28:BF$98,$A$98-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$98,$A$98-$A32+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -5006,38 +4920,30 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:98">
       <c r="A33">
         <v>19</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="22">
+        <v>15</v>
+      </c>
       <c r="C33" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>86</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L33:BF$93,$A$93-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$93,$A$93-$A33+1,FALSE),0)</f>
-        <v>41055</v>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$98,$A$98-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L33:BF$98,$A$98-$A33+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L33:BF$93,$A$93-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$93,$A$93-$A33+1,FALSE),0)</f>
-        <v>41059</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>161</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L33:BF$98,$A$98-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L33:BF$98,$A$98-$A33+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -5063,21 +4969,11 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO33" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -5136,22 +5032,30 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
     </row>
-    <row r="34" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:98">
       <c r="A34">
         <v>20</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="B34" s="22">
+        <v>16</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$93,$A$93-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$93,$A$93-$A34+1,FALSE),0)</f>
-        <v>41043</v>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$98,$A$98-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$98,$A$98-$A34+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$93,$A$93-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$93,$A$93-$A34+1,FALSE),0)</f>
-        <v>41049</v>
+        <f>IFERROR( HLOOKUP("BE",L34:BF$98,$A$98-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$98,$A$98-$A34+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="22"/>
@@ -5169,27 +5073,13 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE34" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -5258,21 +5148,21 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
     </row>
-    <row r="35" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:98">
       <c r="A35">
         <v>21</v>
       </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="27"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23">
-        <f>IFERROR( HLOOKUP("BE",L35:BF$93,$A$93-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$93,$A$93-$A35+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$98,$A$98-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$98,$A$98-$A35+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H35" s="23">
-        <f>IFERROR( HLOOKUP("BE",L35:BF$93,$A$93-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$93,$A$93-$A35+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L35:BF$98,$A$98-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$98,$A$98-$A35+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I35" s="23"/>
@@ -5366,13 +5256,13 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
     </row>
-    <row r="36" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:98" s="20" customFormat="1">
       <c r="A36">
         <v>22</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -5470,55 +5360,47 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
     </row>
-    <row r="37" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:98">
       <c r="A37">
         <v>23</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="27" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23">
-        <f>IFERROR( HLOOKUP("BE",L37:BF$93,$A$93-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",L37:BF$93,$A$93-$A37+1,FALSE),0)</f>
-        <v>41036</v>
+        <f>IFERROR( HLOOKUP("BE",L37:BF$98,$A$98-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",L37:BF$98,$A$98-$A37+1,FALSE),0)</f>
+        <v>41055</v>
       </c>
       <c r="H37" s="23">
-        <f>IFERROR( HLOOKUP("BE",L37:BF$93,$A$93-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",L37:BF$93,$A$93-$A37+1,FALSE),0)</f>
-        <v>41040</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L37:BF$98,$A$98-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",L37:BF$98,$A$98-$A37+1,FALSE),0)</f>
+        <v>41059</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -5533,11 +5415,21 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
+      <c r="AK37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -5596,60 +5488,48 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
     </row>
-    <row r="38" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:98">
       <c r="A38">
         <v>24</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="27" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23">
-        <f>IFERROR( HLOOKUP("BE",L38:BF$93,$A$93-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$93,$A$93-$A38+1,FALSE),0)</f>
-        <v>41035</v>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$98,$A$98-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",L38:BF$98,$A$98-$A38+1,FALSE),0)</f>
+        <v>41055</v>
       </c>
       <c r="H38" s="23">
-        <f>IFERROR( HLOOKUP("BE",L38:BF$93,$A$93-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$93,$A$93-$A38+1,FALSE),0)</f>
-        <v>41041</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+        <f>IFERROR( HLOOKUP("BE",L38:BF$98,$A$98-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",L38:BF$98,$A$98-$A38+1,FALSE),0)</f>
+        <v>41059</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -5663,11 +5543,21 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
+      <c r="AK38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -5726,68 +5616,60 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
     </row>
-    <row r="39" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:98">
       <c r="A39">
         <v>25</v>
       </c>
       <c r="B39" s="22"/>
-      <c r="C39" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>50</v>
-      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$93,$A$93-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$93,$A$93-$A39+1,FALSE),0)</f>
-        <v>41034</v>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$98,$A$98-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$98,$A$98-$A39+1,FALSE),0)</f>
+        <v>41043</v>
       </c>
       <c r="H39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$93,$A$93-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$93,$A$93-$A39+1,FALSE),0)</f>
-        <v>41040</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>37</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L39:BF$98,$A$98-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$98,$A$98-$A39+1,FALSE),0)</f>
+        <v>41049</v>
+      </c>
+      <c r="I39" s="23"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
+      <c r="Y39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
@@ -5856,26 +5738,24 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
     </row>
-    <row r="40" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:98">
       <c r="A40">
         <v>26</v>
       </c>
       <c r="B40" s="22"/>
-      <c r="C40" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>50</v>
-      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="G40" s="23">
+        <f>IFERROR( HLOOKUP("BE",L40:BF$98,$A$98-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$98,$A$98-$A40+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="23">
+        <f>IFERROR( HLOOKUP("BE",L40:BF$98,$A$98-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$98,$A$98-$A40+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="23"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="1"/>
@@ -5966,71 +5846,71 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
     </row>
-    <row r="41" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:98" s="20" customFormat="1">
       <c r="A41">
         <v>27</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="21"/>
+      <c r="BA41" s="21"/>
+      <c r="BB41" s="21"/>
+      <c r="BC41" s="21"/>
+      <c r="BD41" s="21"/>
+      <c r="BE41" s="21"/>
+      <c r="BF41" s="21"/>
+      <c r="BG41" s="21"/>
+      <c r="BH41" s="21"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
@@ -6070,31 +5950,31 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
     </row>
-    <row r="42" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:98">
       <c r="A42">
         <v>28</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="27" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="23">
-        <f>IFERROR( HLOOKUP("BE",L42:BF$93,$A$93-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",L42:BF$93,$A$93-$A42+1,FALSE),0)</f>
-        <v>41041</v>
+        <f>IFERROR( HLOOKUP("BE",L42:BF$98,$A$98-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",L42:BF$98,$A$98-$A42+1,FALSE),0)</f>
+        <v>41036</v>
       </c>
       <c r="H42" s="23">
-        <f>IFERROR( HLOOKUP("BE",L42:BF$93,$A$93-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",L42:BF$93,$A$93-$A42+1,FALSE),0)</f>
-        <v>41045</v>
+        <f>IFERROR( HLOOKUP("BE",L42:BF$98,$A$98-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",L42:BF$98,$A$98-$A42+1,FALSE),0)</f>
+        <v>41040</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
@@ -6104,26 +5984,26 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="U42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="V42" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -6196,71 +6076,97 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
     </row>
-    <row r="43" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:98">
       <c r="A43">
         <v>29</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="21"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="21"/>
-      <c r="AK43" s="21"/>
-      <c r="AL43" s="21"/>
-      <c r="AM43" s="21"/>
-      <c r="AN43" s="21"/>
-      <c r="AO43" s="21"/>
-      <c r="AP43" s="21"/>
-      <c r="AQ43" s="21"/>
-      <c r="AR43" s="21"/>
-      <c r="AS43" s="21"/>
-      <c r="AT43" s="21"/>
-      <c r="AU43" s="21"/>
-      <c r="AV43" s="21"/>
-      <c r="AW43" s="21"/>
-      <c r="AX43" s="21"/>
-      <c r="AY43" s="21"/>
-      <c r="AZ43" s="21"/>
-      <c r="BA43" s="21"/>
-      <c r="BB43" s="21"/>
-      <c r="BC43" s="21"/>
-      <c r="BD43" s="21"/>
-      <c r="BE43" s="21"/>
-      <c r="BF43" s="21"/>
-      <c r="BG43" s="21"/>
-      <c r="BH43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23">
+        <f>IFERROR( HLOOKUP("BE",L43:BF$98,$A$98-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",L43:BF$98,$A$98-$A43+1,FALSE),0)</f>
+        <v>41035</v>
+      </c>
+      <c r="H43" s="23">
+        <f>IFERROR( HLOOKUP("BE",L43:BF$98,$A$98-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",L43:BF$98,$A$98-$A43+1,FALSE),0)</f>
+        <v>41041</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
@@ -6300,33 +6206,59 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
     </row>
-    <row r="44" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:98" ht="30">
       <c r="A44">
         <v>30</v>
       </c>
       <c r="B44" s="22"/>
-      <c r="C44" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="C44" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="23">
+        <f>IFERROR( HLOOKUP("BE",L44:BF$98,$A$98-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",L44:BF$98,$A$98-$A44+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="H44" s="23">
+        <f>IFERROR( HLOOKUP("BE",L44:BF$98,$A$98-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",L44:BF$98,$A$98-$A44+1,FALSE),0)</f>
+        <v>41040</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="P44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -6404,30 +6336,26 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
     </row>
-    <row r="45" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:98">
       <c r="A45">
         <v>31</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="27" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F45" s="22"/>
-      <c r="G45" s="23">
-        <f>IFERROR( HLOOKUP("BE",L45:BF$93,$A$93-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",L45:BF$93,$A$93-$A45+1,FALSE),0)</f>
-        <v>41046</v>
-      </c>
-      <c r="H45" s="23">
-        <f>IFERROR( HLOOKUP("BE",L45:BF$93,$A$93-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",L45:BF$93,$A$93-$A45+1,FALSE),0)</f>
-        <v>41051</v>
-      </c>
-      <c r="I45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="1"/>
@@ -6446,24 +6374,12 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG45" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -6530,29 +6446,23 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
     </row>
-    <row r="46" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:98" ht="30">
       <c r="A46">
         <v>32</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="27" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F46" s="22"/>
-      <c r="G46" s="23">
-        <f>IFERROR( HLOOKUP("BE",L46:BF$93,$A$93-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$93,$A$93-$A46+1,FALSE),0)</f>
-        <v>41048</v>
-      </c>
-      <c r="H46" s="23">
-        <f>IFERROR( HLOOKUP("BE",L46:BF$93,$A$93-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$93,$A$93-$A46+1,FALSE),0)</f>
-        <v>41053</v>
-      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
@@ -6574,24 +6484,12 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI46" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -6656,20 +6554,32 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
     </row>
-    <row r="47" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:98" ht="30">
       <c r="A47">
         <v>33</v>
       </c>
       <c r="B47" s="22"/>
-      <c r="C47" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="C47" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23">
+        <f>IFERROR( HLOOKUP("BE",L47:BF$98,$A$98-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",L47:BF$98,$A$98-$A47+1,FALSE),0)</f>
+        <v>41041</v>
+      </c>
+      <c r="H47" s="23">
+        <f>IFERROR( HLOOKUP("BE",L47:BF$98,$A$98-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",L47:BF$98,$A$98-$A47+1,FALSE),0)</f>
+        <v>41045</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="1"/>
@@ -6683,11 +6593,21 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
+      <c r="W47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
@@ -6760,93 +6680,71 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
     </row>
-    <row r="48" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:98" s="20" customFormat="1">
       <c r="A48">
         <v>34</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23">
-        <f>IFERROR( HLOOKUP("BE",L48:BF$93,$A$93-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",L48:BF$93,$A$93-$A48+1,FALSE),0)</f>
-        <v>41046</v>
-      </c>
-      <c r="H48" s="23">
-        <f>IFERROR( HLOOKUP("BE",L48:BF$93,$A$93-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",L48:BF$93,$A$93-$A48+1,FALSE),0)</f>
-        <v>41051</v>
-      </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="1"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
-      <c r="BC48" s="1"/>
-      <c r="BD48" s="1"/>
-      <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
-      <c r="BG48" s="1"/>
-      <c r="BH48" s="1"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="21"/>
+      <c r="AR48" s="21"/>
+      <c r="AS48" s="21"/>
+      <c r="AT48" s="21"/>
+      <c r="AU48" s="21"/>
+      <c r="AV48" s="21"/>
+      <c r="AW48" s="21"/>
+      <c r="AX48" s="21"/>
+      <c r="AY48" s="21"/>
+      <c r="AZ48" s="21"/>
+      <c r="BA48" s="21"/>
+      <c r="BB48" s="21"/>
+      <c r="BC48" s="21"/>
+      <c r="BD48" s="21"/>
+      <c r="BE48" s="21"/>
+      <c r="BF48" s="21"/>
+      <c r="BG48" s="21"/>
+      <c r="BH48" s="21"/>
       <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
@@ -6886,29 +6784,19 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
     </row>
-    <row r="49" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:98">
       <c r="A49">
         <v>35</v>
       </c>
       <c r="B49" s="22"/>
-      <c r="C49" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>134</v>
-      </c>
+      <c r="C49" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="23">
-        <f>IFERROR( HLOOKUP("BE",L49:BF$93,$A$93-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",L49:BF$93,$A$93-$A49+1,FALSE),0)</f>
-        <v>41048</v>
-      </c>
-      <c r="H49" s="23">
-        <f>IFERROR( HLOOKUP("BE",L49:BF$93,$A$93-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",L49:BF$93,$A$93-$A49+1,FALSE),0)</f>
-        <v>41053</v>
-      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
@@ -6930,24 +6818,12 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-      <c r="AD49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI49" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -7012,20 +6888,30 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
     </row>
-    <row r="50" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:98" ht="30">
       <c r="A50">
         <v>36</v>
       </c>
       <c r="B50" s="22"/>
-      <c r="C50" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="C50" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23">
+        <f>IFERROR( HLOOKUP("BE",L50:BF$98,$A$98-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",L50:BF$98,$A$98-$A50+1,FALSE),0)</f>
+        <v>41046</v>
+      </c>
+      <c r="H50" s="23">
+        <f>IFERROR( HLOOKUP("BE",L50:BF$98,$A$98-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",L50:BF$98,$A$98-$A50+1,FALSE),0)</f>
+        <v>41051</v>
+      </c>
+      <c r="I50" s="23"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="1"/>
@@ -7044,12 +6930,24 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
+      <c r="AB50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
@@ -7116,49 +7014,37 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
     </row>
-    <row r="51" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:98">
       <c r="A51">
         <v>37</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="23">
-        <f>IFERROR( HLOOKUP("BE",L51:BF$93,$A$93-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$93,$A$93-$A51+1,FALSE),0)</f>
-        <v>41032</v>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$98,$A$98-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$98,$A$98-$A51+1,FALSE),0)</f>
+        <v>41048</v>
       </c>
       <c r="H51" s="23">
-        <f>IFERROR( HLOOKUP("BE",L51:BF$93,$A$93-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$93,$A$93-$A51+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>136</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L51:BF$98,$A$98-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$98,$A$98-$A51+1,FALSE),0)</f>
+        <v>41053</v>
+      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -7172,12 +7058,24 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
+      <c r="AD51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7242,49 +7140,27 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
     </row>
-    <row r="52" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:98">
       <c r="A52">
         <v>38</v>
       </c>
       <c r="B52" s="22"/>
-      <c r="C52" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23">
-        <f>IFERROR( HLOOKUP("BE",L52:BF$93,$A$93-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",L52:BF$93,$A$93-$A52+1,FALSE),0)</f>
-        <v>41032</v>
-      </c>
-      <c r="H52" s="23">
-        <f>IFERROR( HLOOKUP("BE",L52:BF$93,$A$93-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",L52:BF$93,$A$93-$A52+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="K52" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="C52" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -7368,49 +7244,37 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
     </row>
-    <row r="53" spans="1:98" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:98">
       <c r="A53">
         <v>39</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="27" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$93,$A$93-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$93,$A$93-$A53+1,FALSE),0)</f>
-        <v>41032</v>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$98,$A$98-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$98,$A$98-$A53+1,FALSE),0)</f>
+        <v>41046</v>
       </c>
       <c r="H53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$93,$A$93-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$93,$A$93-$A53+1,FALSE),0)</f>
-        <v>41034</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>136</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",L53:BF$98,$A$98-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$98,$A$98-$A53+1,FALSE),0)</f>
+        <v>41051</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -7422,12 +7286,24 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
+      <c r="AB53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -7494,22 +7370,28 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
     </row>
-    <row r="54" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:98">
       <c r="A54">
         <v>40</v>
       </c>
       <c r="B54" s="22"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="C54" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="F54" s="22"/>
       <c r="G54" s="23">
-        <f>IFERROR( HLOOKUP("BE",L54:BF$93,$A$93-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",L54:BF$93,$A$93-$A54+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L54:BF$98,$A$98-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",L54:BF$98,$A$98-$A54+1,FALSE),0)</f>
+        <v>41048</v>
       </c>
       <c r="H54" s="23">
-        <f>IFERROR( HLOOKUP("BE",L54:BF$93,$A$93-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",L54:BF$93,$A$93-$A54+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L54:BF$98,$A$98-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",L54:BF$98,$A$98-$A54+1,FALSE),0)</f>
+        <v>41053</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="22"/>
@@ -7532,12 +7414,24 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
+      <c r="AD54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
@@ -7602,24 +7496,20 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
     </row>
-    <row r="55" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:98">
       <c r="A55">
         <v>41</v>
       </c>
       <c r="B55" s="22"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$93,$A$93-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$93,$A$93-$A55+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$93,$A$93-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$93,$A$93-$A55+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="23"/>
+      <c r="C55" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="1"/>
@@ -7710,71 +7600,93 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
     </row>
-    <row r="56" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:98" ht="30">
       <c r="A56">
         <v>42</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="21"/>
-      <c r="AO56" s="21"/>
-      <c r="AP56" s="21"/>
-      <c r="AQ56" s="21"/>
-      <c r="AR56" s="21"/>
-      <c r="AS56" s="21"/>
-      <c r="AT56" s="21"/>
-      <c r="AU56" s="21"/>
-      <c r="AV56" s="21"/>
-      <c r="AW56" s="21"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="21"/>
-      <c r="AZ56" s="21"/>
-      <c r="BA56" s="21"/>
-      <c r="BB56" s="21"/>
-      <c r="BC56" s="21"/>
-      <c r="BD56" s="21"/>
-      <c r="BE56" s="21"/>
-      <c r="BF56" s="21"/>
-      <c r="BG56" s="21"/>
-      <c r="BH56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23">
+        <f>IFERROR( HLOOKUP("BE",L56:BF$98,$A$98-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",L56:BF$98,$A$98-$A56+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="H56" s="23">
+        <f>IFERROR( HLOOKUP("BE",L56:BF$98,$A$98-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",L56:BF$98,$A$98-$A56+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
@@ -7814,13 +7726,13 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
     </row>
-    <row r="57" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:98" ht="30">
       <c r="A57">
         <v>43</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="27" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>50</v>
@@ -7830,23 +7742,33 @@
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$93,$A$93-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$93,$A$93-$A57+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$98,$A$98-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$98,$A$98-$A57+1,FALSE),0)</f>
+        <v>41032</v>
       </c>
       <c r="H57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$93,$A$93-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$93,$A$93-$A57+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",L57:BF$98,$A$98-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$98,$A$98-$A57+1,FALSE),0)</f>
+        <v>41034</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -7930,71 +7852,93 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
     </row>
-    <row r="58" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:98" ht="30">
       <c r="A58">
         <v>44</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="21"/>
-      <c r="AB58" s="21"/>
-      <c r="AC58" s="21"/>
-      <c r="AD58" s="21"/>
-      <c r="AE58" s="21"/>
-      <c r="AF58" s="21"/>
-      <c r="AG58" s="21"/>
-      <c r="AH58" s="21"/>
-      <c r="AI58" s="21"/>
-      <c r="AJ58" s="21"/>
-      <c r="AK58" s="21"/>
-      <c r="AL58" s="21"/>
-      <c r="AM58" s="21"/>
-      <c r="AN58" s="21"/>
-      <c r="AO58" s="21"/>
-      <c r="AP58" s="21"/>
-      <c r="AQ58" s="21"/>
-      <c r="AR58" s="21"/>
-      <c r="AS58" s="21"/>
-      <c r="AT58" s="21"/>
-      <c r="AU58" s="21"/>
-      <c r="AV58" s="21"/>
-      <c r="AW58" s="21"/>
-      <c r="AX58" s="21"/>
-      <c r="AY58" s="21"/>
-      <c r="AZ58" s="21"/>
-      <c r="BA58" s="21"/>
-      <c r="BB58" s="21"/>
-      <c r="BC58" s="21"/>
-      <c r="BD58" s="21"/>
-      <c r="BE58" s="21"/>
-      <c r="BF58" s="21"/>
-      <c r="BG58" s="21"/>
-      <c r="BH58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23">
+        <f>IFERROR( HLOOKUP("BE",L58:BF$98,$A$98-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",L58:BF$98,$A$98-$A58+1,FALSE),0)</f>
+        <v>41032</v>
+      </c>
+      <c r="H58" s="23">
+        <f>IFERROR( HLOOKUP("BE",L58:BF$98,$A$98-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",L58:BF$98,$A$98-$A58+1,FALSE),0)</f>
+        <v>41034</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
       <c r="BI58" s="1"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
@@ -8034,21 +7978,21 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
     </row>
-    <row r="59" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:98">
       <c r="A59">
         <v>45</v>
       </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="34"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$93,$A$93-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$93,$A$93-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$98,$A$98-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$98,$A$98-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$93,$A$93-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$93,$A$93-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L59:BF$98,$A$98-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$98,$A$98-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I59" s="23"/>
@@ -8142,7 +8086,7 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
     </row>
-    <row r="60" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:98">
       <c r="A60">
         <v>46</v>
       </c>
@@ -8152,11 +8096,11 @@
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="23">
-        <f>IFERROR( HLOOKUP("BE",L60:BF$93,$A$93-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",L60:BF$93,$A$93-$A60+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L60:BF$98,$A$98-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",L60:BF$98,$A$98-$A60+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H60" s="23">
-        <f>IFERROR( HLOOKUP("BE",L60:BF$93,$A$93-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",L60:BF$93,$A$93-$A60+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L60:BF$98,$A$98-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",L60:BF$98,$A$98-$A60+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I60" s="23"/>
@@ -8250,75 +8194,71 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
     </row>
-    <row r="61" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:98" s="20" customFormat="1">
       <c r="A61">
         <v>47</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$93,$A$93-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$93,$A$93-$A61+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$93,$A$93-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$93,$A$93-$A61+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-      <c r="AP61" s="1"/>
-      <c r="AQ61" s="1"/>
-      <c r="AR61" s="1"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1"/>
-      <c r="AU61" s="1"/>
-      <c r="AV61" s="1"/>
-      <c r="AW61" s="1"/>
-      <c r="AX61" s="1"/>
-      <c r="AY61" s="1"/>
-      <c r="AZ61" s="1"/>
-      <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
-      <c r="BC61" s="1"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
-      <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="21"/>
+      <c r="AY61" s="21"/>
+      <c r="AZ61" s="21"/>
+      <c r="BA61" s="21"/>
+      <c r="BB61" s="21"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="21"/>
+      <c r="BE61" s="21"/>
+      <c r="BF61" s="21"/>
+      <c r="BG61" s="21"/>
+      <c r="BH61" s="21"/>
       <c r="BI61" s="1"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
@@ -8358,27 +8298,33 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
     </row>
-    <row r="62" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:98">
       <c r="A62">
         <v>48</v>
       </c>
       <c r="B62" s="22"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
+      <c r="C62" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F62" s="22"/>
       <c r="G62" s="23">
-        <f>IFERROR( HLOOKUP("BE",L62:BF$93,$A$93-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$93,$A$93-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$98,$A$98-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$98,$A$98-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H62" s="23">
-        <f>IFERROR( HLOOKUP("BE",L62:BF$93,$A$93-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$93,$A$93-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L62:BF$98,$A$98-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$98,$A$98-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="I62" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -8468,75 +8414,71 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
     </row>
-    <row r="63" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:98" s="20" customFormat="1">
       <c r="A63">
         <v>49</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$93,$A$93-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$93,$A$93-$A63+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$93,$A$93-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$93,$A$93-$A63+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AR63" s="1"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="1"/>
-      <c r="AU63" s="1"/>
-      <c r="AV63" s="1"/>
-      <c r="AW63" s="1"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1"/>
-      <c r="AZ63" s="1"/>
-      <c r="BA63" s="1"/>
-      <c r="BB63" s="1"/>
-      <c r="BC63" s="1"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="21"/>
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="21"/>
+      <c r="AG63" s="21"/>
+      <c r="AH63" s="21"/>
+      <c r="AI63" s="21"/>
+      <c r="AJ63" s="21"/>
+      <c r="AK63" s="21"/>
+      <c r="AL63" s="21"/>
+      <c r="AM63" s="21"/>
+      <c r="AN63" s="21"/>
+      <c r="AO63" s="21"/>
+      <c r="AP63" s="21"/>
+      <c r="AQ63" s="21"/>
+      <c r="AR63" s="21"/>
+      <c r="AS63" s="21"/>
+      <c r="AT63" s="21"/>
+      <c r="AU63" s="21"/>
+      <c r="AV63" s="21"/>
+      <c r="AW63" s="21"/>
+      <c r="AX63" s="21"/>
+      <c r="AY63" s="21"/>
+      <c r="AZ63" s="21"/>
+      <c r="BA63" s="21"/>
+      <c r="BB63" s="21"/>
+      <c r="BC63" s="21"/>
+      <c r="BD63" s="21"/>
+      <c r="BE63" s="21"/>
+      <c r="BF63" s="21"/>
+      <c r="BG63" s="21"/>
+      <c r="BH63" s="21"/>
       <c r="BI63" s="1"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
@@ -8576,21 +8518,21 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
     </row>
-    <row r="64" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:98">
       <c r="A64">
         <v>50</v>
       </c>
       <c r="B64" s="22"/>
-      <c r="C64" s="27"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="23">
-        <f>IFERROR( HLOOKUP("BE",L64:BF$93,$A$93-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",L64:BF$93,$A$93-$A64+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L64:BF$98,$A$98-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",L64:BF$98,$A$98-$A64+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H64" s="23">
-        <f>IFERROR( HLOOKUP("BE",L64:BF$93,$A$93-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",L64:BF$93,$A$93-$A64+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L64:BF$98,$A$98-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",L64:BF$98,$A$98-$A64+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I64" s="23"/>
@@ -8684,7 +8626,7 @@
       <c r="CS64" s="1"/>
       <c r="CT64" s="1"/>
     </row>
-    <row r="65" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:98">
       <c r="A65">
         <v>51</v>
       </c>
@@ -8694,11 +8636,11 @@
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$93,$A$93-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$93,$A$93-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$98,$A$98-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$98,$A$98-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$93,$A$93-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$93,$A$93-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L65:BF$98,$A$98-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$98,$A$98-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I65" s="23"/>
@@ -8792,71 +8734,75 @@
       <c r="CS65" s="1"/>
       <c r="CT65" s="1"/>
     </row>
-    <row r="66" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:98">
       <c r="A66">
         <v>52</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="21"/>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="21"/>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="21"/>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="21"/>
-      <c r="AP66" s="21"/>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="21"/>
-      <c r="AT66" s="21"/>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="21"/>
-      <c r="AX66" s="21"/>
-      <c r="AY66" s="21"/>
-      <c r="AZ66" s="21"/>
-      <c r="BA66" s="21"/>
-      <c r="BB66" s="21"/>
-      <c r="BC66" s="21"/>
-      <c r="BD66" s="21"/>
-      <c r="BE66" s="21"/>
-      <c r="BF66" s="21"/>
-      <c r="BG66" s="21"/>
-      <c r="BH66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="23">
+        <f>IFERROR( HLOOKUP("BE",L66:BF$98,$A$98-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$98,$A$98-$A66+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="23">
+        <f>IFERROR( HLOOKUP("BE",L66:BF$98,$A$98-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$98,$A$98-$A66+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="23"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="1"/>
+      <c r="BH66" s="1"/>
       <c r="BI66" s="1"/>
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
@@ -8896,25 +8842,27 @@
       <c r="CS66" s="1"/>
       <c r="CT66" s="1"/>
     </row>
-    <row r="67" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:98">
       <c r="A67">
         <v>53</v>
       </c>
       <c r="B67" s="22"/>
-      <c r="C67" s="51"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="23">
-        <f>IFERROR( HLOOKUP("BE",L67:BF$93,$A$93-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",L67:BF$93,$A$93-$A67+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L67:BF$98,$A$98-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",L67:BF$98,$A$98-$A67+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H67" s="23">
-        <f>IFERROR( HLOOKUP("BE",L67:BF$93,$A$93-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",L67:BF$93,$A$93-$A67+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L67:BF$98,$A$98-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",L67:BF$98,$A$98-$A67+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I67" s="23"/>
-      <c r="J67" s="22"/>
+      <c r="J67" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="K67" s="22"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -9004,7 +8952,7 @@
       <c r="CS67" s="1"/>
       <c r="CT67" s="1"/>
     </row>
-    <row r="68" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:98">
       <c r="A68">
         <v>54</v>
       </c>
@@ -9014,11 +8962,11 @@
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="23">
-        <f>IFERROR( HLOOKUP("BE",L68:BF$93,$A$93-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$93,$A$93-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$98,$A$98-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$98,$A$98-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="23">
-        <f>IFERROR( HLOOKUP("BE",L68:BF$93,$A$93-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$93,$A$93-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L68:BF$98,$A$98-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$98,$A$98-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I68" s="23"/>
@@ -9112,7 +9060,7 @@
       <c r="CS68" s="1"/>
       <c r="CT68" s="1"/>
     </row>
-    <row r="69" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:98">
       <c r="A69">
         <v>55</v>
       </c>
@@ -9122,11 +9070,11 @@
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$93,$A$93-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$93,$A$93-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$98,$A$98-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$98,$A$98-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$93,$A$93-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$93,$A$93-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L69:BF$98,$A$98-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$98,$A$98-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I69" s="23"/>
@@ -9220,7 +9168,7 @@
       <c r="CS69" s="1"/>
       <c r="CT69" s="1"/>
     </row>
-    <row r="70" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:98">
       <c r="A70">
         <v>56</v>
       </c>
@@ -9230,11 +9178,11 @@
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$93,$A$93-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$93,$A$93-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$98,$A$98-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$98,$A$98-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$93,$A$93-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$93,$A$93-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$98,$A$98-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$98,$A$98-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I70" s="23"/>
@@ -9328,75 +9276,71 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
     </row>
-    <row r="71" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:98" s="20" customFormat="1">
       <c r="A71">
         <v>57</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23">
-        <f>IFERROR( HLOOKUP("BE",L71:BF$93,$A$93-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",L71:BF$93,$A$93-$A71+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="23">
-        <f>IFERROR( HLOOKUP("BE",L71:BF$93,$A$93-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",L71:BF$93,$A$93-$A71+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="21"/>
+      <c r="AM71" s="21"/>
+      <c r="AN71" s="21"/>
+      <c r="AO71" s="21"/>
+      <c r="AP71" s="21"/>
+      <c r="AQ71" s="21"/>
+      <c r="AR71" s="21"/>
+      <c r="AS71" s="21"/>
+      <c r="AT71" s="21"/>
+      <c r="AU71" s="21"/>
+      <c r="AV71" s="21"/>
+      <c r="AW71" s="21"/>
+      <c r="AX71" s="21"/>
+      <c r="AY71" s="21"/>
+      <c r="AZ71" s="21"/>
+      <c r="BA71" s="21"/>
+      <c r="BB71" s="21"/>
+      <c r="BC71" s="21"/>
+      <c r="BD71" s="21"/>
+      <c r="BE71" s="21"/>
+      <c r="BF71" s="21"/>
+      <c r="BG71" s="21"/>
+      <c r="BH71" s="21"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -9436,21 +9380,21 @@
       <c r="CS71" s="1"/>
       <c r="CT71" s="1"/>
     </row>
-    <row r="72" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:98">
       <c r="A72">
         <v>58</v>
       </c>
       <c r="B72" s="22"/>
-      <c r="C72" s="27"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$93,$A$93-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$93,$A$93-$A72+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$98,$A$98-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$98,$A$98-$A72+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$93,$A$93-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$93,$A$93-$A72+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L72:BF$98,$A$98-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$98,$A$98-$A72+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I72" s="23"/>
@@ -9544,71 +9488,75 @@
       <c r="CS72" s="1"/>
       <c r="CT72" s="1"/>
     </row>
-    <row r="73" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:98">
       <c r="A73">
         <v>59</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
-      <c r="AA73" s="21"/>
-      <c r="AB73" s="21"/>
-      <c r="AC73" s="21"/>
-      <c r="AD73" s="21"/>
-      <c r="AE73" s="21"/>
-      <c r="AF73" s="21"/>
-      <c r="AG73" s="21"/>
-      <c r="AH73" s="21"/>
-      <c r="AI73" s="21"/>
-      <c r="AJ73" s="21"/>
-      <c r="AK73" s="21"/>
-      <c r="AL73" s="21"/>
-      <c r="AM73" s="21"/>
-      <c r="AN73" s="21"/>
-      <c r="AO73" s="21"/>
-      <c r="AP73" s="21"/>
-      <c r="AQ73" s="21"/>
-      <c r="AR73" s="21"/>
-      <c r="AS73" s="21"/>
-      <c r="AT73" s="21"/>
-      <c r="AU73" s="21"/>
-      <c r="AV73" s="21"/>
-      <c r="AW73" s="21"/>
-      <c r="AX73" s="21"/>
-      <c r="AY73" s="21"/>
-      <c r="AZ73" s="21"/>
-      <c r="BA73" s="21"/>
-      <c r="BB73" s="21"/>
-      <c r="BC73" s="21"/>
-      <c r="BD73" s="21"/>
-      <c r="BE73" s="21"/>
-      <c r="BF73" s="21"/>
-      <c r="BG73" s="21"/>
-      <c r="BH73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="23">
+        <f>IFERROR( HLOOKUP("BE",L73:BF$98,$A$98-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$98,$A$98-$A73+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="23">
+        <f>IFERROR( HLOOKUP("BE",L73:BF$98,$A$98-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$98,$A$98-$A73+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="23"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
       <c r="BI73" s="1"/>
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
@@ -9648,23 +9596,21 @@
       <c r="CS73" s="1"/>
       <c r="CT73" s="1"/>
     </row>
-    <row r="74" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:98">
       <c r="A74">
         <v>60</v>
       </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="35" t="s">
-        <v>58</v>
-      </c>
+      <c r="C74" s="27"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$93,$A$93-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$93,$A$93-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$98,$A$98-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$98,$A$98-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$93,$A$93-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$93,$A$93-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$98,$A$98-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$98,$A$98-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I74" s="23"/>
@@ -9758,23 +9704,21 @@
       <c r="CS74" s="1"/>
       <c r="CT74" s="1"/>
     </row>
-    <row r="75" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:98">
       <c r="A75">
         <v>61</v>
       </c>
       <c r="B75" s="22"/>
-      <c r="C75" s="51" t="s">
-        <v>151</v>
-      </c>
+      <c r="C75" s="27"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$93,$A$93-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$93,$A$93-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$98,$A$98-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$98,$A$98-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$93,$A$93-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$93,$A$93-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$98,$A$98-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$98,$A$98-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="23"/>
@@ -9868,7 +9812,7 @@
       <c r="CS75" s="1"/>
       <c r="CT75" s="1"/>
     </row>
-    <row r="76" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:98">
       <c r="A76">
         <v>62</v>
       </c>
@@ -9878,11 +9822,11 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$93,$A$93-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$93,$A$93-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$98,$A$98-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$98,$A$98-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$93,$A$93-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$93,$A$93-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$98,$A$98-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$98,$A$98-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I76" s="23"/>
@@ -9976,21 +9920,21 @@
       <c r="CS76" s="1"/>
       <c r="CT76" s="1"/>
     </row>
-    <row r="77" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:98">
       <c r="A77">
         <v>63</v>
       </c>
       <c r="B77" s="22"/>
-      <c r="C77" s="34"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$93,$A$93-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$93,$A$93-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$98,$A$98-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$98,$A$98-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$93,$A$93-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$93,$A$93-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$98,$A$98-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$98,$A$98-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I77" s="23"/>
@@ -10084,75 +10028,71 @@
       <c r="CS77" s="1"/>
       <c r="CT77" s="1"/>
     </row>
-    <row r="78" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:98" s="20" customFormat="1">
       <c r="A78">
         <v>64</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$93,$A$93-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$93,$A$93-$A78+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$93,$A$93-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$93,$A$93-$A78+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="23"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
-      <c r="AP78" s="1"/>
-      <c r="AQ78" s="1"/>
-      <c r="AR78" s="1"/>
-      <c r="AS78" s="1"/>
-      <c r="AT78" s="1"/>
-      <c r="AU78" s="1"/>
-      <c r="AV78" s="1"/>
-      <c r="AW78" s="1"/>
-      <c r="AX78" s="1"/>
-      <c r="AY78" s="1"/>
-      <c r="AZ78" s="1"/>
-      <c r="BA78" s="1"/>
-      <c r="BB78" s="1"/>
-      <c r="BC78" s="1"/>
-      <c r="BD78" s="1"/>
-      <c r="BE78" s="1"/>
-      <c r="BF78" s="1"/>
-      <c r="BG78" s="1"/>
-      <c r="BH78" s="1"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
+      <c r="AB78" s="21"/>
+      <c r="AC78" s="21"/>
+      <c r="AD78" s="21"/>
+      <c r="AE78" s="21"/>
+      <c r="AF78" s="21"/>
+      <c r="AG78" s="21"/>
+      <c r="AH78" s="21"/>
+      <c r="AI78" s="21"/>
+      <c r="AJ78" s="21"/>
+      <c r="AK78" s="21"/>
+      <c r="AL78" s="21"/>
+      <c r="AM78" s="21"/>
+      <c r="AN78" s="21"/>
+      <c r="AO78" s="21"/>
+      <c r="AP78" s="21"/>
+      <c r="AQ78" s="21"/>
+      <c r="AR78" s="21"/>
+      <c r="AS78" s="21"/>
+      <c r="AT78" s="21"/>
+      <c r="AU78" s="21"/>
+      <c r="AV78" s="21"/>
+      <c r="AW78" s="21"/>
+      <c r="AX78" s="21"/>
+      <c r="AY78" s="21"/>
+      <c r="AZ78" s="21"/>
+      <c r="BA78" s="21"/>
+      <c r="BB78" s="21"/>
+      <c r="BC78" s="21"/>
+      <c r="BD78" s="21"/>
+      <c r="BE78" s="21"/>
+      <c r="BF78" s="21"/>
+      <c r="BG78" s="21"/>
+      <c r="BH78" s="21"/>
       <c r="BI78" s="1"/>
       <c r="BJ78" s="1"/>
       <c r="BK78" s="1"/>
@@ -10192,23 +10132,23 @@
       <c r="CS78" s="1"/>
       <c r="CT78" s="1"/>
     </row>
-    <row r="79" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:98">
       <c r="A79">
         <v>65</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$93,$A$93-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$93,$A$93-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$98,$A$98-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$98,$A$98-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$93,$A$93-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$93,$A$93-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$98,$A$98-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$98,$A$98-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I79" s="23"/>
@@ -10302,23 +10242,23 @@
       <c r="CS79" s="1"/>
       <c r="CT79" s="1"/>
     </row>
-    <row r="80" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:98">
       <c r="A80">
         <v>66</v>
       </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="27" t="s">
-        <v>153</v>
+      <c r="C80" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$93,$A$93-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$93,$A$93-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$98,$A$98-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$98,$A$98-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$93,$A$93-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$93,$A$93-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$98,$A$98-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$98,$A$98-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="23"/>
@@ -10412,23 +10352,21 @@
       <c r="CS80" s="1"/>
       <c r="CT80" s="1"/>
     </row>
-    <row r="81" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:98">
       <c r="A81">
         <v>67</v>
       </c>
       <c r="B81" s="22"/>
-      <c r="C81" s="27" t="s">
-        <v>152</v>
-      </c>
+      <c r="C81" s="34"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$93,$A$93-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$93,$A$93-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$98,$A$98-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$98,$A$98-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$93,$A$93-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$93,$A$93-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$98,$A$98-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$98,$A$98-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I81" s="23"/>
@@ -10522,23 +10460,21 @@
       <c r="CS81" s="1"/>
       <c r="CT81" s="1"/>
     </row>
-    <row r="82" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:98">
       <c r="A82">
         <v>68</v>
       </c>
       <c r="B82" s="22"/>
-      <c r="C82" s="27" t="s">
-        <v>141</v>
-      </c>
+      <c r="C82" s="34"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$93,$A$93-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$93,$A$93-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$98,$A$98-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$98,$A$98-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$93,$A$93-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$93,$A$93-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$98,$A$98-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$98,$A$98-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I82" s="23"/>
@@ -10632,23 +10568,21 @@
       <c r="CS82" s="1"/>
       <c r="CT82" s="1"/>
     </row>
-    <row r="83" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:98">
       <c r="A83">
         <v>69</v>
       </c>
       <c r="B83" s="22"/>
-      <c r="C83" s="35" t="s">
-        <v>154</v>
-      </c>
+      <c r="C83" s="34"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$93,$A$93-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$93,$A$93-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$98,$A$98-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$98,$A$98-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$93,$A$93-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$93,$A$93-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$98,$A$98-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$98,$A$98-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I83" s="23"/>
@@ -10742,21 +10676,23 @@
       <c r="CS83" s="1"/>
       <c r="CT83" s="1"/>
     </row>
-    <row r="84" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:98">
       <c r="A84">
         <v>70</v>
       </c>
       <c r="B84" s="22"/>
-      <c r="C84" s="35"/>
+      <c r="C84" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$93,$A$93-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$93,$A$93-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$98,$A$98-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$98,$A$98-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$93,$A$93-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$93,$A$93-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$98,$A$98-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$98,$A$98-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I84" s="23"/>
@@ -10850,21 +10786,23 @@
       <c r="CS84" s="1"/>
       <c r="CT84" s="1"/>
     </row>
-    <row r="85" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:98">
       <c r="A85">
         <v>71</v>
       </c>
       <c r="B85" s="22"/>
-      <c r="C85" s="34"/>
+      <c r="C85" s="27" t="s">
+        <v>153</v>
+      </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
       <c r="G85" s="23">
-        <f>IFERROR( HLOOKUP("BE",L85:BF$93,$A$93-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("B",L85:BF$93,$A$93-$A85+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L85:BF$98,$A$98-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("B",L85:BF$98,$A$98-$A85+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H85" s="23">
-        <f>IFERROR( HLOOKUP("BE",L85:BF$93,$A$93-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("E",L85:BF$93,$A$93-$A85+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L85:BF$98,$A$98-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("E",L85:BF$98,$A$98-$A85+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I85" s="23"/>
@@ -10958,21 +10896,23 @@
       <c r="CS85" s="1"/>
       <c r="CT85" s="1"/>
     </row>
-    <row r="86" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:98">
       <c r="A86">
         <v>72</v>
       </c>
       <c r="B86" s="22"/>
-      <c r="C86" s="34"/>
+      <c r="C86" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="23">
-        <f>IFERROR( HLOOKUP("BE",L86:BF$93,$A$93-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("B",L86:BF$93,$A$93-$A86+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L86:BF$98,$A$98-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("B",L86:BF$98,$A$98-$A86+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H86" s="23">
-        <f>IFERROR( HLOOKUP("BE",L86:BF$93,$A$93-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("E",L86:BF$93,$A$93-$A86+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L86:BF$98,$A$98-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("E",L86:BF$98,$A$98-$A86+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I86" s="23"/>
@@ -11066,23 +11006,23 @@
       <c r="CS86" s="1"/>
       <c r="CT86" s="1"/>
     </row>
-    <row r="87" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:98">
       <c r="A87">
         <v>73</v>
       </c>
       <c r="B87" s="22"/>
-      <c r="C87" s="35" t="s">
-        <v>155</v>
+      <c r="C87" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
       <c r="G87" s="23">
-        <f>IFERROR( HLOOKUP("BE",L87:BF$93,$A$93-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("B",L87:BF$93,$A$93-$A87+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L87:BF$98,$A$98-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("B",L87:BF$98,$A$98-$A87+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H87" s="23">
-        <f>IFERROR( HLOOKUP("BE",L87:BF$93,$A$93-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("E",L87:BF$93,$A$93-$A87+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L87:BF$98,$A$98-$A87+1,FALSE),0)+ IFERROR( HLOOKUP("E",L87:BF$98,$A$98-$A87+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I87" s="23"/>
@@ -11176,21 +11116,23 @@
       <c r="CS87" s="1"/>
       <c r="CT87" s="1"/>
     </row>
-    <row r="88" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:98">
       <c r="A88">
         <v>74</v>
       </c>
       <c r="B88" s="22"/>
-      <c r="C88" s="27"/>
+      <c r="C88" s="35" t="s">
+        <v>154</v>
+      </c>
       <c r="D88" s="22"/>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
       <c r="G88" s="23">
-        <f>IFERROR( HLOOKUP("BE",L88:BF$93,$A$93-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("B",L88:BF$93,$A$93-$A88+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L88:BF$98,$A$98-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("B",L88:BF$98,$A$98-$A88+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H88" s="23">
-        <f>IFERROR( HLOOKUP("BE",L88:BF$93,$A$93-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("E",L88:BF$93,$A$93-$A88+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L88:BF$98,$A$98-$A88+1,FALSE),0)+ IFERROR( HLOOKUP("E",L88:BF$98,$A$98-$A88+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I88" s="23"/>
@@ -11284,21 +11226,21 @@
       <c r="CS88" s="1"/>
       <c r="CT88" s="1"/>
     </row>
-    <row r="89" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:98">
       <c r="A89">
         <v>75</v>
       </c>
       <c r="B89" s="22"/>
-      <c r="C89" s="27"/>
+      <c r="C89" s="35"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="23">
-        <f>IFERROR( HLOOKUP("BE",L89:BF$93,$A$93-$A89+1,FALSE),0)+ IFERROR( HLOOKUP("B",L89:BF$93,$A$93-$A89+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L89:BF$98,$A$98-$A89+1,FALSE),0)+ IFERROR( HLOOKUP("B",L89:BF$98,$A$98-$A89+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H89" s="23">
-        <f>IFERROR( HLOOKUP("BE",L89:BF$93,$A$93-$A89+1,FALSE),0)+ IFERROR( HLOOKUP("E",L89:BF$93,$A$93-$A89+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L89:BF$98,$A$98-$A89+1,FALSE),0)+ IFERROR( HLOOKUP("E",L89:BF$98,$A$98-$A89+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I89" s="23"/>
@@ -11392,21 +11334,21 @@
       <c r="CS89" s="1"/>
       <c r="CT89" s="1"/>
     </row>
-    <row r="90" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:98">
       <c r="A90">
         <v>76</v>
       </c>
       <c r="B90" s="22"/>
-      <c r="C90" s="27"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22"/>
       <c r="F90" s="22"/>
       <c r="G90" s="23">
-        <f>IFERROR( HLOOKUP("BE",L90:BF$93,$A$93-$A90+1,FALSE),0)+ IFERROR( HLOOKUP("B",L90:BF$93,$A$93-$A90+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L90:BF$98,$A$98-$A90+1,FALSE),0)+ IFERROR( HLOOKUP("B",L90:BF$98,$A$98-$A90+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H90" s="23">
-        <f>IFERROR( HLOOKUP("BE",L90:BF$93,$A$93-$A90+1,FALSE),0)+ IFERROR( HLOOKUP("E",L90:BF$93,$A$93-$A90+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L90:BF$98,$A$98-$A90+1,FALSE),0)+ IFERROR( HLOOKUP("E",L90:BF$98,$A$98-$A90+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I90" s="23"/>
@@ -11500,356 +11442,895 @@
       <c r="CS90" s="1"/>
       <c r="CT90" s="1"/>
     </row>
-    <row r="91" spans="1:98" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:98">
       <c r="A91">
         <v>77</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
-      <c r="U91" s="21"/>
-      <c r="V91" s="21"/>
-      <c r="W91" s="21"/>
-      <c r="X91" s="21"/>
-      <c r="Y91" s="21"/>
-      <c r="Z91" s="21"/>
-      <c r="AA91" s="21"/>
-      <c r="AB91" s="21"/>
-      <c r="AC91" s="21"/>
-      <c r="AD91" s="21"/>
-      <c r="AE91" s="21"/>
-      <c r="AF91" s="21"/>
-      <c r="AG91" s="21"/>
-      <c r="AH91" s="21"/>
-      <c r="AI91" s="21"/>
-      <c r="AJ91" s="21"/>
-      <c r="AK91" s="21"/>
-      <c r="AL91" s="21"/>
-      <c r="AM91" s="21"/>
-      <c r="AN91" s="21"/>
-      <c r="AO91" s="21"/>
-      <c r="AP91" s="21"/>
-      <c r="AQ91" s="21"/>
-      <c r="AR91" s="21"/>
-      <c r="AS91" s="21"/>
-      <c r="AT91" s="21"/>
-      <c r="AU91" s="21"/>
-      <c r="AV91" s="21"/>
-      <c r="AW91" s="21"/>
-      <c r="AX91" s="21"/>
-      <c r="AY91" s="21"/>
-      <c r="AZ91" s="21"/>
-      <c r="BA91" s="21"/>
-      <c r="BB91" s="21"/>
-      <c r="BC91" s="21"/>
-      <c r="BD91" s="21"/>
-      <c r="BE91" s="21"/>
-      <c r="BF91" s="21"/>
-      <c r="BG91" s="21"/>
-      <c r="BH91" s="21"/>
-      <c r="BI91" s="21"/>
-      <c r="BJ91" s="21"/>
-      <c r="BK91" s="21"/>
-      <c r="BL91" s="21"/>
-      <c r="BM91" s="21"/>
-      <c r="BN91" s="21"/>
-      <c r="BO91" s="21"/>
-      <c r="BP91" s="21"/>
-      <c r="BQ91" s="21"/>
-      <c r="BR91" s="21"/>
-      <c r="BS91" s="21"/>
-      <c r="BT91" s="21"/>
-      <c r="BU91" s="21"/>
-      <c r="BV91" s="21"/>
-      <c r="BW91" s="21"/>
-      <c r="BX91" s="21"/>
-      <c r="BY91" s="21"/>
-      <c r="BZ91" s="21"/>
-      <c r="CA91" s="21"/>
-      <c r="CB91" s="21"/>
-      <c r="CC91" s="21"/>
-      <c r="CD91" s="21"/>
-      <c r="CE91" s="21"/>
-      <c r="CF91" s="21"/>
-      <c r="CG91" s="21"/>
-      <c r="CH91" s="21"/>
-      <c r="CI91" s="21"/>
-      <c r="CJ91" s="21"/>
-      <c r="CK91" s="21"/>
-      <c r="CL91" s="21"/>
-      <c r="CM91" s="21"/>
-      <c r="CN91" s="21"/>
-      <c r="CO91" s="21"/>
-      <c r="CP91" s="21"/>
-      <c r="CQ91" s="21"/>
-      <c r="CR91" s="21"/>
-      <c r="CS91" s="21"/>
-      <c r="CT91" s="21"/>
-    </row>
-    <row r="92" spans="1:98" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="22"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="23">
+        <f>IFERROR( HLOOKUP("BE",L91:BF$98,$A$98-$A91+1,FALSE),0)+ IFERROR( HLOOKUP("B",L91:BF$98,$A$98-$A91+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="23">
+        <f>IFERROR( HLOOKUP("BE",L91:BF$98,$A$98-$A91+1,FALSE),0)+ IFERROR( HLOOKUP("E",L91:BF$98,$A$98-$A91+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="1"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="1"/>
+      <c r="CA91" s="1"/>
+      <c r="CB91" s="1"/>
+      <c r="CC91" s="1"/>
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="1"/>
+      <c r="CF91" s="1"/>
+      <c r="CG91" s="1"/>
+      <c r="CH91" s="1"/>
+      <c r="CI91" s="1"/>
+      <c r="CJ91" s="1"/>
+      <c r="CK91" s="1"/>
+      <c r="CL91" s="1"/>
+      <c r="CM91" s="1"/>
+      <c r="CN91" s="1"/>
+      <c r="CO91" s="1"/>
+      <c r="CP91" s="1"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="1"/>
+      <c r="CS91" s="1"/>
+      <c r="CT91" s="1"/>
+    </row>
+    <row r="92" spans="1:98">
       <c r="A92">
         <v>78</v>
       </c>
-    </row>
-    <row r="93" spans="1:98" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="22"/>
+      <c r="C92" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="23">
+        <f>IFERROR( HLOOKUP("BE",L92:BF$98,$A$98-$A92+1,FALSE),0)+ IFERROR( HLOOKUP("B",L92:BF$98,$A$98-$A92+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="23">
+        <f>IFERROR( HLOOKUP("BE",L92:BF$98,$A$98-$A92+1,FALSE),0)+ IFERROR( HLOOKUP("E",L92:BF$98,$A$98-$A92+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="23"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="1"/>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="1"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="1"/>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="1"/>
+      <c r="BT92" s="1"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BY92" s="1"/>
+      <c r="BZ92" s="1"/>
+      <c r="CA92" s="1"/>
+      <c r="CB92" s="1"/>
+      <c r="CC92" s="1"/>
+      <c r="CD92" s="1"/>
+      <c r="CE92" s="1"/>
+      <c r="CF92" s="1"/>
+      <c r="CG92" s="1"/>
+      <c r="CH92" s="1"/>
+      <c r="CI92" s="1"/>
+      <c r="CJ92" s="1"/>
+      <c r="CK92" s="1"/>
+      <c r="CL92" s="1"/>
+      <c r="CM92" s="1"/>
+      <c r="CN92" s="1"/>
+      <c r="CO92" s="1"/>
+      <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="1"/>
+      <c r="CS92" s="1"/>
+      <c r="CT92" s="1"/>
+    </row>
+    <row r="93" spans="1:98">
       <c r="A93">
         <v>79</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="B93" s="22"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="23">
+        <f>IFERROR( HLOOKUP("BE",L93:BF$98,$A$98-$A93+1,FALSE),0)+ IFERROR( HLOOKUP("B",L93:BF$98,$A$98-$A93+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="23">
+        <f>IFERROR( HLOOKUP("BE",L93:BF$98,$A$98-$A93+1,FALSE),0)+ IFERROR( HLOOKUP("E",L93:BF$98,$A$98-$A93+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="23"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="1"/>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" s="1"/>
+      <c r="CH93" s="1"/>
+      <c r="CI93" s="1"/>
+      <c r="CJ93" s="1"/>
+      <c r="CK93" s="1"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="1"/>
+      <c r="CS93" s="1"/>
+      <c r="CT93" s="1"/>
+    </row>
+    <row r="94" spans="1:98">
+      <c r="A94">
+        <v>80</v>
+      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="23">
+        <f>IFERROR( HLOOKUP("BE",L94:BF$98,$A$98-$A94+1,FALSE),0)+ IFERROR( HLOOKUP("B",L94:BF$98,$A$98-$A94+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="23">
+        <f>IFERROR( HLOOKUP("BE",L94:BF$98,$A$98-$A94+1,FALSE),0)+ IFERROR( HLOOKUP("E",L94:BF$98,$A$98-$A94+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="23"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="1"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="1"/>
+      <c r="CA94" s="1"/>
+      <c r="CB94" s="1"/>
+      <c r="CC94" s="1"/>
+      <c r="CD94" s="1"/>
+      <c r="CE94" s="1"/>
+      <c r="CF94" s="1"/>
+      <c r="CG94" s="1"/>
+      <c r="CH94" s="1"/>
+      <c r="CI94" s="1"/>
+      <c r="CJ94" s="1"/>
+      <c r="CK94" s="1"/>
+      <c r="CL94" s="1"/>
+      <c r="CM94" s="1"/>
+      <c r="CN94" s="1"/>
+      <c r="CO94" s="1"/>
+      <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="1"/>
+      <c r="CS94" s="1"/>
+      <c r="CT94" s="1"/>
+    </row>
+    <row r="95" spans="1:98">
+      <c r="A95">
+        <v>81</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="23">
+        <f>IFERROR( HLOOKUP("BE",L95:BF$98,$A$98-$A95+1,FALSE),0)+ IFERROR( HLOOKUP("B",L95:BF$98,$A$98-$A95+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="23">
+        <f>IFERROR( HLOOKUP("BE",L95:BF$98,$A$98-$A95+1,FALSE),0)+ IFERROR( HLOOKUP("E",L95:BF$98,$A$98-$A95+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="23"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="1"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="1"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="1"/>
+      <c r="BR95" s="1"/>
+      <c r="BS95" s="1"/>
+      <c r="BT95" s="1"/>
+      <c r="BU95" s="1"/>
+      <c r="BV95" s="1"/>
+      <c r="BW95" s="1"/>
+      <c r="BX95" s="1"/>
+      <c r="BY95" s="1"/>
+      <c r="BZ95" s="1"/>
+      <c r="CA95" s="1"/>
+      <c r="CB95" s="1"/>
+      <c r="CC95" s="1"/>
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="1"/>
+      <c r="CF95" s="1"/>
+      <c r="CG95" s="1"/>
+      <c r="CH95" s="1"/>
+      <c r="CI95" s="1"/>
+      <c r="CJ95" s="1"/>
+      <c r="CK95" s="1"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
+      <c r="CT95" s="1"/>
+    </row>
+    <row r="96" spans="1:98" s="20" customFormat="1">
+      <c r="A96">
+        <v>82</v>
+      </c>
+      <c r="B96" s="21"/>
+      <c r="C96" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="21"/>
+      <c r="AA96" s="21"/>
+      <c r="AB96" s="21"/>
+      <c r="AC96" s="21"/>
+      <c r="AD96" s="21"/>
+      <c r="AE96" s="21"/>
+      <c r="AF96" s="21"/>
+      <c r="AG96" s="21"/>
+      <c r="AH96" s="21"/>
+      <c r="AI96" s="21"/>
+      <c r="AJ96" s="21"/>
+      <c r="AK96" s="21"/>
+      <c r="AL96" s="21"/>
+      <c r="AM96" s="21"/>
+      <c r="AN96" s="21"/>
+      <c r="AO96" s="21"/>
+      <c r="AP96" s="21"/>
+      <c r="AQ96" s="21"/>
+      <c r="AR96" s="21"/>
+      <c r="AS96" s="21"/>
+      <c r="AT96" s="21"/>
+      <c r="AU96" s="21"/>
+      <c r="AV96" s="21"/>
+      <c r="AW96" s="21"/>
+      <c r="AX96" s="21"/>
+      <c r="AY96" s="21"/>
+      <c r="AZ96" s="21"/>
+      <c r="BA96" s="21"/>
+      <c r="BB96" s="21"/>
+      <c r="BC96" s="21"/>
+      <c r="BD96" s="21"/>
+      <c r="BE96" s="21"/>
+      <c r="BF96" s="21"/>
+      <c r="BG96" s="21"/>
+      <c r="BH96" s="21"/>
+      <c r="BI96" s="21"/>
+      <c r="BJ96" s="21"/>
+      <c r="BK96" s="21"/>
+      <c r="BL96" s="21"/>
+      <c r="BM96" s="21"/>
+      <c r="BN96" s="21"/>
+      <c r="BO96" s="21"/>
+      <c r="BP96" s="21"/>
+      <c r="BQ96" s="21"/>
+      <c r="BR96" s="21"/>
+      <c r="BS96" s="21"/>
+      <c r="BT96" s="21"/>
+      <c r="BU96" s="21"/>
+      <c r="BV96" s="21"/>
+      <c r="BW96" s="21"/>
+      <c r="BX96" s="21"/>
+      <c r="BY96" s="21"/>
+      <c r="BZ96" s="21"/>
+      <c r="CA96" s="21"/>
+      <c r="CB96" s="21"/>
+      <c r="CC96" s="21"/>
+      <c r="CD96" s="21"/>
+      <c r="CE96" s="21"/>
+      <c r="CF96" s="21"/>
+      <c r="CG96" s="21"/>
+      <c r="CH96" s="21"/>
+      <c r="CI96" s="21"/>
+      <c r="CJ96" s="21"/>
+      <c r="CK96" s="21"/>
+      <c r="CL96" s="21"/>
+      <c r="CM96" s="21"/>
+      <c r="CN96" s="21"/>
+      <c r="CO96" s="21"/>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
+      <c r="CS96" s="21"/>
+      <c r="CT96" s="21"/>
+    </row>
+    <row r="97" spans="1:58">
+      <c r="A97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:58" s="24" customFormat="1">
+      <c r="A98">
+        <v>84</v>
+      </c>
+      <c r="C98" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="L93" s="25">
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="L98" s="25">
         <f>L13</f>
         <v>41030</v>
       </c>
-      <c r="M93" s="25">
-        <f t="shared" ref="M93:BF93" si="44">M13</f>
+      <c r="M98" s="25">
+        <f t="shared" ref="M98:BF98" si="44">M13</f>
         <v>41031</v>
       </c>
-      <c r="N93" s="25">
+      <c r="N98" s="25">
         <f t="shared" si="44"/>
         <v>41032</v>
       </c>
-      <c r="O93" s="25">
+      <c r="O98" s="25">
         <f t="shared" si="44"/>
         <v>41033</v>
       </c>
-      <c r="P93" s="25">
+      <c r="P98" s="25">
         <f t="shared" si="44"/>
         <v>41034</v>
       </c>
-      <c r="Q93" s="25">
+      <c r="Q98" s="25">
         <f t="shared" si="44"/>
         <v>41035</v>
       </c>
-      <c r="R93" s="25">
+      <c r="R98" s="25">
         <f t="shared" si="44"/>
         <v>41036</v>
       </c>
-      <c r="S93" s="25">
+      <c r="S98" s="25">
         <f t="shared" si="44"/>
         <v>41037</v>
       </c>
-      <c r="T93" s="25">
+      <c r="T98" s="25">
         <f t="shared" si="44"/>
         <v>41038</v>
       </c>
-      <c r="U93" s="25">
+      <c r="U98" s="25">
         <f t="shared" si="44"/>
         <v>41039</v>
       </c>
-      <c r="V93" s="25">
+      <c r="V98" s="25">
         <f t="shared" si="44"/>
         <v>41040</v>
       </c>
-      <c r="W93" s="25">
+      <c r="W98" s="25">
         <f t="shared" si="44"/>
         <v>41041</v>
       </c>
-      <c r="X93" s="25">
+      <c r="X98" s="25">
         <f t="shared" si="44"/>
         <v>41042</v>
       </c>
-      <c r="Y93" s="25">
+      <c r="Y98" s="25">
         <f t="shared" si="44"/>
         <v>41043</v>
       </c>
-      <c r="Z93" s="25">
+      <c r="Z98" s="25">
         <f t="shared" si="44"/>
         <v>41044</v>
       </c>
-      <c r="AA93" s="25">
+      <c r="AA98" s="25">
         <f t="shared" si="44"/>
         <v>41045</v>
       </c>
-      <c r="AB93" s="25">
+      <c r="AB98" s="25">
         <f t="shared" si="44"/>
         <v>41046</v>
       </c>
-      <c r="AC93" s="25">
+      <c r="AC98" s="25">
         <f t="shared" si="44"/>
         <v>41047</v>
       </c>
-      <c r="AD93" s="25">
+      <c r="AD98" s="25">
         <f t="shared" si="44"/>
         <v>41048</v>
       </c>
-      <c r="AE93" s="25">
+      <c r="AE98" s="25">
         <f t="shared" si="44"/>
         <v>41049</v>
       </c>
-      <c r="AF93" s="25">
+      <c r="AF98" s="25">
         <f t="shared" si="44"/>
         <v>41050</v>
       </c>
-      <c r="AG93" s="25">
+      <c r="AG98" s="25">
         <f t="shared" si="44"/>
         <v>41051</v>
       </c>
-      <c r="AH93" s="25">
+      <c r="AH98" s="25">
         <f t="shared" si="44"/>
         <v>41052</v>
       </c>
-      <c r="AI93" s="25">
+      <c r="AI98" s="25">
         <f t="shared" si="44"/>
         <v>41053</v>
       </c>
-      <c r="AJ93" s="25">
+      <c r="AJ98" s="25">
         <f t="shared" si="44"/>
         <v>41054</v>
       </c>
-      <c r="AK93" s="25">
+      <c r="AK98" s="25">
         <f t="shared" si="44"/>
         <v>41055</v>
       </c>
-      <c r="AL93" s="25">
+      <c r="AL98" s="25">
         <f t="shared" si="44"/>
         <v>41056</v>
       </c>
-      <c r="AM93" s="25">
+      <c r="AM98" s="25">
         <f t="shared" si="44"/>
         <v>41057</v>
       </c>
-      <c r="AN93" s="25">
+      <c r="AN98" s="25">
         <f t="shared" si="44"/>
         <v>41058</v>
       </c>
-      <c r="AO93" s="25">
+      <c r="AO98" s="25">
         <f t="shared" si="44"/>
         <v>41059</v>
       </c>
-      <c r="AP93" s="25">
+      <c r="AP98" s="25">
         <f t="shared" si="44"/>
         <v>41060</v>
       </c>
-      <c r="AQ93" s="25">
+      <c r="AQ98" s="25">
         <f t="shared" si="44"/>
         <v>41061</v>
       </c>
-      <c r="AR93" s="25">
+      <c r="AR98" s="25">
         <f t="shared" si="44"/>
         <v>41062</v>
       </c>
-      <c r="AS93" s="25">
+      <c r="AS98" s="25">
         <f t="shared" si="44"/>
         <v>41063</v>
       </c>
-      <c r="AT93" s="25">
+      <c r="AT98" s="25">
         <f t="shared" si="44"/>
         <v>41064</v>
       </c>
-      <c r="AU93" s="25">
+      <c r="AU98" s="25">
         <f t="shared" si="44"/>
         <v>41065</v>
       </c>
-      <c r="AV93" s="25">
+      <c r="AV98" s="25">
         <f t="shared" si="44"/>
         <v>41066</v>
       </c>
-      <c r="AW93" s="25">
+      <c r="AW98" s="25">
         <f t="shared" si="44"/>
         <v>41067</v>
       </c>
-      <c r="AX93" s="25">
+      <c r="AX98" s="25">
         <f t="shared" si="44"/>
         <v>41068</v>
       </c>
-      <c r="AY93" s="25">
+      <c r="AY98" s="25">
         <f t="shared" si="44"/>
         <v>41069</v>
       </c>
-      <c r="AZ93" s="25">
+      <c r="AZ98" s="25">
         <f t="shared" si="44"/>
         <v>41070</v>
       </c>
-      <c r="BA93" s="25">
+      <c r="BA98" s="25">
         <f t="shared" si="44"/>
         <v>41071</v>
       </c>
-      <c r="BB93" s="25">
+      <c r="BB98" s="25">
         <f t="shared" si="44"/>
         <v>41072</v>
       </c>
-      <c r="BC93" s="25">
+      <c r="BC98" s="25">
         <f t="shared" si="44"/>
         <v>41073</v>
       </c>
-      <c r="BD93" s="25">
+      <c r="BD98" s="25">
         <f t="shared" si="44"/>
         <v>41074</v>
       </c>
-      <c r="BE93" s="25">
+      <c r="BE98" s="25">
         <f t="shared" si="44"/>
         <v>41075</v>
       </c>
-      <c r="BF93" s="25">
+      <c r="BF98" s="25">
         <f t="shared" si="44"/>
         <v>41076</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A14:BG93">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="MinhNN"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A14:BG98">
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
   </autoFilter>
-  <conditionalFormatting sqref="L92:AY92 L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L44:BF55 L24:BF42">
-    <cfRule type="cellIs" dxfId="24" priority="47" operator="equal">
+  <conditionalFormatting sqref="L97:AY97 L62:BF62 L64:BF95 L49:BF60 L15:BF18 L20:BF22 BI20:CT95 L24:BF47">
+    <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L57:BF57 L59:BF90 L15:BF18 L20:BF22 BI20:CT90 L44:BF55 L24:BF42">
-    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
+  <conditionalFormatting sqref="L62:BF62 L64:BF95 L49:BF60 L15:BF18 L20:BF22 BI20:CT95 L24:BF47">
+    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57 I59:I90 I20:I22 I15:I18 I44:I46 I48:I49 I51:I55 I24:I30 I32:I42">
-    <cfRule type="cellIs" dxfId="20" priority="81" operator="equal">
+  <conditionalFormatting sqref="I62 I64:I95 I37:I47 I49:I51 I53:I54 I56:I60 I20:I22 I15:I18 I24:I35">
+    <cfRule type="cellIs" dxfId="14" priority="81" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I18 I20:I22 I57 I59:I90 I48:I49 I44:I46 I51:I55 I24:I30 I32:I42">
-    <cfRule type="expression" dxfId="19" priority="90">
+  <conditionalFormatting sqref="I15:I18 I20:I22 I37:I47 I62 I64:I95 I53:I54 I49:I51 I56:I60 I24:I35">
+    <cfRule type="expression" dxfId="13" priority="90">
       <formula>AND(I15&lt;&gt;$G$5,$H15&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57 I44:I55 I67:I72 I59:I65 I74:I90 I37:I42 I24:I30 I15:I22 I32:I35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I62 I31:I35 I37:I40 I42:I47 I79:I95 I64:I70 I72:I77 I49:I60 I24:I29 I15:I22">
       <formula1>$G$2:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D91:E91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D96:E96">
       <formula1>thanh_vien</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:E90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:E95">
       <formula1>members</formula1>
     </dataValidation>
   </dataValidations>
@@ -11860,7 +12341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11870,7 +12351,7 @@
       <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -11889,7 +12370,7 @@
     <col min="24" max="24" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75">
       <c r="A1" s="60" t="s">
         <v>71</v>
       </c>
@@ -11918,7 +12399,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="60">
       <c r="A2" s="50" t="s">
         <v>38</v>
       </c>
@@ -11983,7 +12464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="39">
         <v>1</v>
       </c>
@@ -12041,7 +12522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -12090,7 +12571,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="39">
         <v>3</v>
       </c>
@@ -12149,7 +12630,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="39">
         <v>4</v>
       </c>
@@ -12204,7 +12685,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -12255,7 +12736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -12310,7 +12791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -12355,7 +12836,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="39">
         <v>9</v>
       </c>
@@ -12394,7 +12875,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="46">
         <v>10</v>
       </c>
@@ -12435,7 +12916,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="46">
         <v>11</v>
       </c>
@@ -12478,7 +12959,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="M14" s="58" t="s">
         <v>158</v>
       </c>
@@ -12492,67 +12973,67 @@
     <mergeCell ref="V14:W14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I11">
-    <cfRule type="containsBlanks" dxfId="18" priority="14">
+    <cfRule type="containsBlanks" dxfId="12" priority="14">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M11">
-    <cfRule type="containsBlanks" dxfId="17" priority="13">
+    <cfRule type="containsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(K3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsBlanks" dxfId="16" priority="12">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(J3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="15" priority="11">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(N5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="14" priority="10">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(N7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="13" priority="9">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(N6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:N12">
-    <cfRule type="containsBlanks" dxfId="12" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O12">
-    <cfRule type="containsBlanks" dxfId="11" priority="7">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(O3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="containsBlanks" dxfId="10" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(P5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="containsBlanks" dxfId="9" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(P6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="containsBlanks" dxfId="8" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(P7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(P11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(P12))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12568,51 +13049,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G6:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:8">
       <c r="G6" t="str">
         <f>IF(ISNUMBER(FIND("CD",D6)),"x","")</f>
         <v/>
       </c>
       <c r="H6" s="52"/>
     </row>
-    <row r="7" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:8">
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:8">
       <c r="G8" t="str">
         <f t="shared" ref="G8:G10" si="0">IF(ISNUMBER(FIND("CD",D8)),"x","")</f>
         <v/>
       </c>
       <c r="H8" s="52"/>
     </row>
-    <row r="9" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:8">
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:8">
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10" s="52"/>
     </row>
-    <row r="12" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:8">
       <c r="G12" s="37"/>
       <c r="H12" s="53"/>
     </row>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="207">
   <si>
     <t>GVCM</t>
   </si>
@@ -951,6 +951,9 @@
   </si>
   <si>
     <t>Ban dự án TRM2.0</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
   </si>
 </sst>
 </file>
@@ -1294,15 +1297,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,6 +1308,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1827,7 +1830,7 @@
   </sheetPr>
   <dimension ref="A1:CT88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+    <sheetView topLeftCell="B23" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1877,7 +1880,7 @@
         <f t="shared" ref="D2:D9" si="0">SUMIF($E$12:$E$86,C2,$F$12:$F$86)</f>
         <v>37.5</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="61">
         <f>D2*$H$3+76500</f>
         <v>7828056.9395017792</v>
       </c>
@@ -1905,7 +1908,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="61">
         <v>76500</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -1930,7 +1933,7 @@
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <f>D4*$H$3+76500</f>
         <v>779307.82918149466</v>
       </c>
@@ -1950,8 +1953,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E5" s="64">
-        <f t="shared" ref="E3:E9" si="1">D5*$H$3</f>
+      <c r="E5" s="61">
+        <f t="shared" ref="E5:E8" si="1">D5*$H$3</f>
         <v>1240249.1103202847</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -1969,13 +1972,13 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="61">
         <f t="shared" si="1"/>
         <v>661466.19217081857</v>
       </c>
       <c r="F6" s="53"/>
       <c r="H6" s="58"/>
-      <c r="I6" s="65"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:98">
       <c r="A7" s="37"/>
@@ -1987,7 +1990,7 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="61">
         <f t="shared" si="1"/>
         <v>268720.64056939504</v>
       </c>
@@ -2004,7 +2007,7 @@
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="61">
         <f t="shared" si="1"/>
         <v>372074.73309608543</v>
       </c>
@@ -2021,7 +2024,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="61">
         <f>D9*$H$3</f>
         <v>620124.55516014236</v>
       </c>
@@ -11468,8 +11471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11483,13 +11486,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="64">
         <v>25500000</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="68" t="s">
         <v>187</v>
       </c>
       <c r="F2" t="s">
@@ -11529,7 +11532,7 @@
       <c r="D5" s="36"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="69"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>190</v>
       </c>
@@ -11544,13 +11547,13 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="67" t="s">
         <v>191</v>
       </c>
       <c r="D7" s="36">
         <v>459000</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="63">
         <v>0.03</v>
       </c>
       <c r="F7" t="s">
@@ -11559,13 +11562,13 @@
       <c r="G7" s="51"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="67" t="s">
         <v>193</v>
       </c>
       <c r="D8" s="36">
         <v>459000</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="63">
         <v>0.03</v>
       </c>
       <c r="F8" t="s">
@@ -11574,13 +11577,13 @@
       <c r="G8" s="51"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="67" t="s">
         <v>194</v>
       </c>
       <c r="D9" s="36">
         <v>153000</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="63">
         <v>0.01</v>
       </c>
       <c r="F9" t="s">
@@ -11592,14 +11595,17 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="67" t="s">
         <v>195</v>
       </c>
       <c r="D10" s="36">
         <v>2000000</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="63">
         <v>0.13071895424836602</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
       </c>
       <c r="G10" s="51"/>
     </row>
@@ -11607,13 +11613,13 @@
       <c r="B11" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="67" t="s">
         <v>196</v>
       </c>
       <c r="D11" s="36">
         <v>306000</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="63">
         <v>0.02</v>
       </c>
       <c r="F11" t="s">
@@ -11622,13 +11628,13 @@
       <c r="G11" s="51"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="67" t="s">
         <v>198</v>
       </c>
       <c r="D12" s="36">
         <v>11617000</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="63">
         <v>0.75928104575163402</v>
       </c>
       <c r="F12" t="s">
@@ -11636,13 +11642,13 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="67" t="s">
         <v>199</v>
       </c>
       <c r="D13" s="36">
         <v>306000</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="63">
         <v>0.02</v>
       </c>
       <c r="F13" t="s">
@@ -11651,7 +11657,7 @@
       <c r="G13" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection password="E554" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E34C" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -11689,12 +11695,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="J1" t="s">
         <v>118</v>
       </c>
@@ -12282,8 +12288,8 @@
         <v>146</v>
       </c>
       <c r="U14" s="40"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12409,7 +12415,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="71" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -12426,7 +12432,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="61"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -12441,7 +12447,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="71" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -12458,7 +12464,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="61"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -12473,7 +12479,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="61"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>

--- a/01. Document/Plan_TRM Project v2012.05.04.xlsx
+++ b/01. Document/Plan_TRM Project v2012.05.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="Mô hình chi phí" sheetId="5" r:id="rId3"/>
     <sheet name="Thành viên - Vị trí" sheetId="4" r:id="rId4"/>
     <sheet name="Khao sat hệ thống" sheetId="1" r:id="rId5"/>
+    <sheet name="Quỹ ủng hộ" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Plan + Công'!$A$12:$BG$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Plan + Công'!$A$12:$BG$89</definedName>
     <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$V$4:$V$12</definedName>
     <definedName name="members">'Thành viên - Vị trí'!$C$3:$C$13</definedName>
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$11</definedName>
@@ -30,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E37" authorId="0">
+    <comment ref="E38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0">
+    <comment ref="E41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0">
+    <comment ref="C51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0">
+    <comment ref="D51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="208">
   <si>
     <t>GVCM</t>
   </si>
@@ -954,6 +955,9 @@
   </si>
   <si>
     <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Training nội bộ cho các thành viên IPCore quay video</t>
   </si>
 </sst>
 </file>
@@ -1828,10 +1832,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT88"/>
+  <dimension ref="A1:CT89"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1877,12 +1881,12 @@
         <v>50</v>
       </c>
       <c r="D2" s="39">
-        <f t="shared" ref="D2:D9" si="0">SUMIF($E$12:$E$86,C2,$F$12:$F$86)</f>
-        <v>37.5</v>
+        <f t="shared" ref="D2:D9" si="0">SUMIF($E$12:$E$87,C2,$F$12:$F$87)</f>
+        <v>37</v>
       </c>
       <c r="E2" s="61">
         <f>D2*$H$3+76500</f>
-        <v>7828056.9395017792</v>
+        <v>7684092.9203539817</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>35</v>
@@ -1892,7 +1896,7 @@
       </c>
       <c r="H2" s="35">
         <f>SUM(D2:D9)</f>
-        <v>56.199999999999996</v>
+        <v>56.5</v>
       </c>
       <c r="I2"/>
       <c r="K2" s="35"/>
@@ -1919,7 +1923,7 @@
       </c>
       <c r="H3" s="59">
         <f>H1/H2</f>
-        <v>206708.18505338079</v>
+        <v>205610.61946902654</v>
       </c>
       <c r="I3"/>
       <c r="L3" s="32"/>
@@ -1931,11 +1935,11 @@
       </c>
       <c r="D4" s="39">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="61">
         <f>D4*$H$3+76500</f>
-        <v>779307.82918149466</v>
+        <v>693331.85840707959</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>136</v>
@@ -1955,7 +1959,7 @@
       </c>
       <c r="E5" s="61">
         <f t="shared" ref="E5:E8" si="1">D5*$H$3</f>
-        <v>1240249.1103202847</v>
+        <v>1233663.7168141592</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>37</v>
@@ -1970,11 +1974,11 @@
       </c>
       <c r="D6" s="39">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E6" s="61">
         <f t="shared" si="1"/>
-        <v>661466.19217081857</v>
+        <v>843003.5398230087</v>
       </c>
       <c r="F6" s="53"/>
       <c r="H6" s="58"/>
@@ -1988,11 +1992,11 @@
       </c>
       <c r="D7" s="39">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E7" s="61">
         <f t="shared" si="1"/>
-        <v>268720.64056939504</v>
+        <v>328976.99115044251</v>
       </c>
       <c r="F7" s="53"/>
       <c r="I7"/>
@@ -2009,7 +2013,7 @@
       </c>
       <c r="E8" s="61">
         <f t="shared" si="1"/>
-        <v>372074.73309608543</v>
+        <v>370099.11504424777</v>
       </c>
       <c r="F8" s="53"/>
       <c r="I8"/>
@@ -2026,7 +2030,7 @@
       </c>
       <c r="E9" s="61">
         <f>D9*$H$3</f>
-        <v>620124.55516014236</v>
+        <v>616831.85840707959</v>
       </c>
       <c r="F9" s="53"/>
       <c r="I9"/>
@@ -2773,7 +2777,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="55">
-        <f>COUNTIF(I13:I85,"Đã xong")/COUNTA(I13:I85) * 100%</f>
+        <f>COUNTIF(I13:I86,"Đã xong")/COUNTA(I13:I86) * 100%</f>
         <v>0.97560975609756095</v>
       </c>
       <c r="J12" s="21"/>
@@ -2884,11 +2888,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="23">
-        <f>IFERROR( HLOOKUP("BE",L13:BF$88,$A$88-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",L13:BF$88,$A$88-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L13:BF$89,$A$89-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",L13:BF$89,$A$89-$A13+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="23">
-        <f>IFERROR( HLOOKUP("BE",L13:BF$88,$A$88-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",L13:BF$88,$A$88-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L13:BF$89,$A$89-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",L13:BF$89,$A$89-$A13+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I13" s="23" t="s">
@@ -3115,11 +3119,11 @@
         <v>3</v>
       </c>
       <c r="G15" s="23">
-        <f>IFERROR( HLOOKUP("BE",L15:BF$88,$A$88-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",L15:BF$88,$A$88-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L15:BF$89,$A$89-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",L15:BF$89,$A$89-$A15+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="23">
-        <f>IFERROR( HLOOKUP("BE",L15:BF$88,$A$88-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",L15:BF$88,$A$88-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L15:BF$89,$A$89-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",L15:BF$89,$A$89-$A15+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I15" s="23" t="s">
@@ -3241,11 +3245,11 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$88,$A$88-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$88,$A$88-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$89,$A$89-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",L16:BF$89,$A$89-$A16+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="23">
-        <f>IFERROR( HLOOKUP("BE",L16:BF$88,$A$88-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$88,$A$88-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L16:BF$89,$A$89-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",L16:BF$89,$A$89-$A16+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I16" s="23" t="s">
@@ -3346,59 +3350,31 @@
       <c r="CT16" s="1"/>
     </row>
     <row r="17" spans="1:98" ht="30">
-      <c r="B17" s="22">
-        <v>4</v>
-      </c>
+      <c r="B17" s="22"/>
       <c r="C17" s="27" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F17" s="22">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$88,$A$88-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",L17:BF$88,$A$88-$A17+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
-        <f>IFERROR( HLOOKUP("BE",L17:BF$88,$A$88-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",L17:BF$88,$A$88-$A17+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>37</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -3478,240 +3454,262 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
     </row>
-    <row r="18" spans="1:98" s="20" customFormat="1">
-      <c r="A18">
+    <row r="18" spans="1:98" ht="30">
+      <c r="B18" s="22">
         <v>4</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="23">
+        <f>IFERROR( HLOOKUP("BE",L18:BF$89,$A$89-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",L18:BF$89,$A$89-$A18+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="23">
+        <f>IFERROR( HLOOKUP("BE",L18:BF$89,$A$89-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",L18:BF$89,$A$89-$A18+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+    </row>
+    <row r="19" spans="1:98" s="20" customFormat="1">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="21"/>
-      <c r="BG18" s="21"/>
-      <c r="BH18" s="21"/>
-      <c r="BI18" s="21"/>
-      <c r="BJ18" s="21"/>
-      <c r="BK18" s="21"/>
-      <c r="BL18" s="21"/>
-      <c r="BM18" s="21"/>
-      <c r="BN18" s="21"/>
-      <c r="BO18" s="21"/>
-      <c r="BP18" s="21"/>
-      <c r="BQ18" s="21"/>
-      <c r="BR18" s="21"/>
-      <c r="BS18" s="21"/>
-      <c r="BT18" s="21"/>
-      <c r="BU18" s="21"/>
-      <c r="BV18" s="21"/>
-      <c r="BW18" s="21"/>
-      <c r="BX18" s="21"/>
-      <c r="BY18" s="21"/>
-      <c r="BZ18" s="21"/>
-      <c r="CA18" s="21"/>
-      <c r="CB18" s="21"/>
-      <c r="CC18" s="21"/>
-      <c r="CD18" s="21"/>
-      <c r="CE18" s="21"/>
-      <c r="CF18" s="21"/>
-      <c r="CG18" s="21"/>
-      <c r="CH18" s="21"/>
-      <c r="CI18" s="21"/>
-      <c r="CJ18" s="21"/>
-      <c r="CK18" s="21"/>
-      <c r="CL18" s="21"/>
-      <c r="CM18" s="21"/>
-      <c r="CN18" s="21"/>
-      <c r="CO18" s="21"/>
-      <c r="CP18" s="21"/>
-      <c r="CQ18" s="21"/>
-      <c r="CR18" s="21"/>
-      <c r="CS18" s="21"/>
-      <c r="CT18" s="21"/>
-    </row>
-    <row r="19" spans="1:98">
-      <c r="A19">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="21"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="21"/>
+      <c r="BZ19" s="21"/>
+      <c r="CA19" s="21"/>
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="21"/>
+      <c r="CH19" s="21"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
+      <c r="CO19" s="21"/>
+      <c r="CP19" s="21"/>
+      <c r="CQ19" s="21"/>
+      <c r="CR19" s="21"/>
+      <c r="CS19" s="21"/>
+      <c r="CT19" s="21"/>
+    </row>
+    <row r="20" spans="1:98">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C20" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23">
-        <f>IFERROR( HLOOKUP("BE",L19:BF$88,$A$88-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",L19:BF$88,$A$88-$A19+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <f>IFERROR( HLOOKUP("BE",L19:BF$88,$A$88-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",L19:BF$88,$A$88-$A19+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
-      <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
-      <c r="BY19" s="1"/>
-      <c r="BZ19" s="1"/>
-      <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
-      <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
-    </row>
-    <row r="20" spans="1:98">
-      <c r="B20" s="22">
-        <v>6</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$88,$A$88-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$88,$A$88-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$89,$A$89-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",L20:BF$89,$A$89-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <f>IFERROR( HLOOKUP("BE",L20:BF$88,$A$88-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$88,$A$88-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L20:BF$89,$A$89-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",L20:BF$89,$A$89-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -3724,15 +3722,9 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -3814,24 +3806,21 @@
       <c r="CT20" s="1"/>
     </row>
     <row r="21" spans="1:98">
-      <c r="A21">
+      <c r="B21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="22">
-        <v>7</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$88,$A$88-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$88,$A$88-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$89,$A$89-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",L21:BF$89,$A$89-$A21+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="23">
-        <f>IFERROR( HLOOKUP("BE",L21:BF$88,$A$88-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$88,$A$88-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L21:BF$89,$A$89-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",L21:BF$89,$A$89-$A21+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -3844,9 +3833,15 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -3927,71 +3922,81 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
     </row>
-    <row r="22" spans="1:98" s="20" customFormat="1">
+    <row r="22" spans="1:98">
       <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="22">
         <v>7</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="21"/>
-      <c r="BG22" s="21"/>
-      <c r="BH22" s="21"/>
+      <c r="C22" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23">
+        <f>IFERROR( HLOOKUP("BE",L22:BF$89,$A$89-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",L22:BF$89,$A$89-$A22+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="23">
+        <f>IFERROR( HLOOKUP("BE",L22:BF$89,$A$89-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",L22:BF$89,$A$89-$A22+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
@@ -4031,94 +4036,71 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
     </row>
-    <row r="23" spans="1:98">
-      <c r="B23" s="22">
-        <v>8</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="G23" s="23">
-        <f>IFERROR( HLOOKUP("BE",L23:BF$88,$A$88-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",L23:BF$88,$A$88-$A23+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="23">
-        <f>IFERROR( HLOOKUP("BE",L23:BF$88,$A$88-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",L23:BF$88,$A$88-$A23+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
+    <row r="23" spans="1:98" s="20" customFormat="1">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
@@ -4159,29 +4141,36 @@
       <c r="CT23" s="1"/>
     </row>
     <row r="24" spans="1:98">
-      <c r="A24">
-        <v>8</v>
-      </c>
       <c r="B24" s="22">
         <v>8</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F24" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="23">
+        <f>IFERROR( HLOOKUP("BE",L24:BF$89,$A$89-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",L24:BF$89,$A$89-$A24+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="23">
+        <f>IFERROR( HLOOKUP("BE",L24:BF$89,$A$89-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",L24:BF$89,$A$89-$A24+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="I24" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -4207,10 +4196,18 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
+      <c r="AK24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
@@ -4272,20 +4269,20 @@
     </row>
     <row r="25" spans="1:98">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F25" s="22">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
@@ -4383,18 +4380,21 @@
       <c r="CT25" s="1"/>
     </row>
     <row r="26" spans="1:98">
+      <c r="A26">
+        <v>9</v>
+      </c>
       <c r="B26" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
@@ -4492,21 +4492,18 @@
       <c r="CT26" s="1"/>
     </row>
     <row r="27" spans="1:98">
-      <c r="A27">
+      <c r="B27" s="22">
         <v>10</v>
       </c>
-      <c r="B27" s="22">
-        <v>11</v>
-      </c>
       <c r="C27" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
@@ -4605,13 +4602,13 @@
     </row>
     <row r="28" spans="1:98">
       <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" s="22">
         <v>11</v>
       </c>
-      <c r="B28" s="22">
-        <v>12</v>
-      </c>
       <c r="C28" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4620,23 +4617,13 @@
       <c r="F28" s="22">
         <v>2</v>
       </c>
-      <c r="G28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$88,$A$88-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$88,$A$88-$A28+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$88,$A$88-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$88,$A$88-$A28+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>149</v>
-      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -4726,26 +4713,39 @@
       <c r="CT28" s="1"/>
     </row>
     <row r="29" spans="1:98">
+      <c r="A29">
+        <v>11</v>
+      </c>
       <c r="B29" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="22">
-        <v>3</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="23">
+        <f>IFERROR( HLOOKUP("BE",L29:BF$89,$A$89-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$89,$A$89-$A29+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
+        <f>IFERROR( HLOOKUP("BE",L29:BF$89,$A$89-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$89,$A$89-$A29+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="I29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="J29" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -4834,71 +4834,76 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
     </row>
-    <row r="30" spans="1:98" s="20" customFormat="1">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="21"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="21"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="21"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="21"/>
-      <c r="BG30" s="21"/>
-      <c r="BH30" s="21"/>
+    <row r="30" spans="1:98">
+      <c r="B30" s="22">
+        <v>13</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="22">
+        <v>3</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
       <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
@@ -4938,91 +4943,71 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
     </row>
-    <row r="31" spans="1:98">
+    <row r="31" spans="1:98" s="20" customFormat="1">
       <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31" s="22">
-        <v>13</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
@@ -5063,24 +5048,33 @@
       <c r="CT31" s="1"/>
     </row>
     <row r="32" spans="1:98">
-      <c r="B32" s="22"/>
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="22">
+        <v>13</v>
+      </c>
       <c r="C32" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F32" s="22">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+      <c r="J32" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -5105,10 +5099,18 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
+      <c r="AJ32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
@@ -5170,39 +5172,24 @@
       <c r="CT32" s="1"/>
     </row>
     <row r="33" spans="1:98">
-      <c r="A33">
-        <v>14</v>
-      </c>
-      <c r="B33" s="22">
-        <v>14</v>
-      </c>
+      <c r="B33" s="22"/>
       <c r="C33" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="22">
-        <v>1</v>
-      </c>
-      <c r="G33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$88,$A$88-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",L28:BF$88,$A$88-$A33+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
-        <f>IFERROR( HLOOKUP("BE",L28:BF$88,$A$88-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",L28:BF$88,$A$88-$A33+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>149</v>
-      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -5228,21 +5215,11 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO33" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -5303,32 +5280,38 @@
     </row>
     <row r="34" spans="1:98">
       <c r="A34">
-        <v>15</v>
-      </c>
-      <c r="B34" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="B34" s="22">
+        <v>14</v>
+      </c>
       <c r="C34" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F34" s="22">
         <v>1</v>
       </c>
       <c r="G34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$88,$A$88-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L34:BF$88,$A$88-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$89,$A$89-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",L29:BF$89,$A$89-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="23">
-        <f>IFERROR( HLOOKUP("BE",L34:BF$88,$A$88-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L34:BF$88,$A$88-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L29:BF$89,$A$89-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",L29:BF$89,$A$89-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="J34" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -5354,11 +5337,21 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
+      <c r="AK34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -5417,69 +5410,83 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
     </row>
-    <row r="35" spans="1:98" s="20" customFormat="1">
-      <c r="A35"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
-      <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="21"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="21"/>
-      <c r="BG35" s="21"/>
-      <c r="BH35" s="21"/>
+    <row r="35" spans="1:98">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
+      <c r="G35" s="23">
+        <f>IFERROR( HLOOKUP("BE",L35:BF$89,$A$89-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",L35:BF$89,$A$89-$A35+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="23">
+        <f>IFERROR( HLOOKUP("BE",L35:BF$89,$A$89-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",L35:BF$89,$A$89-$A35+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
@@ -5519,97 +5526,69 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
     </row>
-    <row r="36" spans="1:98" ht="30">
-      <c r="A36">
-        <v>16</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="23">
-        <f>IFERROR( HLOOKUP("BE",L36:BF$88,$A$88-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",L36:BF$88,$A$88-$A36+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
-        <f>IFERROR( HLOOKUP("BE",L36:BF$88,$A$88-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",L36:BF$88,$A$88-$A36+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
+    <row r="36" spans="1:98" s="20" customFormat="1">
+      <c r="A36"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
+      <c r="AT36" s="21"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="21"/>
+      <c r="BA36" s="21"/>
+      <c r="BB36" s="21"/>
+      <c r="BC36" s="21"/>
+      <c r="BD36" s="21"/>
+      <c r="BE36" s="21"/>
+      <c r="BF36" s="21"/>
+      <c r="BG36" s="21"/>
+      <c r="BH36" s="21"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
@@ -5651,26 +5630,36 @@
     </row>
     <row r="37" spans="1:98" ht="30">
       <c r="A37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F37" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+        <v>0.8</v>
+      </c>
+      <c r="G37" s="23">
+        <f>IFERROR( HLOOKUP("BE",L37:BF$89,$A$89-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",L37:BF$89,$A$89-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <f>IFERROR( HLOOKUP("BE",L37:BF$89,$A$89-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",L37:BF$89,$A$89-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="I37" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="J37" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -5696,11 +5685,21 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
+      <c r="AK37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -5760,14 +5759,19 @@
       <c r="CT37" s="1"/>
     </row>
     <row r="38" spans="1:98" ht="30">
+      <c r="A38">
+        <v>17</v>
+      </c>
       <c r="B38" s="22"/>
       <c r="C38" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="F38" s="22">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
@@ -5864,38 +5868,25 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
     </row>
-    <row r="39" spans="1:98">
-      <c r="A39">
-        <v>18</v>
-      </c>
+    <row r="39" spans="1:98" ht="30">
       <c r="B39" s="22"/>
       <c r="C39" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="22"/>
+        <v>186</v>
+      </c>
+      <c r="D39" s="60"/>
       <c r="E39" s="22" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F39" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="G39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$88,$A$88-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",L39:BF$88,$A$88-$A39+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="23">
-        <f>IFERROR( HLOOKUP("BE",L39:BF$88,$A$88-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",L39:BF$88,$A$88-$A39+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>149</v>
-      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -5921,21 +5912,11 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
-      <c r="AK39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO39" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
@@ -5996,32 +5977,36 @@
     </row>
     <row r="40" spans="1:98">
       <c r="A40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F40" s="22">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G40" s="23">
-        <f>IFERROR( HLOOKUP("BE",L40:BF$88,$A$88-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$88,$A$88-$A40+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L40:BF$89,$A$89-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",L40:BF$89,$A$89-$A40+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="23">
-        <f>IFERROR( HLOOKUP("BE",L40:BF$88,$A$88-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$88,$A$88-$A40+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L40:BF$89,$A$89-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",L40:BF$89,$A$89-$A40+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
+      <c r="J40" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -6035,37 +6020,33 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE40" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
+      <c r="AK40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
@@ -6125,17 +6106,26 @@
       <c r="CT40" s="1"/>
     </row>
     <row r="41" spans="1:98">
+      <c r="A41">
+        <v>19</v>
+      </c>
       <c r="B41" s="22"/>
-      <c r="C41" s="27"/>
+      <c r="C41" s="27" t="s">
+        <v>172</v>
+      </c>
       <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="E41" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1.2</v>
+      </c>
       <c r="G41" s="23">
-        <f>IFERROR( HLOOKUP("BE",L41:BF$88,$A$88-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",L41:BF$88,$A$88-$A41+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L41:BF$89,$A$89-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",L41:BF$89,$A$89-$A41+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="23">
-        <f>IFERROR( HLOOKUP("BE",L41:BF$88,$A$88-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",L41:BF$88,$A$88-$A41+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L41:BF$89,$A$89-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",L41:BF$89,$A$89-$A41+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I41" s="23" t="s">
@@ -6156,13 +6146,27 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
+      <c r="Y41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -6231,71 +6235,74 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
     </row>
-    <row r="42" spans="1:98" s="20" customFormat="1">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="21"/>
-      <c r="AJ42" s="21"/>
-      <c r="AK42" s="21"/>
-      <c r="AL42" s="21"/>
-      <c r="AM42" s="21"/>
-      <c r="AN42" s="21"/>
-      <c r="AO42" s="21"/>
-      <c r="AP42" s="21"/>
-      <c r="AQ42" s="21"/>
-      <c r="AR42" s="21"/>
-      <c r="AS42" s="21"/>
-      <c r="AT42" s="21"/>
-      <c r="AU42" s="21"/>
-      <c r="AV42" s="21"/>
-      <c r="AW42" s="21"/>
-      <c r="AX42" s="21"/>
-      <c r="AY42" s="21"/>
-      <c r="AZ42" s="21"/>
-      <c r="BA42" s="21"/>
-      <c r="BB42" s="21"/>
-      <c r="BC42" s="21"/>
-      <c r="BD42" s="21"/>
-      <c r="BE42" s="21"/>
-      <c r="BF42" s="21"/>
-      <c r="BG42" s="21"/>
-      <c r="BH42" s="21"/>
+    <row r="42" spans="1:98">
+      <c r="B42" s="22"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23">
+        <f>IFERROR( HLOOKUP("BE",L42:BF$89,$A$89-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",L42:BF$89,$A$89-$A42+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="23">
+        <f>IFERROR( HLOOKUP("BE",L42:BF$89,$A$89-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",L42:BF$89,$A$89-$A42+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
@@ -6335,77 +6342,71 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
     </row>
-    <row r="43" spans="1:98">
+    <row r="43" spans="1:98" s="20" customFormat="1">
       <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="21"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="21"/>
+      <c r="AV43" s="21"/>
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="21"/>
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="21"/>
+      <c r="BA43" s="21"/>
+      <c r="BB43" s="21"/>
+      <c r="BC43" s="21"/>
+      <c r="BD43" s="21"/>
+      <c r="BE43" s="21"/>
+      <c r="BF43" s="21"/>
+      <c r="BG43" s="21"/>
+      <c r="BH43" s="21"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
@@ -6446,25 +6447,22 @@
       <c r="CT43" s="1"/>
     </row>
     <row r="44" spans="1:98">
+      <c r="A44">
+        <v>21</v>
+      </c>
       <c r="B44" s="22"/>
       <c r="C44" s="27" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="22">
-        <v>2</v>
-      </c>
-      <c r="G44" s="23">
-        <f>IFERROR( HLOOKUP("BE",L44:BF$88,$A$88-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",L44:BF$88,$A$88-$A44+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
-        <f>IFERROR( HLOOKUP("BE",L44:BF$88,$A$88-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",L44:BF$88,$A$88-$A44+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F44" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
         <v>37</v>
       </c>
@@ -6476,21 +6474,11 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -6569,12 +6557,9 @@
       <c r="CT44" s="1"/>
     </row>
     <row r="45" spans="1:98">
-      <c r="A45">
-        <v>22</v>
-      </c>
       <c r="B45" s="22"/>
       <c r="C45" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22" t="s">
@@ -6584,11 +6569,11 @@
         <v>2</v>
       </c>
       <c r="G45" s="23">
-        <f>IFERROR( HLOOKUP("BE",L45:BF$88,$A$88-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",L45:BF$88,$A$88-$A45+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L45:BF$89,$A$89-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",L45:BF$89,$A$89-$A45+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H45" s="23">
-        <f>IFERROR( HLOOKUP("BE",L45:BF$88,$A$88-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",L45:BF$88,$A$88-$A45+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L45:BF$89,$A$89-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",L45:BF$89,$A$89-$A45+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I45" s="23" t="s">
@@ -6601,11 +6586,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>45</v>
@@ -6617,11 +6600,9 @@
         <v>45</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W45" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
@@ -6700,21 +6681,27 @@
     </row>
     <row r="46" spans="1:98">
       <c r="A46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="27" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="22">
-        <v>1</v>
-      </c>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="23">
+        <f>IFERROR( HLOOKUP("BE",L46:BF$89,$A$89-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",L46:BF$89,$A$89-$A46+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="23">
+        <f>IFERROR( HLOOKUP("BE",L46:BF$89,$A$89-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",L46:BF$89,$A$89-$A46+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="I46" s="23" t="s">
         <v>37</v>
       </c>
@@ -6725,13 +6712,27 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
+      <c r="Q46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
@@ -6808,10 +6809,13 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
     </row>
-    <row r="47" spans="1:98" ht="30">
+    <row r="47" spans="1:98">
+      <c r="A47">
+        <v>23</v>
+      </c>
       <c r="B47" s="22"/>
       <c r="C47" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
@@ -6915,20 +6919,17 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
     </row>
-    <row r="48" spans="1:98">
-      <c r="A48">
-        <v>24</v>
-      </c>
+    <row r="48" spans="1:98" ht="30">
       <c r="B48" s="22"/>
       <c r="C48" s="27" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F48" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
@@ -7027,11 +7028,11 @@
     </row>
     <row r="49" spans="1:98">
       <c r="A49">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22" t="s">
@@ -7136,9 +7137,12 @@
       <c r="CT49" s="1"/>
     </row>
     <row r="50" spans="1:98">
+      <c r="A50">
+        <v>25</v>
+      </c>
       <c r="B50" s="22"/>
       <c r="C50" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22" t="s">
@@ -7147,14 +7151,8 @@
       <c r="F50" s="22">
         <v>2</v>
       </c>
-      <c r="G50" s="23">
-        <f>IFERROR( HLOOKUP("BE",L50:BF$88,$A$88-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",L50:BF$88,$A$88-$A50+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
-        <f>IFERROR( HLOOKUP("BE",L50:BF$88,$A$88-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",L50:BF$88,$A$88-$A50+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="23" t="s">
         <v>37</v>
       </c>
@@ -7171,21 +7169,11 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
@@ -7258,71 +7246,90 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
     </row>
-    <row r="51" spans="1:98" s="20" customFormat="1">
-      <c r="A51">
-        <v>26</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
-      <c r="AE51" s="21"/>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="21"/>
-      <c r="AH51" s="21"/>
-      <c r="AI51" s="21"/>
-      <c r="AJ51" s="21"/>
-      <c r="AK51" s="21"/>
-      <c r="AL51" s="21"/>
-      <c r="AM51" s="21"/>
-      <c r="AN51" s="21"/>
-      <c r="AO51" s="21"/>
-      <c r="AP51" s="21"/>
-      <c r="AQ51" s="21"/>
-      <c r="AR51" s="21"/>
-      <c r="AS51" s="21"/>
-      <c r="AT51" s="21"/>
-      <c r="AU51" s="21"/>
-      <c r="AV51" s="21"/>
-      <c r="AW51" s="21"/>
-      <c r="AX51" s="21"/>
-      <c r="AY51" s="21"/>
-      <c r="AZ51" s="21"/>
-      <c r="BA51" s="21"/>
-      <c r="BB51" s="21"/>
-      <c r="BC51" s="21"/>
-      <c r="BD51" s="21"/>
-      <c r="BE51" s="21"/>
-      <c r="BF51" s="21"/>
-      <c r="BG51" s="21"/>
-      <c r="BH51" s="21"/>
+    <row r="51" spans="1:98">
+      <c r="B51" s="22"/>
+      <c r="C51" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="22">
+        <v>2</v>
+      </c>
+      <c r="G51" s="23">
+        <f>IFERROR( HLOOKUP("BE",L51:BF$89,$A$89-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",L51:BF$89,$A$89-$A51+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="23">
+        <f>IFERROR( HLOOKUP("BE",L51:BF$89,$A$89-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",L51:BF$89,$A$89-$A51+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
       <c r="BI51" s="1"/>
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
@@ -7362,71 +7369,71 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
     </row>
-    <row r="52" spans="1:98">
+    <row r="52" spans="1:98" s="20" customFormat="1">
       <c r="A52">
-        <v>27</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="1"/>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AU52" s="1"/>
-      <c r="AV52" s="1"/>
-      <c r="AW52" s="1"/>
-      <c r="AX52" s="1"/>
-      <c r="AY52" s="1"/>
-      <c r="AZ52" s="1"/>
-      <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
-      <c r="BC52" s="1"/>
-      <c r="BD52" s="1"/>
-      <c r="BE52" s="1"/>
-      <c r="BF52" s="1"/>
-      <c r="BG52" s="1"/>
-      <c r="BH52" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="21"/>
+      <c r="AQ52" s="21"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="21"/>
+      <c r="AT52" s="21"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="21"/>
+      <c r="AY52" s="21"/>
+      <c r="AZ52" s="21"/>
+      <c r="BA52" s="21"/>
+      <c r="BB52" s="21"/>
+      <c r="BC52" s="21"/>
+      <c r="BD52" s="21"/>
+      <c r="BE52" s="21"/>
+      <c r="BF52" s="21"/>
+      <c r="BG52" s="21"/>
+      <c r="BH52" s="21"/>
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
@@ -7467,28 +7474,19 @@
       <c r="CT52" s="1"/>
     </row>
     <row r="53" spans="1:98">
+      <c r="A53">
+        <v>27</v>
+      </c>
       <c r="B53" s="22"/>
-      <c r="C53" s="27" t="s">
-        <v>165</v>
+      <c r="C53" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="D53" s="22"/>
-      <c r="E53" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="22">
-        <v>2</v>
-      </c>
-      <c r="G53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$88,$A$88-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",L53:BF$88,$A$88-$A53+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="23">
-        <f>IFERROR( HLOOKUP("BE",L53:BF$88,$A$88-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",L53:BF$88,$A$88-$A53+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="1"/>
@@ -7507,24 +7505,12 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
-      <c r="AB53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG53" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -7591,13 +7577,10 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
     </row>
-    <row r="54" spans="1:98" ht="30">
-      <c r="A54">
-        <v>28</v>
-      </c>
+    <row r="54" spans="1:98">
       <c r="B54" s="22"/>
       <c r="C54" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="s">
@@ -7606,8 +7589,14 @@
       <c r="F54" s="22">
         <v>2</v>
       </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="G54" s="23">
+        <f>IFERROR( HLOOKUP("BE",L54:BF$89,$A$89-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",L54:BF$89,$A$89-$A54+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <f>IFERROR( HLOOKUP("BE",L54:BF$89,$A$89-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",L54:BF$89,$A$89-$A54+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="I54" s="23" t="s">
         <v>37</v>
       </c>
@@ -7629,12 +7618,24 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
+      <c r="AB54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
@@ -7703,11 +7704,11 @@
     </row>
     <row r="55" spans="1:98" ht="30">
       <c r="A55">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22" t="s">
@@ -7716,14 +7717,8 @@
       <c r="F55" s="22">
         <v>2</v>
       </c>
-      <c r="G55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$88,$A$88-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",L55:BF$88,$A$88-$A55+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="23">
-        <f>IFERROR( HLOOKUP("BE",L55:BF$88,$A$88-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",L55:BF$88,$A$88-$A55+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="23" t="s">
         <v>37</v>
       </c>
@@ -7747,24 +7742,12 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI55" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
@@ -7829,17 +7812,32 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
     </row>
-    <row r="56" spans="1:98">
+    <row r="56" spans="1:98" ht="30">
+      <c r="A56">
+        <v>29</v>
+      </c>
       <c r="B56" s="22"/>
-      <c r="C56" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="C56" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="22">
+        <v>2</v>
+      </c>
+      <c r="G56" s="23">
+        <f>IFERROR( HLOOKUP("BE",L56:BF$89,$A$89-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",L56:BF$89,$A$89-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
+        <f>IFERROR( HLOOKUP("BE",L56:BF$89,$A$89-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",L56:BF$89,$A$89-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
       <c r="L56" s="1"/>
@@ -7860,12 +7858,24 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
+      <c r="AD56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
@@ -7931,31 +7941,16 @@
       <c r="CT56" s="1"/>
     </row>
     <row r="57" spans="1:98">
-      <c r="A57">
-        <v>30</v>
-      </c>
       <c r="B57" s="22"/>
-      <c r="C57" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" s="22">
-        <v>2</v>
-      </c>
-      <c r="G57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$88,$A$88-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",L57:BF$88,$A$88-$A57+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
-        <f>IFERROR( HLOOKUP("BE",L57:BF$88,$A$88-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",L57:BF$88,$A$88-$A57+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="C57" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="1"/>
@@ -7974,24 +7969,12 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
-      <c r="AB57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG57" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
@@ -8060,18 +8043,30 @@
     </row>
     <row r="58" spans="1:98">
       <c r="A58">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
+      <c r="C58" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="22">
+        <v>2</v>
+      </c>
+      <c r="G58" s="23">
+        <f>IFERROR( HLOOKUP("BE",L58:BF$89,$A$89-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",L58:BF$89,$A$89-$A58+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
+        <f>IFERROR( HLOOKUP("BE",L58:BF$89,$A$89-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",L58:BF$89,$A$89-$A58+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="1"/>
@@ -8090,12 +8085,24 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
+      <c r="AB58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG58" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
@@ -8162,46 +8169,27 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
     </row>
-    <row r="59" spans="1:98" ht="30">
+    <row r="59" spans="1:98">
+      <c r="A59">
+        <v>31</v>
+      </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" s="22">
-        <v>2</v>
-      </c>
-      <c r="G59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$88,$A$88-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",L59:BF$88,$A$88-$A59+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="23">
-        <f>IFERROR( HLOOKUP("BE",L59:BF$88,$A$88-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",L59:BF$88,$A$88-$A59+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>128</v>
-      </c>
+      <c r="C59" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -8286,12 +8274,9 @@
       <c r="CT59" s="1"/>
     </row>
     <row r="60" spans="1:98" ht="30">
-      <c r="A60">
-        <v>32</v>
-      </c>
       <c r="B60" s="22"/>
       <c r="C60" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
@@ -8301,11 +8286,11 @@
         <v>2</v>
       </c>
       <c r="G60" s="23">
-        <f>IFERROR( HLOOKUP("BE",L60:BF$88,$A$88-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",L60:BF$88,$A$88-$A60+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L60:BF$89,$A$89-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",L60:BF$89,$A$89-$A60+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H60" s="23">
-        <f>IFERROR( HLOOKUP("BE",L60:BF$88,$A$88-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",L60:BF$88,$A$88-$A60+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L60:BF$89,$A$89-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",L60:BF$89,$A$89-$A60+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I60" s="23" t="s">
@@ -8413,11 +8398,11 @@
     </row>
     <row r="61" spans="1:98" ht="30">
       <c r="A61">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="27" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="22" t="s">
@@ -8427,11 +8412,11 @@
         <v>2</v>
       </c>
       <c r="G61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$88,$A$88-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$88,$A$88-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$89,$A$89-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",L61:BF$89,$A$89-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="23">
-        <f>IFERROR( HLOOKUP("BE",L61:BF$88,$A$88-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$88,$A$88-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L61:BF$89,$A$89-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",L61:BF$89,$A$89-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I61" s="23" t="s">
@@ -8537,69 +8522,93 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
     </row>
-    <row r="62" spans="1:98" s="20" customFormat="1" hidden="1">
-      <c r="A62"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
-      <c r="AB62" s="21"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="21"/>
-      <c r="AE62" s="21"/>
-      <c r="AF62" s="21"/>
-      <c r="AG62" s="21"/>
-      <c r="AH62" s="21"/>
-      <c r="AI62" s="21"/>
-      <c r="AJ62" s="21"/>
-      <c r="AK62" s="21"/>
-      <c r="AL62" s="21"/>
-      <c r="AM62" s="21"/>
-      <c r="AN62" s="21"/>
-      <c r="AO62" s="21"/>
-      <c r="AP62" s="21"/>
-      <c r="AQ62" s="21"/>
-      <c r="AR62" s="21"/>
-      <c r="AS62" s="21"/>
-      <c r="AT62" s="21"/>
-      <c r="AU62" s="21"/>
-      <c r="AV62" s="21"/>
-      <c r="AW62" s="21"/>
-      <c r="AX62" s="21"/>
-      <c r="AY62" s="21"/>
-      <c r="AZ62" s="21"/>
-      <c r="BA62" s="21"/>
-      <c r="BB62" s="21"/>
-      <c r="BC62" s="21"/>
-      <c r="BD62" s="21"/>
-      <c r="BE62" s="21"/>
-      <c r="BF62" s="21"/>
-      <c r="BG62" s="21"/>
-      <c r="BH62" s="21"/>
+    <row r="62" spans="1:98" ht="30">
+      <c r="A62">
+        <v>33</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="22">
+        <v>2</v>
+      </c>
+      <c r="G62" s="23">
+        <f>IFERROR( HLOOKUP("BE",L62:BF$89,$A$89-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",L62:BF$89,$A$89-$A62+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="23">
+        <f>IFERROR( HLOOKUP("BE",L62:BF$89,$A$89-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",L62:BF$89,$A$89-$A62+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
       <c r="BI62" s="1"/>
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
@@ -8639,79 +8648,69 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
     </row>
-    <row r="63" spans="1:98" hidden="1">
-      <c r="A63">
-        <v>34</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$88,$A$88-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",L63:BF$88,$A$88-$A63+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="23">
-        <f>IFERROR( HLOOKUP("BE",L63:BF$88,$A$88-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",L63:BF$88,$A$88-$A63+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AR63" s="1"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="1"/>
-      <c r="AU63" s="1"/>
-      <c r="AV63" s="1"/>
-      <c r="AW63" s="1"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1"/>
-      <c r="AZ63" s="1"/>
-      <c r="BA63" s="1"/>
-      <c r="BB63" s="1"/>
-      <c r="BC63" s="1"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
+    <row r="63" spans="1:98" s="20" customFormat="1" hidden="1">
+      <c r="A63"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="21"/>
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="21"/>
+      <c r="AG63" s="21"/>
+      <c r="AH63" s="21"/>
+      <c r="AI63" s="21"/>
+      <c r="AJ63" s="21"/>
+      <c r="AK63" s="21"/>
+      <c r="AL63" s="21"/>
+      <c r="AM63" s="21"/>
+      <c r="AN63" s="21"/>
+      <c r="AO63" s="21"/>
+      <c r="AP63" s="21"/>
+      <c r="AQ63" s="21"/>
+      <c r="AR63" s="21"/>
+      <c r="AS63" s="21"/>
+      <c r="AT63" s="21"/>
+      <c r="AU63" s="21"/>
+      <c r="AV63" s="21"/>
+      <c r="AW63" s="21"/>
+      <c r="AX63" s="21"/>
+      <c r="AY63" s="21"/>
+      <c r="AZ63" s="21"/>
+      <c r="BA63" s="21"/>
+      <c r="BB63" s="21"/>
+      <c r="BC63" s="21"/>
+      <c r="BD63" s="21"/>
+      <c r="BE63" s="21"/>
+      <c r="BF63" s="21"/>
+      <c r="BG63" s="21"/>
+      <c r="BH63" s="21"/>
       <c r="BI63" s="1"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
@@ -8751,71 +8750,79 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
     </row>
-    <row r="64" spans="1:98" s="20" customFormat="1" hidden="1">
+    <row r="64" spans="1:98" hidden="1">
       <c r="A64">
+        <v>34</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="23">
+        <f>IFERROR( HLOOKUP("BE",L64:BF$89,$A$89-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",L64:BF$89,$A$89-$A64+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="23">
+        <f>IFERROR( HLOOKUP("BE",L64:BF$89,$A$89-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",L64:BF$89,$A$89-$A64+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
-      <c r="AB64" s="21"/>
-      <c r="AC64" s="21"/>
-      <c r="AD64" s="21"/>
-      <c r="AE64" s="21"/>
-      <c r="AF64" s="21"/>
-      <c r="AG64" s="21"/>
-      <c r="AH64" s="21"/>
-      <c r="AI64" s="21"/>
-      <c r="AJ64" s="21"/>
-      <c r="AK64" s="21"/>
-      <c r="AL64" s="21"/>
-      <c r="AM64" s="21"/>
-      <c r="AN64" s="21"/>
-      <c r="AO64" s="21"/>
-      <c r="AP64" s="21"/>
-      <c r="AQ64" s="21"/>
-      <c r="AR64" s="21"/>
-      <c r="AS64" s="21"/>
-      <c r="AT64" s="21"/>
-      <c r="AU64" s="21"/>
-      <c r="AV64" s="21"/>
-      <c r="AW64" s="21"/>
-      <c r="AX64" s="21"/>
-      <c r="AY64" s="21"/>
-      <c r="AZ64" s="21"/>
-      <c r="BA64" s="21"/>
-      <c r="BB64" s="21"/>
-      <c r="BC64" s="21"/>
-      <c r="BD64" s="21"/>
-      <c r="BE64" s="21"/>
-      <c r="BF64" s="21"/>
-      <c r="BG64" s="21"/>
-      <c r="BH64" s="21"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
       <c r="BI64" s="1"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
@@ -8855,72 +8862,71 @@
       <c r="CS64" s="1"/>
       <c r="CT64" s="1"/>
     </row>
-    <row r="65" spans="1:98" hidden="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$88,$A$88-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",L65:BF$88,$A$88-$A65+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="23">
-        <f>IFERROR( HLOOKUP("BE",L65:BF$88,$A$88-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",L65:BF$88,$A$88-$A65+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-      <c r="AP65" s="1"/>
-      <c r="AQ65" s="1"/>
-      <c r="AR65" s="1"/>
-      <c r="AS65" s="1"/>
-      <c r="AT65" s="1"/>
-      <c r="AU65" s="1"/>
-      <c r="AV65" s="1"/>
-      <c r="AW65" s="1"/>
-      <c r="AX65" s="1"/>
-      <c r="AY65" s="1"/>
-      <c r="AZ65" s="1"/>
-      <c r="BA65" s="1"/>
-      <c r="BB65" s="1"/>
-      <c r="BC65" s="1"/>
-      <c r="BD65" s="1"/>
-      <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
-      <c r="BG65" s="1"/>
-      <c r="BH65" s="1"/>
+    <row r="65" spans="1:98" s="20" customFormat="1" hidden="1">
+      <c r="A65">
+        <v>35</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AQ65" s="21"/>
+      <c r="AR65" s="21"/>
+      <c r="AS65" s="21"/>
+      <c r="AT65" s="21"/>
+      <c r="AU65" s="21"/>
+      <c r="AV65" s="21"/>
+      <c r="AW65" s="21"/>
+      <c r="AX65" s="21"/>
+      <c r="AY65" s="21"/>
+      <c r="AZ65" s="21"/>
+      <c r="BA65" s="21"/>
+      <c r="BB65" s="21"/>
+      <c r="BC65" s="21"/>
+      <c r="BD65" s="21"/>
+      <c r="BE65" s="21"/>
+      <c r="BF65" s="21"/>
+      <c r="BG65" s="21"/>
+      <c r="BH65" s="21"/>
       <c r="BI65" s="1"/>
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
@@ -8961,20 +8967,17 @@
       <c r="CT65" s="1"/>
     </row>
     <row r="66" spans="1:98" hidden="1">
-      <c r="A66">
-        <v>36</v>
-      </c>
       <c r="B66" s="22"/>
-      <c r="C66" s="27"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="23">
-        <f>IFERROR( HLOOKUP("BE",L66:BF$88,$A$88-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$88,$A$88-$A66+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L66:BF$89,$A$89-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",L66:BF$89,$A$89-$A66+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="23">
-        <f>IFERROR( HLOOKUP("BE",L66:BF$88,$A$88-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$88,$A$88-$A66+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L66:BF$89,$A$89-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",L66:BF$89,$A$89-$A66+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I66" s="23"/>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="67" spans="1:98" hidden="1">
       <c r="A67">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="27"/>
@@ -9078,11 +9081,11 @@
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="23">
-        <f>IFERROR( HLOOKUP("BE",L67:BF$88,$A$88-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",L67:BF$88,$A$88-$A67+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L67:BF$89,$A$89-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",L67:BF$89,$A$89-$A67+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H67" s="23">
-        <f>IFERROR( HLOOKUP("BE",L67:BF$88,$A$88-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",L67:BF$88,$A$88-$A67+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L67:BF$89,$A$89-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",L67:BF$89,$A$89-$A67+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I67" s="23"/>
@@ -9176,69 +9179,75 @@
       <c r="CS67" s="1"/>
       <c r="CT67" s="1"/>
     </row>
-    <row r="68" spans="1:98" s="20" customFormat="1" hidden="1">
-      <c r="A68"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21"/>
-      <c r="AD68" s="21"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="21"/>
-      <c r="AG68" s="21"/>
-      <c r="AH68" s="21"/>
-      <c r="AI68" s="21"/>
-      <c r="AJ68" s="21"/>
-      <c r="AK68" s="21"/>
-      <c r="AL68" s="21"/>
-      <c r="AM68" s="21"/>
-      <c r="AN68" s="21"/>
-      <c r="AO68" s="21"/>
-      <c r="AP68" s="21"/>
-      <c r="AQ68" s="21"/>
-      <c r="AR68" s="21"/>
-      <c r="AS68" s="21"/>
-      <c r="AT68" s="21"/>
-      <c r="AU68" s="21"/>
-      <c r="AV68" s="21"/>
-      <c r="AW68" s="21"/>
-      <c r="AX68" s="21"/>
-      <c r="AY68" s="21"/>
-      <c r="AZ68" s="21"/>
-      <c r="BA68" s="21"/>
-      <c r="BB68" s="21"/>
-      <c r="BC68" s="21"/>
-      <c r="BD68" s="21"/>
-      <c r="BE68" s="21"/>
-      <c r="BF68" s="21"/>
-      <c r="BG68" s="21"/>
-      <c r="BH68" s="21"/>
+    <row r="68" spans="1:98" hidden="1">
+      <c r="A68">
+        <v>37</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="23">
+        <f>IFERROR( HLOOKUP("BE",L68:BF$89,$A$89-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",L68:BF$89,$A$89-$A68+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="23">
+        <f>IFERROR( HLOOKUP("BE",L68:BF$89,$A$89-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",L68:BF$89,$A$89-$A68+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="23"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
       <c r="BI68" s="1"/>
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1"/>
@@ -9278,75 +9287,69 @@
       <c r="CS68" s="1"/>
       <c r="CT68" s="1"/>
     </row>
-    <row r="69" spans="1:98" hidden="1">
-      <c r="A69">
-        <v>38</v>
-      </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$88,$A$88-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",L69:BF$88,$A$88-$A69+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="23">
-        <f>IFERROR( HLOOKUP("BE",L69:BF$88,$A$88-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",L69:BF$88,$A$88-$A69+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
-      <c r="AS69" s="1"/>
-      <c r="AT69" s="1"/>
-      <c r="AU69" s="1"/>
-      <c r="AV69" s="1"/>
-      <c r="AW69" s="1"/>
-      <c r="AX69" s="1"/>
-      <c r="AY69" s="1"/>
-      <c r="AZ69" s="1"/>
-      <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
-      <c r="BF69" s="1"/>
-      <c r="BG69" s="1"/>
-      <c r="BH69" s="1"/>
+    <row r="69" spans="1:98" s="20" customFormat="1" hidden="1">
+      <c r="A69"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="21"/>
+      <c r="AC69" s="21"/>
+      <c r="AD69" s="21"/>
+      <c r="AE69" s="21"/>
+      <c r="AF69" s="21"/>
+      <c r="AG69" s="21"/>
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="21"/>
+      <c r="AK69" s="21"/>
+      <c r="AL69" s="21"/>
+      <c r="AM69" s="21"/>
+      <c r="AN69" s="21"/>
+      <c r="AO69" s="21"/>
+      <c r="AP69" s="21"/>
+      <c r="AQ69" s="21"/>
+      <c r="AR69" s="21"/>
+      <c r="AS69" s="21"/>
+      <c r="AT69" s="21"/>
+      <c r="AU69" s="21"/>
+      <c r="AV69" s="21"/>
+      <c r="AW69" s="21"/>
+      <c r="AX69" s="21"/>
+      <c r="AY69" s="21"/>
+      <c r="AZ69" s="21"/>
+      <c r="BA69" s="21"/>
+      <c r="BB69" s="21"/>
+      <c r="BC69" s="21"/>
+      <c r="BD69" s="21"/>
+      <c r="BE69" s="21"/>
+      <c r="BF69" s="21"/>
+      <c r="BG69" s="21"/>
+      <c r="BH69" s="21"/>
       <c r="BI69" s="1"/>
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1"/>
@@ -9388,19 +9391,19 @@
     </row>
     <row r="70" spans="1:98" hidden="1">
       <c r="A70">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="22"/>
-      <c r="C70" s="27"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$88,$A$88-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$88,$A$88-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$89,$A$89-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",L70:BF$89,$A$89-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="23">
-        <f>IFERROR( HLOOKUP("BE",L70:BF$88,$A$88-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$88,$A$88-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L70:BF$89,$A$89-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",L70:BF$89,$A$89-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I70" s="23"/>
@@ -9494,69 +9497,75 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
     </row>
-    <row r="71" spans="1:98" s="20" customFormat="1" hidden="1">
-      <c r="A71"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="21"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
-      <c r="AA71" s="21"/>
-      <c r="AB71" s="21"/>
-      <c r="AC71" s="21"/>
-      <c r="AD71" s="21"/>
-      <c r="AE71" s="21"/>
-      <c r="AF71" s="21"/>
-      <c r="AG71" s="21"/>
-      <c r="AH71" s="21"/>
-      <c r="AI71" s="21"/>
-      <c r="AJ71" s="21"/>
-      <c r="AK71" s="21"/>
-      <c r="AL71" s="21"/>
-      <c r="AM71" s="21"/>
-      <c r="AN71" s="21"/>
-      <c r="AO71" s="21"/>
-      <c r="AP71" s="21"/>
-      <c r="AQ71" s="21"/>
-      <c r="AR71" s="21"/>
-      <c r="AS71" s="21"/>
-      <c r="AT71" s="21"/>
-      <c r="AU71" s="21"/>
-      <c r="AV71" s="21"/>
-      <c r="AW71" s="21"/>
-      <c r="AX71" s="21"/>
-      <c r="AY71" s="21"/>
-      <c r="AZ71" s="21"/>
-      <c r="BA71" s="21"/>
-      <c r="BB71" s="21"/>
-      <c r="BC71" s="21"/>
-      <c r="BD71" s="21"/>
-      <c r="BE71" s="21"/>
-      <c r="BF71" s="21"/>
-      <c r="BG71" s="21"/>
-      <c r="BH71" s="21"/>
+    <row r="71" spans="1:98" hidden="1">
+      <c r="A71">
+        <v>39</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="23">
+        <f>IFERROR( HLOOKUP("BE",L71:BF$89,$A$89-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",L71:BF$89,$A$89-$A71+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="23">
+        <f>IFERROR( HLOOKUP("BE",L71:BF$89,$A$89-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",L71:BF$89,$A$89-$A71+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -9596,77 +9605,69 @@
       <c r="CS71" s="1"/>
       <c r="CT71" s="1"/>
     </row>
-    <row r="72" spans="1:98" hidden="1">
-      <c r="A72">
-        <v>40</v>
-      </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$88,$A$88-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",L72:BF$88,$A$88-$A72+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="23">
-        <f>IFERROR( HLOOKUP("BE",L72:BF$88,$A$88-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",L72:BF$88,$A$88-$A72+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
-      <c r="AN72" s="1"/>
-      <c r="AO72" s="1"/>
-      <c r="AP72" s="1"/>
-      <c r="AQ72" s="1"/>
-      <c r="AR72" s="1"/>
-      <c r="AS72" s="1"/>
-      <c r="AT72" s="1"/>
-      <c r="AU72" s="1"/>
-      <c r="AV72" s="1"/>
-      <c r="AW72" s="1"/>
-      <c r="AX72" s="1"/>
-      <c r="AY72" s="1"/>
-      <c r="AZ72" s="1"/>
-      <c r="BA72" s="1"/>
-      <c r="BB72" s="1"/>
-      <c r="BC72" s="1"/>
-      <c r="BD72" s="1"/>
-      <c r="BE72" s="1"/>
-      <c r="BF72" s="1"/>
-      <c r="BG72" s="1"/>
-      <c r="BH72" s="1"/>
+    <row r="72" spans="1:98" s="20" customFormat="1" hidden="1">
+      <c r="A72"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="21"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="21"/>
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="21"/>
+      <c r="AK72" s="21"/>
+      <c r="AL72" s="21"/>
+      <c r="AM72" s="21"/>
+      <c r="AN72" s="21"/>
+      <c r="AO72" s="21"/>
+      <c r="AP72" s="21"/>
+      <c r="AQ72" s="21"/>
+      <c r="AR72" s="21"/>
+      <c r="AS72" s="21"/>
+      <c r="AT72" s="21"/>
+      <c r="AU72" s="21"/>
+      <c r="AV72" s="21"/>
+      <c r="AW72" s="21"/>
+      <c r="AX72" s="21"/>
+      <c r="AY72" s="21"/>
+      <c r="AZ72" s="21"/>
+      <c r="BA72" s="21"/>
+      <c r="BB72" s="21"/>
+      <c r="BC72" s="21"/>
+      <c r="BD72" s="21"/>
+      <c r="BE72" s="21"/>
+      <c r="BF72" s="21"/>
+      <c r="BG72" s="21"/>
+      <c r="BH72" s="21"/>
       <c r="BI72" s="1"/>
       <c r="BJ72" s="1"/>
       <c r="BK72" s="1"/>
@@ -9708,21 +9709,21 @@
     </row>
     <row r="73" spans="1:98" hidden="1">
       <c r="A73">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B73" s="22"/>
-      <c r="C73" s="50" t="s">
-        <v>139</v>
+      <c r="C73" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="23">
-        <f>IFERROR( HLOOKUP("BE",L73:BF$88,$A$88-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$88,$A$88-$A73+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L73:BF$89,$A$89-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",L73:BF$89,$A$89-$A73+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H73" s="23">
-        <f>IFERROR( HLOOKUP("BE",L73:BF$88,$A$88-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$88,$A$88-$A73+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L73:BF$89,$A$89-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",L73:BF$89,$A$89-$A73+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I73" s="23"/>
@@ -9817,19 +9818,22 @@
       <c r="CT73" s="1"/>
     </row>
     <row r="74" spans="1:98" hidden="1">
+      <c r="A74">
+        <v>41</v>
+      </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="34" t="s">
-        <v>56</v>
+      <c r="C74" s="50" t="s">
+        <v>139</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$88,$A$88-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$88,$A$88-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$89,$A$89-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",L74:BF$89,$A$89-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <f>IFERROR( HLOOKUP("BE",L74:BF$88,$A$88-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$88,$A$88-$A74+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L74:BF$89,$A$89-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",L74:BF$89,$A$89-$A74+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I74" s="23"/>
@@ -9924,22 +9928,19 @@
       <c r="CT74" s="1"/>
     </row>
     <row r="75" spans="1:98" hidden="1">
-      <c r="A75">
-        <v>42</v>
-      </c>
       <c r="B75" s="22"/>
-      <c r="C75" s="27" t="s">
-        <v>141</v>
+      <c r="C75" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$88,$A$88-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$88,$A$88-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$89,$A$89-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",L75:BF$89,$A$89-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H75" s="23">
-        <f>IFERROR( HLOOKUP("BE",L75:BF$88,$A$88-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$88,$A$88-$A75+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L75:BF$89,$A$89-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",L75:BF$89,$A$89-$A75+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="23"/>
@@ -10035,21 +10036,21 @@
     </row>
     <row r="76" spans="1:98" hidden="1">
       <c r="A76">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$88,$A$88-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$88,$A$88-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$89,$A$89-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",L76:BF$89,$A$89-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H76" s="23">
-        <f>IFERROR( HLOOKUP("BE",L76:BF$88,$A$88-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$88,$A$88-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L76:BF$89,$A$89-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",L76:BF$89,$A$89-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I76" s="23"/>
@@ -10144,19 +10145,22 @@
       <c r="CT76" s="1"/>
     </row>
     <row r="77" spans="1:98" hidden="1">
+      <c r="A77">
+        <v>43</v>
+      </c>
       <c r="B77" s="22"/>
       <c r="C77" s="27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$88,$A$88-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$88,$A$88-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$89,$A$89-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",L77:BF$89,$A$89-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H77" s="23">
-        <f>IFERROR( HLOOKUP("BE",L77:BF$88,$A$88-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$88,$A$88-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L77:BF$89,$A$89-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",L77:BF$89,$A$89-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I77" s="23"/>
@@ -10251,22 +10255,19 @@
       <c r="CT77" s="1"/>
     </row>
     <row r="78" spans="1:98" hidden="1">
-      <c r="A78">
-        <v>44</v>
-      </c>
       <c r="B78" s="22"/>
-      <c r="C78" s="34" t="s">
-        <v>142</v>
+      <c r="C78" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$88,$A$88-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$88,$A$88-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$89,$A$89-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",L78:BF$89,$A$89-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H78" s="23">
-        <f>IFERROR( HLOOKUP("BE",L78:BF$88,$A$88-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$88,$A$88-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L78:BF$89,$A$89-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",L78:BF$89,$A$89-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="23"/>
@@ -10362,19 +10363,21 @@
     </row>
     <row r="79" spans="1:98" hidden="1">
       <c r="A79">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="22"/>
-      <c r="C79" s="34"/>
+      <c r="C79" s="34" t="s">
+        <v>142</v>
+      </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$88,$A$88-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$88,$A$88-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$89,$A$89-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",L79:BF$89,$A$89-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H79" s="23">
-        <f>IFERROR( HLOOKUP("BE",L79:BF$88,$A$88-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$88,$A$88-$A79+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L79:BF$89,$A$89-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",L79:BF$89,$A$89-$A79+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I79" s="23"/>
@@ -10469,17 +10472,20 @@
       <c r="CT79" s="1"/>
     </row>
     <row r="80" spans="1:98" hidden="1">
+      <c r="A80">
+        <v>45</v>
+      </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="33"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$88,$A$88-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$88,$A$88-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$89,$A$89-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",L80:BF$89,$A$89-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H80" s="23">
-        <f>IFERROR( HLOOKUP("BE",L80:BF$88,$A$88-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$88,$A$88-$A80+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L80:BF$89,$A$89-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",L80:BF$89,$A$89-$A80+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="23"/>
@@ -10574,20 +10580,17 @@
       <c r="CT80" s="1"/>
     </row>
     <row r="81" spans="1:98" hidden="1">
-      <c r="A81">
-        <v>46</v>
-      </c>
       <c r="B81" s="22"/>
       <c r="C81" s="33"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$88,$A$88-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$88,$A$88-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$89,$A$89-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",L81:BF$89,$A$89-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H81" s="23">
-        <f>IFERROR( HLOOKUP("BE",L81:BF$88,$A$88-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$88,$A$88-$A81+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L81:BF$89,$A$89-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",L81:BF$89,$A$89-$A81+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I81" s="23"/>
@@ -10683,21 +10686,19 @@
     </row>
     <row r="82" spans="1:98" hidden="1">
       <c r="A82">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="22"/>
-      <c r="C82" s="34" t="s">
-        <v>143</v>
-      </c>
+      <c r="C82" s="33"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$88,$A$88-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$88,$A$88-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$89,$A$89-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",L82:BF$89,$A$89-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H82" s="23">
-        <f>IFERROR( HLOOKUP("BE",L82:BF$88,$A$88-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$88,$A$88-$A82+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L82:BF$89,$A$89-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",L82:BF$89,$A$89-$A82+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I82" s="23"/>
@@ -10792,17 +10793,22 @@
       <c r="CT82" s="1"/>
     </row>
     <row r="83" spans="1:98" hidden="1">
+      <c r="A83">
+        <v>47</v>
+      </c>
       <c r="B83" s="22"/>
-      <c r="C83" s="27"/>
+      <c r="C83" s="34" t="s">
+        <v>143</v>
+      </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$88,$A$88-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$88,$A$88-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$89,$A$89-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("B",L83:BF$89,$A$89-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H83" s="23">
-        <f>IFERROR( HLOOKUP("BE",L83:BF$88,$A$88-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$88,$A$88-$A83+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L83:BF$89,$A$89-$A83+1,FALSE),0)+ IFERROR( HLOOKUP("E",L83:BF$89,$A$89-$A83+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I83" s="23"/>
@@ -10897,20 +10903,17 @@
       <c r="CT83" s="1"/>
     </row>
     <row r="84" spans="1:98" hidden="1">
-      <c r="A84">
-        <v>48</v>
-      </c>
       <c r="B84" s="22"/>
       <c r="C84" s="27"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$88,$A$88-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$88,$A$88-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$89,$A$89-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("B",L84:BF$89,$A$89-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H84" s="23">
-        <f>IFERROR( HLOOKUP("BE",L84:BF$88,$A$88-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$88,$A$88-$A84+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L84:BF$89,$A$89-$A84+1,FALSE),0)+ IFERROR( HLOOKUP("E",L84:BF$89,$A$89-$A84+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I84" s="23"/>
@@ -11006,7 +11009,7 @@
     </row>
     <row r="85" spans="1:98" hidden="1">
       <c r="A85">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="27"/>
@@ -11014,11 +11017,11 @@
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
       <c r="G85" s="23">
-        <f>IFERROR( HLOOKUP("BE",L85:BF$88,$A$88-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("B",L85:BF$88,$A$88-$A85+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L85:BF$89,$A$89-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("B",L85:BF$89,$A$89-$A85+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H85" s="23">
-        <f>IFERROR( HLOOKUP("BE",L85:BF$88,$A$88-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("E",L85:BF$88,$A$88-$A85+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",L85:BF$89,$A$89-$A85+1,FALSE),0)+ IFERROR( HLOOKUP("E",L85:BF$89,$A$89-$A85+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I85" s="23"/>
@@ -11112,319 +11115,426 @@
       <c r="CS85" s="1"/>
       <c r="CT85" s="1"/>
     </row>
-    <row r="86" spans="1:98" s="20" customFormat="1">
-      <c r="A86"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="28" t="s">
+    <row r="86" spans="1:98" hidden="1">
+      <c r="A86">
+        <v>49</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23">
+        <f>IFERROR( HLOOKUP("BE",L86:BF$89,$A$89-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("B",L86:BF$89,$A$89-$A86+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="23">
+        <f>IFERROR( HLOOKUP("BE",L86:BF$89,$A$89-$A86+1,FALSE),0)+ IFERROR( HLOOKUP("E",L86:BF$89,$A$89-$A86+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="23"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="1"/>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
+      <c r="CT86" s="1"/>
+    </row>
+    <row r="87" spans="1:98" s="20" customFormat="1">
+      <c r="A87"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="21"/>
-      <c r="Y86" s="21"/>
-      <c r="Z86" s="21"/>
-      <c r="AA86" s="21"/>
-      <c r="AB86" s="21"/>
-      <c r="AC86" s="21"/>
-      <c r="AD86" s="21"/>
-      <c r="AE86" s="21"/>
-      <c r="AF86" s="21"/>
-      <c r="AG86" s="21"/>
-      <c r="AH86" s="21"/>
-      <c r="AI86" s="21"/>
-      <c r="AJ86" s="21"/>
-      <c r="AK86" s="21"/>
-      <c r="AL86" s="21"/>
-      <c r="AM86" s="21"/>
-      <c r="AN86" s="21"/>
-      <c r="AO86" s="21"/>
-      <c r="AP86" s="21"/>
-      <c r="AQ86" s="21"/>
-      <c r="AR86" s="21"/>
-      <c r="AS86" s="21"/>
-      <c r="AT86" s="21"/>
-      <c r="AU86" s="21"/>
-      <c r="AV86" s="21"/>
-      <c r="AW86" s="21"/>
-      <c r="AX86" s="21"/>
-      <c r="AY86" s="21"/>
-      <c r="AZ86" s="21"/>
-      <c r="BA86" s="21"/>
-      <c r="BB86" s="21"/>
-      <c r="BC86" s="21"/>
-      <c r="BD86" s="21"/>
-      <c r="BE86" s="21"/>
-      <c r="BF86" s="21"/>
-      <c r="BG86" s="21"/>
-      <c r="BH86" s="21"/>
-      <c r="BI86" s="21"/>
-      <c r="BJ86" s="21"/>
-      <c r="BK86" s="21"/>
-      <c r="BL86" s="21"/>
-      <c r="BM86" s="21"/>
-      <c r="BN86" s="21"/>
-      <c r="BO86" s="21"/>
-      <c r="BP86" s="21"/>
-      <c r="BQ86" s="21"/>
-      <c r="BR86" s="21"/>
-      <c r="BS86" s="21"/>
-      <c r="BT86" s="21"/>
-      <c r="BU86" s="21"/>
-      <c r="BV86" s="21"/>
-      <c r="BW86" s="21"/>
-      <c r="BX86" s="21"/>
-      <c r="BY86" s="21"/>
-      <c r="BZ86" s="21"/>
-      <c r="CA86" s="21"/>
-      <c r="CB86" s="21"/>
-      <c r="CC86" s="21"/>
-      <c r="CD86" s="21"/>
-      <c r="CE86" s="21"/>
-      <c r="CF86" s="21"/>
-      <c r="CG86" s="21"/>
-      <c r="CH86" s="21"/>
-      <c r="CI86" s="21"/>
-      <c r="CJ86" s="21"/>
-      <c r="CK86" s="21"/>
-      <c r="CL86" s="21"/>
-      <c r="CM86" s="21"/>
-      <c r="CN86" s="21"/>
-      <c r="CO86" s="21"/>
-      <c r="CP86" s="21"/>
-      <c r="CQ86" s="21"/>
-      <c r="CR86" s="21"/>
-      <c r="CS86" s="21"/>
-      <c r="CT86" s="21"/>
-    </row>
-    <row r="87" spans="1:98">
-      <c r="A87">
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
+      <c r="AL87" s="21"/>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="21"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="21"/>
+      <c r="AR87" s="21"/>
+      <c r="AS87" s="21"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="21"/>
+      <c r="AW87" s="21"/>
+      <c r="AX87" s="21"/>
+      <c r="AY87" s="21"/>
+      <c r="AZ87" s="21"/>
+      <c r="BA87" s="21"/>
+      <c r="BB87" s="21"/>
+      <c r="BC87" s="21"/>
+      <c r="BD87" s="21"/>
+      <c r="BE87" s="21"/>
+      <c r="BF87" s="21"/>
+      <c r="BG87" s="21"/>
+      <c r="BH87" s="21"/>
+      <c r="BI87" s="21"/>
+      <c r="BJ87" s="21"/>
+      <c r="BK87" s="21"/>
+      <c r="BL87" s="21"/>
+      <c r="BM87" s="21"/>
+      <c r="BN87" s="21"/>
+      <c r="BO87" s="21"/>
+      <c r="BP87" s="21"/>
+      <c r="BQ87" s="21"/>
+      <c r="BR87" s="21"/>
+      <c r="BS87" s="21"/>
+      <c r="BT87" s="21"/>
+      <c r="BU87" s="21"/>
+      <c r="BV87" s="21"/>
+      <c r="BW87" s="21"/>
+      <c r="BX87" s="21"/>
+      <c r="BY87" s="21"/>
+      <c r="BZ87" s="21"/>
+      <c r="CA87" s="21"/>
+      <c r="CB87" s="21"/>
+      <c r="CC87" s="21"/>
+      <c r="CD87" s="21"/>
+      <c r="CE87" s="21"/>
+      <c r="CF87" s="21"/>
+      <c r="CG87" s="21"/>
+      <c r="CH87" s="21"/>
+      <c r="CI87" s="21"/>
+      <c r="CJ87" s="21"/>
+      <c r="CK87" s="21"/>
+      <c r="CL87" s="21"/>
+      <c r="CM87" s="21"/>
+      <c r="CN87" s="21"/>
+      <c r="CO87" s="21"/>
+      <c r="CP87" s="21"/>
+      <c r="CQ87" s="21"/>
+      <c r="CR87" s="21"/>
+      <c r="CS87" s="21"/>
+      <c r="CT87" s="21"/>
+    </row>
+    <row r="88" spans="1:98">
+      <c r="A88">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:98" s="24" customFormat="1">
-      <c r="A88">
+    <row r="89" spans="1:98" s="24" customFormat="1">
+      <c r="A89">
         <v>51</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C89" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="L88" s="25">
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="L89" s="25">
         <f>L11</f>
         <v>41030</v>
       </c>
-      <c r="M88" s="25">
-        <f t="shared" ref="M88:BF88" si="45">M11</f>
+      <c r="M89" s="25">
+        <f t="shared" ref="M89:BF89" si="45">M11</f>
         <v>41031</v>
       </c>
-      <c r="N88" s="25">
+      <c r="N89" s="25">
         <f t="shared" si="45"/>
         <v>41032</v>
       </c>
-      <c r="O88" s="25">
+      <c r="O89" s="25">
         <f t="shared" si="45"/>
         <v>41033</v>
       </c>
-      <c r="P88" s="25">
+      <c r="P89" s="25">
         <f t="shared" si="45"/>
         <v>41034</v>
       </c>
-      <c r="Q88" s="25">
+      <c r="Q89" s="25">
         <f t="shared" si="45"/>
         <v>41035</v>
       </c>
-      <c r="R88" s="25">
+      <c r="R89" s="25">
         <f t="shared" si="45"/>
         <v>41036</v>
       </c>
-      <c r="S88" s="25">
+      <c r="S89" s="25">
         <f t="shared" si="45"/>
         <v>41037</v>
       </c>
-      <c r="T88" s="25">
+      <c r="T89" s="25">
         <f t="shared" si="45"/>
         <v>41038</v>
       </c>
-      <c r="U88" s="25">
+      <c r="U89" s="25">
         <f t="shared" si="45"/>
         <v>41039</v>
       </c>
-      <c r="V88" s="25">
+      <c r="V89" s="25">
         <f t="shared" si="45"/>
         <v>41040</v>
       </c>
-      <c r="W88" s="25">
+      <c r="W89" s="25">
         <f t="shared" si="45"/>
         <v>41041</v>
       </c>
-      <c r="X88" s="25">
+      <c r="X89" s="25">
         <f t="shared" si="45"/>
         <v>41042</v>
       </c>
-      <c r="Y88" s="25">
+      <c r="Y89" s="25">
         <f t="shared" si="45"/>
         <v>41043</v>
       </c>
-      <c r="Z88" s="25">
+      <c r="Z89" s="25">
         <f t="shared" si="45"/>
         <v>41044</v>
       </c>
-      <c r="AA88" s="25">
+      <c r="AA89" s="25">
         <f t="shared" si="45"/>
         <v>41045</v>
       </c>
-      <c r="AB88" s="25">
+      <c r="AB89" s="25">
         <f t="shared" si="45"/>
         <v>41046</v>
       </c>
-      <c r="AC88" s="25">
+      <c r="AC89" s="25">
         <f t="shared" si="45"/>
         <v>41047</v>
       </c>
-      <c r="AD88" s="25">
+      <c r="AD89" s="25">
         <f t="shared" si="45"/>
         <v>41048</v>
       </c>
-      <c r="AE88" s="25">
+      <c r="AE89" s="25">
         <f t="shared" si="45"/>
         <v>41049</v>
       </c>
-      <c r="AF88" s="25">
+      <c r="AF89" s="25">
         <f t="shared" si="45"/>
         <v>41050</v>
       </c>
-      <c r="AG88" s="25">
+      <c r="AG89" s="25">
         <f t="shared" si="45"/>
         <v>41051</v>
       </c>
-      <c r="AH88" s="25">
+      <c r="AH89" s="25">
         <f t="shared" si="45"/>
         <v>41052</v>
       </c>
-      <c r="AI88" s="25">
+      <c r="AI89" s="25">
         <f t="shared" si="45"/>
         <v>41053</v>
       </c>
-      <c r="AJ88" s="25">
+      <c r="AJ89" s="25">
         <f t="shared" si="45"/>
         <v>41054</v>
       </c>
-      <c r="AK88" s="25">
+      <c r="AK89" s="25">
         <f t="shared" si="45"/>
         <v>41055</v>
       </c>
-      <c r="AL88" s="25">
+      <c r="AL89" s="25">
         <f t="shared" si="45"/>
         <v>41056</v>
       </c>
-      <c r="AM88" s="25">
+      <c r="AM89" s="25">
         <f t="shared" si="45"/>
         <v>41057</v>
       </c>
-      <c r="AN88" s="25">
+      <c r="AN89" s="25">
         <f t="shared" si="45"/>
         <v>41058</v>
       </c>
-      <c r="AO88" s="25">
+      <c r="AO89" s="25">
         <f t="shared" si="45"/>
         <v>41059</v>
       </c>
-      <c r="AP88" s="25">
+      <c r="AP89" s="25">
         <f t="shared" si="45"/>
         <v>41060</v>
       </c>
-      <c r="AQ88" s="25">
+      <c r="AQ89" s="25">
         <f t="shared" si="45"/>
         <v>41061</v>
       </c>
-      <c r="AR88" s="25">
+      <c r="AR89" s="25">
         <f t="shared" si="45"/>
         <v>41062</v>
       </c>
-      <c r="AS88" s="25">
+      <c r="AS89" s="25">
         <f t="shared" si="45"/>
         <v>41063</v>
       </c>
-      <c r="AT88" s="25">
+      <c r="AT89" s="25">
         <f t="shared" si="45"/>
         <v>41064</v>
       </c>
-      <c r="AU88" s="25">
+      <c r="AU89" s="25">
         <f t="shared" si="45"/>
         <v>41065</v>
       </c>
-      <c r="AV88" s="25">
+      <c r="AV89" s="25">
         <f t="shared" si="45"/>
         <v>41066</v>
       </c>
-      <c r="AW88" s="25">
+      <c r="AW89" s="25">
         <f t="shared" si="45"/>
         <v>41067</v>
       </c>
-      <c r="AX88" s="25">
+      <c r="AX89" s="25">
         <f t="shared" si="45"/>
         <v>41068</v>
       </c>
-      <c r="AY88" s="25">
+      <c r="AY89" s="25">
         <f t="shared" si="45"/>
         <v>41069</v>
       </c>
-      <c r="AZ88" s="25">
+      <c r="AZ89" s="25">
         <f t="shared" si="45"/>
         <v>41070</v>
       </c>
-      <c r="BA88" s="25">
+      <c r="BA89" s="25">
         <f t="shared" si="45"/>
         <v>41071</v>
       </c>
-      <c r="BB88" s="25">
+      <c r="BB89" s="25">
         <f t="shared" si="45"/>
         <v>41072</v>
       </c>
-      <c r="BC88" s="25">
+      <c r="BC89" s="25">
         <f t="shared" si="45"/>
         <v>41073</v>
       </c>
-      <c r="BD88" s="25">
+      <c r="BD89" s="25">
         <f t="shared" si="45"/>
         <v>41074</v>
       </c>
-      <c r="BE88" s="25">
+      <c r="BE89" s="25">
         <f t="shared" si="45"/>
         <v>41075</v>
       </c>
-      <c r="BF88" s="25">
+      <c r="BF89" s="25">
         <f t="shared" si="45"/>
         <v>41076</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E554" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A12:BG88">
+  <autoFilter ref="A12:BG89">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
   </autoFilter>
-  <conditionalFormatting sqref="L87:AY87 L63:BF63 L65:BF85 L52:BF61 L13:BF17 L19:BF21 BI19:CT85 L23:BF50">
+  <conditionalFormatting sqref="L88:AY88 L64:BF64 L66:BF86 L53:BF62 L13:BF18 L20:BF22 BI20:CT86 L24:BF51">
     <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -11435,29 +11545,29 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63:BF63 L65:BF85 L52:BF61 L13:BF17 L19:BF21 BI19:CT85 L23:BF50">
+  <conditionalFormatting sqref="L64:BF64 L66:BF86 L53:BF62 L13:BF18 L20:BF22 BI20:CT86 L24:BF51">
     <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63 I65:I85 I19:I21 I13:I17 I23:I29 I31:I34 I36:I41 I43:I50 I52:I55 I57 I59:I61">
+  <conditionalFormatting sqref="I64 I66:I86 I20:I22 I13:I18 I24:I30 I32:I35 I37:I42 I44:I51 I53:I56 I58 I60:I62">
     <cfRule type="cellIs" dxfId="14" priority="122" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I21 I63 I65:I85 I13:I17 I23:I29 I31:I34 I36:I41 I43:I50 I52:I55 I57 I59:I61">
+  <conditionalFormatting sqref="I20:I22 I64 I66:I86 I13:I18 I24:I30 I32:I35 I37:I42 I44:I51 I53:I56 I58 I60:I62">
     <cfRule type="expression" dxfId="13" priority="131">
       <formula>AND(I13&lt;&gt;$F$5,$H13&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:E86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87:E87">
       <formula1>thanh_vien</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I69:I70 I36:I41 I23:I29 I13:I21 I72:I85 I31:I34 I43:I50 I65:I67 I63 I52:I61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I70:I71 I37:I42 I24:I30 I13:I22 I73:I86 I32:I35 I44:I51 I66:I68 I64 I53:I62">
       <formula1>$F$2:$F$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D30 D40:D85 E13:E85 D32:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D31 D41:D86 E13:E86 D33:D39">
       <formula1>members</formula1>
     </dataValidation>
   </dataValidations>
@@ -11471,8 +11581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12572,4 +12682,38 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="36">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="36">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>